--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="1GB" sheetId="2" r:id="rId1"/>
-    <sheet name="LR" sheetId="7" r:id="rId2"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId3"/>
+    <sheet name="alignment test" sheetId="8" r:id="rId2"/>
+    <sheet name="LR" sheetId="7" r:id="rId3"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -212,6 +213,27 @@
   </si>
   <si>
     <t>total (7000000)</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>force 2M alignment of libraries</t>
+  </si>
+  <si>
+    <t>shared PTPs</t>
+  </si>
+  <si>
+    <t>1G 2j</t>
+  </si>
+  <si>
+    <t>1G 1j</t>
+  </si>
+  <si>
+    <t>force/base</t>
+  </si>
+  <si>
+    <t>shared/base</t>
   </si>
 </sst>
 </file>
@@ -299,19 +321,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -597,17 +622,17 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="42.6640625" style="3"/>
   </cols>
@@ -619,33 +644,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -656,19 +681,19 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>145993.62463199999</v>
       </c>
       <c r="C4" s="3">
         <v>1167948997060</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>151694.92680399999</v>
       </c>
       <c r="E4" s="3">
         <v>1213559414430</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>147050.44406899999</v>
       </c>
       <c r="G4" s="3">
@@ -679,19 +704,19 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>13.591039500000001</v>
       </c>
       <c r="C5" s="3">
         <v>108728316</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>29.122707375000001</v>
       </c>
       <c r="E5" s="3">
         <v>232981659</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>12.435398624999999</v>
       </c>
       <c r="G5" s="3">
@@ -702,19 +727,19 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>4.5775798749999996</v>
       </c>
       <c r="C6" s="3">
         <v>36620639</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>17.074865687500001</v>
       </c>
       <c r="E6" s="3">
         <v>136598925.5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>3.5362865000000001</v>
       </c>
       <c r="G6" s="3">
@@ -725,19 +750,19 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>4.5771398124999996</v>
       </c>
       <c r="C7" s="3">
         <v>36617118.5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>17.074861062499998</v>
       </c>
       <c r="E7" s="3">
         <v>136598888.5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>3.5356533749999999</v>
       </c>
       <c r="G7" s="3">
@@ -745,25 +770,25 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>145940.75660399999</v>
       </c>
       <c r="C9" s="3">
         <v>1167526052840</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>151915.34424199999</v>
       </c>
       <c r="E9" s="3">
         <v>1215322753940</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>147122.22117100001</v>
       </c>
       <c r="G9" s="3">
@@ -774,19 +799,19 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>4.8231249999999999E-4</v>
       </c>
       <c r="C10" s="3">
         <v>3858.5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1.14375E-5</v>
       </c>
       <c r="E10" s="3">
         <v>91.5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>7.796875E-4</v>
       </c>
       <c r="G10" s="3">
@@ -797,19 +822,19 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="C11" s="3">
         <v>27</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="E11" s="3">
         <v>27</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="G11" s="3">
@@ -820,19 +845,19 @@
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>46.517503812500003</v>
       </c>
       <c r="C12" s="3">
         <v>372140030.5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>613.87337418699997</v>
       </c>
       <c r="E12" s="3">
         <v>4910986993.5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>45.454881937499998</v>
       </c>
       <c r="G12" s="3">
@@ -840,25 +865,25 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>145790.089393</v>
       </c>
       <c r="C14" s="3">
         <v>1166320715140</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>152037.97592200001</v>
       </c>
       <c r="E14" s="3">
         <v>1216303807370</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>147011.13771800001</v>
       </c>
       <c r="G14" s="3">
@@ -869,19 +894,19 @@
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>366.09604124999998</v>
       </c>
       <c r="C15" s="3">
         <v>2928768330</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1257.73267313</v>
       </c>
       <c r="E15" s="3">
         <v>10061861385</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>400.332799438</v>
       </c>
       <c r="G15" s="3">
@@ -892,19 +917,19 @@
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="3">
@@ -915,19 +940,19 @@
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>133386.42149499999</v>
       </c>
       <c r="C17" s="3">
         <v>1067091371960</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>146730.96722600001</v>
       </c>
       <c r="E17" s="3">
         <v>1173847737800</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>135732.71883900001</v>
       </c>
       <c r="G17" s="3">
@@ -935,25 +960,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>146029.19568500001</v>
       </c>
       <c r="C19" s="3">
         <v>1168233565480</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>151827.26446999999</v>
       </c>
       <c r="E19" s="3">
         <v>1214618115760</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>146331.316723</v>
       </c>
       <c r="G19" s="3">
@@ -964,19 +989,19 @@
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>23964.339151100001</v>
       </c>
       <c r="C20" s="3">
         <v>191714713208</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>26870.877729899999</v>
       </c>
       <c r="E20" s="3">
         <v>214967021840</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>24078.1630549</v>
       </c>
       <c r="G20" s="3">
@@ -987,19 +1012,19 @@
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>29393.6968437</v>
       </c>
       <c r="C21" s="3">
         <v>235149574750</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>32371.334365300001</v>
       </c>
       <c r="E21" s="3">
         <v>258970674922</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>29511.239284899999</v>
       </c>
       <c r="G21" s="3">
@@ -1010,19 +1035,19 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>36921.814270000003</v>
       </c>
       <c r="C22" s="3">
         <v>295374514160</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>40004.782532099998</v>
       </c>
       <c r="E22" s="3">
         <v>320038260257</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>37024.523390100003</v>
       </c>
       <c r="G22" s="3">
@@ -1030,25 +1055,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>145948.06063200001</v>
       </c>
       <c r="C24" s="3">
         <v>1167584485050</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>152805.54539799999</v>
       </c>
       <c r="E24" s="3">
         <v>1222444363180</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>146157.017551</v>
       </c>
       <c r="G24" s="3">
@@ -1059,19 +1084,19 @@
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>43694.3472521</v>
       </c>
       <c r="C25" s="3">
         <v>349554778016</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>47592.242384199999</v>
       </c>
       <c r="E25" s="3">
         <v>380737939074</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>43789.709430100003</v>
       </c>
       <c r="G25" s="3">
@@ -1082,19 +1107,19 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>29096.1750416</v>
       </c>
       <c r="C26" s="3">
         <v>232769400333</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>29098.026615899998</v>
       </c>
       <c r="E26" s="3">
         <v>232784212927</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>29095.992427500001</v>
       </c>
       <c r="G26" s="3">
@@ -1105,19 +1130,19 @@
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>2.3611301875000001</v>
       </c>
       <c r="C27" s="3">
         <v>18889041.5</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>10.516632812499999</v>
       </c>
       <c r="E27" s="3">
         <v>84133062.5</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>2.3740259374999999</v>
       </c>
       <c r="G27" s="3">
@@ -1125,25 +1150,25 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>145769.41538600001</v>
       </c>
       <c r="C29" s="3">
         <v>1166155323090</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>151686.916914</v>
       </c>
       <c r="E29" s="3">
         <v>1213495335310</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>146924.60766499999</v>
       </c>
       <c r="G29" s="3">
@@ -1154,19 +1179,19 @@
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>3.7245841875000001</v>
       </c>
       <c r="C30" s="3">
         <v>29796673.5</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>11.107981125</v>
       </c>
       <c r="E30" s="3">
         <v>88863849</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>3.6189936249999999</v>
       </c>
       <c r="G30" s="3">
@@ -1177,19 +1202,19 @@
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>2.4255953125</v>
       </c>
       <c r="C31" s="3">
         <v>19404762.5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>10.415671187499999</v>
       </c>
       <c r="E31" s="3">
         <v>83325369.5</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>2.5792907500000002</v>
       </c>
       <c r="G31" s="3">
@@ -1200,19 +1225,19 @@
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>1.2823309375</v>
       </c>
       <c r="C32" s="3">
         <v>10258647.5</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>7.7965574999999996</v>
       </c>
       <c r="E32" s="3">
         <v>62372460</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>1.3380743749999999</v>
       </c>
       <c r="G32" s="3">
@@ -1220,25 +1245,25 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="6"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>146499.444494</v>
       </c>
       <c r="C34" s="3">
         <v>1171995555950</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>151912.647008</v>
       </c>
       <c r="E34" s="3">
         <v>1215301176060</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>146109.13954999999</v>
       </c>
       <c r="G34" s="3">
@@ -1249,19 +1274,19 @@
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>1.1782068125</v>
       </c>
       <c r="C35" s="3">
         <v>9425654.5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>2.6632609999999999</v>
       </c>
       <c r="E35" s="3">
         <v>21306088</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>1.2190464999999999</v>
       </c>
       <c r="G35" s="3">
@@ -1272,19 +1297,19 @@
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="C36" s="3">
         <v>27</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="E36" s="3">
         <v>27</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>4.1875000000000001E-6</v>
       </c>
       <c r="G36" s="3">
@@ -1295,19 +1320,19 @@
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>2263.3466252500002</v>
       </c>
       <c r="C37" s="3">
         <v>18106773002</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>2336.50883763</v>
       </c>
       <c r="E37" s="3">
         <v>18692070701</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>2272.61397356</v>
       </c>
       <c r="G37" s="3">
@@ -1315,25 +1340,25 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F38" s="6"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>146075.785458</v>
       </c>
       <c r="C39" s="3">
         <v>1168606283660</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>152509.80844699999</v>
       </c>
       <c r="E39" s="3">
         <v>1220078467580</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>146225.39822100001</v>
       </c>
       <c r="G39" s="3">
@@ -1344,19 +1369,19 @@
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>228.22401475000001</v>
       </c>
       <c r="C40" s="3">
         <v>1825792118</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>805.57885124999996</v>
       </c>
       <c r="E40" s="3">
         <v>6444630810</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>226.215279125</v>
       </c>
       <c r="G40" s="3">
@@ -1367,19 +1392,19 @@
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>6.6600976875000004</v>
       </c>
       <c r="C41" s="3">
         <v>53280781.5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>11.135187875</v>
       </c>
       <c r="E41" s="3">
         <v>89081503</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>5.8365411250000001</v>
       </c>
       <c r="G41" s="3">
@@ -1390,19 +1415,19 @@
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>0.199364875</v>
       </c>
       <c r="C42" s="3">
         <v>1594919</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>0.30285600000000001</v>
       </c>
       <c r="E42" s="3">
         <v>2422848</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>0.193229875</v>
       </c>
       <c r="G42" s="3">
@@ -1410,25 +1435,25 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F43" s="6"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>146010.24333200001</v>
       </c>
       <c r="C44" s="3">
         <v>1168081946660</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>152530.38626500001</v>
       </c>
       <c r="E44" s="3">
         <v>1220243090120</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>146927.559068</v>
       </c>
       <c r="G44" s="3">
@@ -1439,19 +1464,19 @@
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>4.4104499999999998E-2</v>
       </c>
       <c r="C45" s="3">
         <v>352836</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>0.228482875</v>
       </c>
       <c r="E45" s="3">
         <v>1827863</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>2.4215E-2</v>
       </c>
       <c r="G45" s="3">
@@ -1462,19 +1487,19 @@
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>4.4101874999999999E-2</v>
       </c>
       <c r="C46" s="3">
         <v>352815</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>0.2284125625</v>
       </c>
       <c r="E46" s="3">
         <v>1827300.5</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>2.42095625E-2</v>
       </c>
       <c r="G46" s="3">
@@ -1485,19 +1510,19 @@
       <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>6.9375000000000001E-6</v>
       </c>
       <c r="C47" s="3">
         <v>55.5</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>7.3875000000000007E-5</v>
       </c>
       <c r="E47" s="3">
         <v>591</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="G47" s="3">
@@ -1505,25 +1530,25 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F48" s="6"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>146702.326329</v>
       </c>
       <c r="C49" s="3">
         <v>1173618610630</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>151751.526518</v>
       </c>
       <c r="E49" s="3">
         <v>1214012212140</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>146029.50209299999</v>
       </c>
       <c r="G49" s="3">
@@ -1534,19 +1559,19 @@
       <c r="A50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>3.7500000000000001E-6</v>
       </c>
       <c r="C50" s="3">
         <v>30</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="E50" s="3">
         <v>27</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="G50" s="3">
@@ -1557,19 +1582,19 @@
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>506.36459031300001</v>
       </c>
       <c r="C51" s="3">
         <v>4050916722.5</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>507.11190349999998</v>
       </c>
       <c r="E51" s="3">
         <v>4056895228</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>508.907056813</v>
       </c>
       <c r="G51" s="3">
@@ -1580,19 +1605,19 @@
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>9.3467985000000002</v>
       </c>
       <c r="C52" s="3">
         <v>74774388</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>21.476178375</v>
       </c>
       <c r="E52" s="3">
         <v>171809427</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>9.6774743749999992</v>
       </c>
       <c r="G52" s="3">
@@ -1600,25 +1625,25 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F53" s="6"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>146013.80974299999</v>
       </c>
       <c r="C54" s="3">
         <v>1168110477950</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>151900.736061</v>
       </c>
       <c r="E54" s="3">
         <v>1215205888490</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>146411.28494899999</v>
       </c>
       <c r="G54" s="3">
@@ -1629,19 +1654,19 @@
       <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>4.7904999999999996E-3</v>
       </c>
       <c r="C55" s="3">
         <v>38324</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>6.2110000000000004E-3</v>
       </c>
       <c r="E55" s="3">
         <v>49688</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>7.3532500000000004E-3</v>
       </c>
       <c r="G55" s="3">
@@ -1652,19 +1677,19 @@
       <c r="A56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>102452.337214</v>
       </c>
       <c r="C56" s="3">
         <v>819618697713</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>104864.07140299999</v>
       </c>
       <c r="E56" s="3">
         <v>838912571222</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>102559.643582</v>
       </c>
       <c r="G56" s="3">
@@ -1675,19 +1700,19 @@
       <c r="A57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>12505.1798026</v>
       </c>
       <c r="C57" s="3">
         <v>100041438420</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>11971.740710100001</v>
       </c>
       <c r="E57" s="3">
         <v>95773925680.5</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>12344.939738700001</v>
       </c>
       <c r="G57" s="3">
@@ -1695,7 +1720,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F58" s="6"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -1706,27 +1731,27 @@
       <c r="A61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <f>B5+B12</f>
         <v>60.108543312500004</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <f t="shared" ref="C61:G61" si="0">C5+C12</f>
         <v>480868346.5</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <f t="shared" si="0"/>
         <v>642.99608156199997</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>5143968652.5</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <f t="shared" si="0"/>
         <v>57.890280562499996</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <f t="shared" si="0"/>
         <v>463122244.5</v>
       </c>
@@ -1735,27 +1760,27 @@
       <c r="A62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <f>B30+B37</f>
         <v>2267.0712094375003</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <f t="shared" ref="C62:G62" si="1">C30+C37</f>
         <v>18136569675.5</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <f t="shared" si="1"/>
         <v>2347.6168187550002</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <f t="shared" si="1"/>
         <v>18780934550</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <f t="shared" si="1"/>
         <v>2276.2329671849998</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>18209863737.5</v>
       </c>
@@ -1764,27 +1789,27 @@
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <f>B42+B51</f>
         <v>506.56395518800002</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <f t="shared" ref="C63:G63" si="2">C42+C51</f>
         <v>4052511641.5</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <f t="shared" si="2"/>
         <v>507.4147595</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <f t="shared" si="2"/>
         <v>4059318076</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <f t="shared" si="2"/>
         <v>509.10028668799998</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <f t="shared" si="2"/>
         <v>4072802293.5</v>
       </c>
@@ -1793,27 +1818,27 @@
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <f>B63/B62</f>
         <v>0.22344421872557207</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <f t="shared" ref="C64:G64" si="3">C63/C62</f>
         <v>0.22344421872535153</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <f t="shared" si="3"/>
         <v>0.21614036645430693</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <f t="shared" si="3"/>
         <v>0.21614036645476728</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <f t="shared" si="3"/>
         <v>0.22365913068977314</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <f t="shared" si="3"/>
         <v>0.22365913068930782</v>
       </c>
@@ -1822,27 +1847,27 @@
       <c r="A65" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <f>B61/(B62+B63)</f>
         <v>2.1671395026683669E-2</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <f t="shared" ref="C65:G65" si="4">C61/(C62+C63)</f>
         <v>2.1671395026687575E-2</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <f t="shared" si="4"/>
         <v>0.22521505067029773</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <f t="shared" si="4"/>
         <v>0.22521505067086731</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <f t="shared" si="4"/>
         <v>2.0783969200814191E-2</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="6">
         <f t="shared" si="4"/>
         <v>2.0783969200799265E-2</v>
       </c>
@@ -1851,27 +1876,27 @@
       <c r="A66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <f>B12/(B37+B51)</f>
         <v>1.6795073634795668E-2</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <f t="shared" ref="C66:G66" si="5">C12/(C37+C51)</f>
         <v>1.67950736347987E-2</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <f t="shared" si="5"/>
         <v>0.21587737257221529</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <f t="shared" si="5"/>
         <v>0.2158773725727707</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <f t="shared" si="5"/>
         <v>1.6341735849253865E-2</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="6">
         <f t="shared" si="5"/>
         <v>1.6341735849242114E-2</v>
       </c>
@@ -1880,27 +1905,27 @@
       <c r="A67" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <f>B10/B7</f>
         <v>1.0537421179113262E-4</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <f t="shared" ref="C67:G67" si="6">C10/C7</f>
         <v>1.053742117911326E-4</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <f t="shared" si="6"/>
         <v>6.6984439628145299E-7</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <f t="shared" si="6"/>
         <v>6.6984439628145288E-7</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <f t="shared" si="6"/>
         <v>2.2052147575128177E-4</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="6">
         <f t="shared" si="6"/>
         <v>2.2052147575128177E-4</v>
       </c>
@@ -1909,61 +1934,61 @@
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <f>B35/B32</f>
         <v>0.91880089456236802</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <f t="shared" ref="C68:G68" si="7">C35/C32</f>
         <v>0.91880089456236802</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <f t="shared" si="7"/>
         <v>0.34159447935835785</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <f t="shared" si="7"/>
         <v>0.34159447935835785</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <f t="shared" si="7"/>
         <v>0.91104539685994657</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="6">
         <f t="shared" si="7"/>
         <v>0.91104539685994657</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <f>B20</f>
         <v>23964.339151100001</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <f t="shared" ref="C70:G70" si="8">C20</f>
         <v>191714713208</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <f t="shared" si="8"/>
         <v>26870.877729899999</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <f t="shared" si="8"/>
         <v>214967021840</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <f t="shared" si="8"/>
         <v>24078.1630549</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="6">
         <f t="shared" si="8"/>
         <v>192625304439</v>
       </c>
@@ -1972,27 +1997,27 @@
       <c r="A71" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <f>B21-B20</f>
         <v>5429.3576925999987</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <f t="shared" ref="C71:G71" si="9">C21-C20</f>
         <v>43434861542</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <f t="shared" si="9"/>
         <v>5500.4566354000017</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <f t="shared" si="9"/>
         <v>44003653082</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <f t="shared" si="9"/>
         <v>5433.0762299999988</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="6">
         <f t="shared" si="9"/>
         <v>43464609840</v>
       </c>
@@ -2001,27 +2026,27 @@
       <c r="A72" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <f>B22-B21</f>
         <v>7528.117426300003</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <f t="shared" ref="C72:G72" si="10">C22-C21</f>
         <v>60224939410</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <f t="shared" si="10"/>
         <v>7633.4481667999971</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <f t="shared" si="10"/>
         <v>61067585335</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <f t="shared" si="10"/>
         <v>7513.284105200004</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="6">
         <f t="shared" si="10"/>
         <v>60106272842</v>
       </c>
@@ -2030,27 +2055,27 @@
       <c r="A73" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <f>B25-B22</f>
         <v>6772.5329820999978</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <f t="shared" ref="C73:G73" si="11">C25-C22</f>
         <v>54180263856</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <f t="shared" si="11"/>
         <v>7587.4598521000007</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <f t="shared" si="11"/>
         <v>60699678817</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <f t="shared" si="11"/>
         <v>6765.1860400000005</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="6">
         <f t="shared" si="11"/>
         <v>54121488319</v>
       </c>
@@ -2059,27 +2084,27 @@
       <c r="A74" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <f>B56-B57</f>
         <v>89947.157411399996</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <f t="shared" ref="C74:G74" si="12">C56-C57</f>
         <v>719577259293</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <f t="shared" si="12"/>
         <v>92892.330692899995</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <f t="shared" si="12"/>
         <v>743138645541.5</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <f t="shared" si="12"/>
         <v>90214.703843299998</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="6">
         <f t="shared" si="12"/>
         <v>721717630746</v>
       </c>
@@ -2088,27 +2113,27 @@
       <c r="A75" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <f>B57</f>
         <v>12505.1798026</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <f t="shared" ref="C75:G75" si="13">C57</f>
         <v>100041438420</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <f t="shared" si="13"/>
         <v>11971.740710100001</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <f t="shared" si="13"/>
         <v>95773925680.5</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <f t="shared" si="13"/>
         <v>12344.939738700001</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="6">
         <f t="shared" si="13"/>
         <v>98759517910</v>
       </c>
@@ -2117,27 +2142,27 @@
       <c r="A76" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <f>B70+B71+B72+B73+B74+B75</f>
         <v>146146.68446610001</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <f t="shared" ref="C76:G76" si="14">C70+C71+C72+C73+C74+C75</f>
         <v>1169173475729</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <f t="shared" si="14"/>
         <v>152456.31378719999</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <f t="shared" si="14"/>
         <v>1219650510296</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <f t="shared" si="14"/>
         <v>146349.35301209998</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="6">
         <f t="shared" si="14"/>
         <v>1170794824096</v>
       </c>
@@ -2155,72 +2180,660 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>146984.773464</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1175878187712</v>
+      </c>
+      <c r="D4" s="7">
+        <v>152389.60000899999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1219116800073.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>146428.94732499999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1171431578603.5</v>
+      </c>
+      <c r="I4" s="1">
+        <f>E4/C4</f>
+        <v>1.0367713363623428</v>
+      </c>
+      <c r="J4" s="1">
+        <f>G4/C4</f>
+        <v>0.99621847810855979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>26.430181000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>211441451.5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>27.717406</v>
+      </c>
+      <c r="E5" s="1">
+        <v>221739252</v>
+      </c>
+      <c r="F5" s="7">
+        <v>13.123818999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>104990555</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I23" si="0">E5/C5</f>
+        <v>1.0487028462344812</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J23" si="1">G5/C5</f>
+        <v>0.49654670006841112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>11.123400999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>88987204</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15.163019999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>121304157</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.4515750000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43612601</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3631640454733245</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49009968893954686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>11.122903000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>88983225.5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>15.163021000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>121304167.5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5.4440689999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43552552</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3632251114565408</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48944676657062741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>801.64434600000004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6413154766</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1165.3940809999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9323152650</v>
+      </c>
+      <c r="F9" s="7">
+        <v>383.13884100000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3065110728.5</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4537545077545382</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47794117565195837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4166</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2.9979999999999998E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>23981.5</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2602016322611619E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7564810369659147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.425</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5249999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7">
+        <v>46.604286000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>372834289.5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>618.88340200000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4951067219</v>
+      </c>
+      <c r="F12" s="7">
+        <v>50.313581999999997</v>
+      </c>
+      <c r="G12" s="1">
+        <v>402508657.5</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>13.279538278627133</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0795913059386133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7">
+        <v>140403.96484500001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1123231718763.5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145435.15202400001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1163481216192.5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>140926.72194799999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1127413775585.5</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0358336545849225</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0037232360448329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7">
+        <v>28.554079999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>228432639.5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26.626676</v>
+      </c>
+      <c r="E16" s="1">
+        <v>213013409</v>
+      </c>
+      <c r="F16" s="7">
+        <v>14.53087</v>
+      </c>
+      <c r="G16" s="1">
+        <v>116246957.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93249988034218723</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50888943784235352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10.944258</v>
+      </c>
+      <c r="C17" s="1">
+        <v>87554067</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12.925743000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>103405943</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5.9714359999999997</v>
+      </c>
+      <c r="G17" s="1">
+        <v>47771488</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.181052423298623</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54562271790298444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10.943394</v>
+      </c>
+      <c r="C18" s="1">
+        <v>87547152.5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12.925741</v>
+      </c>
+      <c r="E18" s="1">
+        <v>103405928.5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5.9696889999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <v>47757510</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1811455375433255</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54550614881506287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>773.14375399999994</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6185150034.5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1124.52547</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8996203760</v>
+      </c>
+      <c r="F20" s="7">
+        <v>428.18488100000002</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3425479049</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4544843229057163</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55382311340761381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6562.5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1.4607999999999999E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>116865.5</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333332E-3</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>17.808076190476189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4634146341463414</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3414634146341464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7">
+        <v>50.312914999999997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>402503318</v>
+      </c>
+      <c r="D23" s="7">
+        <v>625.74868200000003</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5005989457.5</v>
+      </c>
+      <c r="F23" s="7">
+        <v>53.105401000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>424843206.5</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>12.437138362919036</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0555023710388396</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14" style="7" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="7" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="7" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="H1" s="1"/>
       <c r="J1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -2231,37 +2844,37 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>146181.42487300001</v>
       </c>
       <c r="C3" s="1">
         <v>438544274619</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>146059.26422800001</v>
       </c>
       <c r="E3" s="1">
         <v>584237056911</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>146075.54160500001</v>
       </c>
       <c r="G3" s="1">
         <v>730377708026</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>146140.94582299999</v>
       </c>
       <c r="I3" s="1">
         <v>876845674938</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>146003.546443</v>
       </c>
       <c r="K3" s="1">
         <v>1022024825100</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>145993.62463199999</v>
       </c>
       <c r="M3" s="1">
@@ -2272,37 +2885,37 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>13.572931666700001</v>
       </c>
       <c r="C4" s="1">
         <v>40718795</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>12.402465375</v>
       </c>
       <c r="E4" s="1">
         <v>49609861.5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>18.753535899999999</v>
       </c>
       <c r="G4" s="1">
         <v>93767679.5</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>16.893944250000001</v>
       </c>
       <c r="I4" s="1">
         <v>101363665.5</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>15.266482142899999</v>
       </c>
       <c r="K4" s="1">
         <v>106865375</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>13.591039500000001</v>
       </c>
       <c r="M4" s="1">
@@ -2313,37 +2926,37 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>4.9428536666699996</v>
       </c>
       <c r="C5" s="1">
         <v>14828561</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>3.5765205</v>
       </c>
       <c r="E5" s="1">
         <v>14306082</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>6.3283699000000002</v>
       </c>
       <c r="G5" s="1">
         <v>31641849.5</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>5.6443484166699998</v>
       </c>
       <c r="I5" s="1">
         <v>33866090.5</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>5.4943316428599998</v>
       </c>
       <c r="K5" s="1">
         <v>38460321.5</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>4.5775798749999996</v>
       </c>
       <c r="M5" s="1">
@@ -2354,37 +2967,37 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>4.942374</v>
       </c>
       <c r="C6" s="1">
         <v>14827122</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>3.5761076250000001</v>
       </c>
       <c r="E6" s="1">
         <v>14304430.5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>6.3279987000000002</v>
       </c>
       <c r="G6" s="1">
         <v>31639993.5</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>5.6439327500000003</v>
       </c>
       <c r="I6" s="1">
         <v>33863596.5</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>5.4938678571399997</v>
       </c>
       <c r="K6" s="1">
         <v>38457075</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>4.5771398124999996</v>
       </c>
       <c r="M6" s="1">
@@ -2395,37 +3008,37 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>146640.87405300001</v>
       </c>
       <c r="C8" s="1">
         <v>439922622160</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>145665.30964600001</v>
       </c>
       <c r="E8" s="1">
         <v>582661238582</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>146553.30256700001</v>
       </c>
       <c r="G8" s="1">
         <v>732766512834</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>146814.38376500001</v>
       </c>
       <c r="I8" s="1">
         <v>880886302590</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>145874.70897899999</v>
       </c>
       <c r="K8" s="1">
         <v>1021122962850</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>145940.75660399999</v>
       </c>
       <c r="M8" s="1">
@@ -2436,37 +3049,37 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>6.2216666666699998E-4</v>
       </c>
       <c r="C9" s="1">
         <v>1866.5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>4.2450000000000002E-4</v>
       </c>
       <c r="E9" s="1">
         <v>1698</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>4.7189999999999998E-4</v>
       </c>
       <c r="G9" s="1">
         <v>2359.5</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>4.6175833333299996E-3</v>
       </c>
       <c r="I9" s="1">
         <v>27705.5</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>3.8642857142900001E-4</v>
       </c>
       <c r="K9" s="1">
         <v>2705</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>4.8231249999999999E-4</v>
       </c>
       <c r="M9" s="1">
@@ -2477,37 +3090,37 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="C10" s="1">
         <v>27</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>6.6250000000000001E-6</v>
       </c>
       <c r="E10" s="1">
         <v>26.5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>5.4E-6</v>
       </c>
       <c r="G10" s="1">
         <v>27</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="I10" s="1">
         <v>30</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>4.2857142857100003E-6</v>
       </c>
       <c r="K10" s="1">
         <v>30</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="M10" s="1">
@@ -2518,37 +3131,37 @@
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>46.293632333300003</v>
       </c>
       <c r="C11" s="1">
         <v>138880897</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>46.321434875000001</v>
       </c>
       <c r="E11" s="1">
         <v>185285739.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>46.417938300000003</v>
       </c>
       <c r="G11" s="1">
         <v>232089691.5</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>46.2378935833</v>
       </c>
       <c r="I11" s="1">
         <v>277427361.5</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>46.107139142900003</v>
       </c>
       <c r="K11" s="1">
         <v>322749974</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>46.517503812500003</v>
       </c>
       <c r="M11" s="1">
@@ -2559,37 +3172,37 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>146972.33174699999</v>
       </c>
       <c r="C13" s="1">
         <v>440916995242</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>144561.89834499999</v>
       </c>
       <c r="E13" s="1">
         <v>578247593380</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>146043.54131199999</v>
       </c>
       <c r="G13" s="1">
         <v>730217706558</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>146227.774404</v>
       </c>
       <c r="I13" s="1">
         <v>877366646424</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>146148.53178300001</v>
       </c>
       <c r="K13" s="1">
         <v>1023039722480</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>145790.089393</v>
       </c>
       <c r="M13" s="1">
@@ -2600,37 +3213,37 @@
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>387.47520483300002</v>
       </c>
       <c r="C14" s="1">
         <v>1162425614.5</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>313.17943187499998</v>
       </c>
       <c r="E14" s="1">
         <v>1252717727.5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>356.60112809999998</v>
       </c>
       <c r="G14" s="1">
         <v>1783005640.5</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>402.82389000000001</v>
       </c>
       <c r="I14" s="1">
         <v>2416943340</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>392.38054578600003</v>
       </c>
       <c r="K14" s="1">
         <v>2746663820.5</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>366.09604124999998</v>
       </c>
       <c r="M14" s="1">
@@ -2641,37 +3254,37 @@
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>0</v>
       </c>
       <c r="M15" s="1">
@@ -2682,37 +3295,37 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>135934.611378</v>
       </c>
       <c r="C16" s="1">
         <v>407803834134</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>133311.08370300001</v>
       </c>
       <c r="E16" s="1">
         <v>533244334811</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>133776.78176899999</v>
       </c>
       <c r="G16" s="1">
         <v>668883908846</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>134154.69336100001</v>
       </c>
       <c r="I16" s="1">
         <v>804928160169</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>134195.23639599999</v>
       </c>
       <c r="K16" s="1">
         <v>939366654772</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>133386.42149499999</v>
       </c>
       <c r="M16" s="1">
@@ -2723,37 +3336,37 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>146468.290748</v>
       </c>
       <c r="C18" s="1">
         <v>439404872245</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>146007.207272</v>
       </c>
       <c r="E18" s="1">
         <v>584028829088</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>146793.781445</v>
       </c>
       <c r="G18" s="1">
         <v>733968907226</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>146526.015552</v>
       </c>
       <c r="I18" s="1">
         <v>879156093312</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>146163.21470099999</v>
       </c>
       <c r="K18" s="1">
         <v>1023142502910</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>146029.19568500001</v>
       </c>
       <c r="M18" s="1">
@@ -2764,37 +3377,37 @@
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>24169.2723568</v>
       </c>
       <c r="C19" s="1">
         <v>72507817070.5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>23890.025096400001</v>
       </c>
       <c r="E19" s="1">
         <v>95560100385.5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>24279.1960588</v>
       </c>
       <c r="G19" s="1">
         <v>121395980294</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>24211.656805800001</v>
       </c>
       <c r="I19" s="1">
         <v>145269940835</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>24003.637663699999</v>
       </c>
       <c r="K19" s="1">
         <v>168025463646</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>23964.339151100001</v>
       </c>
       <c r="M19" s="1">
@@ -2805,37 +3418,37 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>29590.375867499999</v>
       </c>
       <c r="C20" s="1">
         <v>88771127602.5</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>29326.274529300001</v>
       </c>
       <c r="E20" s="1">
         <v>117305098117</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>29709.231503999999</v>
       </c>
       <c r="G20" s="1">
         <v>148546157520</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>29647.935525699999</v>
       </c>
       <c r="I20" s="1">
         <v>177887613154</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>29433.1877504</v>
       </c>
       <c r="K20" s="1">
         <v>206032314252</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>29393.6968437</v>
       </c>
       <c r="M20" s="1">
@@ -2846,37 +3459,37 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>37130.471285200001</v>
       </c>
       <c r="C21" s="1">
         <v>111391413856</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>36872.224123100001</v>
       </c>
       <c r="E21" s="1">
         <v>147488896492</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>37243.709031300001</v>
       </c>
       <c r="G21" s="1">
         <v>186218545156</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>37185.833315099997</v>
       </c>
       <c r="I21" s="1">
         <v>223114999890</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>36966.1178545</v>
       </c>
       <c r="K21" s="1">
         <v>258762824982</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>36921.814270000003</v>
       </c>
       <c r="M21" s="1">
@@ -2887,37 +3500,37 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>146576.13367400001</v>
       </c>
       <c r="C23" s="1">
         <v>439728401022</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>146839.848065</v>
       </c>
       <c r="E23" s="1">
         <v>587359392261</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>146205.40705099999</v>
       </c>
       <c r="G23" s="1">
         <v>731027035256</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>145711.81626399999</v>
       </c>
       <c r="I23" s="1">
         <v>874270897586</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>146610.60146100001</v>
       </c>
       <c r="K23" s="1">
         <v>1026274210230</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>145948.06063200001</v>
       </c>
       <c r="M23" s="1">
@@ -2928,37 +3541,37 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>43826.757599700002</v>
       </c>
       <c r="C24" s="1">
         <v>131480272799</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>44120.850101800002</v>
       </c>
       <c r="E24" s="1">
         <v>176483400407</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>43758.919690000002</v>
       </c>
       <c r="G24" s="1">
         <v>218794598450</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>43651.847816000001</v>
       </c>
       <c r="I24" s="1">
         <v>261911086896</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>44058.508983400003</v>
       </c>
       <c r="K24" s="1">
         <v>308409562884</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>43694.3472521</v>
       </c>
       <c r="M24" s="1">
@@ -2969,37 +3582,37 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>29100.0028595</v>
       </c>
       <c r="C25" s="1">
         <v>87300008578.5</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>29097.685120900001</v>
       </c>
       <c r="E25" s="1">
         <v>116390740484</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>29097.079088099999</v>
       </c>
       <c r="G25" s="1">
         <v>145485395440</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>29096.924922400001</v>
       </c>
       <c r="I25" s="1">
         <v>174581549534</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>29097.5845004</v>
       </c>
       <c r="K25" s="1">
         <v>203683091502</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>29096.1750416</v>
       </c>
       <c r="M25" s="1">
@@ -3010,37 +3623,37 @@
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>2.6166653333299998</v>
       </c>
       <c r="C26" s="1">
         <v>7849996</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>2.3487407500000002</v>
       </c>
       <c r="E26" s="1">
         <v>9394963</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>2.3921907999999998</v>
       </c>
       <c r="G26" s="1">
         <v>11960954</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>2.4018541666700002</v>
       </c>
       <c r="I26" s="1">
         <v>14411125</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>2.3736208571400002</v>
       </c>
       <c r="K26" s="1">
         <v>16615346</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>2.3611301875000001</v>
       </c>
       <c r="M26" s="1">
@@ -3051,37 +3664,37 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>146059.86992600001</v>
       </c>
       <c r="C28" s="1">
         <v>438179609779</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>146635.78678900001</v>
       </c>
       <c r="E28" s="1">
         <v>586543147158</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>146670.416922</v>
       </c>
       <c r="G28" s="1">
         <v>733352084612</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>146196.347178</v>
       </c>
       <c r="I28" s="1">
         <v>877178083068</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>146424.76983100001</v>
       </c>
       <c r="K28" s="1">
         <v>1024973388820</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>145769.41538600001</v>
       </c>
       <c r="M28" s="1">
@@ -3092,37 +3705,37 @@
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>3.7899430000000001</v>
       </c>
       <c r="C29" s="1">
         <v>11369829</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>3.7619820000000002</v>
       </c>
       <c r="E29" s="1">
         <v>15047928</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>3.5705787</v>
       </c>
       <c r="G29" s="1">
         <v>17852893.5</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>3.7371612500000002</v>
       </c>
       <c r="I29" s="1">
         <v>22422967.5</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <v>3.6328233571399999</v>
       </c>
       <c r="K29" s="1">
         <v>25429763.5</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>3.7245841875000001</v>
       </c>
       <c r="M29" s="1">
@@ -3133,37 +3746,37 @@
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>2.5330816666699998</v>
       </c>
       <c r="C30" s="1">
         <v>7599245</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>2.5597121249999999</v>
       </c>
       <c r="E30" s="1">
         <v>10238848.5</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>2.4161153999999998</v>
       </c>
       <c r="G30" s="1">
         <v>12080577</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>2.5828090833299999</v>
       </c>
       <c r="I30" s="1">
         <v>15496854.5</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>2.5117483571400001</v>
       </c>
       <c r="K30" s="1">
         <v>17582238.5</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>2.4255953125</v>
       </c>
       <c r="M30" s="1">
@@ -3174,37 +3787,37 @@
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>1.3407163333300001</v>
       </c>
       <c r="C31" s="1">
         <v>4022149</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>1.3606115000000001</v>
       </c>
       <c r="E31" s="1">
         <v>5442446</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>1.2705799</v>
       </c>
       <c r="G31" s="1">
         <v>6352899.5</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>1.37040241667</v>
       </c>
       <c r="I31" s="1">
         <v>8222414.5</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <v>1.3367700714299999</v>
       </c>
       <c r="K31" s="1">
         <v>9357390.5</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>1.2823309375</v>
       </c>
       <c r="M31" s="1">
@@ -3215,37 +3828,37 @@
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>146310.581538</v>
       </c>
       <c r="C33" s="1">
         <v>438931744615</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>145908.716652</v>
       </c>
       <c r="E33" s="1">
         <v>583634866610</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>146010.20239600001</v>
       </c>
       <c r="G33" s="1">
         <v>730051011978</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>146233.83835199999</v>
       </c>
       <c r="I33" s="1">
         <v>877403030115</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <v>145980.47322399999</v>
       </c>
       <c r="K33" s="1">
         <v>1021863312570</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <v>146499.444494</v>
       </c>
       <c r="M33" s="1">
@@ -3256,37 +3869,37 @@
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>1.17737916667</v>
       </c>
       <c r="C34" s="1">
         <v>3532137.5</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>1.1704738750000001</v>
       </c>
       <c r="E34" s="1">
         <v>4681895.5</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>1.1846460999999999</v>
       </c>
       <c r="G34" s="1">
         <v>5923230.5</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>1.17001983333</v>
       </c>
       <c r="I34" s="1">
         <v>7020119</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <v>1.18892107143</v>
       </c>
       <c r="K34" s="1">
         <v>8322447.5</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="7">
         <v>1.1782068125</v>
       </c>
       <c r="M34" s="1">
@@ -3297,37 +3910,37 @@
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="C35" s="1">
         <v>27</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>6.7499999999999997E-6</v>
       </c>
       <c r="E35" s="1">
         <v>27</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>5.4E-6</v>
       </c>
       <c r="G35" s="1">
         <v>27</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>4.5000000000000001E-6</v>
       </c>
       <c r="I35" s="1">
         <v>27</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="7">
         <v>4.2857142857100003E-6</v>
       </c>
       <c r="K35" s="1">
         <v>30</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="7">
         <v>3.3749999999999999E-6</v>
       </c>
       <c r="M35" s="1">
@@ -3338,37 +3951,37 @@
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>2267.5156136700002</v>
       </c>
       <c r="C36" s="1">
         <v>6802546841</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>2265.35840788</v>
       </c>
       <c r="E36" s="1">
         <v>9061433631.5</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>2264.1965108999998</v>
       </c>
       <c r="G36" s="1">
         <v>11320982554.5</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>2263.35941658</v>
       </c>
       <c r="I36" s="1">
         <v>13580156499.5</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>2265.6197614299999</v>
       </c>
       <c r="K36" s="1">
         <v>15859338330</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="7">
         <v>2263.3466252500002</v>
       </c>
       <c r="M36" s="1">
@@ -3379,37 +3992,37 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>146143.478046</v>
       </c>
       <c r="C38" s="1">
         <v>438430434138</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>145953.00098499999</v>
       </c>
       <c r="E38" s="1">
         <v>583812003940</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>145888.81652699999</v>
       </c>
       <c r="G38" s="1">
         <v>729444082636</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="7">
         <v>146839.52203699999</v>
       </c>
       <c r="I38" s="1">
         <v>881037132221</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="7">
         <v>146180.68334600001</v>
       </c>
       <c r="K38" s="1">
         <v>1023264783420</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="7">
         <v>146075.785458</v>
       </c>
       <c r="M38" s="1">
@@ -3420,37 +4033,37 @@
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>223.89510016700001</v>
       </c>
       <c r="C39" s="1">
         <v>671685300.5</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>227.346839625</v>
       </c>
       <c r="E39" s="1">
         <v>909387358.5</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>234.06007930000001</v>
       </c>
       <c r="G39" s="1">
         <v>1170300396.5</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <v>236.408364917</v>
       </c>
       <c r="I39" s="1">
         <v>1418450189.5</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <v>231.66631185700001</v>
       </c>
       <c r="K39" s="1">
         <v>1621664183</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="7">
         <v>228.22401475000001</v>
       </c>
       <c r="M39" s="1">
@@ -3461,37 +4074,37 @@
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>6.7365181666699998</v>
       </c>
       <c r="C40" s="1">
         <v>20209554.5</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>7.0341620000000002</v>
       </c>
       <c r="E40" s="1">
         <v>28136648</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <v>7.6592061999999999</v>
       </c>
       <c r="G40" s="1">
         <v>38296031</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="7">
         <v>7.4174567500000004</v>
       </c>
       <c r="I40" s="1">
         <v>44504740.5</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <v>7.1745176428599997</v>
       </c>
       <c r="K40" s="1">
         <v>50221623.5</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="7">
         <v>6.6600976875000004</v>
       </c>
       <c r="M40" s="1">
@@ -3502,37 +4115,37 @@
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>0.19518566666699999</v>
       </c>
       <c r="C41" s="1">
         <v>585557</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>0.21201349999999999</v>
       </c>
       <c r="E41" s="1">
         <v>848054</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>0.19432389999999999</v>
       </c>
       <c r="G41" s="1">
         <v>971619.5</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <v>0.20175316666699999</v>
       </c>
       <c r="I41" s="1">
         <v>1210519</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="7">
         <v>0.206312</v>
       </c>
       <c r="K41" s="1">
         <v>1444184</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="7">
         <v>0.199364875</v>
       </c>
       <c r="M41" s="1">
@@ -3543,37 +4156,37 @@
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>146783.14275999999</v>
       </c>
       <c r="C43" s="1">
         <v>440349428280</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>145996.92498899999</v>
       </c>
       <c r="E43" s="1">
         <v>583987699958</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>145753.48465599999</v>
       </c>
       <c r="G43" s="1">
         <v>728767423280</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="7">
         <v>146032.11056900001</v>
       </c>
       <c r="I43" s="1">
         <v>876192663414</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="7">
         <v>146281.548094</v>
       </c>
       <c r="K43" s="1">
         <v>1023970836660</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="7">
         <v>146010.24333200001</v>
       </c>
       <c r="M43" s="1">
@@ -3584,37 +4197,37 @@
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>2.38021666667E-2</v>
       </c>
       <c r="C44" s="1">
         <v>71406.5</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>2.90785E-2</v>
       </c>
       <c r="E44" s="1">
         <v>116314</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <v>2.3184900000000001E-2</v>
       </c>
       <c r="G44" s="1">
         <v>115924.5</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="7">
         <v>3.9622583333300002E-2</v>
       </c>
       <c r="I44" s="1">
         <v>237735.5</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="7">
         <v>2.6554928571399999E-2</v>
       </c>
       <c r="K44" s="1">
         <v>185884.5</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="7">
         <v>4.4104499999999998E-2</v>
       </c>
       <c r="M44" s="1">
@@ -3625,37 +4238,37 @@
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>2.3795833333300001E-2</v>
       </c>
       <c r="C45" s="1">
         <v>71387.5</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>2.9075375000000001E-2</v>
       </c>
       <c r="E45" s="1">
         <v>116301.5</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <v>2.3182299999999999E-2</v>
       </c>
       <c r="G45" s="1">
         <v>115911.5</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <v>3.9619583333299999E-2</v>
       </c>
       <c r="I45" s="1">
         <v>237717.5</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="7">
         <v>2.65527142857E-2</v>
       </c>
       <c r="K45" s="1">
         <v>185869</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="7">
         <v>4.4101874999999999E-2</v>
       </c>
       <c r="M45" s="1">
@@ -3666,37 +4279,37 @@
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>1.5666666666699999E-5</v>
       </c>
       <c r="C46" s="1">
         <v>47</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>1.0125E-5</v>
       </c>
       <c r="E46" s="1">
         <v>40.5</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <v>8.1999999999999994E-6</v>
       </c>
       <c r="G46" s="1">
         <v>41</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="7">
         <v>8.2500000000000006E-6</v>
       </c>
       <c r="I46" s="1">
         <v>49.5</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="7">
         <v>6.6428571428600003E-6</v>
       </c>
       <c r="K46" s="1">
         <v>46.5</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="7">
         <v>6.9375000000000001E-6</v>
       </c>
       <c r="M46" s="1">
@@ -3707,37 +4320,37 @@
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>146516.835043</v>
       </c>
       <c r="C48" s="1">
         <v>439550505128</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>146006.95032999999</v>
       </c>
       <c r="E48" s="1">
         <v>584027801320</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <v>146741.38931599999</v>
       </c>
       <c r="G48" s="1">
         <v>733706946582</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="7">
         <v>146564.02056800001</v>
       </c>
       <c r="I48" s="1">
         <v>879384123407</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="7">
         <v>145979.57366200001</v>
       </c>
       <c r="K48" s="1">
         <v>1021857015630</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="7">
         <v>146702.326329</v>
       </c>
       <c r="M48" s="1">
@@ -3748,37 +4361,37 @@
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="C49" s="1">
         <v>27</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>6.7499999999999997E-6</v>
       </c>
       <c r="E49" s="1">
         <v>27</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="G49" s="1">
         <v>30</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="7">
         <v>4.5000000000000001E-6</v>
       </c>
       <c r="I49" s="1">
         <v>27</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="7">
         <v>3.85714285714E-6</v>
       </c>
       <c r="K49" s="1">
         <v>27</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="7">
         <v>3.7500000000000001E-6</v>
       </c>
       <c r="M49" s="1">
@@ -3789,37 +4402,37 @@
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>509.07010200000002</v>
       </c>
       <c r="C50" s="1">
         <v>1527210306</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>508.92242487499999</v>
       </c>
       <c r="E50" s="1">
         <v>2035689699.5</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <v>505.96534129999998</v>
       </c>
       <c r="G50" s="1">
         <v>2529826706.5</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="7">
         <v>506.57185099999998</v>
       </c>
       <c r="I50" s="1">
         <v>3039431106</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="7">
         <v>510.52002750000003</v>
       </c>
       <c r="K50" s="1">
         <v>3573640192.5</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="7">
         <v>506.36459031300001</v>
       </c>
       <c r="M50" s="1">
@@ -3830,37 +4443,37 @@
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>9.9818478333300007</v>
       </c>
       <c r="C51" s="1">
         <v>29945543.5</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>9.9706499999999991</v>
       </c>
       <c r="E51" s="1">
         <v>39882600</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <v>9.8802515</v>
       </c>
       <c r="G51" s="1">
         <v>49401257.5</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="7">
         <v>9.4958646666700002</v>
       </c>
       <c r="I51" s="1">
         <v>56975188</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="7">
         <v>9.2645859999999995</v>
       </c>
       <c r="K51" s="1">
         <v>64852102</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="7">
         <v>9.3467985000000002</v>
       </c>
       <c r="M51" s="1">
@@ -3871,37 +4484,37 @@
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>146359.45187200001</v>
       </c>
       <c r="C53" s="1">
         <v>439078355616</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>146622.47189799999</v>
       </c>
       <c r="E53" s="1">
         <v>586489887594</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="7">
         <v>146661.86211799999</v>
       </c>
       <c r="G53" s="1">
         <v>733309310592</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="7">
         <v>146058.586129</v>
       </c>
       <c r="I53" s="1">
         <v>876351516772</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="7">
         <v>146098.106053</v>
       </c>
       <c r="K53" s="1">
         <v>1022686742370</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="7">
         <v>146013.80974299999</v>
       </c>
       <c r="M53" s="1">
@@ -3912,37 +4525,37 @@
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>7.9116666666699999E-3</v>
       </c>
       <c r="C54" s="1">
         <v>23735</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>6.3603749999999997E-3</v>
       </c>
       <c r="E54" s="1">
         <v>25441.5</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <v>5.705E-3</v>
       </c>
       <c r="G54" s="1">
         <v>28525</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="7">
         <v>6.1339166666700001E-3</v>
       </c>
       <c r="I54" s="1">
         <v>36803.5</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <v>5.3766428571399997E-3</v>
       </c>
       <c r="K54" s="1">
         <v>37636.5</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="7">
         <v>4.7904999999999996E-3</v>
       </c>
       <c r="M54" s="1">
@@ -3953,37 +4566,37 @@
       <c r="A55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>102472.288386</v>
       </c>
       <c r="C55" s="1">
         <v>307416865159</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>102607.84291599999</v>
       </c>
       <c r="E55" s="1">
         <v>410431371663</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <v>102603.051336</v>
       </c>
       <c r="G55" s="1">
         <v>513015256679</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="7">
         <v>102420.685388</v>
       </c>
       <c r="I55" s="1">
         <v>614524112326</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="7">
         <v>102408.860915</v>
       </c>
       <c r="K55" s="1">
         <v>716862026408</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="7">
         <v>102452.337214</v>
       </c>
       <c r="M55" s="1">
@@ -3994,37 +4607,37 @@
       <c r="A56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>12278.535944699999</v>
       </c>
       <c r="C56" s="1">
         <v>36835607834</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>12361.797892799999</v>
       </c>
       <c r="E56" s="1">
         <v>49447191571</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <v>12310.0331494</v>
       </c>
       <c r="G56" s="1">
         <v>61550165747</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <v>12469.3731646</v>
       </c>
       <c r="I56" s="1">
         <v>74816238987.5</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="7">
         <v>12305.3509964</v>
       </c>
       <c r="K56" s="1">
         <v>86137456975</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="7">
         <v>12505.1798026</v>
       </c>
       <c r="M56" s="1">
@@ -4037,7 +4650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1GB" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -215,25 +215,37 @@
     <t>total (7000000)</t>
   </si>
   <si>
-    <t>baseline</t>
-  </si>
-  <si>
-    <t>force 2M alignment of libraries</t>
-  </si>
-  <si>
-    <t>shared PTPs</t>
-  </si>
-  <si>
-    <t>1G 2j</t>
-  </si>
-  <si>
-    <t>1G 1j</t>
-  </si>
-  <si>
     <t>force/base</t>
   </si>
   <si>
     <t>shared/base</t>
+  </si>
+  <si>
+    <t>Ms_L</t>
+  </si>
+  <si>
+    <t>Ms_Lf</t>
+  </si>
+  <si>
+    <t>Mst_Lt</t>
+  </si>
+  <si>
+    <t>2 cores, 2 clients, 1G</t>
+  </si>
+  <si>
+    <t>Re-run 2 cores, 2 clients, 1G</t>
+  </si>
+  <si>
+    <t>1 core, 1 client, 1G</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
   </si>
 </sst>
 </file>
@@ -321,7 +333,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -337,6 +349,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -2180,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2199,48 +2212,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="J2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2248,30 +2261,30 @@
         <v>0</v>
       </c>
       <c r="B4" s="7">
-        <v>146984.773464</v>
+        <v>140403.96484500001</v>
       </c>
       <c r="C4" s="1">
-        <v>1175878187712</v>
+        <v>1123231718763.5</v>
       </c>
       <c r="D4" s="7">
-        <v>152389.60000899999</v>
+        <v>145435.15202400001</v>
       </c>
       <c r="E4" s="1">
-        <v>1219116800073.5</v>
+        <v>1163481216192.5</v>
       </c>
       <c r="F4" s="7">
-        <v>146428.94732499999</v>
+        <v>140926.72194799999</v>
       </c>
       <c r="G4" s="1">
-        <v>1171431578603.5</v>
+        <v>1127413775585.5</v>
       </c>
       <c r="I4" s="1">
-        <f>E4/C4</f>
-        <v>1.0367713363623428</v>
+        <f t="shared" ref="I4:I12" si="0">E4/C4</f>
+        <v>1.0358336545849225</v>
       </c>
       <c r="J4" s="1">
-        <f>G4/C4</f>
-        <v>0.99621847810855979</v>
+        <f t="shared" ref="J4:J12" si="1">G4/C4</f>
+        <v>1.0037232360448329</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2279,30 +2292,30 @@
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>26.430181000000001</v>
+        <v>28.554079999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>211441451.5</v>
+        <v>228432639.5</v>
       </c>
       <c r="D5" s="7">
-        <v>27.717406</v>
+        <v>26.626676</v>
       </c>
       <c r="E5" s="1">
-        <v>221739252</v>
+        <v>213013409</v>
       </c>
       <c r="F5" s="7">
-        <v>13.123818999999999</v>
+        <v>14.53087</v>
       </c>
       <c r="G5" s="1">
-        <v>104990555</v>
+        <v>116246957.5</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I23" si="0">E5/C5</f>
-        <v>1.0487028462344812</v>
+        <f t="shared" si="0"/>
+        <v>0.93249988034218723</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J23" si="1">G5/C5</f>
-        <v>0.49654670006841112</v>
+        <f t="shared" si="1"/>
+        <v>0.50888943784235352</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2310,30 +2323,30 @@
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>11.123400999999999</v>
+        <v>10.944258</v>
       </c>
       <c r="C6" s="1">
-        <v>88987204</v>
+        <v>87554067</v>
       </c>
       <c r="D6" s="7">
-        <v>15.163019999999999</v>
+        <v>12.925743000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>121304157</v>
+        <v>103405943</v>
       </c>
       <c r="F6" s="7">
-        <v>5.4515750000000001</v>
+        <v>5.9714359999999997</v>
       </c>
       <c r="G6" s="1">
-        <v>43612601</v>
+        <v>47771488</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>1.3631640454733245</v>
+        <v>1.181052423298623</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>0.49009968893954686</v>
+        <v>0.54562271790298444</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2341,30 +2354,30 @@
         <v>16</v>
       </c>
       <c r="B7" s="7">
-        <v>11.122903000000001</v>
+        <v>10.943394</v>
       </c>
       <c r="C7" s="1">
-        <v>88983225.5</v>
+        <v>87547152.5</v>
       </c>
       <c r="D7" s="7">
-        <v>15.163021000000001</v>
+        <v>12.925741</v>
       </c>
       <c r="E7" s="1">
-        <v>121304167.5</v>
+        <v>103405928.5</v>
       </c>
       <c r="F7" s="7">
-        <v>5.4440689999999998</v>
+        <v>5.9696889999999998</v>
       </c>
       <c r="G7" s="1">
-        <v>43552552</v>
+        <v>47757510</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>1.3632251114565408</v>
+        <v>1.1811455375433255</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>0.48944676657062741</v>
+        <v>0.54550614881506287</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2378,30 +2391,30 @@
         <v>4</v>
       </c>
       <c r="B9" s="7">
-        <v>801.64434600000004</v>
+        <v>773.14375399999994</v>
       </c>
       <c r="C9" s="1">
-        <v>6413154766</v>
+        <v>6185150034.5</v>
       </c>
       <c r="D9" s="7">
-        <v>1165.3940809999999</v>
+        <v>1124.52547</v>
       </c>
       <c r="E9" s="1">
-        <v>9323152650</v>
+        <v>8996203760</v>
       </c>
       <c r="F9" s="7">
-        <v>383.13884100000001</v>
+        <v>428.18488100000002</v>
       </c>
       <c r="G9" s="1">
-        <v>3065110728.5</v>
+        <v>3425479049</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>1.4537545077545382</v>
+        <v>1.4544843229057163</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>0.47794117565195837</v>
+        <v>0.55382311340761381</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2409,30 +2422,30 @@
         <v>17</v>
       </c>
       <c r="B10" s="7">
-        <v>5.2099999999999998E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="C10" s="1">
-        <v>4166</v>
+        <v>6562.5</v>
       </c>
       <c r="D10" s="7">
-        <v>6.9999999999999999E-6</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="E10" s="1">
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7">
-        <v>2.9979999999999998E-3</v>
+        <v>1.4607999999999999E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>23981.5</v>
+        <v>116865.5</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>1.2602016322611619E-2</v>
+        <v>5.3333333333333332E-3</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>5.7564810369659147</v>
+        <v>17.808076190476189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2443,27 +2456,27 @@
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="C11" s="1">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="D11" s="7">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="E11" s="1">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7">
-        <v>3.9999999999999998E-6</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="G11" s="1">
-        <v>30.5</v>
+        <v>27.5</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>1.425</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>1.5249999999999999</v>
+        <v>1.3414634146341464</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2471,296 +2484,288 @@
         <v>3</v>
       </c>
       <c r="B12" s="7">
-        <v>46.604286000000002</v>
+        <v>50.312914999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>372834289.5</v>
+        <v>402503318</v>
       </c>
       <c r="D12" s="7">
-        <v>618.88340200000005</v>
+        <v>625.74868200000003</v>
       </c>
       <c r="E12" s="1">
-        <v>4951067219</v>
+        <v>5005989457.5</v>
       </c>
       <c r="F12" s="7">
-        <v>50.313581999999997</v>
+        <v>53.105401000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>402508657.5</v>
+        <v>424843206.5</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>13.279538278627133</v>
+        <v>12.437138362919036</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>1.0795913059386133</v>
+        <v>1.0555023710388396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
+      <c r="D14" s="1">
+        <v>140447.25551799999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1123578044142</v>
+      </c>
+      <c r="F14" s="1">
+        <v>139853.61392999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1118828911444</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="1">
+        <v>10.607939999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>84863516.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15.165372</v>
+      </c>
+      <c r="G15" s="1">
+        <v>121322979.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="1">
+        <v>3.6480079999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>29184064</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.9287380000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>47429904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
+        <v>3.6466409999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>29173127</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.9264429999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>47411542.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
+        <v>375.49195500000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3003935643.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>415.12147900000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3320971828.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <v>1.639E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13115.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.1970000000000002E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>17574.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <v>50.376511999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>403012099.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>53.54824</v>
+      </c>
+      <c r="G22" s="1">
+        <v>428385921.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7">
-        <v>140403.96484500001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1123231718763.5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>145435.15202400001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1163481216192.5</v>
-      </c>
-      <c r="F15" s="7">
-        <v>140926.72194799999</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1127413775585.5</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0358336545849225</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0037232360448329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="C26" s="1">
+        <v>877280361133</v>
+      </c>
+      <c r="E26" s="1">
+        <v>878772319920</v>
+      </c>
+      <c r="G26" s="1">
+        <v>877464443912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="7">
-        <v>28.554079999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>228432639.5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>26.626676</v>
-      </c>
-      <c r="E16" s="1">
-        <v>213013409</v>
-      </c>
-      <c r="F16" s="7">
-        <v>14.53087</v>
-      </c>
-      <c r="G16" s="1">
-        <v>116246957.5</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.93249988034218723</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>0.50888943784235352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="C27" s="1">
+        <v>210538810</v>
+      </c>
+      <c r="E27" s="1">
+        <v>356654916</v>
+      </c>
+      <c r="G27" s="1">
+        <v>195628734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="7">
-        <v>10.944258</v>
-      </c>
-      <c r="C17" s="1">
-        <v>87554067</v>
-      </c>
-      <c r="D17" s="7">
-        <v>12.925743000000001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>103405943</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5.9714359999999997</v>
-      </c>
-      <c r="G17" s="1">
-        <v>47771488</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.181052423298623</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.54562271790298444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="C28" s="1">
+        <v>123363462</v>
+      </c>
+      <c r="E28" s="1">
+        <v>228892890</v>
+      </c>
+      <c r="G28" s="1">
+        <v>119632667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
-        <v>10.943394</v>
-      </c>
-      <c r="C18" s="1">
-        <v>87547152.5</v>
-      </c>
-      <c r="D18" s="7">
-        <v>12.925741</v>
-      </c>
-      <c r="E18" s="1">
-        <v>103405928.5</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5.9696889999999998</v>
-      </c>
-      <c r="G18" s="1">
-        <v>47757510</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1811455375433255</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.54550614881506287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="C29" s="1">
+        <v>123361377</v>
+      </c>
+      <c r="E29" s="1">
+        <v>228890858</v>
+      </c>
+      <c r="G29" s="1">
+        <v>119630592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="7">
-        <v>773.14375399999994</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6185150034.5</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1124.52547</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8996203760</v>
-      </c>
-      <c r="F20" s="7">
-        <v>428.18488100000002</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3425479049</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4544843229057163</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.55382311340761381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="C31" s="1">
+        <v>6461413845</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6913162471</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6144949457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7">
-        <v>8.1999999999999998E-4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6562.5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>35</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1.4607999999999999E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>116865.5</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3333333333333332E-3</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="1"/>
-        <v>17.808076190476189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="C32" s="1">
+        <v>2204</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2035</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>30</v>
-      </c>
-      <c r="F22" s="7">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G22" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4634146341463414</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3414634146341464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="C33" s="1">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="7">
-        <v>50.312914999999997</v>
-      </c>
-      <c r="C23" s="1">
-        <v>402503318</v>
-      </c>
-      <c r="D23" s="7">
-        <v>625.74868200000003</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5005989457.5</v>
-      </c>
-      <c r="F23" s="7">
-        <v>53.105401000000001</v>
-      </c>
-      <c r="G23" s="1">
-        <v>424843206.5</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
-        <v>12.437138362919036</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0555023710388396</v>
+      <c r="C34" s="1">
+        <v>389807917</v>
+      </c>
+      <c r="E34" s="1">
+        <v>400868717</v>
+      </c>
+      <c r="G34" s="1">
+        <v>402446396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="72">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -635,7 +635,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2193,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2761,11 +2761,241 @@
         <v>402446396</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>140257.80593900001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1122062447509</v>
+      </c>
+      <c r="D38" s="1">
+        <v>145324.73734699999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1162597898772</v>
+      </c>
+      <c r="F38" s="1">
+        <v>140276.67872600001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1122213429805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>29.669802000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>237358413</v>
+      </c>
+      <c r="D39" s="1">
+        <v>29.022438999999999</v>
+      </c>
+      <c r="E39" s="1">
+        <v>232179510.5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>14.434578</v>
+      </c>
+      <c r="G39" s="1">
+        <v>115476625.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>11.658239</v>
+      </c>
+      <c r="C40" s="1">
+        <v>93265915.5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14.327204</v>
+      </c>
+      <c r="E40" s="1">
+        <v>114617629</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5.8368130000000003</v>
+      </c>
+      <c r="G40" s="1">
+        <v>46694506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1">
+        <v>11.657295</v>
+      </c>
+      <c r="C41" s="1">
+        <v>93258359.5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14.327204</v>
+      </c>
+      <c r="E41" s="1">
+        <v>114617632</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5.8348409999999999</v>
+      </c>
+      <c r="G41" s="1">
+        <v>46678731.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>745.68917099999999</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5965513365</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1120.1487569999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8961190053.5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>425.86830200000003</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3406946415.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.1130000000000001E-3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8907.5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E44" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.6962999999999999E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>135706.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E45" s="1">
+        <v>27</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>50.099004000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>400792030.5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>623.11886000000004</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4984950884</v>
+      </c>
+      <c r="F46" s="1">
+        <v>52.988903000000001</v>
+      </c>
+      <c r="G46" s="1">
+        <v>423911223.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="80">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Mst_Lt</t>
   </si>
   <si>
-    <t>2 cores, 2 clients, 1G</t>
-  </si>
-  <si>
     <t>Re-run 2 cores, 2 clients, 1G</t>
   </si>
   <si>
@@ -246,6 +243,33 @@
   </si>
   <si>
     <t>Run 3</t>
+  </si>
+  <si>
+    <t>2 cores, 2 clients, 1G,min</t>
+  </si>
+  <si>
+    <t>2 cores, 2 clients, 1G,median</t>
+  </si>
+  <si>
+    <t>BR_MISP_RETIRED.ALL_BRANCHES</t>
+  </si>
+  <si>
+    <t>1 core, 1 client, 1G, spin idling</t>
+  </si>
+  <si>
+    <t>M_Lf</t>
+  </si>
+  <si>
+    <t>no LTO</t>
+  </si>
+  <si>
+    <t>LTO</t>
+  </si>
+  <si>
+    <t>1 phys core, 2 workers, 1G, select-only</t>
+  </si>
+  <si>
+    <t>LTO+PGO</t>
   </si>
 </sst>
 </file>
@@ -343,13 +367,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -657,18 +681,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -1745,11 +1769,11 @@
         <v>42</v>
       </c>
       <c r="B61" s="4">
-        <f>B5+B12</f>
+        <f t="shared" ref="B61:G61" si="0">B5+B12</f>
         <v>60.108543312500004</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" ref="C61:G61" si="0">C5+C12</f>
+        <f t="shared" si="0"/>
         <v>480868346.5</v>
       </c>
       <c r="D61" s="4">
@@ -1774,11 +1798,11 @@
         <v>43</v>
       </c>
       <c r="B62" s="4">
-        <f>B30+B37</f>
+        <f t="shared" ref="B62:G62" si="1">B30+B37</f>
         <v>2267.0712094375003</v>
       </c>
       <c r="C62" s="6">
-        <f t="shared" ref="C62:G62" si="1">C30+C37</f>
+        <f t="shared" si="1"/>
         <v>18136569675.5</v>
       </c>
       <c r="D62" s="4">
@@ -1803,11 +1827,11 @@
         <v>44</v>
       </c>
       <c r="B63" s="4">
-        <f>B42+B51</f>
+        <f t="shared" ref="B63:G63" si="2">B42+B51</f>
         <v>506.56395518800002</v>
       </c>
       <c r="C63" s="6">
-        <f t="shared" ref="C63:G63" si="2">C42+C51</f>
+        <f t="shared" si="2"/>
         <v>4052511641.5</v>
       </c>
       <c r="D63" s="4">
@@ -1832,11 +1856,11 @@
         <v>54</v>
       </c>
       <c r="B64" s="4">
-        <f>B63/B62</f>
+        <f t="shared" ref="B64:G64" si="3">B63/B62</f>
         <v>0.22344421872557207</v>
       </c>
       <c r="C64" s="6">
-        <f t="shared" ref="C64:G64" si="3">C63/C62</f>
+        <f t="shared" si="3"/>
         <v>0.22344421872535153</v>
       </c>
       <c r="D64" s="4">
@@ -1861,11 +1885,11 @@
         <v>52</v>
       </c>
       <c r="B65" s="4">
-        <f>B61/(B62+B63)</f>
+        <f t="shared" ref="B65:G65" si="4">B61/(B62+B63)</f>
         <v>2.1671395026683669E-2</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" ref="C65:G65" si="4">C61/(C62+C63)</f>
+        <f t="shared" si="4"/>
         <v>2.1671395026687575E-2</v>
       </c>
       <c r="D65" s="4">
@@ -1890,11 +1914,11 @@
         <v>53</v>
       </c>
       <c r="B66" s="4">
-        <f>B12/(B37+B51)</f>
+        <f t="shared" ref="B66:G66" si="5">B12/(B37+B51)</f>
         <v>1.6795073634795668E-2</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" ref="C66:G66" si="5">C12/(C37+C51)</f>
+        <f t="shared" si="5"/>
         <v>1.67950736347987E-2</v>
       </c>
       <c r="D66" s="4">
@@ -1919,11 +1943,11 @@
         <v>55</v>
       </c>
       <c r="B67" s="4">
-        <f>B10/B7</f>
+        <f t="shared" ref="B67:G67" si="6">B10/B7</f>
         <v>1.0537421179113262E-4</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" ref="C67:G67" si="6">C10/C7</f>
+        <f t="shared" si="6"/>
         <v>1.053742117911326E-4</v>
       </c>
       <c r="D67" s="4">
@@ -1948,11 +1972,11 @@
         <v>56</v>
       </c>
       <c r="B68" s="4">
-        <f>B35/B32</f>
+        <f t="shared" ref="B68:G68" si="7">B35/B32</f>
         <v>0.91880089456236802</v>
       </c>
       <c r="C68" s="6">
-        <f t="shared" ref="C68:G68" si="7">C35/C32</f>
+        <f t="shared" si="7"/>
         <v>0.91880089456236802</v>
       </c>
       <c r="D68" s="4">
@@ -1982,11 +2006,11 @@
         <v>45</v>
       </c>
       <c r="B70" s="4">
-        <f>B20</f>
+        <f t="shared" ref="B70:G70" si="8">B20</f>
         <v>23964.339151100001</v>
       </c>
       <c r="C70" s="6">
-        <f t="shared" ref="C70:G70" si="8">C20</f>
+        <f t="shared" si="8"/>
         <v>191714713208</v>
       </c>
       <c r="D70" s="4">
@@ -2011,11 +2035,11 @@
         <v>46</v>
       </c>
       <c r="B71" s="4">
-        <f>B21-B20</f>
+        <f t="shared" ref="B71:G72" si="9">B21-B20</f>
         <v>5429.3576925999987</v>
       </c>
       <c r="C71" s="6">
-        <f t="shared" ref="C71:G71" si="9">C21-C20</f>
+        <f t="shared" si="9"/>
         <v>43434861542</v>
       </c>
       <c r="D71" s="4">
@@ -2040,27 +2064,27 @@
         <v>47</v>
       </c>
       <c r="B72" s="4">
-        <f>B22-B21</f>
+        <f t="shared" si="9"/>
         <v>7528.117426300003</v>
       </c>
       <c r="C72" s="6">
-        <f t="shared" ref="C72:G72" si="10">C22-C21</f>
+        <f t="shared" si="9"/>
         <v>60224939410</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7633.4481667999971</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>61067585335</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7513.284105200004</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60106272842</v>
       </c>
     </row>
@@ -2069,27 +2093,27 @@
         <v>48</v>
       </c>
       <c r="B73" s="4">
-        <f>B25-B22</f>
+        <f t="shared" ref="B73:G73" si="10">B25-B22</f>
         <v>6772.5329820999978</v>
       </c>
       <c r="C73" s="6">
-        <f t="shared" ref="C73:G73" si="11">C25-C22</f>
+        <f t="shared" si="10"/>
         <v>54180263856</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7587.4598521000007</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>60699678817</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6765.1860400000005</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>54121488319</v>
       </c>
     </row>
@@ -2098,27 +2122,27 @@
         <v>49</v>
       </c>
       <c r="B74" s="4">
-        <f>B56-B57</f>
+        <f t="shared" ref="B74:G74" si="11">B56-B57</f>
         <v>89947.157411399996</v>
       </c>
       <c r="C74" s="6">
-        <f t="shared" ref="C74:G74" si="12">C56-C57</f>
+        <f t="shared" si="11"/>
         <v>719577259293</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>92892.330692899995</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>743138645541.5</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>90214.703843299998</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>721717630746</v>
       </c>
     </row>
@@ -2127,27 +2151,27 @@
         <v>50</v>
       </c>
       <c r="B75" s="4">
-        <f>B57</f>
+        <f t="shared" ref="B75:G75" si="12">B57</f>
         <v>12505.1798026</v>
       </c>
       <c r="C75" s="6">
-        <f t="shared" ref="C75:G75" si="13">C57</f>
+        <f t="shared" si="12"/>
         <v>100041438420</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>11971.740710100001</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>95773925680.5</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>12344.939738700001</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>98759517910</v>
       </c>
     </row>
@@ -2156,27 +2180,27 @@
         <v>51</v>
       </c>
       <c r="B76" s="4">
-        <f>B70+B71+B72+B73+B74+B75</f>
+        <f t="shared" ref="B76:G76" si="13">B70+B71+B72+B73+B74+B75</f>
         <v>146146.68446610001</v>
       </c>
       <c r="C76" s="6">
-        <f t="shared" ref="C76:G76" si="14">C70+C71+C72+C73+C74+C75</f>
+        <f t="shared" si="13"/>
         <v>1169173475729</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>152456.31378719999</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1219650510296</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>146349.35301209998</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1170794824096</v>
       </c>
     </row>
@@ -2193,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2208,22 +2232,28 @@
     <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="14.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
@@ -2252,8 +2282,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>66</v>
+      <c r="A3" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2511,8 +2541,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>67</v>
+      <c r="A13" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2628,78 +2658,132 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="A25" s="9" t="s">
         <v>71</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B26" s="1">
+        <v>140257.80593900001</v>
+      </c>
       <c r="C26" s="1">
-        <v>877280361133</v>
+        <v>1122062447509</v>
+      </c>
+      <c r="D26" s="1">
+        <v>145324.73734699999</v>
       </c>
       <c r="E26" s="1">
-        <v>878772319920</v>
+        <v>1162597898772</v>
+      </c>
+      <c r="F26" s="1">
+        <v>140276.67872600001</v>
       </c>
       <c r="G26" s="1">
-        <v>877464443912</v>
+        <v>1122213429805</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B27" s="1">
+        <v>29.669802000000001</v>
+      </c>
       <c r="C27" s="1">
-        <v>210538810</v>
+        <v>237358413</v>
+      </c>
+      <c r="D27" s="1">
+        <v>29.022438999999999</v>
       </c>
       <c r="E27" s="1">
-        <v>356654916</v>
+        <v>232179510.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>14.434578</v>
       </c>
       <c r="G27" s="1">
-        <v>195628734</v>
+        <v>115476625.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B28" s="1">
+        <v>11.658239</v>
+      </c>
       <c r="C28" s="1">
-        <v>123363462</v>
+        <v>93265915.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14.327204</v>
       </c>
       <c r="E28" s="1">
-        <v>228892890</v>
+        <v>114617629</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5.8368130000000003</v>
       </c>
       <c r="G28" s="1">
-        <v>119632667</v>
+        <v>46694506</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B29" s="1">
+        <v>11.657295</v>
+      </c>
       <c r="C29" s="1">
-        <v>123361377</v>
+        <v>93258359.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14.327204</v>
       </c>
       <c r="E29" s="1">
-        <v>228890858</v>
+        <v>114617632</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5.8348409999999999</v>
       </c>
       <c r="G29" s="1">
-        <v>119630592</v>
+        <v>46678731.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2709,293 +2793,656 @@
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B31" s="1">
+        <v>745.68917099999999</v>
+      </c>
       <c r="C31" s="1">
-        <v>6461413845</v>
+        <v>5965513365</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1120.1487569999999</v>
       </c>
       <c r="E31" s="1">
-        <v>6913162471</v>
+        <v>8961190053.5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>425.86830200000003</v>
       </c>
       <c r="G31" s="1">
-        <v>6144949457</v>
+        <v>3406946415.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B32" s="1">
+        <v>1.1130000000000001E-3</v>
+      </c>
       <c r="C32" s="1">
-        <v>2204</v>
+        <v>8907.5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="E32" s="1">
-        <v>2035</v>
+        <v>31.5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.6962999999999999E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>2155</v>
+        <v>135706.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B33" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
       <c r="C33" s="1">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="E33" s="1">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="G33" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B34" s="1">
+        <v>50.099004000000001</v>
+      </c>
       <c r="C34" s="1">
-        <v>389807917</v>
+        <v>400792030.5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>623.11886000000004</v>
       </c>
       <c r="E34" s="1">
-        <v>400868717</v>
+        <v>4984950884</v>
+      </c>
+      <c r="F34" s="1">
+        <v>52.988903000000001</v>
       </c>
       <c r="G34" s="1">
-        <v>402446396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+        <v>423911223.5</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
+      <c r="A36" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>37</v>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1">
-        <v>140257.80593900001</v>
-      </c>
       <c r="C38" s="1">
-        <v>1122062447509</v>
-      </c>
-      <c r="D38" s="1">
-        <v>145324.73734699999</v>
+        <v>877280361133</v>
       </c>
       <c r="E38" s="1">
-        <v>1162597898772</v>
-      </c>
-      <c r="F38" s="1">
-        <v>140276.67872600001</v>
+        <v>878772319920</v>
       </c>
       <c r="G38" s="1">
-        <v>1122213429805</v>
+        <v>877464443912</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="1">
-        <v>29.669802000000001</v>
-      </c>
       <c r="C39" s="1">
-        <v>237358413</v>
-      </c>
-      <c r="D39" s="1">
-        <v>29.022438999999999</v>
+        <v>210538810</v>
       </c>
       <c r="E39" s="1">
-        <v>232179510.5</v>
-      </c>
-      <c r="F39" s="1">
-        <v>14.434578</v>
+        <v>356654916</v>
       </c>
       <c r="G39" s="1">
-        <v>115476625.5</v>
+        <v>195628734</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="1">
-        <v>11.658239</v>
-      </c>
       <c r="C40" s="1">
-        <v>93265915.5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>14.327204</v>
+        <v>123363462</v>
       </c>
       <c r="E40" s="1">
-        <v>114617629</v>
-      </c>
-      <c r="F40" s="1">
-        <v>5.8368130000000003</v>
+        <v>228892890</v>
       </c>
       <c r="G40" s="1">
-        <v>46694506</v>
+        <v>119632667</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="1">
-        <v>11.657295</v>
-      </c>
       <c r="C41" s="1">
-        <v>93258359.5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>14.327204</v>
+        <v>123361377</v>
       </c>
       <c r="E41" s="1">
-        <v>114617632</v>
-      </c>
-      <c r="F41" s="1">
-        <v>5.8348409999999999</v>
+        <v>228890858</v>
       </c>
       <c r="G41" s="1">
-        <v>46678731.5</v>
+        <v>119630592</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1">
-        <v>745.68917099999999</v>
-      </c>
       <c r="C43" s="1">
-        <v>5965513365</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1120.1487569999999</v>
+        <v>6461413845</v>
       </c>
       <c r="E43" s="1">
-        <v>8961190053.5</v>
-      </c>
-      <c r="F43" s="1">
-        <v>425.86830200000003</v>
+        <v>6913162471</v>
       </c>
       <c r="G43" s="1">
-        <v>3406946415.5</v>
+        <v>6144949457</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="1">
-        <v>1.1130000000000001E-3</v>
-      </c>
       <c r="C44" s="1">
-        <v>8907.5</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3.9999999999999998E-6</v>
+        <v>2204</v>
       </c>
       <c r="E44" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1.6962999999999999E-2</v>
+        <v>2035</v>
       </c>
       <c r="G44" s="1">
-        <v>135706.5</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
       <c r="C45" s="1">
-        <v>20</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3.0000000000000001E-6</v>
+        <v>36</v>
       </c>
       <c r="E45" s="1">
-        <v>27</v>
-      </c>
-      <c r="F45" s="1">
-        <v>3.0000000000000001E-6</v>
+        <v>36</v>
       </c>
       <c r="G45" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="1">
-        <v>50.099004000000001</v>
-      </c>
       <c r="C46" s="1">
-        <v>400792030.5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>623.11886000000004</v>
+        <v>389807917</v>
       </c>
       <c r="E46" s="1">
-        <v>4984950884</v>
-      </c>
-      <c r="F46" s="1">
-        <v>52.988903000000001</v>
+        <v>400868717</v>
       </c>
       <c r="G46" s="1">
-        <v>423911223.5</v>
+        <v>402446396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>871244430240</v>
+      </c>
+      <c r="E50" s="1">
+        <v>873092484000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>876277641654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="1">
+        <v>267775344</v>
+      </c>
+      <c r="E51" s="1">
+        <v>282166725</v>
+      </c>
+      <c r="G51" s="1">
+        <v>300150254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>234927028</v>
+      </c>
+      <c r="E52" s="1">
+        <v>159258654</v>
+      </c>
+      <c r="G52" s="1">
+        <v>228684685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6771054688</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4906600808</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6541289608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>875340767324</v>
+      </c>
+      <c r="E55" s="1">
+        <v>872419782151</v>
+      </c>
+      <c r="G55" s="1">
+        <v>874985735564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1">
+        <v>96131410</v>
+      </c>
+      <c r="E56" s="1">
+        <v>156266036</v>
+      </c>
+      <c r="G56" s="1">
+        <v>129438461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1647</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2073</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>409185728</v>
+      </c>
+      <c r="E58" s="1">
+        <v>401573373</v>
+      </c>
+      <c r="G58" s="1">
+        <v>398384398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B62" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M62" s="11"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>195803.602495</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1566428819961.5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>184751.27264400001</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1478010181151.5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>176839.86805200001</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1414718944417</v>
+      </c>
+      <c r="H64" s="1">
+        <v>164987.29273799999</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1319898341900.5</v>
+      </c>
+      <c r="J64" s="1">
+        <v>139579.99488799999</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1116639959108</v>
+      </c>
+      <c r="L64" s="1">
+        <v>138141.08767099999</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1105128701366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="1">
+        <v>113.508774</v>
+      </c>
+      <c r="C65" s="1">
+        <v>908070188</v>
+      </c>
+      <c r="D65" s="1">
+        <v>115.561043</v>
+      </c>
+      <c r="E65" s="1">
+        <v>924488348</v>
+      </c>
+      <c r="F65" s="1">
+        <v>135.76726400000001</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1086138112.5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>130.572441</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1044579526.5</v>
+      </c>
+      <c r="J65" s="1">
+        <v>186.75927200000001</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1494074172.5</v>
+      </c>
+      <c r="L65" s="1">
+        <v>188.930027</v>
+      </c>
+      <c r="M65" s="1">
+        <v>1511440217.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1">
+        <v>187.79291799999999</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1502343342</v>
+      </c>
+      <c r="D66" s="1">
+        <v>28.449394999999999</v>
+      </c>
+      <c r="E66" s="1">
+        <v>227595159.5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>208.95451299999999</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1671636107</v>
+      </c>
+      <c r="H66" s="1">
+        <v>14.659408000000001</v>
+      </c>
+      <c r="I66" s="1">
+        <v>117275261.5</v>
+      </c>
+      <c r="J66" s="1">
+        <v>67.045439999999999</v>
+      </c>
+      <c r="K66" s="1">
+        <v>536363520.5</v>
+      </c>
+      <c r="L66" s="1">
+        <v>47.867528</v>
+      </c>
+      <c r="M66" s="1">
+        <v>382940223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>151.39014800000001</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1211121183.5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>10.088628</v>
+      </c>
+      <c r="E67" s="1">
+        <v>80709025</v>
+      </c>
+      <c r="F67" s="1">
+        <v>170.51944800000001</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1364155586.5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2.635618</v>
+      </c>
+      <c r="I67" s="1">
+        <v>21084941</v>
+      </c>
+      <c r="J67" s="1">
+        <v>36.114871999999998</v>
+      </c>
+      <c r="K67" s="1">
+        <v>288918979.5</v>
+      </c>
+      <c r="L67" s="1">
+        <v>20.876218000000001</v>
+      </c>
+      <c r="M67" s="1">
+        <v>167009744</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="J61:M61"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="89">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -270,6 +270,33 @@
   </si>
   <si>
     <t>LTO+PGO</t>
+  </si>
+  <si>
+    <t>pre_md</t>
+  </si>
+  <si>
+    <t>11.2-release_nopti</t>
+  </si>
+  <si>
+    <t>11.2-release_pti</t>
+  </si>
+  <si>
+    <t>1 phys core, 2 workers, 1G, select-only, linked with lld --no-rosegment and max-page-size=0x200000</t>
+  </si>
+  <si>
+    <t>What does DTLB and STLB look like? The increse here might  be from DTLB competition.</t>
+  </si>
+  <si>
+    <t>How many of these are 4K, and how many are 2M?</t>
+  </si>
+  <si>
+    <t>Ms_Lf with padding</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.STLB_HIT_4K</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.STLB_HIT_2M</t>
   </si>
 </sst>
 </file>
@@ -2217,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="F50" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2265,9 @@
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -3032,7 +3061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -3046,7 +3075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3089,7 @@
         <v>876277641654</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -3074,7 +3103,7 @@
         <v>300150254</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
@@ -3088,7 +3117,7 @@
         <v>228684685</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -3102,7 +3131,7 @@
         <v>6541289608</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3113,7 +3142,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3156,7 @@
         <v>874985735564</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
@@ -3141,7 +3170,7 @@
         <v>129438461</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3155,7 +3184,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,15 +3198,15 @@
         <v>398384398</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="11" t="s">
         <v>76</v>
@@ -3197,8 +3226,10 @@
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
         <v>75</v>
       </c>
@@ -3223,8 +3254,12 @@
         <v>64</v>
       </c>
       <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O62" s="11"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>33</v>
       </c>
@@ -3261,8 +3296,14 @@
       <c r="M63" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3297,13 +3338,22 @@
         <v>1116639959108</v>
       </c>
       <c r="L64" s="1">
-        <v>138141.08767099999</v>
+        <v>138231.978798</v>
       </c>
       <c r="M64" s="1">
-        <v>1105128701366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1105855830385</v>
+      </c>
+      <c r="N64" s="1">
+        <v>136578.52948699999</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1092628235895</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -3338,13 +3388,22 @@
         <v>1494074172.5</v>
       </c>
       <c r="L65" s="1">
-        <v>188.930027</v>
+        <v>186.79355100000001</v>
       </c>
       <c r="M65" s="1">
-        <v>1511440217.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1494348410</v>
+      </c>
+      <c r="N65" s="1">
+        <v>190.30417299999999</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1522433383.5</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -3379,15 +3438,24 @@
         <v>536363520.5</v>
       </c>
       <c r="L66" s="1">
-        <v>47.867528</v>
+        <v>50.960827999999999</v>
       </c>
       <c r="M66" s="1">
-        <v>382940223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>407686620.5</v>
+      </c>
+      <c r="N66" s="1">
+        <v>45.757987999999997</v>
+      </c>
+      <c r="O66" s="1">
+        <v>366063906.5</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" s="1">
         <v>151.39014800000001</v>
@@ -3420,29 +3488,338 @@
         <v>288918979.5</v>
       </c>
       <c r="L67" s="1">
-        <v>20.876218000000001</v>
+        <v>21.993981000000002</v>
       </c>
       <c r="M67" s="1">
-        <v>167009744</v>
+        <v>175951846</v>
+      </c>
+      <c r="N67" s="1">
+        <v>18.998203</v>
+      </c>
+      <c r="O67" s="1">
+        <v>151985624.5</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H68" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L69" s="1">
+        <v>138358.071375</v>
+      </c>
+      <c r="M69" s="1">
+        <v>1106864571002</v>
+      </c>
+      <c r="N69" s="1">
+        <v>136311.46108099999</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1090491688645</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L70" s="1">
+        <v>21.489221000000001</v>
+      </c>
+      <c r="M70" s="1">
+        <v>171913765</v>
+      </c>
+      <c r="N70" s="1">
+        <v>17.734165000000001</v>
+      </c>
+      <c r="O70" s="1">
+        <v>141873322</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L71" s="1">
+        <v>260.47150799999997</v>
+      </c>
+      <c r="M71" s="1">
+        <v>2083772060.5</v>
+      </c>
+      <c r="N71" s="1">
+        <v>51.112361999999997</v>
+      </c>
+      <c r="O71" s="1">
+        <v>408898897.5</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L72" s="1">
+        <v>1.9895620000000001</v>
+      </c>
+      <c r="M72" s="1">
+        <v>15916498</v>
+      </c>
+      <c r="N72" s="1">
+        <v>3.3670550000000001</v>
+      </c>
+      <c r="O72" s="1">
+        <v>26936437.5</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B112" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B113" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M113" s="11"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>195068.773426</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1560550187406.5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>195197.94776899999</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1561583582150.5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>195434.63178</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1563477054238</v>
+      </c>
+      <c r="H114" s="1">
+        <v>182232.24763100001</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1457857981046</v>
+      </c>
+      <c r="J114" s="1">
+        <v>181947.11027199999</v>
+      </c>
+      <c r="K114" s="1">
+        <v>1455576882174</v>
+      </c>
+      <c r="L114" s="1">
+        <v>181720.94249099999</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1453767539927.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="1">
+        <v>118.466221</v>
+      </c>
+      <c r="C115" s="1">
+        <v>947729770</v>
+      </c>
+      <c r="D115" s="1">
+        <v>111.177358</v>
+      </c>
+      <c r="E115" s="1">
+        <v>889418862</v>
+      </c>
+      <c r="F115" s="1">
+        <v>112.174053</v>
+      </c>
+      <c r="G115" s="1">
+        <v>897392426.5</v>
+      </c>
+      <c r="H115" s="1">
+        <v>122.027096</v>
+      </c>
+      <c r="I115" s="1">
+        <v>976216772</v>
+      </c>
+      <c r="J115" s="1">
+        <v>113.205917</v>
+      </c>
+      <c r="K115" s="1">
+        <v>905647335.5</v>
+      </c>
+      <c r="L115" s="1">
+        <v>116.306106</v>
+      </c>
+      <c r="M115" s="1">
+        <v>930448849.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>202.46380300000001</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1619710422</v>
+      </c>
+      <c r="D116" s="1">
+        <v>213.030585</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1704244676</v>
+      </c>
+      <c r="F116" s="1">
+        <v>242.602216</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1940817726.5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>36.531300000000002</v>
+      </c>
+      <c r="I116" s="1">
+        <v>292250400.5</v>
+      </c>
+      <c r="J116" s="1">
+        <v>46.082042000000001</v>
+      </c>
+      <c r="K116" s="1">
+        <v>368656335.5</v>
+      </c>
+      <c r="L116" s="1">
+        <v>54.025700999999998</v>
+      </c>
+      <c r="M116" s="1">
+        <v>432205611</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1">
+        <v>167.27607399999999</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1338208588.5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>164.59176600000001</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1316734128</v>
+      </c>
+      <c r="F117" s="1">
+        <v>189.06697199999999</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1512535774.5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>14.793008</v>
+      </c>
+      <c r="I117" s="1">
+        <v>118344060.5</v>
+      </c>
+      <c r="J117" s="1">
+        <v>10.728298000000001</v>
+      </c>
+      <c r="K117" s="1">
+        <v>85826388</v>
+      </c>
+      <c r="L117" s="1">
+        <v>12.151139000000001</v>
+      </c>
+      <c r="M117" s="1">
+        <v>97209115.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F118" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J61:M61"/>
+  <mergeCells count="24">
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="N62:O62"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:M112"/>
     <mergeCell ref="J62:K62"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="1GB" sheetId="2" r:id="rId1"/>
-    <sheet name="alignment test" sheetId="8" r:id="rId2"/>
-    <sheet name="LR" sheetId="7" r:id="rId3"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId4"/>
+    <sheet name="final 1GB" sheetId="9" r:id="rId1"/>
+    <sheet name="1GB" sheetId="2" r:id="rId2"/>
+    <sheet name="alignment test" sheetId="8" r:id="rId3"/>
+    <sheet name="LR" sheetId="7" r:id="rId4"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="134">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -287,9 +288,6 @@
     <t>What does DTLB and STLB look like? The increse here might  be from DTLB competition.</t>
   </si>
   <si>
-    <t>How many of these are 4K, and how many are 2M?</t>
-  </si>
-  <si>
     <t>Ms_Lf with padding</t>
   </si>
   <si>
@@ -297,14 +295,153 @@
   </si>
   <si>
     <t>ITLB_MISSES.STLB_HIT_2M</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P,</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_COMPLETED_4K,</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_COMPLETED_2M_4M,</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_COMPLETED,</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_PENDING,</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_COMPLETED_4K,</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_COMPLETED_2M_4M,</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_COMPLETED,</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_PENDING,</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED_4K,</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED_2M_4M,</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED,</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_PENDING,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L1D_MISS,cmask=8,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L2_MISS,cmask=1,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L3_MISS,cmask=2,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_MEM_ANY,cmask=16,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L1D_MISS,cmask=8,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L2_MISS,cmask=5,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS,cmask=6,</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_MEM_ANY,cmask=20,</t>
+  </si>
+  <si>
+    <t>RESOURCE_STALLS.ANY,</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.MISS,</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.REFERENCES,</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.CODE_RD_MISS,</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.CODE_RD_HIT,</t>
+  </si>
+  <si>
+    <t>ICACHE_16B.IFDATA_STALL,</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_HIT,</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_MISS,</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL,</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P,</t>
+  </si>
+  <si>
+    <t>ITLB.ITLB_FLUSH,</t>
+  </si>
+  <si>
+    <t>M_L</t>
+  </si>
+  <si>
+    <t>1 physical core</t>
+  </si>
+  <si>
+    <t>per trans</t>
+  </si>
+  <si>
+    <t>total (20000000)</t>
+  </si>
+  <si>
+    <t>2 physical core</t>
+  </si>
+  <si>
+    <t>total (40000000)</t>
+  </si>
+  <si>
+    <t>select-only, min</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_COMPLETED_4K,</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_COMPLETED_2M_4M,</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_COMPLETED,</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_PENDING,</t>
+  </si>
+  <si>
+    <t>Ms_L/M_L</t>
+  </si>
+  <si>
+    <t>ITLB walk time / unhalted cycles</t>
+  </si>
+  <si>
+    <t>DTLB walk time / unhalted cycles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -384,7 +521,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -395,12 +532,24 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -683,10 +832,1570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1">
+        <v>152468.69897299999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3049373979457</v>
+      </c>
+      <c r="D4" s="1">
+        <v>141493.00481300001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2829860096255</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4/C4</f>
+        <v>0.92801345958848624</v>
+      </c>
+      <c r="G4" s="1">
+        <v>152233.53081900001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6089341232771</v>
+      </c>
+      <c r="I4" s="1">
+        <v>141623.38165699999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5664935266288</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4/H4</f>
+        <v>0.93030346793525465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66.469938999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1329398788</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16.641660999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>332833221</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F39" si="0">E5/C5</f>
+        <v>0.25036371629368448</v>
+      </c>
+      <c r="G5" s="1">
+        <v>77.896812999999995</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3115872540</v>
+      </c>
+      <c r="I5" s="1">
+        <v>27.694693000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1107787729</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K39" si="1">J5/H5</f>
+        <v>0.35553050222009402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.0563640000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>161127288</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.1645050000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>83290099</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51692112511693245</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.4105760000000007</v>
+      </c>
+      <c r="H6" s="1">
+        <v>336423037</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.1402599999999996</v>
+      </c>
+      <c r="J6" s="1">
+        <v>205610397</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61116622343552529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="1">
+        <v>74.526302999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1490526064</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20.806165</v>
+      </c>
+      <c r="E7" s="1">
+        <v>416123309</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27917882085421891</v>
+      </c>
+      <c r="G7" s="1">
+        <v>86.307389999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3452295594</v>
+      </c>
+      <c r="I7" s="1">
+        <v>32.834952999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1313398108</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38044196165665878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3929.3041830000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>78586083661</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1394.659521</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27893190420</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35493803890678655</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4357.5466589999996</v>
+      </c>
+      <c r="H8" s="1">
+        <v>174301866361</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1930.9916900000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>77239667610</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4431373525859294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.6077789999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>92155579</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.1367370000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>22734747</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24669962737687318</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.4087059999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <v>216348249</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.2307969999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>89231868</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41244552896751202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.1199999999999999E-4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8249</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3135</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38004606618984121</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.8299999999999998E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>19318</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9581</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49596231493943471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.6081890000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>92163777</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1368910000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>22737823</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24671105872755192</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.4091870000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>216367484</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.2310340000000002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>89241358</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41245272325669785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="1">
+        <v>316.52424100000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6330484823</v>
+      </c>
+      <c r="D12" s="1">
+        <v>103.456891</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2069137811</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32685297711833722</v>
+      </c>
+      <c r="G12" s="1">
+        <v>359.53501299999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14381400538</v>
+      </c>
+      <c r="I12" s="1">
+        <v>167.62600399999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6705040169</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46622998582671143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B5+B9</f>
+        <v>71.07771799999999</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C5+C9</f>
+        <v>1421554367</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D5+D9</f>
+        <v>17.778397999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E5+E9</f>
+        <v>355567968</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25012618317959834</v>
+      </c>
+      <c r="G13" s="1">
+        <f>G5+G9</f>
+        <v>83.30551899999999</v>
+      </c>
+      <c r="H13" s="1">
+        <f>H5+H9</f>
+        <v>3332220789</v>
+      </c>
+      <c r="I13" s="1">
+        <f>I5+I9</f>
+        <v>29.92549</v>
+      </c>
+      <c r="J13" s="1">
+        <f>J5+J9</f>
+        <v>1197019597</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35922577548026935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B6+B10</f>
+        <v>8.056776000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C6+C10</f>
+        <v>161135537</v>
+      </c>
+      <c r="D14" s="1">
+        <f>D6+D10</f>
+        <v>4.1646619999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <f>E6+E10</f>
+        <v>83293234</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51691411808184806</v>
+      </c>
+      <c r="G14" s="1">
+        <f>G6+G10</f>
+        <v>8.4110589999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <f>H6+H10</f>
+        <v>336442355</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I6+I10</f>
+        <v>5.1404999999999994</v>
+      </c>
+      <c r="J14" s="1">
+        <f>J6+J10</f>
+        <v>205619978</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61115960860516505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B7+B11</f>
+        <v>79.134491999999995</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C7+C11</f>
+        <v>1582689841</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D7+D11</f>
+        <v>21.943055999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <f>E7+E11</f>
+        <v>438861132</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27728814618707093</v>
+      </c>
+      <c r="G15" s="1">
+        <f>G7+G11</f>
+        <v>91.716577000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <f>H7+H11</f>
+        <v>3668663078</v>
+      </c>
+      <c r="I15" s="1">
+        <f>I7+I11</f>
+        <v>35.065987</v>
+      </c>
+      <c r="J15" s="1">
+        <f>J7+J11</f>
+        <v>1402639466</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38232986681476888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B12</f>
+        <v>4245.8284240000003</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C8+C12</f>
+        <v>84916568484</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D8+D12</f>
+        <v>1498.1164120000001</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E8+E12</f>
+        <v>29962328231</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35284431255186094</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G8+G12</f>
+        <v>4717.0816719999993</v>
+      </c>
+      <c r="H16" s="1">
+        <f>H8+H12</f>
+        <v>188683266899</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I8+I12</f>
+        <v>2098.617694</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J8+J12</f>
+        <v>83944707779</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44489746843282424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1">
+        <v>116.723394</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2334467886</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.3049189999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>166098379</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1150423613066574E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>130.90129200000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5236051678</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10.902760000000001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>436110389</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>8.328993215104781E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.1100000000000004E-4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14211</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.33584599999999998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6716923</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>472.6566040391246</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9920</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.74716000000000005</v>
+      </c>
+      <c r="J18" s="1">
+        <v>29886397</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>3012.741633064516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1">
+        <v>116.72410499999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2334482092</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8.640765</v>
+      </c>
+      <c r="E19" s="1">
+        <v>172815295</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4027252379539776E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>130.90154100000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5236061628</v>
+      </c>
+      <c r="I19" s="1">
+        <v>11.64992</v>
+      </c>
+      <c r="J19" s="1">
+        <v>465996807</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8997578735144717E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5488.4649419999996</v>
+      </c>
+      <c r="C20" s="1">
+        <v>109769298843</v>
+      </c>
+      <c r="D20" s="1">
+        <v>803.73130300000003</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16074626066</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14644009058481</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6131.9143439999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>245276573758</v>
+      </c>
+      <c r="I20" s="1">
+        <v>967.763327</v>
+      </c>
+      <c r="J20" s="1">
+        <v>38710533076</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.157824012635603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="1">
+        <v>34464.149019999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>689282980408</v>
+      </c>
+      <c r="D21" s="1">
+        <v>31774.131552999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>635482631053</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92194737011618288</v>
+      </c>
+      <c r="G21" s="1">
+        <v>36120.756615999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1444830264642</v>
+      </c>
+      <c r="I21" s="1">
+        <v>33356.031577000002</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1334241263075</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92345882815902824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1">
+        <v>24379.468849000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>487589376973</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22460.20264</v>
+      </c>
+      <c r="E22" s="1">
+        <v>449204052792</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92127530665393154</v>
+      </c>
+      <c r="G22" s="1">
+        <v>25729.875088000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1029195003537</v>
+      </c>
+      <c r="I22" s="1">
+        <v>23849.991839999999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>953999673619</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92693772350275827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3455.6440539999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>69112881077</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3457.5220960000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>69150441912</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0005434708322773</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3522.5521939999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>140902087755</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3512.2404499999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>140489617996</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99707264976997922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="1">
+        <v>107058.72343300001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2141174468658</v>
+      </c>
+      <c r="D24" s="1">
+        <v>104683.01109099999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2093660221826</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97780925957809506</v>
+      </c>
+      <c r="G24" s="1">
+        <v>107182.51695</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4287300678008</v>
+      </c>
+      <c r="I24" s="1">
+        <v>104904.28589699999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4196171435877</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97874437811221082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>34600.249135999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>692004982718</v>
+      </c>
+      <c r="D25" s="1">
+        <v>31649.669376999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>632993387535</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91472374237650844</v>
+      </c>
+      <c r="G25" s="1">
+        <v>36031.507416</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1441260296658</v>
+      </c>
+      <c r="I25" s="1">
+        <v>33232.984080000002</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1329319363182</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9223312168276826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="1">
+        <v>16321.951791</v>
+      </c>
+      <c r="C26" s="1">
+        <v>326439035819</v>
+      </c>
+      <c r="D26" s="1">
+        <v>14090.825035</v>
+      </c>
+      <c r="E26" s="1">
+        <v>281816500700</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8633051497439731</v>
+      </c>
+      <c r="G26" s="1">
+        <v>17218.125112999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>688725004506</v>
+      </c>
+      <c r="I26" s="1">
+        <v>15069.622756000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>602784910244</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8752185651751645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3234.1524359999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>64683048729</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3221.697529</v>
+      </c>
+      <c r="E27" s="1">
+        <v>64433950589</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99614894249892838</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3295.7749680000002</v>
+      </c>
+      <c r="H27" s="1">
+        <v>131830998707</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3279.6023519999999</v>
+      </c>
+      <c r="J27" s="1">
+        <v>131184094071</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9950929247116016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42862.719188000003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>857254383751</v>
+      </c>
+      <c r="D28" s="1">
+        <v>40201.949702999998</v>
+      </c>
+      <c r="E28" s="1">
+        <v>804038994066</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9379234557516628</v>
+      </c>
+      <c r="G28" s="1">
+        <v>43441.515655000003</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1737660626190</v>
+      </c>
+      <c r="I28" s="1">
+        <v>40789.026121000003</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1631561044835</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93894113743738661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11147.194020999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>222943880417</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10846.882887</v>
+      </c>
+      <c r="E29" s="1">
+        <v>216937657742</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97305948625382399</v>
+      </c>
+      <c r="G29" s="1">
+        <v>12012.651760000001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>480506070405</v>
+      </c>
+      <c r="I29" s="1">
+        <v>11945.142266999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>477805690691</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99438013402885017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6664.9802970000001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>133299605941</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6525.1544709999998</v>
+      </c>
+      <c r="E30" s="1">
+        <v>130503089418</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97902081927955753</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7190.8975060000002</v>
+      </c>
+      <c r="H30" s="1">
+        <v>287635900252</v>
+      </c>
+      <c r="I30" s="1">
+        <v>7091.5965489999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>283663861952</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98619074219692304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6711.2193699999998</v>
+      </c>
+      <c r="C31" s="1">
+        <v>134224387404</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6664.5595270000003</v>
+      </c>
+      <c r="E31" s="1">
+        <v>133291190532</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99304748645124241</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7275.131848</v>
+      </c>
+      <c r="H31" s="1">
+        <v>291005273927</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7364.8490949999996</v>
+      </c>
+      <c r="J31" s="1">
+        <v>294593963816</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0123320441604788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2740.6869350000002</v>
+      </c>
+      <c r="C32" s="1">
+        <v>54813738700</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2759.7765239999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>55195530480</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0069652570515135</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3106.75153</v>
+      </c>
+      <c r="H32" s="1">
+        <v>124270061208</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3190.4241010000001</v>
+      </c>
+      <c r="J32" s="1">
+        <v>127616964046</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0269324952886121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1099.818561</v>
+      </c>
+      <c r="C33" s="1">
+        <v>21996371225</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1225.3812889999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>24507625775</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1141667652501623</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1398.6561400000001</v>
+      </c>
+      <c r="H33" s="1">
+        <v>55946245615</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1569.785852</v>
+      </c>
+      <c r="J33" s="1">
+        <v>62791434090</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.122352955050923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1">
+        <v>22883.304520999998</v>
+      </c>
+      <c r="C34" s="1">
+        <v>457666090421</v>
+      </c>
+      <c r="D34" s="1">
+        <v>21370.5566</v>
+      </c>
+      <c r="E34" s="1">
+        <v>427411131998</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93389294278899071</v>
+      </c>
+      <c r="G34" s="1">
+        <v>24310.199990000001</v>
+      </c>
+      <c r="H34" s="1">
+        <v>972407999618</v>
+      </c>
+      <c r="I34" s="1">
+        <v>22723.309517999998</v>
+      </c>
+      <c r="J34" s="1">
+        <v>908932380739</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93472326543597373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="1">
+        <v>29627.186633000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>592543732666</v>
+      </c>
+      <c r="D35" s="1">
+        <v>30056.701709000001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>601134034179</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0144973291242996</v>
+      </c>
+      <c r="G35" s="1">
+        <v>28958.344798999999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1158333791953</v>
+      </c>
+      <c r="I35" s="1">
+        <v>29422.626961999998</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1176905078480</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0160327589991898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4099.5488509999996</v>
+      </c>
+      <c r="C36" s="1">
+        <v>81990977027</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4198.0394120000001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>83960788237</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0240247315183393</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4661.3943280000003</v>
+      </c>
+      <c r="H36" s="1">
+        <v>186455773108</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5052.6572939999996</v>
+      </c>
+      <c r="J36" s="1">
+        <v>202106291742</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0839368949168167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1">
+        <v>17632.958374000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>352659167479</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2608.6957950000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>52173915908</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14794430634248812</v>
+      </c>
+      <c r="G37" s="1">
+        <v>18002.192145000001</v>
+      </c>
+      <c r="H37" s="1">
+        <v>720087685805</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2836.6660360000001</v>
+      </c>
+      <c r="J37" s="1">
+        <v>113466641438</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15757336734782992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1">
+        <v>115739.22741199999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2314784548239</v>
+      </c>
+      <c r="D38" s="1">
+        <v>115742.41846</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2314848369201</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000275710160795</v>
+      </c>
+      <c r="G38" s="1">
+        <v>115891.86399699999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4635674559862</v>
+      </c>
+      <c r="I38" s="1">
+        <v>115888.97012699999</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4635558805093</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99997502957390449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.3684E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>273684</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.6950000000000004E-3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>133892</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48922114555472734</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.1502999999999999E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>460126</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.4097999999999999E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>563905</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2255447420923833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="17">
+        <f>B20/B4</f>
+        <v>3.5997322591254793E-2</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" ref="C41:K41" si="2">C20/C4</f>
+        <v>3.599732259227402E-2</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="2"/>
+        <v>5.6803606938889131E-3</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="2"/>
+        <v>5.680360696019196E-3</v>
+      </c>
+      <c r="F41" s="17">
+        <f t="shared" si="2"/>
+        <v>0.15779953304744812</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="2"/>
+        <v>4.0279656597406371E-2</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" si="2"/>
+        <v>4.0279656597005171E-2</v>
+      </c>
+      <c r="I41" s="17">
+        <f t="shared" si="2"/>
+        <v>6.8333584163654702E-3</v>
+      </c>
+      <c r="J41" s="17">
+        <f t="shared" si="2"/>
+        <v>6.8333584156497216E-3</v>
+      </c>
+      <c r="K41" s="17">
+        <f t="shared" si="2"/>
+        <v>0.16964788165939301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="17">
+        <f>B16/B4</f>
+        <v>2.78472135762887E-2</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" ref="C42:K42" si="3">C16/C4</f>
+        <v>2.7847213577627837E-2</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0587918561627416E-2</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0587918558465755E-2</v>
+      </c>
+      <c r="F42" s="17">
+        <f t="shared" si="3"/>
+        <v>0.38021464980510572</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="3"/>
+        <v>3.098582583365575E-2</v>
+      </c>
+      <c r="H42" s="17">
+        <f t="shared" si="3"/>
+        <v>3.098582583671999E-2</v>
+      </c>
+      <c r="I42" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4818299559338844E-2</v>
+      </c>
+      <c r="J42" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4818299562671883E-2</v>
+      </c>
+      <c r="K42" s="17">
+        <f t="shared" si="3"/>
+        <v>0.4782283241620543</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,18 +2417,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -2242,12 +3951,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F50" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2261,30 +3970,32 @@
     <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
@@ -2306,16 +4017,16 @@
       <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2341,12 +4052,12 @@
         <f t="shared" ref="I4:I12" si="0">E4/C4</f>
         <v>1.0358336545849225</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J12" si="1">G4/C4</f>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L12" si="1">G4/C4</f>
         <v>1.0037232360448329</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2372,12 +4083,12 @@
         <f t="shared" si="0"/>
         <v>0.93249988034218723</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>0.50888943784235352</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2403,12 +4114,12 @@
         <f t="shared" si="0"/>
         <v>1.181052423298623</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>0.54562271790298444</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2434,18 +4145,18 @@
         <f t="shared" si="0"/>
         <v>1.1811455375433255</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
         <v>0.54550614881506287</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
       <c r="D8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2471,12 +4182,12 @@
         <f t="shared" si="0"/>
         <v>1.4544843229057163</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>0.55382311340761381</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2502,12 +4213,12 @@
         <f t="shared" si="0"/>
         <v>5.3333333333333332E-3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="1"/>
         <v>17.808076190476189</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2533,12 +4244,12 @@
         <f t="shared" si="0"/>
         <v>1.4634146341463414</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="1"/>
         <v>1.3414634146341464</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2564,17 +4275,17 @@
         <f t="shared" si="0"/>
         <v>12.437138362919036</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <f t="shared" si="1"/>
         <v>1.0555023710388396</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="1">
         <v>140447.25551799999</v>
       </c>
@@ -2588,7 +4299,7 @@
         <v>1118828911444</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="1">
         <v>10.607939999999999</v>
       </c>
@@ -2602,7 +4313,7 @@
         <v>121322979.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="1">
         <v>3.6480079999999999</v>
       </c>
@@ -2687,18 +4398,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3061,7 +4772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -3075,7 +4786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -3089,7 +4800,7 @@
         <v>876277641654</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,7 +4814,7 @@
         <v>300150254</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
@@ -3117,7 +4828,7 @@
         <v>228684685</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -3131,7 +4842,7 @@
         <v>6541289608</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3142,7 +4853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3156,7 +4867,7 @@
         <v>874985735564</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +4881,7 @@
         <v>129438461</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -3184,7 +4895,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,68 +4909,74 @@
         <v>398384398</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="11" t="s">
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B62" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11" t="s">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11" t="s">
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11" t="s">
+      <c r="I62" s="12"/>
+      <c r="J62" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11" t="s">
+      <c r="M62" s="12"/>
+      <c r="N62" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O62" s="11"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O62" s="12"/>
+      <c r="P62" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62" s="12"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>33</v>
       </c>
@@ -3302,8 +5019,14 @@
       <c r="O63" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,34 +5049,40 @@
         <v>1414718944417</v>
       </c>
       <c r="H64" s="1">
-        <v>164987.29273799999</v>
+        <v>165473.61220599999</v>
       </c>
       <c r="I64" s="1">
-        <v>1319898341900.5</v>
+        <v>1323788897647</v>
       </c>
       <c r="J64" s="1">
+        <v>164597.635839</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1316781086715.5</v>
+      </c>
+      <c r="L64" s="1">
         <v>139579.99488799999</v>
       </c>
-      <c r="K64" s="1">
+      <c r="M64" s="1">
         <v>1116639959108</v>
       </c>
-      <c r="L64" s="1">
+      <c r="N64" s="1">
         <v>138231.978798</v>
       </c>
-      <c r="M64" s="1">
+      <c r="O64" s="1">
         <v>1105855830385</v>
       </c>
-      <c r="N64" s="1">
+      <c r="P64" s="1">
         <v>136578.52948699999</v>
       </c>
-      <c r="O64" s="1">
+      <c r="Q64" s="1">
         <v>1092628235895</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="S64" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,34 +5105,40 @@
         <v>1086138112.5</v>
       </c>
       <c r="H65" s="1">
-        <v>130.572441</v>
+        <v>137.042925</v>
       </c>
       <c r="I65" s="1">
-        <v>1044579526.5</v>
+        <v>1096343404</v>
       </c>
       <c r="J65" s="1">
+        <v>134.14905899999999</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1073192474</v>
+      </c>
+      <c r="L65" s="1">
         <v>186.75927200000001</v>
       </c>
-      <c r="K65" s="1">
+      <c r="M65" s="1">
         <v>1494074172.5</v>
       </c>
-      <c r="L65" s="1">
+      <c r="N65" s="1">
         <v>186.79355100000001</v>
       </c>
-      <c r="M65" s="1">
+      <c r="O65" s="1">
         <v>1494348410</v>
       </c>
-      <c r="N65" s="1">
+      <c r="P65" s="1">
         <v>190.30417299999999</v>
       </c>
-      <c r="O65" s="1">
+      <c r="Q65" s="1">
         <v>1522433383.5</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="S65" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -3426,34 +5161,40 @@
         <v>1671636107</v>
       </c>
       <c r="H66" s="1">
-        <v>14.659408000000001</v>
+        <v>17.013721</v>
       </c>
       <c r="I66" s="1">
-        <v>117275261.5</v>
+        <v>136109766.5</v>
       </c>
       <c r="J66" s="1">
+        <v>15.803006</v>
+      </c>
+      <c r="K66" s="1">
+        <v>126424051</v>
+      </c>
+      <c r="L66" s="1">
         <v>67.045439999999999</v>
       </c>
-      <c r="K66" s="1">
+      <c r="M66" s="1">
         <v>536363520.5</v>
       </c>
-      <c r="L66" s="1">
+      <c r="N66" s="1">
         <v>50.960827999999999</v>
       </c>
-      <c r="M66" s="1">
+      <c r="O66" s="1">
         <v>407686620.5</v>
       </c>
-      <c r="N66" s="1">
+      <c r="P66" s="1">
         <v>45.757987999999997</v>
       </c>
-      <c r="O66" s="1">
+      <c r="Q66" s="1">
         <v>366063906.5</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -3476,156 +5217,209 @@
         <v>1364155586.5</v>
       </c>
       <c r="H67" s="1">
-        <v>2.635618</v>
+        <v>4.4505590000000002</v>
       </c>
       <c r="I67" s="1">
-        <v>21084941</v>
+        <v>35604475</v>
       </c>
       <c r="J67" s="1">
+        <v>3.8737849999999998</v>
+      </c>
+      <c r="K67" s="1">
+        <v>30990281.5</v>
+      </c>
+      <c r="L67" s="1">
         <v>36.114871999999998</v>
       </c>
-      <c r="K67" s="1">
+      <c r="M67" s="1">
         <v>288918979.5</v>
       </c>
-      <c r="L67" s="1">
+      <c r="N67" s="1">
         <v>21.993981000000002</v>
       </c>
-      <c r="M67" s="1">
+      <c r="O67" s="1">
         <v>175951846</v>
       </c>
-      <c r="N67" s="1">
+      <c r="P67" s="1">
         <v>18.998203</v>
       </c>
-      <c r="O67" s="1">
+      <c r="Q67" s="1">
         <v>151985624.5</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="S67" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H68" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L69" s="1">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H69" s="1">
+        <v>165490.956049</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1323927648394</v>
+      </c>
+      <c r="J69" s="1">
+        <v>164402.17560799999</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1315217404866</v>
+      </c>
+      <c r="N69" s="1">
         <v>138358.071375</v>
       </c>
-      <c r="M69" s="1">
+      <c r="O69" s="1">
         <v>1106864571002</v>
       </c>
-      <c r="N69" s="1">
+      <c r="P69" s="1">
         <v>136311.46108099999</v>
       </c>
-      <c r="O69" s="1">
+      <c r="Q69" s="1">
         <v>1090491688645</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="S69" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L70" s="1">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H70" s="1">
+        <v>4.3720699999999999</v>
+      </c>
+      <c r="I70" s="1">
+        <v>34976561</v>
+      </c>
+      <c r="J70" s="1">
+        <v>3.8909829999999999</v>
+      </c>
+      <c r="K70" s="1">
+        <v>31127864</v>
+      </c>
+      <c r="N70" s="1">
         <v>21.489221000000001</v>
       </c>
-      <c r="M70" s="1">
+      <c r="O70" s="1">
         <v>171913765</v>
       </c>
-      <c r="N70" s="1">
+      <c r="P70" s="1">
         <v>17.734165000000001</v>
       </c>
-      <c r="O70" s="1">
+      <c r="Q70" s="1">
         <v>141873322</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="S70" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L71" s="1">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H71" s="1">
+        <v>107.71528000000001</v>
+      </c>
+      <c r="I71" s="1">
+        <v>861722241.5</v>
+      </c>
+      <c r="J71" s="1">
+        <v>47.307139999999997</v>
+      </c>
+      <c r="K71" s="1">
+        <v>378457120</v>
+      </c>
+      <c r="N71" s="1">
         <v>260.47150799999997</v>
       </c>
-      <c r="M71" s="1">
+      <c r="O71" s="1">
         <v>2083772060.5</v>
       </c>
-      <c r="N71" s="1">
+      <c r="P71" s="1">
         <v>51.112361999999997</v>
       </c>
-      <c r="O71" s="1">
+      <c r="Q71" s="1">
         <v>408898897.5</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="S71" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H72" s="1">
+        <v>2.2816749999999999</v>
+      </c>
+      <c r="I72" s="1">
+        <v>18253401</v>
+      </c>
+      <c r="J72" s="1">
+        <v>3.9177710000000001</v>
+      </c>
+      <c r="K72" s="1">
+        <v>31342166.5</v>
+      </c>
+      <c r="N72" s="1">
+        <v>1.9895620000000001</v>
+      </c>
+      <c r="O72" s="1">
+        <v>15916498</v>
+      </c>
+      <c r="P72" s="1">
+        <v>3.3670550000000001</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>26936437.5</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L72" s="1">
-        <v>1.9895620000000001</v>
-      </c>
-      <c r="M72" s="1">
-        <v>15916498</v>
-      </c>
-      <c r="N72" s="1">
-        <v>3.3670550000000001</v>
-      </c>
-      <c r="O72" s="1">
-        <v>26936437.5</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B112" s="11" t="s">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B112" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11" t="s">
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B113" s="11" t="s">
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B113" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11" t="s">
+      <c r="C113" s="12"/>
+      <c r="D113" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11" t="s">
+      <c r="E113" s="12"/>
+      <c r="F113" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11" t="s">
+      <c r="G113" s="12"/>
+      <c r="H113" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11" t="s">
+      <c r="I113" s="12"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11" t="s">
+      <c r="M113" s="12"/>
+      <c r="N113" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M113" s="11"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O113" s="12"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,20 +5447,20 @@
       <c r="I114" s="1">
         <v>1457857981046</v>
       </c>
-      <c r="J114" s="1">
+      <c r="L114" s="1">
         <v>181947.11027199999</v>
       </c>
-      <c r="K114" s="1">
+      <c r="M114" s="1">
         <v>1455576882174</v>
       </c>
-      <c r="L114" s="1">
+      <c r="N114" s="1">
         <v>181720.94249099999</v>
       </c>
-      <c r="M114" s="1">
+      <c r="O114" s="1">
         <v>1453767539927.5</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>73</v>
       </c>
@@ -3694,20 +5488,20 @@
       <c r="I115" s="1">
         <v>976216772</v>
       </c>
-      <c r="J115" s="1">
+      <c r="L115" s="1">
         <v>113.205917</v>
       </c>
-      <c r="K115" s="1">
+      <c r="M115" s="1">
         <v>905647335.5</v>
       </c>
-      <c r="L115" s="1">
+      <c r="N115" s="1">
         <v>116.306106</v>
       </c>
-      <c r="M115" s="1">
+      <c r="O115" s="1">
         <v>930448849.5</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -3735,20 +5529,20 @@
       <c r="I116" s="1">
         <v>292250400.5</v>
       </c>
-      <c r="J116" s="1">
+      <c r="L116" s="1">
         <v>46.082042000000001</v>
       </c>
-      <c r="K116" s="1">
+      <c r="M116" s="1">
         <v>368656335.5</v>
       </c>
-      <c r="L116" s="1">
+      <c r="N116" s="1">
         <v>54.025700999999998</v>
       </c>
-      <c r="M116" s="1">
+      <c r="O116" s="1">
         <v>432205611</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -3776,56 +5570,57 @@
       <c r="I117" s="1">
         <v>118344060.5</v>
       </c>
-      <c r="J117" s="1">
+      <c r="L117" s="1">
         <v>10.728298000000001</v>
       </c>
-      <c r="K117" s="1">
+      <c r="M117" s="1">
         <v>85826388</v>
       </c>
-      <c r="L117" s="1">
+      <c r="N117" s="1">
         <v>12.151139000000001</v>
       </c>
-      <c r="M117" s="1">
+      <c r="O117" s="1">
         <v>97209115.5</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F118" s="1" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:O112"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:M113"/>
     <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:O61"/>
-    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:K62"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="H112:M112"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="N62:O62"/>
     <mergeCell ref="B61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -5709,7 +7504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="final 1GB" sheetId="9" r:id="rId1"/>
-    <sheet name="1GB" sheetId="2" r:id="rId2"/>
-    <sheet name="alignment test" sheetId="8" r:id="rId3"/>
-    <sheet name="LR" sheetId="7" r:id="rId4"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId5"/>
+    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId1"/>
+    <sheet name="final 1GB" sheetId="9" r:id="rId2"/>
+    <sheet name="1GB" sheetId="2" r:id="rId3"/>
+    <sheet name="alignment test" sheetId="8" r:id="rId4"/>
+    <sheet name="LR" sheetId="7" r:id="rId5"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -433,6 +434,78 @@
   </si>
   <si>
     <t>DTLB walk time / unhalted cycles</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L1D_MISS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L2_MISS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_MEM_ANY</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.MISS</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.REFERENCES</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.CODE_RD_MISS</t>
+  </si>
+  <si>
+    <t>L2_RQSTS.CODE_RD_HIT</t>
+  </si>
+  <si>
+    <t>ICACHE_16B.IFDATA_STALL</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_HIT</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_MISS</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P</t>
+  </si>
+  <si>
+    <t>ITLB.ITLB_FLUSH</t>
+  </si>
+  <si>
+    <t>total (320000)</t>
+  </si>
+  <si>
+    <t>total (640000)</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_COMPLETED</t>
+  </si>
+  <si>
+    <t>DTLB_MISSES.WALK_PENDING</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P,os</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P,os</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L1D_MISS,os</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L2_MISS,os</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS,os</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_MEM_ANY,os</t>
   </si>
 </sst>
 </file>
@@ -521,7 +594,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -535,12 +608,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,6 +617,15 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -834,8 +910,1394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3609749.1182749998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1155119717848</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3307580.767484</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1058425845595</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4/C4</f>
+        <v>0.91629103827165059</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3174358.1981870001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2031589246840</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2860663.5978020001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1830824702593</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4/H4</f>
+        <v>0.90117857506911114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1877.5801160000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>600825637</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1751.523128</v>
+      </c>
+      <c r="E5" s="1">
+        <v>560487401</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F37" si="0">E5/C5</f>
+        <v>0.9328619927048819</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1872.7369450000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1198551645</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1805.100222</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1155264142</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K37" si="1">J5/H5</f>
+        <v>0.9638834895596009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>104.194312</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33342180</v>
+      </c>
+      <c r="D6" s="1">
+        <v>98.750713000000005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>31600228</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94775530574185607</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100.31312699999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>64200401</v>
+      </c>
+      <c r="I6" s="1">
+        <v>96.470174999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>61740912</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96169044177777019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6023407.2555940002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1927490321790</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5891163.2294119997</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1885172233412</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9780449800968648</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5825344.7906520003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3728220666017</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5494306.345892</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3516356061371</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94317272939953334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>122691.214266</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39261188565</v>
+      </c>
+      <c r="D8" s="1">
+        <v>117864.638691</v>
+      </c>
+      <c r="E8" s="1">
+        <v>37716684381</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96066078892535434</v>
+      </c>
+      <c r="G8" s="1">
+        <v>120393.729792</v>
+      </c>
+      <c r="H8" s="1">
+        <v>77051987067</v>
+      </c>
+      <c r="I8" s="1">
+        <v>117027.2977</v>
+      </c>
+      <c r="J8" s="1">
+        <v>74897470528</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97203814436185076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1153.1589220000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>369010855</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1159.353419</v>
+      </c>
+      <c r="E9" s="1">
+        <v>370993094</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0053717633862018</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1145.087102</v>
+      </c>
+      <c r="H9" s="1">
+        <v>732855745</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1153.5978729999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>738302639</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0074324231435206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>14.139575000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4524664</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14.228156</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4553010</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0062647745777367</v>
+      </c>
+      <c r="G10" s="1">
+        <v>13.14838</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8414963</v>
+      </c>
+      <c r="I10" s="1">
+        <v>13.089823000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8377487</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99554650448255089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4573521.3353530001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1463526827313</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4334809.7596969996</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1387139123103</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94780573694692982</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4570836.622273</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2925335438255</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4323546.0936860004</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2767069499959</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94589819128899366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>50975.210544000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16312067374</v>
+      </c>
+      <c r="D12" s="1">
+        <v>52191.472999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16701271360</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.023859880975011</v>
+      </c>
+      <c r="G12" s="1">
+        <v>48067.160766000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30762982890</v>
+      </c>
+      <c r="I12" s="1">
+        <v>48582.567002999996</v>
+      </c>
+      <c r="J12" s="1">
+        <v>31092842882</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0107226270345593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1813.5918529999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>580349393</v>
+      </c>
+      <c r="D13" s="1">
+        <v>794.66413399999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>254292523</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43817142925830543</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1882.480239</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1204787353</v>
+      </c>
+      <c r="I13" s="1">
+        <v>836.11775299999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>535115362</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44415751930623065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14.013544</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4484334</v>
+      </c>
+      <c r="D14" s="1">
+        <v>27.080065999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8665621</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9324209570473565</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13.016400000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8330496</v>
+      </c>
+      <c r="I14" s="1">
+        <v>23.821618999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15245836</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8301234404289972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1813.6061159999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>580353957</v>
+      </c>
+      <c r="D15" s="1">
+        <v>807.74498100000005</v>
+      </c>
+      <c r="E15" s="1">
+        <v>258478394</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44538060072191427</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1882.497228</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1204798226</v>
+      </c>
+      <c r="I15" s="1">
+        <v>846.93992300000002</v>
+      </c>
+      <c r="J15" s="1">
+        <v>542041551</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44990234821278696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>107091.66607799999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>34269333145</v>
+      </c>
+      <c r="D16" s="1">
+        <v>53336.697596999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17067743231</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49804713616057733</v>
+      </c>
+      <c r="G16" s="1">
+        <v>105396.595609</v>
+      </c>
+      <c r="H16" s="1">
+        <v>67453821190</v>
+      </c>
+      <c r="I16" s="1">
+        <v>53721.106382999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>34381508085</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5097043796548778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="1">
+        <v>542684.28000599996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>173658969602</v>
+      </c>
+      <c r="D17" s="1">
+        <v>551028.46429100004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>176329108573</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0153757619149737</v>
+      </c>
+      <c r="G17" s="1">
+        <v>593836.69892300002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>380055487311</v>
+      </c>
+      <c r="I17" s="1">
+        <v>571444.85131399997</v>
+      </c>
+      <c r="J17" s="1">
+        <v>365724704841</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96229292051170123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="1">
+        <v>386937.90100900002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>123820128323</v>
+      </c>
+      <c r="D18" s="1">
+        <v>391328.79585599998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>125225214674</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0113478024133093</v>
+      </c>
+      <c r="G18" s="1">
+        <v>461929.95089799998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>295635168575</v>
+      </c>
+      <c r="I18" s="1">
+        <v>449260.03444700001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>287526422046</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97257177971049513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="1">
+        <v>221779.78726899999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>70969531926</v>
+      </c>
+      <c r="D19" s="1">
+        <v>222866.05370300001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>71317137185</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0048979505650741</v>
+      </c>
+      <c r="G19" s="1">
+        <v>299960.16464799998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>191974505375</v>
+      </c>
+      <c r="I19" s="1">
+        <v>293369.05421099998</v>
+      </c>
+      <c r="J19" s="1">
+        <v>187756194695</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97802671416311238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1436719.3077750001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>459750178488</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1452154.7879339999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>464689532139</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0107435600509047</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1373935.687928</v>
+      </c>
+      <c r="H20" s="1">
+        <v>879318840274</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1339114.0483939999</v>
+      </c>
+      <c r="J20" s="1">
+        <v>857032990972</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97465555350200883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="1">
+        <v>512001.90364700003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>163840609167</v>
+      </c>
+      <c r="D21" s="1">
+        <v>498081.79206900002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>159386173462</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97281238315917351</v>
+      </c>
+      <c r="G21" s="1">
+        <v>435957.30470600002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>279012675012</v>
+      </c>
+      <c r="I21" s="1">
+        <v>407288.00083600002</v>
+      </c>
+      <c r="J21" s="1">
+        <v>260664320535</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9342382761779161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1">
+        <v>423328.70317200001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>135465185015</v>
+      </c>
+      <c r="D22" s="1">
+        <v>411468.162572</v>
+      </c>
+      <c r="E22" s="1">
+        <v>131669812023</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97198266852416926</v>
+      </c>
+      <c r="G22" s="1">
+        <v>383375.96486900002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>245360617516</v>
+      </c>
+      <c r="I22" s="1">
+        <v>359733.93118900002</v>
+      </c>
+      <c r="J22" s="1">
+        <v>230229715961</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93833198779745774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="1">
+        <v>257172.98144100001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>82295354061</v>
+      </c>
+      <c r="D23" s="1">
+        <v>253559.15063399999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>81138928203</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9859478597401401</v>
+      </c>
+      <c r="G23" s="1">
+        <v>270017.31257499999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>172811080048</v>
+      </c>
+      <c r="I23" s="1">
+        <v>254127.310986</v>
+      </c>
+      <c r="J23" s="1">
+        <v>162641479031</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94115191564004297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1020404.253725</v>
+      </c>
+      <c r="C24" s="1">
+        <v>326529361192</v>
+      </c>
+      <c r="D24" s="1">
+        <v>930714.09572800004</v>
+      </c>
+      <c r="E24" s="1">
+        <v>297828510633</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91210330840011711</v>
+      </c>
+      <c r="G24" s="1">
+        <v>827486.03746999998</v>
+      </c>
+      <c r="H24" s="1">
+        <v>529591063981</v>
+      </c>
+      <c r="I24" s="1">
+        <v>718250.62745499995</v>
+      </c>
+      <c r="J24" s="1">
+        <v>459680401571</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86799123481338014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>396984.70952199999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>127035107047</v>
+      </c>
+      <c r="D25" s="1">
+        <v>413469.08017500001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>132310105656</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0415239435115238</v>
+      </c>
+      <c r="G25" s="1">
+        <v>287579.35541600001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>184050787466</v>
+      </c>
+      <c r="I25" s="1">
+        <v>280410.519539</v>
+      </c>
+      <c r="J25" s="1">
+        <v>179462732505</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97507179934317012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="1">
+        <v>94380.722131000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30201831082</v>
+      </c>
+      <c r="D26" s="1">
+        <v>94884.386578000005</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30363003705</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0053365182581946</v>
+      </c>
+      <c r="G26" s="1">
+        <v>81634.512356000007</v>
+      </c>
+      <c r="H26" s="1">
+        <v>52246087908</v>
+      </c>
+      <c r="I26" s="1">
+        <v>82326.597290999998</v>
+      </c>
+      <c r="J26" s="1">
+        <v>52689022266</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0084778473515561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="1">
+        <v>113143.70886300001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>36205986836</v>
+      </c>
+      <c r="D27" s="1">
+        <v>114211.292503</v>
+      </c>
+      <c r="E27" s="1">
+        <v>36547613601</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0094356429655529</v>
+      </c>
+      <c r="G27" s="1">
+        <v>103396.032769</v>
+      </c>
+      <c r="H27" s="1">
+        <v>66173460972</v>
+      </c>
+      <c r="I27" s="1">
+        <v>105299.76583</v>
+      </c>
+      <c r="J27" s="1">
+        <v>67391850131</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0184120513133739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="1">
+        <v>38403.921674999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12289254936</v>
+      </c>
+      <c r="D28" s="1">
+        <v>39871.286906000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>12758811810</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0382087340888735</v>
+      </c>
+      <c r="G28" s="1">
+        <v>34240.632990999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>21914005114</v>
+      </c>
+      <c r="I28" s="1">
+        <v>35461.446304999998</v>
+      </c>
+      <c r="J28" s="1">
+        <v>22695325635</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0356539353228884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="1">
+        <v>27749.419336999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8879814188</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28299.774571999998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9055927863</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0198330360603711</v>
+      </c>
+      <c r="G29" s="1">
+        <v>30938.696683999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>19800765878</v>
+      </c>
+      <c r="I29" s="1">
+        <v>32413.433316999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>20744597323</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0476664110274978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="1">
+        <v>253165.89902800001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>81013087689</v>
+      </c>
+      <c r="D30" s="1">
+        <v>241826.437481</v>
+      </c>
+      <c r="E30" s="1">
+        <v>77384459994</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95520936433221892</v>
+      </c>
+      <c r="G30" s="1">
+        <v>192418.53930199999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>123147865153</v>
+      </c>
+      <c r="I30" s="1">
+        <v>181300.73895</v>
+      </c>
+      <c r="J30" s="1">
+        <v>116032472928</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94222074238834941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="1">
+        <v>655869.55762800004</v>
+      </c>
+      <c r="C31" s="1">
+        <v>209878258441</v>
+      </c>
+      <c r="D31" s="1">
+        <v>661964.80244999996</v>
+      </c>
+      <c r="E31" s="1">
+        <v>211828736784</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0092933796834811</v>
+      </c>
+      <c r="G31" s="1">
+        <v>698790.070725</v>
+      </c>
+      <c r="H31" s="1">
+        <v>447225645264</v>
+      </c>
+      <c r="I31" s="1">
+        <v>705642.58019400004</v>
+      </c>
+      <c r="J31" s="1">
+        <v>451611251324</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0098062490522233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="1">
+        <v>68246.227274999997</v>
+      </c>
+      <c r="C32" s="1">
+        <v>21838792728</v>
+      </c>
+      <c r="D32" s="1">
+        <v>71905.931530999995</v>
+      </c>
+      <c r="E32" s="1">
+        <v>23009898090</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.053625004668802</v>
+      </c>
+      <c r="G32" s="1">
+        <v>66633.839619999999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>42645657357</v>
+      </c>
+      <c r="I32" s="1">
+        <v>70585.165852999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45174506146</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0592990927031614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="1">
+        <v>251870.95406300001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>80598705300</v>
+      </c>
+      <c r="D33" s="1">
+        <v>112732.97828700001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>36074553052</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44758228953834078</v>
+      </c>
+      <c r="G33" s="1">
+        <v>216645.79528300001</v>
+      </c>
+      <c r="H33" s="1">
+        <v>138653308981</v>
+      </c>
+      <c r="I33" s="1">
+        <v>106818.20253</v>
+      </c>
+      <c r="J33" s="1">
+        <v>68363649619</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49305458428235593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1918305.260028</v>
+      </c>
+      <c r="C34" s="1">
+        <v>613857683209</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1917889.742106</v>
+      </c>
+      <c r="E34" s="1">
+        <v>613724717474</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99978339322185417</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1917154.8533379999</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1226979106136</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1916794.047095</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1226748190141</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99981180120032587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14.807947</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4738543</v>
+      </c>
+      <c r="D35" s="1">
+        <v>14.773766</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4727605</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99769169552750714</v>
+      </c>
+      <c r="G35" s="1">
+        <v>14.232964000000001</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9109097</v>
+      </c>
+      <c r="I35" s="1">
+        <v>14.118494999999999</v>
+      </c>
+      <c r="J35" s="1">
+        <v>9035837</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99195749040766612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="1">
+        <f>B5+B6+B9+B10</f>
+        <v>3149.0729250000004</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:K36" si="2">C5+C6+C9+C10</f>
+        <v>1007703336</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>3023.8554160000003</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>967633733</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96023670700639618</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>3131.285554</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>2004022754</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>3068.2580929999999</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>1963685180</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97987169860248002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="1">
+        <f>B8+B12</f>
+        <v>173666.42481</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:K37" si="3">C8+C12</f>
+        <v>55573255939</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="3"/>
+        <v>170056.111691</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="3"/>
+        <v>54417955741</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97921121988482884</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>168460.89055800001</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>107814969957</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>165609.864703</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="3"/>
+        <v>105990313410</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98307603714282232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,68 +2320,68 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1257,23 +2719,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="1">
-        <f>B5+B9</f>
+        <f t="shared" ref="B13:E16" si="2">B5+B9</f>
         <v>71.07771799999999</v>
       </c>
       <c r="C13" s="1">
-        <f>C5+C9</f>
+        <f t="shared" si="2"/>
         <v>1421554367</v>
       </c>
       <c r="D13" s="1">
-        <f>D5+D9</f>
+        <f t="shared" si="2"/>
         <v>17.778397999999999</v>
       </c>
       <c r="E13" s="1">
-        <f>E5+E9</f>
+        <f t="shared" si="2"/>
         <v>355567968</v>
       </c>
       <c r="F13" s="1">
@@ -1281,19 +2743,19 @@
         <v>0.25012618317959834</v>
       </c>
       <c r="G13" s="1">
-        <f>G5+G9</f>
+        <f t="shared" ref="G13:J16" si="3">G5+G9</f>
         <v>83.30551899999999</v>
       </c>
       <c r="H13" s="1">
-        <f>H5+H9</f>
+        <f t="shared" si="3"/>
         <v>3332220789</v>
       </c>
       <c r="I13" s="1">
-        <f>I5+I9</f>
+        <f t="shared" si="3"/>
         <v>29.92549</v>
       </c>
       <c r="J13" s="1">
-        <f>J5+J9</f>
+        <f t="shared" si="3"/>
         <v>1197019597</v>
       </c>
       <c r="K13" s="1">
@@ -1302,23 +2764,23 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B14" s="1">
-        <f>B6+B10</f>
+        <f t="shared" si="2"/>
         <v>8.056776000000001</v>
       </c>
       <c r="C14" s="1">
-        <f>C6+C10</f>
+        <f t="shared" si="2"/>
         <v>161135537</v>
       </c>
       <c r="D14" s="1">
-        <f>D6+D10</f>
+        <f t="shared" si="2"/>
         <v>4.1646619999999999</v>
       </c>
       <c r="E14" s="1">
-        <f>E6+E10</f>
+        <f t="shared" si="2"/>
         <v>83293234</v>
       </c>
       <c r="F14" s="1">
@@ -1326,19 +2788,19 @@
         <v>0.51691411808184806</v>
       </c>
       <c r="G14" s="1">
-        <f>G6+G10</f>
+        <f t="shared" si="3"/>
         <v>8.4110589999999998</v>
       </c>
       <c r="H14" s="1">
-        <f>H6+H10</f>
+        <f t="shared" si="3"/>
         <v>336442355</v>
       </c>
       <c r="I14" s="1">
-        <f>I6+I10</f>
+        <f t="shared" si="3"/>
         <v>5.1404999999999994</v>
       </c>
       <c r="J14" s="1">
-        <f>J6+J10</f>
+        <f t="shared" si="3"/>
         <v>205619978</v>
       </c>
       <c r="K14" s="1">
@@ -1347,23 +2809,23 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="1">
-        <f>B7+B11</f>
+        <f t="shared" si="2"/>
         <v>79.134491999999995</v>
       </c>
       <c r="C15" s="1">
-        <f>C7+C11</f>
+        <f t="shared" si="2"/>
         <v>1582689841</v>
       </c>
       <c r="D15" s="1">
-        <f>D7+D11</f>
+        <f t="shared" si="2"/>
         <v>21.943055999999999</v>
       </c>
       <c r="E15" s="1">
-        <f>E7+E11</f>
+        <f t="shared" si="2"/>
         <v>438861132</v>
       </c>
       <c r="F15" s="1">
@@ -1371,19 +2833,19 @@
         <v>0.27728814618707093</v>
       </c>
       <c r="G15" s="1">
-        <f>G7+G11</f>
+        <f t="shared" si="3"/>
         <v>91.716577000000001</v>
       </c>
       <c r="H15" s="1">
-        <f>H7+H11</f>
+        <f t="shared" si="3"/>
         <v>3668663078</v>
       </c>
       <c r="I15" s="1">
-        <f>I7+I11</f>
+        <f t="shared" si="3"/>
         <v>35.065987</v>
       </c>
       <c r="J15" s="1">
-        <f>J7+J11</f>
+        <f t="shared" si="3"/>
         <v>1402639466</v>
       </c>
       <c r="K15" s="1">
@@ -1392,23 +2854,23 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B16" s="1">
-        <f>B8+B12</f>
+        <f t="shared" si="2"/>
         <v>4245.8284240000003</v>
       </c>
       <c r="C16" s="1">
-        <f>C8+C12</f>
+        <f t="shared" si="2"/>
         <v>84916568484</v>
       </c>
       <c r="D16" s="1">
-        <f>D8+D12</f>
+        <f t="shared" si="2"/>
         <v>1498.1164120000001</v>
       </c>
       <c r="E16" s="1">
-        <f>E8+E12</f>
+        <f t="shared" si="2"/>
         <v>29962328231</v>
       </c>
       <c r="F16" s="1">
@@ -1416,19 +2878,19 @@
         <v>0.35284431255186094</v>
       </c>
       <c r="G16" s="1">
-        <f>G8+G12</f>
+        <f t="shared" si="3"/>
         <v>4717.0816719999993</v>
       </c>
       <c r="H16" s="1">
-        <f>H8+H12</f>
+        <f t="shared" si="3"/>
         <v>188683266899</v>
       </c>
       <c r="I16" s="1">
-        <f>I8+I12</f>
+        <f t="shared" si="3"/>
         <v>2098.617694</v>
       </c>
       <c r="J16" s="1">
-        <f>J8+J12</f>
+        <f t="shared" si="3"/>
         <v>83944707779</v>
       </c>
       <c r="K16" s="1">
@@ -2287,93 +3749,93 @@
         <v>1.2255447420923833</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="15">
         <f>B20/B4</f>
         <v>3.5997322591254793E-2</v>
       </c>
-      <c r="C41" s="17">
-        <f t="shared" ref="C41:K41" si="2">C20/C4</f>
+      <c r="C41" s="15">
+        <f t="shared" ref="C41:K41" si="4">C20/C4</f>
         <v>3.599732259227402E-2</v>
       </c>
-      <c r="D41" s="17">
-        <f t="shared" si="2"/>
+      <c r="D41" s="15">
+        <f t="shared" si="4"/>
         <v>5.6803606938889131E-3</v>
       </c>
-      <c r="E41" s="17">
-        <f t="shared" si="2"/>
+      <c r="E41" s="15">
+        <f t="shared" si="4"/>
         <v>5.680360696019196E-3</v>
       </c>
-      <c r="F41" s="17">
-        <f t="shared" si="2"/>
+      <c r="F41" s="15">
+        <f t="shared" si="4"/>
         <v>0.15779953304744812</v>
       </c>
-      <c r="G41" s="17">
-        <f t="shared" si="2"/>
+      <c r="G41" s="15">
+        <f t="shared" si="4"/>
         <v>4.0279656597406371E-2</v>
       </c>
-      <c r="H41" s="17">
-        <f t="shared" si="2"/>
+      <c r="H41" s="15">
+        <f t="shared" si="4"/>
         <v>4.0279656597005171E-2</v>
       </c>
-      <c r="I41" s="17">
-        <f t="shared" si="2"/>
+      <c r="I41" s="15">
+        <f t="shared" si="4"/>
         <v>6.8333584163654702E-3</v>
       </c>
-      <c r="J41" s="17">
-        <f t="shared" si="2"/>
+      <c r="J41" s="15">
+        <f t="shared" si="4"/>
         <v>6.8333584156497216E-3</v>
       </c>
-      <c r="K41" s="17">
-        <f t="shared" si="2"/>
+      <c r="K41" s="15">
+        <f t="shared" si="4"/>
         <v>0.16964788165939301</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <f>B16/B4</f>
         <v>2.78472135762887E-2</v>
       </c>
-      <c r="C42" s="17">
-        <f t="shared" ref="C42:K42" si="3">C16/C4</f>
+      <c r="C42" s="15">
+        <f t="shared" ref="C42:K42" si="5">C16/C4</f>
         <v>2.7847213577627837E-2</v>
       </c>
-      <c r="D42" s="17">
-        <f t="shared" si="3"/>
+      <c r="D42" s="15">
+        <f t="shared" si="5"/>
         <v>1.0587918561627416E-2</v>
       </c>
-      <c r="E42" s="17">
-        <f t="shared" si="3"/>
+      <c r="E42" s="15">
+        <f t="shared" si="5"/>
         <v>1.0587918558465755E-2</v>
       </c>
-      <c r="F42" s="17">
-        <f t="shared" si="3"/>
+      <c r="F42" s="15">
+        <f t="shared" si="5"/>
         <v>0.38021464980510572</v>
       </c>
-      <c r="G42" s="17">
-        <f t="shared" si="3"/>
+      <c r="G42" s="15">
+        <f t="shared" si="5"/>
         <v>3.098582583365575E-2</v>
       </c>
-      <c r="H42" s="17">
-        <f t="shared" si="3"/>
+      <c r="H42" s="15">
+        <f t="shared" si="5"/>
         <v>3.098582583671999E-2</v>
       </c>
-      <c r="I42" s="17">
-        <f t="shared" si="3"/>
+      <c r="I42" s="15">
+        <f t="shared" si="5"/>
         <v>1.4818299559338844E-2</v>
       </c>
-      <c r="J42" s="17">
-        <f t="shared" si="3"/>
+      <c r="J42" s="15">
+        <f t="shared" si="5"/>
         <v>1.4818299562671883E-2</v>
       </c>
-      <c r="K42" s="17">
-        <f t="shared" si="3"/>
+      <c r="K42" s="15">
+        <f t="shared" si="5"/>
         <v>0.4782283241620543</v>
       </c>
     </row>
@@ -2390,7 +3852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
@@ -2417,18 +3879,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -3951,7 +5413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S118"/>
   <sheetViews>
@@ -3982,18 +5444,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
@@ -4398,18 +5860,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -4919,62 +6381,62 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="12" t="s">
+      <c r="L61" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12" t="s">
+      <c r="C62" s="18"/>
+      <c r="D62" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12" t="s">
+      <c r="E62" s="18"/>
+      <c r="F62" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12" t="s">
+      <c r="G62" s="18"/>
+      <c r="H62" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12" t="s">
+      <c r="I62" s="18"/>
+      <c r="J62" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12" t="s">
+      <c r="K62" s="18"/>
+      <c r="L62" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12" t="s">
+      <c r="M62" s="18"/>
+      <c r="N62" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12" t="s">
+      <c r="O62" s="18"/>
+      <c r="P62" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="12"/>
+      <c r="Q62" s="18"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
@@ -5372,52 +6834,52 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12" t="s">
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12" t="s">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12" t="s">
+      <c r="E113" s="18"/>
+      <c r="F113" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12" t="s">
+      <c r="G113" s="18"/>
+      <c r="H113" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="12"/>
+      <c r="I113" s="18"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="12" t="s">
+      <c r="L113" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12" t="s">
+      <c r="M113" s="18"/>
+      <c r="N113" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="12"/>
+      <c r="O113" s="18"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
@@ -5590,6 +7052,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="N113:O113"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="H112:O112"/>
@@ -5603,24 +7077,12 @@
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="L113:M113"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -7504,7 +8966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId1"/>
-    <sheet name="final 1GB" sheetId="9" r:id="rId2"/>
-    <sheet name="1GB" sheetId="2" r:id="rId3"/>
-    <sheet name="alignment test" sheetId="8" r:id="rId4"/>
-    <sheet name="LR" sheetId="7" r:id="rId5"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId6"/>
+    <sheet name="final 1GB various db sizes" sheetId="11" r:id="rId1"/>
+    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId2"/>
+    <sheet name="final 1GB" sheetId="9" r:id="rId3"/>
+    <sheet name="1GB" sheetId="2" r:id="rId4"/>
+    <sheet name="alignment test" sheetId="8" r:id="rId5"/>
+    <sheet name="LR" sheetId="7" r:id="rId6"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="163">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -506,15 +507,31 @@
   </si>
   <si>
     <t>CYCLE_ACTIVITY.STALLS_MEM_ANY,os</t>
+  </si>
+  <si>
+    <t>1 physical core, 1.5G</t>
+  </si>
+  <si>
+    <t>1 physical core, 2G</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L2_MISS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L3_MISS</t>
+  </si>
+  <si>
+    <t>TODO: Why is os mem stalls not going down comparing M vs. Ms? Could be that hardware pre-fetching is working and so the sequential pte and pv_entry touches don't really induce a lot of misses.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -586,15 +603,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -620,19 +641,27 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -910,8 +939,738 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:K37"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>152609.73465299999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3052194693053</v>
+      </c>
+      <c r="D4" s="1">
+        <v>141855.407052</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2837108141036</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4/C4</f>
+        <v>0.92953052683482107</v>
+      </c>
+      <c r="G4" s="1">
+        <v>152520.86717000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3050417343401</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4/H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>77.806353999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1556127081</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23.619633</v>
+      </c>
+      <c r="E5" s="1">
+        <v>472392655</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F23" si="0">E5/C5</f>
+        <v>0.30356945828385079</v>
+      </c>
+      <c r="G5" s="1">
+        <v>75.015174000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1500303481</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K23" si="1">J5/H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4056.0329179999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>81120658367</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1543.7720870000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30875441747</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38061133093022548</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3950.1702019999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>79003404031</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.6955299999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>93910606</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.293283</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25865659</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27542851762664594</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.6178939999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>92357878</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>317.79470900000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6355894189</v>
+      </c>
+      <c r="D8" s="1">
+        <v>106.20886</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2124177192</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33420587707017912</v>
+      </c>
+      <c r="G8" s="1">
+        <v>308.36296900000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6167259380</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>114.757964</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2295159283</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.6336209999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>172672429</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5233309635181433E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>113.82759299999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2276551859</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5496.0490600000003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>109920981204</v>
+      </c>
+      <c r="D10" s="1">
+        <v>817.43987800000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16348797569</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14873227467519251</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5457.5926120000004</v>
+      </c>
+      <c r="H10" s="1">
+        <v>109151852234</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1">
+        <v>115846.357928</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2316927158559</v>
+      </c>
+      <c r="D11" s="1">
+        <v>115847.922979</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2316958459574</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000135097104301</v>
+      </c>
+      <c r="G11" s="1">
+        <v>115936.918741</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2318738374824</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="1">
+        <v>24534.466195000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>490689323901</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22930.104199000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>458602083984</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9346078295286615</v>
+      </c>
+      <c r="G12" s="1">
+        <v>24645.824778999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>492916495589</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3595.040328</v>
+      </c>
+      <c r="C13" s="1">
+        <v>71900806568</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3592.338456</v>
+      </c>
+      <c r="E13" s="1">
+        <v>71846769123</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99924844452267869</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3681.2321160000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>73624642325</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21738.962718999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>434779254389</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19045.900823</v>
+      </c>
+      <c r="E14" s="1">
+        <v>380918016467</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87611819704302174</v>
+      </c>
+      <c r="G14" s="1">
+        <v>21896.348055999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>437926961111</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16436.098414</v>
+      </c>
+      <c r="C15" s="1">
+        <v>328721968288</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14568.234048</v>
+      </c>
+      <c r="E15" s="1">
+        <v>291364680964</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88635597578537706</v>
+      </c>
+      <c r="G15" s="1">
+        <v>16573.863835</v>
+      </c>
+      <c r="H15" s="1">
+        <v>331477276692</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3372.3308769999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>67446617545</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3358.7600499999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>67175201001</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99597583164464976</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3442.8784059999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>68857568120</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>180648.100083</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3612962001662</v>
+      </c>
+      <c r="D17" s="1">
+        <v>170311.71691700001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3406234338335</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94278166688941012</v>
+      </c>
+      <c r="G17" s="1">
+        <v>180351.442362</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3607028847241</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="1">
+        <v>128755.06963300001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2575101392663</v>
+      </c>
+      <c r="D18" s="1">
+        <v>128718.01957800001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2574360391563</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99971224391314795</v>
+      </c>
+      <c r="G18" s="1">
+        <v>128850.14658299999</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2577002931659</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="1">
+        <v>23065.869860999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>461317397226</v>
+      </c>
+      <c r="D19" s="1">
+        <v>21909.418377000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>438188367548</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94986308815344966</v>
+      </c>
+      <c r="G19" s="1">
+        <v>22840.274474000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>456805489486</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="1">
+        <v>29577.516531000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>591550330614</v>
+      </c>
+      <c r="D20" s="1">
+        <v>30059.906640000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>601198132799</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0163093513530557</v>
+      </c>
+      <c r="G20" s="1">
+        <v>29637.197866999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>592743957347</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4041.0692829999998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>80821385668</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4332.4334500000004</v>
+      </c>
+      <c r="E21" s="1">
+        <v>86648669010</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0721007601371431</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4098.7973039999997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>81975946078</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="1">
+        <v>17674.415663</v>
+      </c>
+      <c r="C22" s="1">
+        <v>353488313258</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2657.6882759999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>53153765522</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15036923012276432</v>
+      </c>
+      <c r="G22" s="1">
+        <v>17675.026441000002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>353500528814</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.2397E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>247938</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.2422000000000001E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>248450</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.002065032387129</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.4243E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>284870</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,40 +1693,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="13" t="s">
         <v>131</v>
       </c>
@@ -2192,7 +2951,7 @@
         <v>3149.0729250000004</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" ref="C36:K36" si="2">C5+C6+C9+C10</f>
+        <f t="shared" ref="C36:J36" si="2">C5+C6+C9+C10</f>
         <v>1007703336</v>
       </c>
       <c r="D36" s="1">
@@ -2237,7 +2996,7 @@
         <v>173666.42481</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:K37" si="3">C8+C12</f>
+        <f t="shared" ref="C37:J37" si="3">C8+C12</f>
         <v>55573255939</v>
       </c>
       <c r="D37" s="1">
@@ -2271,6 +3030,22 @@
       <c r="K37" s="1">
         <f t="shared" si="1"/>
         <v>0.98307603714282232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2292,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -2320,40 +3095,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="11" t="s">
         <v>131</v>
       </c>
@@ -3852,7 +4627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
@@ -3879,18 +4654,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -5413,7 +6188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S118"/>
   <sheetViews>
@@ -5444,18 +6219,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
@@ -5860,18 +6635,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -6381,62 +7156,62 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18" t="s">
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="18" t="s">
+      <c r="L61" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18" t="s">
+      <c r="E62" s="19"/>
+      <c r="F62" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18" t="s">
+      <c r="G62" s="19"/>
+      <c r="H62" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18" t="s">
+      <c r="I62" s="19"/>
+      <c r="J62" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18" t="s">
+      <c r="K62" s="19"/>
+      <c r="L62" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18" t="s">
+      <c r="M62" s="19"/>
+      <c r="N62" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18" t="s">
+      <c r="O62" s="19"/>
+      <c r="P62" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="18"/>
+      <c r="Q62" s="19"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
@@ -6834,52 +7609,52 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18" t="s">
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18" t="s">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18" t="s">
+      <c r="E113" s="19"/>
+      <c r="F113" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18" t="s">
+      <c r="G113" s="19"/>
+      <c r="H113" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="18"/>
+      <c r="I113" s="19"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="18" t="s">
+      <c r="L113" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18" t="s">
+      <c r="M113" s="19"/>
+      <c r="N113" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="18"/>
+      <c r="O113" s="19"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
@@ -7082,7 +7857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -8966,7 +9741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winnie/Development/research/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8501380F-6DA1-431B-9C6C-94C149E2FC1F}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="923" yWindow="458" windowWidth="24683" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="final 1GB various db sizes" sheetId="11" r:id="rId1"/>
-    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId2"/>
-    <sheet name="final 1GB" sheetId="9" r:id="rId3"/>
-    <sheet name="1GB" sheetId="2" r:id="rId4"/>
-    <sheet name="alignment test" sheetId="8" r:id="rId5"/>
-    <sheet name="LR" sheetId="7" r:id="rId6"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId7"/>
+    <sheet name="parallelism" sheetId="12" r:id="rId1"/>
+    <sheet name="final 1GB various db sizes" sheetId="11" r:id="rId2"/>
+    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId3"/>
+    <sheet name="final 1GB" sheetId="9" r:id="rId4"/>
+    <sheet name="1GB" sheetId="2" r:id="rId5"/>
+    <sheet name="alignment test" sheetId="8" r:id="rId6"/>
+    <sheet name="LR" sheetId="7" r:id="rId7"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="175">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -522,12 +529,48 @@
   </si>
   <si>
     <t>TODO: Why is os mem stalls not going down comparing M vs. Ms? Could be that hardware pre-fetching is working and so the sequential pte and pv_entry touches don't really induce a lot of misses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database size: 8.53GB (scale factor = 640) </t>
+  </si>
+  <si>
+    <t>4 physical cores should all be used</t>
+  </si>
+  <si>
+    <t>M_L (baseline kernel)</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P (os + user)</t>
+  </si>
+  <si>
+    <t>4 clients</t>
+  </si>
+  <si>
+    <t>16 clients</t>
+  </si>
+  <si>
+    <t>32 clients</t>
+  </si>
+  <si>
+    <t>all results presented are per transaction per client and are user-space results  (3,000,000 transactions per client)</t>
+  </si>
+  <si>
+    <t>16 clients/ 4 clients</t>
+  </si>
+  <si>
+    <t>32 clients/ 4 clients</t>
+  </si>
+  <si>
+    <t>inst addr translation overhead / total execution cycles</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -615,7 +658,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -641,6 +684,7 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,7 +694,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -669,6 +715,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -936,802 +985,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98BA9-6D5F-43A5-B1C1-4803FF720BC6}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="37.1875" customWidth="1"/>
+    <col min="2" max="3" width="10.9375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B6" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>152609.73465299999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3052194693053</v>
-      </c>
-      <c r="D4" s="1">
-        <v>141855.407052</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2837108141036</v>
-      </c>
-      <c r="F4" s="1">
-        <f>E4/C4</f>
-        <v>0.92953052683482107</v>
-      </c>
-      <c r="G4" s="1">
-        <v>152520.86717000001</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3050417343401</v>
-      </c>
-      <c r="K4" s="1">
-        <f>J4/H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="3">
+        <v>139320.31380500001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>166233.025177</v>
+      </c>
+      <c r="I7" s="3">
+        <f>C7/B7</f>
+        <v>1.1931714811500385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>77.806353999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1556127081</v>
-      </c>
-      <c r="D5" s="1">
-        <v>23.619633</v>
-      </c>
-      <c r="E5" s="1">
-        <v>472392655</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F23" si="0">E5/C5</f>
-        <v>0.30356945828385079</v>
-      </c>
-      <c r="G5" s="1">
-        <v>75.015174000000002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1500303481</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" ref="K5:K23" si="1">J5/H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="3">
+        <v>30.529081000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>245.57641899999999</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" ref="I8:I21" si="0">C8/B8</f>
+        <v>8.0440160973073507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>4056.0329179999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>81120658367</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1543.7720870000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30875441747</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38061133093022548</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3950.1702019999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>79003404031</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="3">
+        <v>1641.985588</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10657.799916</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4907999155958489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>4.6955299999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>93910606</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.293283</v>
-      </c>
-      <c r="E7" s="1">
-        <v>25865659</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27542851762664594</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.6178939999999997</v>
-      </c>
-      <c r="H7" s="1">
-        <v>92357878</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="3">
+        <v>1.9639869999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>22.867788999999998</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>11.643554157945037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>317.79470900000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6355894189</v>
-      </c>
-      <c r="D8" s="1">
-        <v>106.20886</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2124177192</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33420587707017912</v>
-      </c>
-      <c r="G8" s="1">
-        <v>308.36296900000002</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6167259380</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="3">
+        <v>244.754627</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1127.1537330000001</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6052397326077932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
-        <v>114.757964</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2295159283</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8.6336209999999998</v>
-      </c>
-      <c r="E9" s="1">
-        <v>172672429</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>7.5233309635181433E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>113.82759299999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2276551859</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="3">
+        <v>112.59295400000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>351.782555</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>3.124374505708412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
-        <v>5496.0490600000003</v>
-      </c>
-      <c r="C10" s="1">
-        <v>109920981204</v>
-      </c>
-      <c r="D10" s="1">
-        <v>817.43987800000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>16348797569</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14873227467519251</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5457.5926120000004</v>
-      </c>
-      <c r="H10" s="1">
-        <v>109151852234</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="3">
+        <v>4846.5346250000002</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13019.730836000001</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6864000452694587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14025.579484</v>
+      </c>
+      <c r="C14" s="3">
+        <v>24380.117581999999</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.738260983071122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="3">
+        <v>202674.90353099999</v>
+      </c>
+      <c r="C15" s="3">
+        <v>231706.077494</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1432401025347452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="1">
-        <v>115846.357928</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2316927158559</v>
-      </c>
-      <c r="D11" s="1">
-        <v>115847.922979</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2316958459574</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000135097104301</v>
-      </c>
-      <c r="G11" s="1">
-        <v>115936.918741</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2318738374824</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="1">
-        <v>24534.466195000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>490689323901</v>
-      </c>
-      <c r="D12" s="1">
-        <v>22930.104199000001</v>
-      </c>
-      <c r="E12" s="1">
-        <v>458602083984</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9346078295286615</v>
-      </c>
-      <c r="G12" s="1">
-        <v>24645.824778999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>492916495589</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3595.040328</v>
-      </c>
-      <c r="C13" s="1">
-        <v>71900806568</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3592.338456</v>
-      </c>
-      <c r="E13" s="1">
-        <v>71846769123</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99924844452267869</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3681.2321160000001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>73624642325</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="B16" s="3">
+        <v>170226.30035899999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>155138.92887999999</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91136874004086699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="3">
+        <v>117670.28529</v>
+      </c>
+      <c r="C17" s="3">
+        <v>118168.297143</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0042322651956919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4251.3366150000002</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5553.3820040000001</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3062673005957679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37353.777627000003</v>
+      </c>
+      <c r="C19" s="3">
+        <v>51099.054978</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3679755629605894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="1">
-        <v>21738.962718999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>434779254389</v>
-      </c>
-      <c r="D14" s="1">
-        <v>19045.900823</v>
-      </c>
-      <c r="E14" s="1">
-        <v>380918016467</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.87611819704302174</v>
-      </c>
-      <c r="G14" s="1">
-        <v>21896.348055999999</v>
-      </c>
-      <c r="H14" s="1">
-        <v>437926961111</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="B20" s="3">
+        <v>19332.581488</v>
+      </c>
+      <c r="C20" s="3">
+        <v>31366.939052999998</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6224909783760586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="1">
-        <v>16436.098414</v>
-      </c>
-      <c r="C15" s="1">
-        <v>328721968288</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14568.234048</v>
-      </c>
-      <c r="E15" s="1">
-        <v>291364680964</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88635597578537706</v>
-      </c>
-      <c r="G15" s="1">
-        <v>16573.863835</v>
-      </c>
-      <c r="H15" s="1">
-        <v>331477276692</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3372.3308769999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>67446617545</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3358.7600499999999</v>
-      </c>
-      <c r="E16" s="1">
-        <v>67175201001</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99597583164464976</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3442.8784059999998</v>
-      </c>
-      <c r="H16" s="1">
-        <v>68857568120</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>180648.100083</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3612962001662</v>
-      </c>
-      <c r="D17" s="1">
-        <v>170311.71691700001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3406234338335</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94278166688941012</v>
-      </c>
-      <c r="G17" s="1">
-        <v>180351.442362</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3607028847241</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="1">
-        <v>128755.06963300001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2575101392663</v>
-      </c>
-      <c r="D18" s="1">
-        <v>128718.01957800001</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2574360391563</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99971224391314795</v>
-      </c>
-      <c r="G18" s="1">
-        <v>128850.14658299999</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2577002931659</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="1">
-        <v>23065.869860999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>461317397226</v>
-      </c>
-      <c r="D19" s="1">
-        <v>21909.418377000002</v>
-      </c>
-      <c r="E19" s="1">
-        <v>438188367548</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94986308815344966</v>
-      </c>
-      <c r="G19" s="1">
-        <v>22840.274474000002</v>
-      </c>
-      <c r="H19" s="1">
-        <v>456805489486</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="1">
-        <v>29577.516531000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>591550330614</v>
-      </c>
-      <c r="D20" s="1">
-        <v>30059.906640000001</v>
-      </c>
-      <c r="E20" s="1">
-        <v>601198132799</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0163093513530557</v>
-      </c>
-      <c r="G20" s="1">
-        <v>29637.197866999999</v>
-      </c>
-      <c r="H20" s="1">
-        <v>592743957347</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4041.0692829999998</v>
-      </c>
-      <c r="C21" s="1">
-        <v>80821385668</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4332.4334500000004</v>
-      </c>
-      <c r="E21" s="1">
-        <v>86648669010</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0721007601371431</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4098.7973039999997</v>
-      </c>
-      <c r="H21" s="1">
-        <v>81975946078</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="1">
-        <v>17674.415663</v>
-      </c>
-      <c r="C22" s="1">
-        <v>353488313258</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2657.6882759999999</v>
-      </c>
-      <c r="E22" s="1">
-        <v>53153765522</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15036923012276432</v>
-      </c>
-      <c r="G22" s="1">
-        <v>17675.026441000002</v>
-      </c>
-      <c r="H22" s="1">
-        <v>353500528814</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="3">
+        <v>15235.831464000001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>24829.723055999999</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6296926829801797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="1">
-        <v>1.2397E-2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>247938</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.2422000000000001E-2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>248450</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>1.002065032387129</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1.4243E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>284870</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-    </row>
-    <row r="42" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A24" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B14/B7</f>
+        <v>0.1006714606143576</v>
+      </c>
+      <c r="C24" s="3">
+        <f>C14/C7</f>
+        <v>0.1466622986379558</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:J38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="38.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.6875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B3" s="12" t="s">
         <v>122</v>
       </c>
@@ -1758,1300 +1376,630 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>3609749.1182749998</v>
+        <v>152609.73465299999</v>
       </c>
       <c r="C4" s="1">
-        <v>1155119717848</v>
+        <v>3052194693053</v>
       </c>
       <c r="D4" s="1">
-        <v>3307580.767484</v>
+        <v>141855.407052</v>
       </c>
       <c r="E4" s="1">
-        <v>1058425845595</v>
+        <v>2837108141036</v>
       </c>
       <c r="F4" s="1">
         <f>E4/C4</f>
-        <v>0.91629103827165059</v>
+        <v>0.92953052683482107</v>
       </c>
       <c r="G4" s="1">
-        <v>3174358.1981870001</v>
+        <v>152520.86717000001</v>
       </c>
       <c r="H4" s="1">
-        <v>2031589246840</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2860663.5978020001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1830824702593</v>
+        <v>3050417343401</v>
       </c>
       <c r="K4" s="1">
         <f>J4/H4</f>
-        <v>0.90117857506911114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1877.5801160000001</v>
+        <v>77.806353999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>600825637</v>
+        <v>1556127081</v>
       </c>
       <c r="D5" s="1">
-        <v>1751.523128</v>
+        <v>23.619633</v>
       </c>
       <c r="E5" s="1">
-        <v>560487401</v>
+        <v>472392655</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F37" si="0">E5/C5</f>
-        <v>0.9328619927048819</v>
+        <f t="shared" ref="F5:F23" si="0">E5/C5</f>
+        <v>0.30356945828385079</v>
       </c>
       <c r="G5" s="1">
-        <v>1872.7369450000001</v>
+        <v>75.015174000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1198551645</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1805.100222</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1155264142</v>
+        <v>1500303481</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K37" si="1">J5/H5</f>
-        <v>0.9638834895596009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" ref="K5:K23" si="1">J5/H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>104.194312</v>
+        <v>4056.0329179999999</v>
       </c>
       <c r="C6" s="1">
-        <v>33342180</v>
+        <v>81120658367</v>
       </c>
       <c r="D6" s="1">
-        <v>98.750713000000005</v>
+        <v>1543.7720870000001</v>
       </c>
       <c r="E6" s="1">
-        <v>31600228</v>
+        <v>30875441747</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.94775530574185607</v>
+        <v>0.38061133093022548</v>
       </c>
       <c r="G6" s="1">
-        <v>100.31312699999999</v>
+        <v>3950.1702019999998</v>
       </c>
       <c r="H6" s="1">
-        <v>64200401</v>
-      </c>
-      <c r="I6" s="1">
-        <v>96.470174999999998</v>
-      </c>
-      <c r="J6" s="1">
-        <v>61740912</v>
+        <v>79003404031</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>0.96169044177777019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>6023407.2555940002</v>
+        <v>4.6955299999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1927490321790</v>
+        <v>93910606</v>
       </c>
       <c r="D7" s="1">
-        <v>5891163.2294119997</v>
+        <v>1.293283</v>
       </c>
       <c r="E7" s="1">
-        <v>1885172233412</v>
+        <v>25865659</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.9780449800968648</v>
+        <v>0.27542851762664594</v>
       </c>
       <c r="G7" s="1">
-        <v>5825344.7906520003</v>
+        <v>4.6178939999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>3728220666017</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5494306.345892</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3516356061371</v>
+        <v>92357878</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>0.94317272939953334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>122691.214266</v>
+        <v>317.79470900000001</v>
       </c>
       <c r="C8" s="1">
-        <v>39261188565</v>
+        <v>6355894189</v>
       </c>
       <c r="D8" s="1">
-        <v>117864.638691</v>
+        <v>106.20886</v>
       </c>
       <c r="E8" s="1">
-        <v>37716684381</v>
+        <v>2124177192</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.96066078892535434</v>
+        <v>0.33420587707017912</v>
       </c>
       <c r="G8" s="1">
-        <v>120393.729792</v>
+        <v>308.36296900000002</v>
       </c>
       <c r="H8" s="1">
-        <v>77051987067</v>
-      </c>
-      <c r="I8" s="1">
-        <v>117027.2977</v>
-      </c>
-      <c r="J8" s="1">
-        <v>74897470528</v>
+        <v>6167259380</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>0.97203814436185076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1153.1589220000001</v>
+        <v>114.757964</v>
       </c>
       <c r="C9" s="1">
-        <v>369010855</v>
+        <v>2295159283</v>
       </c>
       <c r="D9" s="1">
-        <v>1159.353419</v>
+        <v>8.6336209999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>370993094</v>
+        <v>172672429</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>1.0053717633862018</v>
+        <v>7.5233309635181433E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>1145.087102</v>
+        <v>113.82759299999999</v>
       </c>
       <c r="H9" s="1">
-        <v>732855745</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1153.5978729999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>738302639</v>
+        <v>2276551859</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>1.0074324231435206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>14.139575000000001</v>
+        <v>5496.0490600000003</v>
       </c>
       <c r="C10" s="1">
-        <v>4524664</v>
+        <v>109920981204</v>
       </c>
       <c r="D10" s="1">
-        <v>14.228156</v>
+        <v>817.43987800000002</v>
       </c>
       <c r="E10" s="1">
-        <v>4553010</v>
+        <v>16348797569</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>1.0062647745777367</v>
+        <v>0.14873227467519251</v>
       </c>
       <c r="G10" s="1">
-        <v>13.14838</v>
+        <v>5457.5926120000004</v>
       </c>
       <c r="H10" s="1">
-        <v>8414963</v>
-      </c>
-      <c r="I10" s="1">
-        <v>13.089823000000001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>8377487</v>
+        <v>109151852234</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>0.99554650448255089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B11" s="1">
-        <v>4573521.3353530001</v>
+        <v>115846.357928</v>
       </c>
       <c r="C11" s="1">
-        <v>1463526827313</v>
+        <v>2316927158559</v>
       </c>
       <c r="D11" s="1">
-        <v>4334809.7596969996</v>
+        <v>115847.922979</v>
       </c>
       <c r="E11" s="1">
-        <v>1387139123103</v>
+        <v>2316958459574</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.94780573694692982</v>
+        <v>1.0000135097104301</v>
       </c>
       <c r="G11" s="1">
-        <v>4570836.622273</v>
+        <v>115936.918741</v>
       </c>
       <c r="H11" s="1">
-        <v>2925335438255</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4323546.0936860004</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2767069499959</v>
+        <v>2318738374824</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>0.94589819128899366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1">
-        <v>50975.210544000001</v>
+        <v>24534.466195000001</v>
       </c>
       <c r="C12" s="1">
-        <v>16312067374</v>
+        <v>490689323901</v>
       </c>
       <c r="D12" s="1">
-        <v>52191.472999999998</v>
+        <v>22930.104199000001</v>
       </c>
       <c r="E12" s="1">
-        <v>16701271360</v>
+        <v>458602083984</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>1.023859880975011</v>
+        <v>0.9346078295286615</v>
       </c>
       <c r="G12" s="1">
-        <v>48067.160766000001</v>
+        <v>24645.824778999999</v>
       </c>
       <c r="H12" s="1">
-        <v>30762982890</v>
-      </c>
-      <c r="I12" s="1">
-        <v>48582.567002999996</v>
-      </c>
-      <c r="J12" s="1">
-        <v>31092842882</v>
+        <v>492916495589</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>1.0107226270345593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="12" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="B13" s="1">
-        <v>1813.5918529999999</v>
+        <v>3595.040328</v>
       </c>
       <c r="C13" s="1">
-        <v>580349393</v>
+        <v>71900806568</v>
       </c>
       <c r="D13" s="1">
-        <v>794.66413399999999</v>
+        <v>3592.338456</v>
       </c>
       <c r="E13" s="1">
-        <v>254292523</v>
+        <v>71846769123</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.43817142925830543</v>
+        <v>0.99924844452267869</v>
       </c>
       <c r="G13" s="1">
-        <v>1882.480239</v>
+        <v>3681.2321160000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1204787353</v>
-      </c>
-      <c r="I13" s="1">
-        <v>836.11775299999999</v>
-      </c>
-      <c r="J13" s="1">
-        <v>535115362</v>
+        <v>73624642325</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>0.44415751930623065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="12" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="B14" s="1">
-        <v>14.013544</v>
+        <v>21738.962718999999</v>
       </c>
       <c r="C14" s="1">
-        <v>4484334</v>
+        <v>434779254389</v>
       </c>
       <c r="D14" s="1">
-        <v>27.080065999999999</v>
+        <v>19045.900823</v>
       </c>
       <c r="E14" s="1">
-        <v>8665621</v>
+        <v>380918016467</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>1.9324209570473565</v>
+        <v>0.87611819704302174</v>
       </c>
       <c r="G14" s="1">
-        <v>13.016400000000001</v>
+        <v>21896.348055999999</v>
       </c>
       <c r="H14" s="1">
-        <v>8330496</v>
-      </c>
-      <c r="I14" s="1">
-        <v>23.821618999999998</v>
-      </c>
-      <c r="J14" s="1">
-        <v>15245836</v>
+        <v>437926961111</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>1.8301234404289972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1">
-        <v>1813.6061159999999</v>
+        <v>16436.098414</v>
       </c>
       <c r="C15" s="1">
-        <v>580353957</v>
+        <v>328721968288</v>
       </c>
       <c r="D15" s="1">
-        <v>807.74498100000005</v>
+        <v>14568.234048</v>
       </c>
       <c r="E15" s="1">
-        <v>258478394</v>
+        <v>291364680964</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.44538060072191427</v>
+        <v>0.88635597578537706</v>
       </c>
       <c r="G15" s="1">
-        <v>1882.497228</v>
+        <v>16573.863835</v>
       </c>
       <c r="H15" s="1">
-        <v>1204798226</v>
-      </c>
-      <c r="I15" s="1">
-        <v>846.93992300000002</v>
-      </c>
-      <c r="J15" s="1">
-        <v>542041551</v>
+        <v>331477276692</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>0.44990234821278696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1">
-        <v>107091.66607799999</v>
+        <v>3372.3308769999999</v>
       </c>
       <c r="C16" s="1">
-        <v>34269333145</v>
+        <v>67446617545</v>
       </c>
       <c r="D16" s="1">
-        <v>53336.697596999998</v>
+        <v>3358.7600499999999</v>
       </c>
       <c r="E16" s="1">
-        <v>17067743231</v>
+        <v>67175201001</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.49804713616057733</v>
+        <v>0.99597583164464976</v>
       </c>
       <c r="G16" s="1">
-        <v>105396.595609</v>
+        <v>3442.8784059999998</v>
       </c>
       <c r="H16" s="1">
-        <v>67453821190</v>
-      </c>
-      <c r="I16" s="1">
-        <v>53721.106382999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>34381508085</v>
+        <v>68857568120</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>0.5097043796548778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1">
-        <v>542684.28000599996</v>
+        <v>180648.100083</v>
       </c>
       <c r="C17" s="1">
-        <v>173658969602</v>
+        <v>3612962001662</v>
       </c>
       <c r="D17" s="1">
-        <v>551028.46429100004</v>
+        <v>170311.71691700001</v>
       </c>
       <c r="E17" s="1">
-        <v>176329108573</v>
+        <v>3406234338335</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.0153757619149737</v>
+        <v>0.94278166688941012</v>
       </c>
       <c r="G17" s="1">
-        <v>593836.69892300002</v>
+        <v>180351.442362</v>
       </c>
       <c r="H17" s="1">
-        <v>380055487311</v>
-      </c>
-      <c r="I17" s="1">
-        <v>571444.85131399997</v>
-      </c>
-      <c r="J17" s="1">
-        <v>365724704841</v>
+        <v>3607028847241</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>0.96229292051170123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B18" s="1">
-        <v>386937.90100900002</v>
+        <v>128755.06963300001</v>
       </c>
       <c r="C18" s="1">
-        <v>123820128323</v>
+        <v>2575101392663</v>
       </c>
       <c r="D18" s="1">
-        <v>391328.79585599998</v>
+        <v>128718.01957800001</v>
       </c>
       <c r="E18" s="1">
-        <v>125225214674</v>
+        <v>2574360391563</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>1.0113478024133093</v>
+        <v>0.99971224391314795</v>
       </c>
       <c r="G18" s="1">
-        <v>461929.95089799998</v>
+        <v>128850.14658299999</v>
       </c>
       <c r="H18" s="1">
-        <v>295635168575</v>
-      </c>
-      <c r="I18" s="1">
-        <v>449260.03444700001</v>
-      </c>
-      <c r="J18" s="1">
-        <v>287526422046</v>
+        <v>2577002931659</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>0.97257177971049513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1">
-        <v>221779.78726899999</v>
+        <v>23065.869860999999</v>
       </c>
       <c r="C19" s="1">
-        <v>70969531926</v>
+        <v>461317397226</v>
       </c>
       <c r="D19" s="1">
-        <v>222866.05370300001</v>
+        <v>21909.418377000002</v>
       </c>
       <c r="E19" s="1">
-        <v>71317137185</v>
+        <v>438188367548</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>1.0048979505650741</v>
+        <v>0.94986308815344966</v>
       </c>
       <c r="G19" s="1">
-        <v>299960.16464799998</v>
+        <v>22840.274474000002</v>
       </c>
       <c r="H19" s="1">
-        <v>191974505375</v>
-      </c>
-      <c r="I19" s="1">
-        <v>293369.05421099998</v>
-      </c>
-      <c r="J19" s="1">
-        <v>187756194695</v>
+        <v>456805489486</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="1"/>
-        <v>0.97802671416311238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B20" s="1">
-        <v>1436719.3077750001</v>
+        <v>29577.516531000001</v>
       </c>
       <c r="C20" s="1">
-        <v>459750178488</v>
+        <v>591550330614</v>
       </c>
       <c r="D20" s="1">
-        <v>1452154.7879339999</v>
+        <v>30059.906640000001</v>
       </c>
       <c r="E20" s="1">
-        <v>464689532139</v>
+        <v>601198132799</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0107435600509047</v>
+        <v>1.0163093513530557</v>
       </c>
       <c r="G20" s="1">
-        <v>1373935.687928</v>
+        <v>29637.197866999999</v>
       </c>
       <c r="H20" s="1">
-        <v>879318840274</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1339114.0483939999</v>
-      </c>
-      <c r="J20" s="1">
-        <v>857032990972</v>
+        <v>592743957347</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="1"/>
-        <v>0.97465555350200883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1">
-        <v>512001.90364700003</v>
+        <v>4041.0692829999998</v>
       </c>
       <c r="C21" s="1">
-        <v>163840609167</v>
+        <v>80821385668</v>
       </c>
       <c r="D21" s="1">
-        <v>498081.79206900002</v>
+        <v>4332.4334500000004</v>
       </c>
       <c r="E21" s="1">
-        <v>159386173462</v>
+        <v>86648669010</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.97281238315917351</v>
+        <v>1.0721007601371431</v>
       </c>
       <c r="G21" s="1">
-        <v>435957.30470600002</v>
+        <v>4098.7973039999997</v>
       </c>
       <c r="H21" s="1">
-        <v>279012675012</v>
-      </c>
-      <c r="I21" s="1">
-        <v>407288.00083600002</v>
-      </c>
-      <c r="J21" s="1">
-        <v>260664320535</v>
+        <v>81975946078</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="1"/>
-        <v>0.9342382761779161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1">
-        <v>423328.70317200001</v>
+        <v>17674.415663</v>
       </c>
       <c r="C22" s="1">
-        <v>135465185015</v>
+        <v>353488313258</v>
       </c>
       <c r="D22" s="1">
-        <v>411468.162572</v>
+        <v>2657.6882759999999</v>
       </c>
       <c r="E22" s="1">
-        <v>131669812023</v>
+        <v>53153765522</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.97198266852416926</v>
+        <v>0.15036923012276432</v>
       </c>
       <c r="G22" s="1">
-        <v>383375.96486900002</v>
+        <v>17675.026441000002</v>
       </c>
       <c r="H22" s="1">
-        <v>245360617516</v>
-      </c>
-      <c r="I22" s="1">
-        <v>359733.93118900002</v>
-      </c>
-      <c r="J22" s="1">
-        <v>230229715961</v>
+        <v>353500528814</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>0.93833198779745774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1">
-        <v>257172.98144100001</v>
+        <v>1.2397E-2</v>
       </c>
       <c r="C23" s="1">
-        <v>82295354061</v>
+        <v>247938</v>
       </c>
       <c r="D23" s="1">
-        <v>253559.15063399999</v>
+        <v>1.2422000000000001E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>81138928203</v>
+        <v>248450</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.9859478597401401</v>
+        <v>1.002065032387129</v>
       </c>
       <c r="G23" s="1">
-        <v>270017.31257499999</v>
+        <v>1.4243E-2</v>
       </c>
       <c r="H23" s="1">
-        <v>172811080048</v>
-      </c>
-      <c r="I23" s="1">
-        <v>254127.310986</v>
-      </c>
-      <c r="J23" s="1">
-        <v>162641479031</v>
+        <v>284870</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>0.94115191564004297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1020404.253725</v>
-      </c>
-      <c r="C24" s="1">
-        <v>326529361192</v>
-      </c>
-      <c r="D24" s="1">
-        <v>930714.09572800004</v>
-      </c>
-      <c r="E24" s="1">
-        <v>297828510633</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91210330840011711</v>
-      </c>
-      <c r="G24" s="1">
-        <v>827486.03746999998</v>
-      </c>
-      <c r="H24" s="1">
-        <v>529591063981</v>
-      </c>
-      <c r="I24" s="1">
-        <v>718250.62745499995</v>
-      </c>
-      <c r="J24" s="1">
-        <v>459680401571</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.86799123481338014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1">
-        <v>396984.70952199999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>127035107047</v>
-      </c>
-      <c r="D25" s="1">
-        <v>413469.08017500001</v>
-      </c>
-      <c r="E25" s="1">
-        <v>132310105656</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0415239435115238</v>
-      </c>
-      <c r="G25" s="1">
-        <v>287579.35541600001</v>
-      </c>
-      <c r="H25" s="1">
-        <v>184050787466</v>
-      </c>
-      <c r="I25" s="1">
-        <v>280410.519539</v>
-      </c>
-      <c r="J25" s="1">
-        <v>179462732505</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>0.97507179934317012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="1">
-        <v>94380.722131000002</v>
-      </c>
-      <c r="C26" s="1">
-        <v>30201831082</v>
-      </c>
-      <c r="D26" s="1">
-        <v>94884.386578000005</v>
-      </c>
-      <c r="E26" s="1">
-        <v>30363003705</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0053365182581946</v>
-      </c>
-      <c r="G26" s="1">
-        <v>81634.512356000007</v>
-      </c>
-      <c r="H26" s="1">
-        <v>52246087908</v>
-      </c>
-      <c r="I26" s="1">
-        <v>82326.597290999998</v>
-      </c>
-      <c r="J26" s="1">
-        <v>52689022266</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0084778473515561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="1">
-        <v>113143.70886300001</v>
-      </c>
-      <c r="C27" s="1">
-        <v>36205986836</v>
-      </c>
-      <c r="D27" s="1">
-        <v>114211.292503</v>
-      </c>
-      <c r="E27" s="1">
-        <v>36547613601</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0094356429655529</v>
-      </c>
-      <c r="G27" s="1">
-        <v>103396.032769</v>
-      </c>
-      <c r="H27" s="1">
-        <v>66173460972</v>
-      </c>
-      <c r="I27" s="1">
-        <v>105299.76583</v>
-      </c>
-      <c r="J27" s="1">
-        <v>67391850131</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0184120513133739</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="1">
-        <v>38403.921674999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>12289254936</v>
-      </c>
-      <c r="D28" s="1">
-        <v>39871.286906000001</v>
-      </c>
-      <c r="E28" s="1">
-        <v>12758811810</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0382087340888735</v>
-      </c>
-      <c r="G28" s="1">
-        <v>34240.632990999999</v>
-      </c>
-      <c r="H28" s="1">
-        <v>21914005114</v>
-      </c>
-      <c r="I28" s="1">
-        <v>35461.446304999998</v>
-      </c>
-      <c r="J28" s="1">
-        <v>22695325635</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0356539353228884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="1">
-        <v>27749.419336999999</v>
-      </c>
-      <c r="C29" s="1">
-        <v>8879814188</v>
-      </c>
-      <c r="D29" s="1">
-        <v>28299.774571999998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>9055927863</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0198330360603711</v>
-      </c>
-      <c r="G29" s="1">
-        <v>30938.696683999999</v>
-      </c>
-      <c r="H29" s="1">
-        <v>19800765878</v>
-      </c>
-      <c r="I29" s="1">
-        <v>32413.433316999999</v>
-      </c>
-      <c r="J29" s="1">
-        <v>20744597323</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0476664110274978</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="1">
-        <v>253165.89902800001</v>
-      </c>
-      <c r="C30" s="1">
-        <v>81013087689</v>
-      </c>
-      <c r="D30" s="1">
-        <v>241826.437481</v>
-      </c>
-      <c r="E30" s="1">
-        <v>77384459994</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.95520936433221892</v>
-      </c>
-      <c r="G30" s="1">
-        <v>192418.53930199999</v>
-      </c>
-      <c r="H30" s="1">
-        <v>123147865153</v>
-      </c>
-      <c r="I30" s="1">
-        <v>181300.73895</v>
-      </c>
-      <c r="J30" s="1">
-        <v>116032472928</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="1"/>
-        <v>0.94222074238834941</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="1">
-        <v>655869.55762800004</v>
-      </c>
-      <c r="C31" s="1">
-        <v>209878258441</v>
-      </c>
-      <c r="D31" s="1">
-        <v>661964.80244999996</v>
-      </c>
-      <c r="E31" s="1">
-        <v>211828736784</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0092933796834811</v>
-      </c>
-      <c r="G31" s="1">
-        <v>698790.070725</v>
-      </c>
-      <c r="H31" s="1">
-        <v>447225645264</v>
-      </c>
-      <c r="I31" s="1">
-        <v>705642.58019400004</v>
-      </c>
-      <c r="J31" s="1">
-        <v>451611251324</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0098062490522233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="1">
-        <v>68246.227274999997</v>
-      </c>
-      <c r="C32" s="1">
-        <v>21838792728</v>
-      </c>
-      <c r="D32" s="1">
-        <v>71905.931530999995</v>
-      </c>
-      <c r="E32" s="1">
-        <v>23009898090</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>1.053625004668802</v>
-      </c>
-      <c r="G32" s="1">
-        <v>66633.839619999999</v>
-      </c>
-      <c r="H32" s="1">
-        <v>42645657357</v>
-      </c>
-      <c r="I32" s="1">
-        <v>70585.165852999999</v>
-      </c>
-      <c r="J32" s="1">
-        <v>45174506146</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0592990927031614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="1">
-        <v>251870.95406300001</v>
-      </c>
-      <c r="C33" s="1">
-        <v>80598705300</v>
-      </c>
-      <c r="D33" s="1">
-        <v>112732.97828700001</v>
-      </c>
-      <c r="E33" s="1">
-        <v>36074553052</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44758228953834078</v>
-      </c>
-      <c r="G33" s="1">
-        <v>216645.79528300001</v>
-      </c>
-      <c r="H33" s="1">
-        <v>138653308981</v>
-      </c>
-      <c r="I33" s="1">
-        <v>106818.20253</v>
-      </c>
-      <c r="J33" s="1">
-        <v>68363649619</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.49305458428235593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1918305.260028</v>
-      </c>
-      <c r="C34" s="1">
-        <v>613857683209</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1917889.742106</v>
-      </c>
-      <c r="E34" s="1">
-        <v>613724717474</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99978339322185417</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1917154.8533379999</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1226979106136</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1916794.047095</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1226748190141</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99981180120032587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="1">
-        <v>14.807947</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4738543</v>
-      </c>
-      <c r="D35" s="1">
-        <v>14.773766</v>
-      </c>
-      <c r="E35" s="1">
-        <v>4727605</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99769169552750714</v>
-      </c>
-      <c r="G35" s="1">
-        <v>14.232964000000001</v>
-      </c>
-      <c r="H35" s="1">
-        <v>9109097</v>
-      </c>
-      <c r="I35" s="1">
-        <v>14.118494999999999</v>
-      </c>
-      <c r="J35" s="1">
-        <v>9035837</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99195749040766612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="1">
-        <f>B5+B6+B9+B10</f>
-        <v>3149.0729250000004</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" ref="C36:J36" si="2">C5+C6+C9+C10</f>
-        <v>1007703336</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="2"/>
-        <v>3023.8554160000003</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="2"/>
-        <v>967633733</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96023670700639618</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="2"/>
-        <v>3131.285554</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="2"/>
-        <v>2004022754</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="2"/>
-        <v>3068.2580929999999</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="2"/>
-        <v>1963685180</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="1"/>
-        <v>0.97987169860248002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="1">
-        <f>B8+B12</f>
-        <v>173666.42481</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" ref="C37:J37" si="3">C8+C12</f>
-        <v>55573255939</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="3"/>
-        <v>170056.111691</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="3"/>
-        <v>54417955741</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97921121988482884</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="3"/>
-        <v>168460.89055800001</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="3"/>
-        <v>107814969957</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="3"/>
-        <v>165609.864703</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="3"/>
-        <v>105990313410</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98307603714282232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A42" s="14"/>
     </row>
   </sheetData>
@@ -3068,72 +2016,1474 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="38.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.8125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3609749.1182749998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1155119717848</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3307580.767484</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1058425845595</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4/C4</f>
+        <v>0.91629103827165059</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3174358.1981870001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2031589246840</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2860663.5978020001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1830824702593</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4/H4</f>
+        <v>0.90117857506911114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1877.5801160000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>600825637</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1751.523128</v>
+      </c>
+      <c r="E5" s="1">
+        <v>560487401</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F37" si="0">E5/C5</f>
+        <v>0.9328619927048819</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1872.7369450000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1198551645</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1805.100222</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1155264142</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K37" si="1">J5/H5</f>
+        <v>0.9638834895596009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>104.194312</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33342180</v>
+      </c>
+      <c r="D6" s="1">
+        <v>98.750713000000005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>31600228</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94775530574185607</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100.31312699999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>64200401</v>
+      </c>
+      <c r="I6" s="1">
+        <v>96.470174999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>61740912</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96169044177777019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6023407.2555940002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1927490321790</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5891163.2294119997</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1885172233412</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9780449800968648</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5825344.7906520003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3728220666017</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5494306.345892</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3516356061371</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94317272939953334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>122691.214266</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39261188565</v>
+      </c>
+      <c r="D8" s="1">
+        <v>117864.638691</v>
+      </c>
+      <c r="E8" s="1">
+        <v>37716684381</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96066078892535434</v>
+      </c>
+      <c r="G8" s="1">
+        <v>120393.729792</v>
+      </c>
+      <c r="H8" s="1">
+        <v>77051987067</v>
+      </c>
+      <c r="I8" s="1">
+        <v>117027.2977</v>
+      </c>
+      <c r="J8" s="1">
+        <v>74897470528</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97203814436185076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1153.1589220000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>369010855</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1159.353419</v>
+      </c>
+      <c r="E9" s="1">
+        <v>370993094</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0053717633862018</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1145.087102</v>
+      </c>
+      <c r="H9" s="1">
+        <v>732855745</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1153.5978729999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>738302639</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0074324231435206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>14.139575000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4524664</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14.228156</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4553010</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0062647745777367</v>
+      </c>
+      <c r="G10" s="1">
+        <v>13.14838</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8414963</v>
+      </c>
+      <c r="I10" s="1">
+        <v>13.089823000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8377487</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99554650448255089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4573521.3353530001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1463526827313</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4334809.7596969996</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1387139123103</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94780573694692982</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4570836.622273</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2925335438255</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4323546.0936860004</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2767069499959</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94589819128899366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>50975.210544000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16312067374</v>
+      </c>
+      <c r="D12" s="1">
+        <v>52191.472999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16701271360</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.023859880975011</v>
+      </c>
+      <c r="G12" s="1">
+        <v>48067.160766000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30762982890</v>
+      </c>
+      <c r="I12" s="1">
+        <v>48582.567002999996</v>
+      </c>
+      <c r="J12" s="1">
+        <v>31092842882</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0107226270345593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1813.5918529999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>580349393</v>
+      </c>
+      <c r="D13" s="1">
+        <v>794.66413399999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>254292523</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43817142925830543</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1882.480239</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1204787353</v>
+      </c>
+      <c r="I13" s="1">
+        <v>836.11775299999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>535115362</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44415751930623065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14.013544</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4484334</v>
+      </c>
+      <c r="D14" s="1">
+        <v>27.080065999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8665621</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9324209570473565</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13.016400000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8330496</v>
+      </c>
+      <c r="I14" s="1">
+        <v>23.821618999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15245836</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8301234404289972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1813.6061159999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>580353957</v>
+      </c>
+      <c r="D15" s="1">
+        <v>807.74498100000005</v>
+      </c>
+      <c r="E15" s="1">
+        <v>258478394</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44538060072191427</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1882.497228</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1204798226</v>
+      </c>
+      <c r="I15" s="1">
+        <v>846.93992300000002</v>
+      </c>
+      <c r="J15" s="1">
+        <v>542041551</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44990234821278696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>107091.66607799999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>34269333145</v>
+      </c>
+      <c r="D16" s="1">
+        <v>53336.697596999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17067743231</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49804713616057733</v>
+      </c>
+      <c r="G16" s="1">
+        <v>105396.595609</v>
+      </c>
+      <c r="H16" s="1">
+        <v>67453821190</v>
+      </c>
+      <c r="I16" s="1">
+        <v>53721.106382999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>34381508085</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5097043796548778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="1">
+        <v>542684.28000599996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>173658969602</v>
+      </c>
+      <c r="D17" s="1">
+        <v>551028.46429100004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>176329108573</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0153757619149737</v>
+      </c>
+      <c r="G17" s="1">
+        <v>593836.69892300002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>380055487311</v>
+      </c>
+      <c r="I17" s="1">
+        <v>571444.85131399997</v>
+      </c>
+      <c r="J17" s="1">
+        <v>365724704841</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96229292051170123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="1">
+        <v>386937.90100900002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>123820128323</v>
+      </c>
+      <c r="D18" s="1">
+        <v>391328.79585599998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>125225214674</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0113478024133093</v>
+      </c>
+      <c r="G18" s="1">
+        <v>461929.95089799998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>295635168575</v>
+      </c>
+      <c r="I18" s="1">
+        <v>449260.03444700001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>287526422046</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97257177971049513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="1">
+        <v>221779.78726899999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>70969531926</v>
+      </c>
+      <c r="D19" s="1">
+        <v>222866.05370300001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>71317137185</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0048979505650741</v>
+      </c>
+      <c r="G19" s="1">
+        <v>299960.16464799998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>191974505375</v>
+      </c>
+      <c r="I19" s="1">
+        <v>293369.05421099998</v>
+      </c>
+      <c r="J19" s="1">
+        <v>187756194695</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97802671416311238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1436719.3077750001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>459750178488</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1452154.7879339999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>464689532139</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0107435600509047</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1373935.687928</v>
+      </c>
+      <c r="H20" s="1">
+        <v>879318840274</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1339114.0483939999</v>
+      </c>
+      <c r="J20" s="1">
+        <v>857032990972</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97465555350200883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="1">
+        <v>512001.90364700003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>163840609167</v>
+      </c>
+      <c r="D21" s="1">
+        <v>498081.79206900002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>159386173462</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97281238315917351</v>
+      </c>
+      <c r="G21" s="1">
+        <v>435957.30470600002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>279012675012</v>
+      </c>
+      <c r="I21" s="1">
+        <v>407288.00083600002</v>
+      </c>
+      <c r="J21" s="1">
+        <v>260664320535</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9342382761779161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1">
+        <v>423328.70317200001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>135465185015</v>
+      </c>
+      <c r="D22" s="1">
+        <v>411468.162572</v>
+      </c>
+      <c r="E22" s="1">
+        <v>131669812023</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97198266852416926</v>
+      </c>
+      <c r="G22" s="1">
+        <v>383375.96486900002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>245360617516</v>
+      </c>
+      <c r="I22" s="1">
+        <v>359733.93118900002</v>
+      </c>
+      <c r="J22" s="1">
+        <v>230229715961</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93833198779745774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="1">
+        <v>257172.98144100001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>82295354061</v>
+      </c>
+      <c r="D23" s="1">
+        <v>253559.15063399999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>81138928203</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9859478597401401</v>
+      </c>
+      <c r="G23" s="1">
+        <v>270017.31257499999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>172811080048</v>
+      </c>
+      <c r="I23" s="1">
+        <v>254127.310986</v>
+      </c>
+      <c r="J23" s="1">
+        <v>162641479031</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94115191564004297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1020404.253725</v>
+      </c>
+      <c r="C24" s="1">
+        <v>326529361192</v>
+      </c>
+      <c r="D24" s="1">
+        <v>930714.09572800004</v>
+      </c>
+      <c r="E24" s="1">
+        <v>297828510633</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91210330840011711</v>
+      </c>
+      <c r="G24" s="1">
+        <v>827486.03746999998</v>
+      </c>
+      <c r="H24" s="1">
+        <v>529591063981</v>
+      </c>
+      <c r="I24" s="1">
+        <v>718250.62745499995</v>
+      </c>
+      <c r="J24" s="1">
+        <v>459680401571</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86799123481338014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>396984.70952199999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>127035107047</v>
+      </c>
+      <c r="D25" s="1">
+        <v>413469.08017500001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>132310105656</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0415239435115238</v>
+      </c>
+      <c r="G25" s="1">
+        <v>287579.35541600001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>184050787466</v>
+      </c>
+      <c r="I25" s="1">
+        <v>280410.519539</v>
+      </c>
+      <c r="J25" s="1">
+        <v>179462732505</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97507179934317012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="1">
+        <v>94380.722131000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30201831082</v>
+      </c>
+      <c r="D26" s="1">
+        <v>94884.386578000005</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30363003705</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0053365182581946</v>
+      </c>
+      <c r="G26" s="1">
+        <v>81634.512356000007</v>
+      </c>
+      <c r="H26" s="1">
+        <v>52246087908</v>
+      </c>
+      <c r="I26" s="1">
+        <v>82326.597290999998</v>
+      </c>
+      <c r="J26" s="1">
+        <v>52689022266</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0084778473515561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="1">
+        <v>113143.70886300001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>36205986836</v>
+      </c>
+      <c r="D27" s="1">
+        <v>114211.292503</v>
+      </c>
+      <c r="E27" s="1">
+        <v>36547613601</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0094356429655529</v>
+      </c>
+      <c r="G27" s="1">
+        <v>103396.032769</v>
+      </c>
+      <c r="H27" s="1">
+        <v>66173460972</v>
+      </c>
+      <c r="I27" s="1">
+        <v>105299.76583</v>
+      </c>
+      <c r="J27" s="1">
+        <v>67391850131</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0184120513133739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="1">
+        <v>38403.921674999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12289254936</v>
+      </c>
+      <c r="D28" s="1">
+        <v>39871.286906000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>12758811810</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0382087340888735</v>
+      </c>
+      <c r="G28" s="1">
+        <v>34240.632990999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>21914005114</v>
+      </c>
+      <c r="I28" s="1">
+        <v>35461.446304999998</v>
+      </c>
+      <c r="J28" s="1">
+        <v>22695325635</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0356539353228884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="1">
+        <v>27749.419336999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8879814188</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28299.774571999998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9055927863</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0198330360603711</v>
+      </c>
+      <c r="G29" s="1">
+        <v>30938.696683999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>19800765878</v>
+      </c>
+      <c r="I29" s="1">
+        <v>32413.433316999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>20744597323</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0476664110274978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="1">
+        <v>253165.89902800001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>81013087689</v>
+      </c>
+      <c r="D30" s="1">
+        <v>241826.437481</v>
+      </c>
+      <c r="E30" s="1">
+        <v>77384459994</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95520936433221892</v>
+      </c>
+      <c r="G30" s="1">
+        <v>192418.53930199999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>123147865153</v>
+      </c>
+      <c r="I30" s="1">
+        <v>181300.73895</v>
+      </c>
+      <c r="J30" s="1">
+        <v>116032472928</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94222074238834941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="1">
+        <v>655869.55762800004</v>
+      </c>
+      <c r="C31" s="1">
+        <v>209878258441</v>
+      </c>
+      <c r="D31" s="1">
+        <v>661964.80244999996</v>
+      </c>
+      <c r="E31" s="1">
+        <v>211828736784</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0092933796834811</v>
+      </c>
+      <c r="G31" s="1">
+        <v>698790.070725</v>
+      </c>
+      <c r="H31" s="1">
+        <v>447225645264</v>
+      </c>
+      <c r="I31" s="1">
+        <v>705642.58019400004</v>
+      </c>
+      <c r="J31" s="1">
+        <v>451611251324</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0098062490522233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="1">
+        <v>68246.227274999997</v>
+      </c>
+      <c r="C32" s="1">
+        <v>21838792728</v>
+      </c>
+      <c r="D32" s="1">
+        <v>71905.931530999995</v>
+      </c>
+      <c r="E32" s="1">
+        <v>23009898090</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.053625004668802</v>
+      </c>
+      <c r="G32" s="1">
+        <v>66633.839619999999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>42645657357</v>
+      </c>
+      <c r="I32" s="1">
+        <v>70585.165852999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45174506146</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0592990927031614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="1">
+        <v>251870.95406300001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>80598705300</v>
+      </c>
+      <c r="D33" s="1">
+        <v>112732.97828700001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>36074553052</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44758228953834078</v>
+      </c>
+      <c r="G33" s="1">
+        <v>216645.79528300001</v>
+      </c>
+      <c r="H33" s="1">
+        <v>138653308981</v>
+      </c>
+      <c r="I33" s="1">
+        <v>106818.20253</v>
+      </c>
+      <c r="J33" s="1">
+        <v>68363649619</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49305458428235593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1918305.260028</v>
+      </c>
+      <c r="C34" s="1">
+        <v>613857683209</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1917889.742106</v>
+      </c>
+      <c r="E34" s="1">
+        <v>613724717474</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99978339322185417</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1917154.8533379999</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1226979106136</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1916794.047095</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1226748190141</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99981180120032587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14.807947</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4738543</v>
+      </c>
+      <c r="D35" s="1">
+        <v>14.773766</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4727605</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99769169552750714</v>
+      </c>
+      <c r="G35" s="1">
+        <v>14.232964000000001</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9109097</v>
+      </c>
+      <c r="I35" s="1">
+        <v>14.118494999999999</v>
+      </c>
+      <c r="J35" s="1">
+        <v>9035837</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99195749040766612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="1">
+        <f>B5+B6+B9+B10</f>
+        <v>3149.0729250000004</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:J36" si="2">C5+C6+C9+C10</f>
+        <v>1007703336</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>3023.8554160000003</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>967633733</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96023670700639618</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>3131.285554</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>2004022754</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>3068.2580929999999</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>1963685180</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97987169860248002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="1">
+        <f>B8+B12</f>
+        <v>173666.42481</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:J37" si="3">C8+C12</f>
+        <v>55573255939</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="3"/>
+        <v>170056.111691</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="3"/>
+        <v>54417955741</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97921121988482884</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>168460.89055800001</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>107814969957</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>165609.864703</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="3"/>
+        <v>105990313410</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98307603714282232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="38.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B3" s="12" t="s">
         <v>122</v>
       </c>
@@ -3160,7 +3510,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -3197,7 +3547,7 @@
         <v>0.93030346793525465</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -3234,7 +3584,7 @@
         <v>0.35553050222009402</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
@@ -3271,7 +3621,7 @@
         <v>0.61116622343552529</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -3308,7 +3658,7 @@
         <v>0.38044196165665878</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -3345,7 +3695,7 @@
         <v>0.4431373525859294</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -3382,7 +3732,7 @@
         <v>0.41244552896751202</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -3419,7 +3769,7 @@
         <v>0.49596231493943471</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -3456,7 +3806,7 @@
         <v>0.41245272325669785</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -3493,7 +3843,7 @@
         <v>0.46622998582671143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="12" t="s">
         <v>127</v>
       </c>
@@ -3538,7 +3888,7 @@
         <v>0.35922577548026935</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="12" t="s">
         <v>128</v>
       </c>
@@ -3583,7 +3933,7 @@
         <v>0.61115960860516505</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
         <v>129</v>
       </c>
@@ -3628,7 +3978,7 @@
         <v>0.38232986681476888</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">
         <v>130</v>
       </c>
@@ -3673,7 +4023,7 @@
         <v>0.44489746843282424</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -3710,7 +4060,7 @@
         <v>8.328993215104781E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -3747,7 +4097,7 @@
         <v>3012.741633064516</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
@@ -3784,7 +4134,7 @@
         <v>8.8997578735144717E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -3821,7 +4171,7 @@
         <v>0.157824012635603</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -3858,7 +4208,7 @@
         <v>0.92345882815902824</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -3895,7 +4245,7 @@
         <v>0.92693772350275827</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
@@ -3932,7 +4282,7 @@
         <v>0.99707264976997922</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -3969,7 +4319,7 @@
         <v>0.97874437811221082</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -4006,7 +4356,7 @@
         <v>0.9223312168276826</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -4043,7 +4393,7 @@
         <v>0.8752185651751645</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -4080,7 +4430,7 @@
         <v>0.9950929247116016</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -4117,7 +4467,7 @@
         <v>0.93894113743738661</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -4154,7 +4504,7 @@
         <v>0.99438013402885017</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -4191,7 +4541,7 @@
         <v>0.98619074219692304</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -4228,7 +4578,7 @@
         <v>1.0123320441604788</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -4265,7 +4615,7 @@
         <v>1.0269324952886121</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -4302,7 +4652,7 @@
         <v>1.122352955050923</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -4339,7 +4689,7 @@
         <v>0.93472326543597373</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
@@ -4376,7 +4726,7 @@
         <v>1.0160327589991898</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -4413,7 +4763,7 @@
         <v>1.0839368949168167</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
@@ -4450,7 +4800,7 @@
         <v>0.15757336734782992</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -4487,7 +4837,7 @@
         <v>0.99997502957390449</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -4524,7 +4874,7 @@
         <v>1.2255447420923833</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="14" t="s">
         <v>132</v>
       </c>
@@ -4569,7 +4919,7 @@
         <v>0.16964788165939301</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A42" s="14" t="s">
         <v>133</v>
       </c>
@@ -4627,47 +4977,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="42.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="43" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="42.6640625" style="3"/>
+    <col min="3" max="3" width="20.6875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.8125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.8125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.6875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.6875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="42.6875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -4687,7 +5037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +5060,7 @@
         <v>1176403552560</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -4733,7 +5083,7 @@
         <v>99483189</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4756,7 +5106,7 @@
         <v>28290292</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -4779,10 +5129,10 @@
         <v>28285227</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +5155,7 @@
         <v>1176977769370</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -4828,7 +5178,7 @@
         <v>6237.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -4851,7 +5201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4874,10 +5224,10 @@
         <v>363639055.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -4900,7 +5250,7 @@
         <v>1176089101740</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -4923,7 +5273,7 @@
         <v>3202662395.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -4946,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -4969,10 +5319,10 @@
         <v>1085861750710</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +5345,7 @@
         <v>1170650533780</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -5018,7 +5368,7 @@
         <v>192625304439</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -5041,7 +5391,7 @@
         <v>236089914279</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -5064,10 +5414,10 @@
         <v>296196187121</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -5090,7 +5440,7 @@
         <v>1169256140400</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -5113,7 +5463,7 @@
         <v>350317675440</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -5136,7 +5486,7 @@
         <v>232767939420</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -5159,10 +5509,10 @@
         <v>18992207.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -5185,7 +5535,7 @@
         <v>1175396861320</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -5208,7 +5558,7 @@
         <v>28951949</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -5231,7 +5581,7 @@
         <v>20634326</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -5254,10 +5604,10 @@
         <v>10704595</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5630,7 @@
         <v>1168873116400</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -5303,7 +5653,7 @@
         <v>9752372</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -5326,7 +5676,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -5349,10 +5699,10 @@
         <v>18180911788.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -5375,7 +5725,7 @@
         <v>1169803185760</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -5398,7 +5748,7 @@
         <v>1809722233</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -5421,7 +5771,7 @@
         <v>46692329</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -5444,10 +5794,10 @@
         <v>1545839</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
@@ -5470,7 +5820,7 @@
         <v>1175420472540</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
@@ -5493,7 +5843,7 @@
         <v>193720</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -5516,7 +5866,7 @@
         <v>193676.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
         <v>28</v>
       </c>
@@ -5539,10 +5889,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
@@ -5565,7 +5915,7 @@
         <v>1168236016750</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>29</v>
       </c>
@@ -5588,7 +5938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -5611,7 +5961,7 @@
         <v>4071256454.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
@@ -5634,10 +5984,10 @@
         <v>77419795</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -5660,7 +6010,7 @@
         <v>1171290279590</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
         <v>36</v>
       </c>
@@ -5683,7 +6033,7 @@
         <v>58826</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
         <v>30</v>
       </c>
@@ -5706,7 +6056,7 @@
         <v>820477148656</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>31</v>
       </c>
@@ -5729,15 +6079,15 @@
         <v>98759517910</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="F58" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
         <v>42</v>
       </c>
@@ -5766,7 +6116,7 @@
         <v>463122244.5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
         <v>43</v>
       </c>
@@ -5795,7 +6145,7 @@
         <v>18209863737.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
@@ -5824,7 +6174,7 @@
         <v>4072802293.5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -5853,7 +6203,7 @@
         <v>0.22365913068930782</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
         <v>52</v>
       </c>
@@ -5882,7 +6232,7 @@
         <v>2.0783969200799265E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
         <v>53</v>
       </c>
@@ -5911,7 +6261,7 @@
         <v>1.6341735849242114E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
         <v>55</v>
       </c>
@@ -5940,7 +6290,7 @@
         <v>2.2052147575128177E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
@@ -5969,12 +6319,12 @@
         <v>0.91104539685994657</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C69" s="6"/>
       <c r="E69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
         <v>45</v>
       </c>
@@ -6003,7 +6353,7 @@
         <v>192625304439</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
         <v>46</v>
       </c>
@@ -6032,7 +6382,7 @@
         <v>43464609840</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
         <v>47</v>
       </c>
@@ -6061,7 +6411,7 @@
         <v>60106272842</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
         <v>48</v>
       </c>
@@ -6090,7 +6440,7 @@
         <v>54121488319</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
         <v>49</v>
       </c>
@@ -6119,7 +6469,7 @@
         <v>721717630746</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
         <v>50</v>
       </c>
@@ -6148,7 +6498,7 @@
         <v>98759517910</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
         <v>51</v>
       </c>
@@ -6188,51 +6538,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.3125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.3125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.8125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8125" style="1" customWidth="1"/>
     <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
@@ -6258,12 +6608,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -6294,7 +6644,7 @@
         <v>1.0037232360448329</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -6325,7 +6675,7 @@
         <v>0.50888943784235352</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -6356,7 +6706,7 @@
         <v>0.54562271790298444</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -6387,13 +6737,13 @@
         <v>0.54550614881506287</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
       <c r="D8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -6424,7 +6774,7 @@
         <v>0.55382311340761381</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -6455,7 +6805,7 @@
         <v>17.808076190476189</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -6486,7 +6836,7 @@
         <v>1.3414634146341464</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6517,12 +6867,12 @@
         <v>1.0555023710388396</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D14" s="1">
         <v>140447.25551799999</v>
       </c>
@@ -6536,7 +6886,7 @@
         <v>1118828911444</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D15" s="1">
         <v>10.607939999999999</v>
       </c>
@@ -6550,7 +6900,7 @@
         <v>121322979.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D16" s="1">
         <v>3.6480079999999999</v>
       </c>
@@ -6564,7 +6914,7 @@
         <v>47429904</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D17" s="1">
         <v>3.6466409999999998</v>
       </c>
@@ -6578,7 +6928,7 @@
         <v>47411542.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D19" s="1">
         <v>375.49195500000002</v>
       </c>
@@ -6592,7 +6942,7 @@
         <v>3320971828.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D20" s="1">
         <v>1.639E-3</v>
       </c>
@@ -6606,7 +6956,7 @@
         <v>17574.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D21" s="1">
         <v>3.9999999999999998E-6</v>
       </c>
@@ -6620,7 +6970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D22" s="1">
         <v>50.376511999999998</v>
       </c>
@@ -6634,21 +6984,21 @@
         <v>428385921.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
         <v>71</v>
       </c>
@@ -6671,7 +7021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -6694,7 +7044,7 @@
         <v>1122213429805</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -6717,7 +7067,7 @@
         <v>115476625.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -6740,7 +7090,7 @@
         <v>46694506</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -6763,10 +7113,10 @@
         <v>46678731.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -6789,7 +7139,7 @@
         <v>3406946415.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -6812,7 +7162,7 @@
         <v>135706.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
@@ -6835,7 +7185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
@@ -6858,12 +7208,12 @@
         <v>423911223.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -6877,7 +7227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -6891,7 +7241,7 @@
         <v>877464443912</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
@@ -6905,7 +7255,7 @@
         <v>195628734</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -6919,7 +7269,7 @@
         <v>119632667</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
@@ -6933,7 +7283,7 @@
         <v>119630592</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" s="3"/>
       <c r="C42" s="1" t="s">
         <v>68</v>
@@ -6945,7 +7295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -6959,7 +7309,7 @@
         <v>6144949457</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -6973,7 +7323,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>18</v>
       </c>
@@ -6987,7 +7337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
@@ -7001,15 +7351,15 @@
         <v>402446396</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -7023,7 +7373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -7037,7 +7387,7 @@
         <v>876277641654</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -7051,7 +7401,7 @@
         <v>300150254</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
@@ -7065,7 +7415,7 @@
         <v>228684685</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -7079,7 +7429,7 @@
         <v>6541289608</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.5">
       <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
@@ -7090,7 +7440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -7104,7 +7454,7 @@
         <v>874985735564</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
@@ -7118,7 +7468,7 @@
         <v>129438461</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -7132,7 +7482,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
@@ -7146,74 +7496,74 @@
         <v>398384398</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="3"/>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="19" t="s">
+      <c r="L61" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B62" s="19" t="s">
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B62" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19" t="s">
+      <c r="E62" s="20"/>
+      <c r="F62" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19" t="s">
+      <c r="G62" s="20"/>
+      <c r="H62" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19" t="s">
+      <c r="I62" s="20"/>
+      <c r="J62" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19" t="s">
+      <c r="K62" s="20"/>
+      <c r="L62" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19" t="s">
+      <c r="M62" s="20"/>
+      <c r="N62" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19" t="s">
+      <c r="O62" s="20"/>
+      <c r="P62" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="19"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q62" s="20"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B63" s="6" t="s">
         <v>33</v>
       </c>
@@ -7263,7 +7613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -7319,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -7375,7 +7725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -7431,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -7487,7 +7837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.5">
       <c r="H69" s="1">
         <v>165490.956049</v>
       </c>
@@ -7516,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.5">
       <c r="H70" s="1">
         <v>4.3720699999999999</v>
       </c>
@@ -7545,7 +7895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.5">
       <c r="H71" s="1">
         <v>107.71528000000001</v>
       </c>
@@ -7574,7 +7924,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.5">
       <c r="H72" s="1">
         <v>2.2816749999999999</v>
       </c>
@@ -7603,60 +7953,60 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A111" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="19" t="s">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B112" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19" t="s">
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="19" t="s">
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B113" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19" t="s">
+      <c r="C113" s="20"/>
+      <c r="D113" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19" t="s">
+      <c r="E113" s="20"/>
+      <c r="F113" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19" t="s">
+      <c r="G113" s="20"/>
+      <c r="H113" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="19"/>
+      <c r="I113" s="20"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="19" t="s">
+      <c r="L113" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19" t="s">
+      <c r="M113" s="20"/>
+      <c r="N113" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="19"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O113" s="20"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -7697,7 +8047,7 @@
         <v>1453767539927.5</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A115" s="1" t="s">
         <v>73</v>
       </c>
@@ -7738,7 +8088,7 @@
         <v>930448849.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -7779,7 +8129,7 @@
         <v>432205611</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -7820,25 +8170,13 @@
         <v>97209115.5</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.5">
       <c r="F118" s="1" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="N113:O113"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="H112:O112"/>
@@ -7852,38 +8190,50 @@
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="L113:M113"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="42.1875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.3125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6875" style="7" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="7" customWidth="1"/>
     <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.8125" style="7" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="7" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="19.6875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -7893,7 +8243,7 @@
       <c r="J1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
@@ -7931,7 +8281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7972,7 +8322,7 @@
         <v>1167948997060</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -8013,7 +8363,7 @@
         <v>108728316</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -8054,7 +8404,7 @@
         <v>36620639</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -8095,7 +8445,7 @@
         <v>36617118.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -8136,7 +8486,7 @@
         <v>1167526052840</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -8177,7 +8527,7 @@
         <v>3858.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -8218,7 +8568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -8259,7 +8609,7 @@
         <v>372140030.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -8300,7 +8650,7 @@
         <v>1166320715140</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8341,7 +8691,7 @@
         <v>2928768330</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -8382,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8423,7 +8773,7 @@
         <v>1067091371960</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -8464,7 +8814,7 @@
         <v>1168233565480</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -8505,7 +8855,7 @@
         <v>191714713208</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -8546,7 +8896,7 @@
         <v>235149574750</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -8587,7 +8937,7 @@
         <v>295374514160</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -8628,7 +8978,7 @@
         <v>1167584485050</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -8669,7 +9019,7 @@
         <v>349554778016</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -8710,7 +9060,7 @@
         <v>232769400333</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -8751,7 +9101,7 @@
         <v>18889041.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -8792,7 +9142,7 @@
         <v>1166155323090</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -8833,7 +9183,7 @@
         <v>29796673.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -8874,7 +9224,7 @@
         <v>19404762.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -8915,7 +9265,7 @@
         <v>10258647.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -8956,7 +9306,7 @@
         <v>1171995555950</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -8997,7 +9347,7 @@
         <v>9425654.5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -9038,7 +9388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -9079,7 +9429,7 @@
         <v>18106773002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -9120,7 +9470,7 @@
         <v>1168606283660</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -9161,7 +9511,7 @@
         <v>1825792118</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -9202,7 +9552,7 @@
         <v>53280781.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -9243,7 +9593,7 @@
         <v>1594919</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -9284,7 +9634,7 @@
         <v>1168081946660</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -9325,7 +9675,7 @@
         <v>352836</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -9366,7 +9716,7 @@
         <v>352815</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -9407,7 +9757,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -9448,7 +9798,7 @@
         <v>1173618610630</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -9489,7 +9839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -9530,7 +9880,7 @@
         <v>4050916722.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -9571,7 +9921,7 @@
         <v>74774388</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -9612,7 +9962,7 @@
         <v>1168110477950</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
@@ -9653,7 +10003,7 @@
         <v>38324</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>30</v>
       </c>
@@ -9694,7 +10044,7 @@
         <v>819618697713</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>31</v>
       </c>
@@ -9741,15 +10091,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8501380F-6DA1-431B-9C6C-94C149E2FC1F}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{AAA28427-89C1-49E1-92F4-DC293B3D590D}"/>
   <bookViews>
     <workbookView xWindow="923" yWindow="458" windowWidth="24683" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="176">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -565,6 +566,9 @@
   </si>
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
+  </si>
+  <si>
+    <t>select only, the default mode (not reconnect mode)</t>
   </si>
 </sst>
 </file>
@@ -685,6 +689,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,9 +700,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -989,7 +993,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1010,6 +1014,11 @@
         <v>164</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>170</v>
@@ -1020,20 +1029,20 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="1:10" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B6" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="18" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1268,7 +1277,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>173</v>
       </c>
       <c r="B24" s="3">
@@ -1311,40 +1320,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="16" t="s">
         <v>131</v>
       </c>
@@ -2043,40 +2052,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="13" t="s">
         <v>131</v>
       </c>
@@ -3445,40 +3454,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="11" t="s">
         <v>131</v>
       </c>
@@ -5004,18 +5013,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
@@ -6569,18 +6578,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
@@ -6985,18 +6994,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
@@ -7506,62 +7515,62 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="3"/>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="20" t="s">
+      <c r="L61" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20" t="s">
+      <c r="C62" s="21"/>
+      <c r="D62" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20" t="s">
+      <c r="E62" s="21"/>
+      <c r="F62" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20" t="s">
+      <c r="G62" s="21"/>
+      <c r="H62" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20" t="s">
+      <c r="I62" s="21"/>
+      <c r="J62" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20" t="s">
+      <c r="K62" s="21"/>
+      <c r="L62" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20" t="s">
+      <c r="M62" s="21"/>
+      <c r="N62" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20" t="s">
+      <c r="O62" s="21"/>
+      <c r="P62" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="20"/>
+      <c r="Q62" s="21"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B63" s="6" t="s">
@@ -7959,52 +7968,52 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20" t="s">
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20" t="s">
+      <c r="C113" s="21"/>
+      <c r="D113" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20" t="s">
+      <c r="E113" s="21"/>
+      <c r="F113" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20" t="s">
+      <c r="G113" s="21"/>
+      <c r="H113" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="20"/>
+      <c r="I113" s="21"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="20" t="s">
+      <c r="L113" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20" t="s">
+      <c r="M113" s="21"/>
+      <c r="N113" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="20"/>
+      <c r="O113" s="21"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
@@ -8177,6 +8186,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="N113:O113"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="H112:O112"/>
@@ -8190,18 +8211,6 @@
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="L113:M113"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{AAA28427-89C1-49E1-92F4-DC293B3D590D}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B3491376-B00D-42A6-AE1D-3C11ADF2C06F}"/>
   <bookViews>
     <workbookView xWindow="923" yWindow="458" windowWidth="24683" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="176">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -544,9 +544,6 @@
     <t>INST_RETIRED.ANY_P (os + user)</t>
   </si>
   <si>
-    <t>4 clients</t>
-  </si>
-  <si>
     <t>16 clients</t>
   </si>
   <si>
@@ -556,12 +553,6 @@
     <t>all results presented are per transaction per client and are user-space results  (3,000,000 transactions per client)</t>
   </si>
   <si>
-    <t>16 clients/ 4 clients</t>
-  </si>
-  <si>
-    <t>32 clients/ 4 clients</t>
-  </si>
-  <si>
     <t>inst addr translation overhead / total execution cycles</t>
   </si>
   <si>
@@ -569,6 +560,15 @@
   </si>
   <si>
     <t>select only, the default mode (not reconnect mode)</t>
+  </si>
+  <si>
+    <t>32 clients/ 16 clients</t>
+  </si>
+  <si>
+    <t>Ms_L (main executable mapped by superpages)</t>
+  </si>
+  <si>
+    <t>Msp_L (main executable padded and mapped by superpages)</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,6 +626,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -662,7 +669,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -701,6 +708,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -990,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98BA9-6D5F-43A5-B1C1-4803FF720BC6}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1004,196 +1013,190 @@
     <col min="10" max="10" width="13.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B6" s="18" t="s">
         <v>167</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>169</v>
-      </c>
       <c r="I6" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3">
-        <v>139320.31380500001</v>
+        <v>165743.07998499999</v>
       </c>
       <c r="C7" s="3">
-        <v>166233.025177</v>
+        <v>182013.945997</v>
       </c>
       <c r="I7" s="3">
         <f>C7/B7</f>
-        <v>1.1931714811500385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1.0981692026808754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>30.529081000000001</v>
+        <v>244.463626</v>
       </c>
       <c r="C8" s="3">
-        <v>245.57641899999999</v>
+        <v>272.06217400000003</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ref="I8:I21" si="0">C8/B8</f>
-        <v>8.0440160973073507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1.1128942920939904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>1641.985588</v>
+        <v>10593.21163</v>
       </c>
       <c r="C9" s="3">
-        <v>10657.799916</v>
+        <v>13124.108267</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>6.4907999155958489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1.238916838953023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>1.9639869999999999</v>
+        <v>22.719802000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>22.867788999999998</v>
+        <v>25.990590999999998</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>11.643554157945037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1.1439620380494511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>244.754627</v>
+        <v>1137.7385899999999</v>
       </c>
       <c r="C11" s="3">
-        <v>1127.1537330000001</v>
+        <v>1441.553637</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>4.6052397326077932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1.2670341409444503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>112.59295400000001</v>
+        <v>354.86586599999998</v>
       </c>
       <c r="C12" s="3">
-        <v>351.782555</v>
+        <v>381.56842</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>3.124374505708412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1.0752468934276143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3">
-        <v>4846.5346250000002</v>
+        <v>13146.213442</v>
       </c>
       <c r="C13" s="3">
-        <v>13019.730836000001</v>
+        <v>15158.517922000001</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>2.6864000452694587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+        <v>1.1530710336385546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="23" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="3">
-        <v>14025.579484</v>
+        <v>24734.480510000001</v>
       </c>
       <c r="C14" s="3">
-        <v>24380.117581999999</v>
+        <v>28882.239214000001</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>1.738260983071122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1.1676913611475723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" s="3">
-        <v>202674.90353099999</v>
+        <v>231668.26772</v>
       </c>
       <c r="C15" s="3">
-        <v>231706.077494</v>
+        <v>242133.400352</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>1.1432401025347452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1.0451729221916937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="3">
-        <v>170226.30035899999</v>
+        <v>155139.899294</v>
       </c>
       <c r="C16" s="3">
-        <v>155138.92887999999</v>
+        <v>150516.268794</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>0.91136874004086699</v>
+        <v>0.97019702525887341</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
@@ -1201,29 +1204,29 @@
         <v>166</v>
       </c>
       <c r="B17" s="3">
-        <v>117670.28529</v>
+        <v>118162.038227</v>
       </c>
       <c r="C17" s="3">
-        <v>118168.297143</v>
+        <v>118790.674011</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>1.0042322651956919</v>
+        <v>1.0053201162863519</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+      <c r="A18" s="23" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="3">
-        <v>4251.3366150000002</v>
+        <v>5722.9740410000004</v>
       </c>
       <c r="C18" s="3">
-        <v>5553.3820040000001</v>
+        <v>13366.601137</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
-        <v>1.3062673005957679</v>
+        <v>2.3356040130953302</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
@@ -1231,14 +1234,14 @@
         <v>137</v>
       </c>
       <c r="B19" s="3">
-        <v>37353.777627000003</v>
+        <v>50889.468272999999</v>
       </c>
       <c r="C19" s="3">
-        <v>51099.054978</v>
+        <v>62655.917521000003</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>1.3679755629605894</v>
+        <v>1.2312158025483404</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
@@ -1246,14 +1249,14 @@
         <v>134</v>
       </c>
       <c r="B20" s="3">
-        <v>19332.581488</v>
+        <v>31178.224119999999</v>
       </c>
       <c r="C20" s="3">
-        <v>31366.939052999998</v>
+        <v>43034.913572999998</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
-        <v>1.6224909783760586</v>
+        <v>1.3802875175752634</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
@@ -1261,36 +1264,585 @@
         <v>135</v>
       </c>
       <c r="B21" s="3">
-        <v>15235.831464000001</v>
+        <v>24607.062817000002</v>
       </c>
       <c r="C21" s="3">
-        <v>24829.723055999999</v>
+        <v>35506.512418999999</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
-        <v>1.6296926829801797</v>
+        <v>1.4429398861236709</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>147</v>
       </c>
+      <c r="B22" s="3">
+        <v>0.55557599999999996</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.1887E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B24" s="3">
         <f>B14/B7</f>
-        <v>0.1006714606143576</v>
+        <v>0.1492338655239091</v>
       </c>
       <c r="C24" s="3">
         <f>C14/C7</f>
-        <v>0.1466622986379558</v>
+        <v>0.15868146287249904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>152574.461262</v>
+      </c>
+      <c r="C28" s="3">
+        <v>166649.42162499999</v>
+      </c>
+      <c r="I28" s="3">
+        <f>C28/B28</f>
+        <v>1.0922497792001411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3">
+        <v>218.303101</v>
+      </c>
+      <c r="C29" s="3">
+        <v>240.19660099999999</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" ref="I29:I42" si="1">C29/B29</f>
+        <v>1.1002894594703903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>9655.7835930000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>11703.143278</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2120345454390922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3">
+        <v>19.670846000000001</v>
+      </c>
+      <c r="C31" s="3">
+        <v>21.971233999999999</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1169440297585573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1013.05911</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1267.1822299999999</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2508472778059316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>61.573349</v>
+      </c>
+      <c r="C33" s="3">
+        <v>63.293998000000002</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0279447038035887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3204.627954</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3683.725817</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1495018672610631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6993.5675099999999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7385.6365919999998</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0560613851856562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="3">
+        <v>217409.398602</v>
+      </c>
+      <c r="C36" s="3">
+        <v>225768.40391299999</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0384482242476665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="3">
+        <v>154977.76902499999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>150416.98414099999</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97057136057195226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="3">
+        <v>118162.55101900001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>118709.855757</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="1"/>
+        <v>1.004631795211598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A39" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5594.9140040000002</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12147.400122999999</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1711504617077932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="3">
+        <v>48266.559349000003</v>
+      </c>
+      <c r="C40" s="3">
+        <v>57211.711948999997</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1853281593021883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="3">
+        <v>27533.973085000001</v>
+      </c>
+      <c r="C41" s="3">
+        <v>35862.757570000002</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3024911973033551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3">
+        <v>22119.370794999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>29747.440600000002</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3448592582355146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.55942400000000003</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5.4174E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A45" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B35/B28</f>
+        <v>4.5837078185651831E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <f>C35/C28</f>
+        <v>4.4318405188464451E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A47" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>150794.91561600001</v>
+      </c>
+      <c r="C49" s="3">
+        <v>162108.05302299999</v>
+      </c>
+      <c r="I49" s="3">
+        <f>C49/B49</f>
+        <v>1.0750233345785274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3">
+        <v>115.18022499999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>121.94078399999999</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" ref="I50:I63" si="2">C50/B50</f>
+        <v>1.0586954835346085</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5726.2879899999998</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6986.4605460000002</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2200679669273848</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="3">
+        <v>18.575039</v>
+      </c>
+      <c r="C52" s="3">
+        <v>20.058209000000002</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0798474770362529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3">
+        <v>934.029088</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1173.958883</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2568761488079052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3">
+        <v>52.038491999999998</v>
+      </c>
+      <c r="C54" s="3">
+        <v>51.612158000000001</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99180733369445073</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2709.4517139999998</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3113.1937389999998</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="2"/>
+        <v>1.149012445179896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A56" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6477.8670060000004</v>
+      </c>
+      <c r="C56" s="3">
+        <v>7214.6310800000001</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1137355974300778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="3">
+        <v>216587.29824199999</v>
+      </c>
+      <c r="C57" s="3">
+        <v>221691.1023</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0235646508332976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="3">
+        <v>155293.896614</v>
+      </c>
+      <c r="C58" s="3">
+        <v>150259.353775</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96758054921170589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="3">
+        <v>118161.723644</v>
+      </c>
+      <c r="C59" s="3">
+        <v>118684.761117</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0044264543277637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A60" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5730.3346369999999</v>
+      </c>
+      <c r="C60" s="3">
+        <v>11120.157907999999</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9405774029667719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45948.709331999999</v>
+      </c>
+      <c r="C61" s="3">
+        <v>54975.398408000001</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1964514174006093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="3">
+        <v>26041.050367</v>
+      </c>
+      <c r="C62" s="3">
+        <v>34503.573315000001</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="2"/>
+        <v>1.324968571879265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="3">
+        <v>20931.854705000002</v>
+      </c>
+      <c r="C63" s="3">
+        <v>28757.293478</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3738531001331062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.56265699999999996</v>
+      </c>
+      <c r="C64" s="3">
+        <v>8.1216999999999998E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A66" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B56/B49</f>
+        <v>4.2958126137992082E-2</v>
+      </c>
+      <c r="C66" s="3">
+        <f>C56/C49</f>
+        <v>4.4505075136374528E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1298,7 +1850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2003,6 +2557,16 @@
       <c r="K23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B24" s="1">
+        <f>B22/B4</f>
+        <v>0.11581447083429915</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D22/D4</f>
+        <v>1.8735191919936969E-2</v>
       </c>
     </row>
     <row r="41" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.5">

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B3491376-B00D-42A6-AE1D-3C11ADF2C06F}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{239FE209-75B0-4F09-8DE6-66C9DAE28CEF}"/>
   <bookViews>
     <workbookView xWindow="923" yWindow="458" windowWidth="24683" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="parallelism" sheetId="12" r:id="rId1"/>
-    <sheet name="final 1GB various db sizes" sheetId="11" r:id="rId2"/>
-    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId3"/>
-    <sheet name="final 1GB" sheetId="9" r:id="rId4"/>
-    <sheet name="1GB" sheetId="2" r:id="rId5"/>
-    <sheet name="alignment test" sheetId="8" r:id="rId6"/>
-    <sheet name="LR" sheetId="7" r:id="rId7"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId8"/>
+    <sheet name="parallelism2" sheetId="13" r:id="rId1"/>
+    <sheet name="parallelism" sheetId="12" r:id="rId2"/>
+    <sheet name="final 1GB various db sizes" sheetId="11" r:id="rId3"/>
+    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId4"/>
+    <sheet name="final 1GB" sheetId="9" r:id="rId5"/>
+    <sheet name="1GB" sheetId="2" r:id="rId6"/>
+    <sheet name="alignment test" sheetId="8" r:id="rId7"/>
+    <sheet name="LR" sheetId="7" r:id="rId8"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="185">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -569,6 +570,33 @@
   </si>
   <si>
     <t>Msp_L (main executable padded and mapped by superpages)</t>
+  </si>
+  <si>
+    <t>Database size 5GB (scale factor = 375)</t>
+  </si>
+  <si>
+    <t>Database size 6GB (scale factor = 450)</t>
+  </si>
+  <si>
+    <t>Database size 7GB (scale factor = 525)</t>
+  </si>
+  <si>
+    <t>clients</t>
+  </si>
+  <si>
+    <t>Msp_L</t>
+  </si>
+  <si>
+    <t>32/16 clients</t>
+  </si>
+  <si>
+    <t>64/16 clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITLB stall/execution time </t>
+  </si>
+  <si>
+    <t>Database size 1GB (scale factor = 75)</t>
   </si>
 </sst>
 </file>
@@ -580,7 +608,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,6 +661,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -648,9 +682,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -669,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -699,6 +742,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,8 +767,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -998,11 +1055,4768 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36A5F6E-BDE1-47B9-98DD-5F638B8FC3A2}">
+  <dimension ref="A1:P173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="10.9375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="22">
+        <v>16</v>
+      </c>
+      <c r="C6" s="23">
+        <v>32</v>
+      </c>
+      <c r="D6" s="23">
+        <v>64</v>
+      </c>
+      <c r="E6" s="22">
+        <v>16</v>
+      </c>
+      <c r="F6" s="23">
+        <v>32</v>
+      </c>
+      <c r="G6" s="23">
+        <v>64</v>
+      </c>
+      <c r="H6" s="22">
+        <v>16</v>
+      </c>
+      <c r="I6" s="23">
+        <v>32</v>
+      </c>
+      <c r="J6" s="23">
+        <v>64</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>165674.422345</v>
+      </c>
+      <c r="C7" s="3">
+        <v>180959.52542200001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>185027.81647399999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>151923.76736500001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>165106.78621399999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>167399.66837699999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>149904.05826600001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>161173.67613400001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>164908.33614999999</v>
+      </c>
+      <c r="K7" s="25">
+        <f>C7/B7</f>
+        <v>1.0922598845413225</v>
+      </c>
+      <c r="L7" s="3">
+        <f>D7/B7</f>
+        <v>1.1168158238010846</v>
+      </c>
+      <c r="M7" s="3">
+        <f>F7/E7</f>
+        <v>1.0867739069248297</v>
+      </c>
+      <c r="N7" s="3">
+        <f>G7/E7</f>
+        <v>1.1018662272560606</v>
+      </c>
+      <c r="O7" s="3">
+        <f>I7/H7</f>
+        <v>1.0751788710616654</v>
+      </c>
+      <c r="P7" s="3">
+        <f>J7/H7</f>
+        <v>1.1000925395720467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>244.63314</v>
+      </c>
+      <c r="C8" s="3">
+        <v>269.91640100000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>271.92610200000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>219.40909300000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>237.215386</v>
+      </c>
+      <c r="G8" s="3">
+        <v>235.73279099999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>114.33555200000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>120.943555</v>
+      </c>
+      <c r="J8" s="3">
+        <v>122.488208</v>
+      </c>
+      <c r="K8" s="25">
+        <f t="shared" ref="K8:K71" si="0">C8/B8</f>
+        <v>1.1033517413053686</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" ref="L8:L71" si="1">D8/B8</f>
+        <v>1.1115669038136045</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ref="M8:M71" si="2">F8/E8</f>
+        <v>1.0811556748014997</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N71" si="3">G8/E8</f>
+        <v>1.0743984571323122</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" ref="O8:O71" si="4">I8/H8</f>
+        <v>1.0577948230835497</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8:P71" si="5">J8/H8</f>
+        <v>1.0713046454702033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10630.249256999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>13050.794685999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13745.135365</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9664.1067039999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11681.134142999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11899.11211</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5728.238351</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6935.1921359999997</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7386.0146809999997</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2277035439602768</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2930209849923184</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2087132831599579</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2312687012318402</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2107024378252866</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2894042161689372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22.908415999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>25.877174</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25.909018</v>
+      </c>
+      <c r="E10" s="3">
+        <v>19.847218999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>21.889593000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>22.034499</v>
+      </c>
+      <c r="H10" s="3">
+        <v>18.566178000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>20.072915999999999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20.416376</v>
+      </c>
+      <c r="K10" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1295924606921754</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1309825175167065</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1029047948732769</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="3"/>
+        <v>1.110205868136992</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="4"/>
+        <v>1.08115499054248</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0996542207017512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1133.7581230000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1452.4216690000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1494.394481</v>
+      </c>
+      <c r="E11" s="3">
+        <v>979.71713999999997</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1246.8660709999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1324.6836330000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>948.44461100000001</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1158.5708629999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1195.009014</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2810683685835871</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3180893267125902</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2726796542520424</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3521082554501396</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2215482586573523</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2599671084008088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>353.92555599999997</v>
+      </c>
+      <c r="C12" s="3">
+        <v>380.825716</v>
+      </c>
+      <c r="D12" s="3">
+        <v>382.39112799999998</v>
+      </c>
+      <c r="E12" s="3">
+        <v>61.697184</v>
+      </c>
+      <c r="F12" s="3">
+        <v>63.614396999999997</v>
+      </c>
+      <c r="G12" s="3">
+        <v>63.666767999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>52.632658999999997</v>
+      </c>
+      <c r="I12" s="3">
+        <v>52.472607000000004</v>
+      </c>
+      <c r="J12" s="3">
+        <v>51.966796000000002</v>
+      </c>
+      <c r="K12" s="25">
+        <f t="shared" si="0"/>
+        <v>1.076005135950115</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0804281338757014</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0310745624954292</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0319234018849224</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99695907440283427</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98734886261399035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>13070.768599999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>15117.834444</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15643.872670000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3188.2947039999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3709.5355650000001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3864.4066659999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2743.0484489999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3031.8984500000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3156.534854</v>
+      </c>
+      <c r="K13" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1566140375249241</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1968594310513616</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1634857845311655</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2120606859685077</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1053025516575556</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1507397381736877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A14" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="3">
+        <v>24406.436422999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>28863.617527999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>29923.128836</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6955.3644469999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7537.6036649999996</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7712.7223889999996</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6501.1595770000004</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7059.0741019999996</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7328.8815869999999</v>
+      </c>
+      <c r="K14" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1826231829895357</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2260343262485141</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0837108137807405</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1088883189042185</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0858176942731581</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1273191344092428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A15" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="3">
+        <v>231056.25059099999</v>
+      </c>
+      <c r="C15" s="3">
+        <v>241729.16230600001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>244529.90599599999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>216826.526148</v>
+      </c>
+      <c r="F15" s="3">
+        <v>224000.54549799999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>226208.95496900001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>213156.107009</v>
+      </c>
+      <c r="I15" s="3">
+        <v>220103.613102</v>
+      </c>
+      <c r="J15" s="3">
+        <v>222493.10714599999</v>
+      </c>
+      <c r="K15" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0461918328878819</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0583133127562523</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0330864469280996</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0432715912931974</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0325935118185785</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0438035778942321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A16" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="3">
+        <v>154871.97925599999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>150433.41437000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>151018.913072</v>
+      </c>
+      <c r="E16" s="3">
+        <v>154817.42939400001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>150753.17537499999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>150182.25394</v>
+      </c>
+      <c r="H16" s="3">
+        <v>154406.776938</v>
+      </c>
+      <c r="I16" s="3">
+        <v>150185.22438199999</v>
+      </c>
+      <c r="J16" s="3">
+        <v>149946.28406199999</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.97134042641333374</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97512095988887082</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97374808485770192</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97006037710260773</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97265953839775365</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97111206538692885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A17" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="3">
+        <v>118066.039154</v>
+      </c>
+      <c r="C17" s="3">
+        <v>118681.993539</v>
+      </c>
+      <c r="D17" s="3">
+        <v>119918.725254</v>
+      </c>
+      <c r="E17" s="3">
+        <v>118067.378682</v>
+      </c>
+      <c r="F17" s="3">
+        <v>118581.023463</v>
+      </c>
+      <c r="G17" s="3">
+        <v>119519.333778</v>
+      </c>
+      <c r="H17" s="3">
+        <v>118065.511316</v>
+      </c>
+      <c r="I17" s="3">
+        <v>118587.962122</v>
+      </c>
+      <c r="J17" s="3">
+        <v>119449.31632300001</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0052170326828409</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0156919476021673</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0043504377477834</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0122976821558025</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0044250924776978</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0117206539960368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A18" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5211.950527</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12359.3262</v>
+      </c>
+      <c r="D18" s="3">
+        <v>15390.058637</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5191.9393630000004</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10457.650893</v>
+      </c>
+      <c r="G18" s="3">
+        <v>13461.396148</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5704.5311119999997</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10446.129349000001</v>
+      </c>
+      <c r="J18" s="3">
+        <v>12242.023889</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" si="0"/>
+        <v>2.3713437293722799</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9528405070756727</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0142089808532302</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5927491071894475</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8311985935225452</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1460175514246544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A19" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3">
+        <v>50395.532195</v>
+      </c>
+      <c r="C19" s="3">
+        <v>61865.578189</v>
+      </c>
+      <c r="D19" s="3">
+        <v>63688.105194999996</v>
+      </c>
+      <c r="E19" s="3">
+        <v>47602.491623000002</v>
+      </c>
+      <c r="F19" s="3">
+        <v>56284.720578</v>
+      </c>
+      <c r="G19" s="3">
+        <v>58956.771723999998</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45303.178675000003</v>
+      </c>
+      <c r="I19" s="3">
+        <v>53290.794084000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>55857.497192000003</v>
+      </c>
+      <c r="K19" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2276004537389924</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2637649097258432</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1823902207422483</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2385228107579556</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.176314679071468</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2329708163022184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A20" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="3">
+        <v>30781.687032999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42303.088951999998</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44282.649278999997</v>
+      </c>
+      <c r="E20" s="3">
+        <v>26899.509881999998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>34792.698792000003</v>
+      </c>
+      <c r="G20" s="3">
+        <v>37547.926149999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>25539.514247999999</v>
+      </c>
+      <c r="I20" s="3">
+        <v>32695.689117000002</v>
+      </c>
+      <c r="J20" s="3">
+        <v>35273.566176</v>
+      </c>
+      <c r="K20" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3742940374466253</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4386037136796979</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2934324433651405</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3958591184267437</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2802001165531331</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3811369250596564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A21" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24236.106873000001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>34763.872435999998</v>
+      </c>
+      <c r="D21" s="3">
+        <v>36731.177966000003</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21484.757966000001</v>
+      </c>
+      <c r="F21" s="3">
+        <v>28665.310666000001</v>
+      </c>
+      <c r="G21" s="3">
+        <v>31339.385052000001</v>
+      </c>
+      <c r="H21" s="3">
+        <v>20459.936683</v>
+      </c>
+      <c r="I21" s="3">
+        <v>26966.157143</v>
+      </c>
+      <c r="J21" s="3">
+        <v>29448.975323999999</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="0"/>
+        <v>1.4343835261235109</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5155560321001891</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3342161317974048</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.458679920974447</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3179980740314787</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4393483117896899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.57818199999999997</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.4799000000000002E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.0506E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.56957400000000002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9.9904999999999994E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.844E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.575264</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6.2065000000000002E-2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3.1261999999999998E-2</v>
+      </c>
+      <c r="K22" s="25">
+        <f t="shared" si="0"/>
+        <v>4.2891338713415501E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8170749002909117E-2</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1754030205030426</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9932054482824006E-2</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.10788959503810425</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4343744785003055E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A23" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B14/B7</f>
+        <v>0.14731565728459942</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23:J23" si="6">C14/C7</f>
+        <v>0.1595031676873028</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16172232589798075</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.5781937662785786E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.5652900391570092E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.6073701721022611E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.3368803034430851E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.3797934447627015E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4442153490249742E-2</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="22">
+        <v>16</v>
+      </c>
+      <c r="C26" s="23">
+        <v>32</v>
+      </c>
+      <c r="D26" s="23">
+        <v>64</v>
+      </c>
+      <c r="E26" s="22">
+        <v>16</v>
+      </c>
+      <c r="F26" s="23">
+        <v>32</v>
+      </c>
+      <c r="G26" s="23">
+        <v>64</v>
+      </c>
+      <c r="H26" s="22">
+        <v>16</v>
+      </c>
+      <c r="I26" s="23">
+        <v>32</v>
+      </c>
+      <c r="J26" s="23">
+        <v>64</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>165937.68781599999</v>
+      </c>
+      <c r="C27" s="3">
+        <v>182168.962852</v>
+      </c>
+      <c r="D27" s="3">
+        <v>185514.01346700001</v>
+      </c>
+      <c r="E27" s="3">
+        <v>152306.78486000001</v>
+      </c>
+      <c r="F27" s="3">
+        <v>164710.63162299999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>167526.39068400001</v>
+      </c>
+      <c r="H27" s="3">
+        <v>150187.35518700001</v>
+      </c>
+      <c r="I27" s="3">
+        <v>162088.520357</v>
+      </c>
+      <c r="J27" s="3">
+        <v>164983.94891000001</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0978154827250459</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="1"/>
+        <v>1.117973957023598</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0814398831568899</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="3"/>
+        <v>1.099927300270896</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0792421249790418</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="5"/>
+        <v>1.098520902139708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3">
+        <v>245.01305300000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>272.302727</v>
+      </c>
+      <c r="D28" s="3">
+        <v>273.12813499999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>217.73466300000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>237.021817</v>
+      </c>
+      <c r="G28" s="3">
+        <v>240.40432000000001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>113.50426899999999</v>
+      </c>
+      <c r="I28" s="3">
+        <v>119.767523</v>
+      </c>
+      <c r="J28" s="3">
+        <v>124.34619499999999</v>
+      </c>
+      <c r="K28" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1113804904100353</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.114749323171774</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0885809991585951</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1041159762421475</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0551807791476109</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0955199843628789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10657.666493999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>13355.482774</v>
+      </c>
+      <c r="D29" s="3">
+        <v>13990.112174</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9632.9900539999999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>11614.697453000001</v>
+      </c>
+      <c r="G29" s="3">
+        <v>12125.434744</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5670.934491</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6818.1451020000004</v>
+      </c>
+      <c r="J29" s="3">
+        <v>7440.2975550000001</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2531338620437038</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3126806118277472</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2057209015986803</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2587405027959142</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2022965726055679</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3120055551352339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>22.899854000000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>25.976490999999999</v>
+      </c>
+      <c r="D30" s="3">
+        <v>26.008527999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>19.578053000000001</v>
+      </c>
+      <c r="F30" s="3">
+        <v>21.835771000000001</v>
+      </c>
+      <c r="G30" s="3">
+        <v>22.166419999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>18.418785</v>
+      </c>
+      <c r="I30" s="3">
+        <v>20.377209000000001</v>
+      </c>
+      <c r="J30" s="3">
+        <v>20.504299</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="0"/>
+        <v>1.134351817264861</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1357508218174666</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1153188215396086</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1322075795790316</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1063275346337993</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1132275554549336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1136.975328</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1458.7091949999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1522.8994439999999</v>
+      </c>
+      <c r="E31" s="3">
+        <v>994.28320699999995</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1245.1446880000001</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1315.3373750000001</v>
+      </c>
+      <c r="H31" s="3">
+        <v>920.970417</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1147.877068</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1222.0133430000001</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2829734815494607</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3394305104921327</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2523038498828836</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3229001211523028</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2463777845754627</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3268757828081248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3">
+        <v>353.20893000000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>381.07666399999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>383.36740500000002</v>
+      </c>
+      <c r="E32" s="3">
+        <v>61.700885</v>
+      </c>
+      <c r="F32" s="3">
+        <v>63.450530999999998</v>
+      </c>
+      <c r="G32" s="3">
+        <v>63.881816000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>52.143126000000002</v>
+      </c>
+      <c r="I32" s="3">
+        <v>51.841878000000001</v>
+      </c>
+      <c r="J32" s="3">
+        <v>52.396197000000001</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0788987243329322</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0853842370293412</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0283569028223825</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0353468349765163</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99422267088474903</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0048533914134723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>13049.736999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>15113.735094</v>
+      </c>
+      <c r="D33" s="3">
+        <v>15741.605992999999</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3164.2414819999999</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3665.009849</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3848.7042710000001</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2690.4248980000002</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3025.0906989999999</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3179.699102</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1581639610054977</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2062776432199362</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="2"/>
+        <v>1.158258581037084</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="3"/>
+        <v>1.216311805813056</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1243914302342291</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1818575959372495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A34" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="3">
+        <v>24505.207607</v>
+      </c>
+      <c r="C34" s="3">
+        <v>28944.535749999999</v>
+      </c>
+      <c r="D34" s="3">
+        <v>30133.396796000001</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6980.4548729999997</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7389.1621539999996</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7719.8810430000003</v>
+      </c>
+      <c r="H34" s="3">
+        <v>6466.7278699999997</v>
+      </c>
+      <c r="I34" s="3">
+        <v>7105.5976860000001</v>
+      </c>
+      <c r="J34" s="3">
+        <v>7491.1209760000002</v>
+      </c>
+      <c r="K34" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1811585608330815</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2296731894404473</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0585502361143908</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1059280782488916</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0987933664201026</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1584098057925547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A35" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="3">
+        <v>229373.17438099999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>242191.21330999999</v>
+      </c>
+      <c r="D35" s="3">
+        <v>246466.50790200001</v>
+      </c>
+      <c r="E35" s="3">
+        <v>217583.59941699999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>223521.133737</v>
+      </c>
+      <c r="G35" s="3">
+        <v>226352.56803600001</v>
+      </c>
+      <c r="H35" s="3">
+        <v>215025.75276999999</v>
+      </c>
+      <c r="I35" s="3">
+        <v>221487.652068</v>
+      </c>
+      <c r="J35" s="3">
+        <v>223223.32965100001</v>
+      </c>
+      <c r="K35" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0558829033237715</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0745219381783815</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0272885196122741</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0403016065663766</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0300517459641771</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0381236980938207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A36" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="3">
+        <v>154540.481038</v>
+      </c>
+      <c r="C36" s="3">
+        <v>150176.546413</v>
+      </c>
+      <c r="D36" s="3">
+        <v>151382.00595600001</v>
+      </c>
+      <c r="E36" s="3">
+        <v>155101.24728899999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>150251.03336500001</v>
+      </c>
+      <c r="G36" s="3">
+        <v>150322.46695900001</v>
+      </c>
+      <c r="H36" s="3">
+        <v>154875.82939699999</v>
+      </c>
+      <c r="I36" s="3">
+        <v>150393.08230099999</v>
+      </c>
+      <c r="J36" s="3">
+        <v>149853.71067100001</v>
+      </c>
+      <c r="K36" s="25">
+        <f t="shared" si="0"/>
+        <v>0.97176186720988045</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97956215057190521</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96872872392210629</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96918928497656964</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97105586382682618</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96757325694039342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A37" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="3">
+        <v>118066.96875099999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>118684.72699700001</v>
+      </c>
+      <c r="D37" s="3">
+        <v>119978.845711</v>
+      </c>
+      <c r="E37" s="3">
+        <v>118067.90822500001</v>
+      </c>
+      <c r="F37" s="3">
+        <v>118599.49625500001</v>
+      </c>
+      <c r="G37" s="3">
+        <v>119553.24641399999</v>
+      </c>
+      <c r="H37" s="3">
+        <v>118069.092255</v>
+      </c>
+      <c r="I37" s="3">
+        <v>118594.37644399999</v>
+      </c>
+      <c r="J37" s="3">
+        <v>119472.800712</v>
+      </c>
+      <c r="K37" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0052322698933929</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0161931569873035</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0045023922079399</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0125803718498121</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0044489559373042</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0118888731181936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A38" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5362.6482930000002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>12990.200217</v>
+      </c>
+      <c r="D38" s="3">
+        <v>16118.117265000001</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5295.5715579999996</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10824.440079</v>
+      </c>
+      <c r="G38" s="3">
+        <v>13086.196534999999</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5373.7932350000001</v>
+      </c>
+      <c r="I38" s="3">
+        <v>10897.271000999999</v>
+      </c>
+      <c r="J38" s="3">
+        <v>12417.48645</v>
+      </c>
+      <c r="K38" s="25">
+        <f t="shared" si="0"/>
+        <v>2.4223479719817602</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0056263965771137</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0440551053733871</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4711584749016811</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="4"/>
+        <v>2.0278545385827447</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3107488336402286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A39" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="3">
+        <v>50944.170768000004</v>
+      </c>
+      <c r="C39" s="3">
+        <v>61887.115211999997</v>
+      </c>
+      <c r="D39" s="3">
+        <v>64415.288371000002</v>
+      </c>
+      <c r="E39" s="3">
+        <v>48086.173761999999</v>
+      </c>
+      <c r="F39" s="3">
+        <v>56232.046563999997</v>
+      </c>
+      <c r="G39" s="3">
+        <v>59633.157722999997</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45588.888894999996</v>
+      </c>
+      <c r="I39" s="3">
+        <v>54168.767418000003</v>
+      </c>
+      <c r="J39" s="3">
+        <v>56170.690007999998</v>
+      </c>
+      <c r="K39" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2148026806410142</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="1"/>
+        <v>1.264429028874521</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1694015590077425</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2401310617507475</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1882010887074068</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2321135998153394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A40" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="3">
+        <v>31178.431181</v>
+      </c>
+      <c r="C40" s="3">
+        <v>42125.661982999998</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45086.970244999997</v>
+      </c>
+      <c r="E40" s="3">
+        <v>27254.150748</v>
+      </c>
+      <c r="F40" s="3">
+        <v>34723.793954000001</v>
+      </c>
+      <c r="G40" s="3">
+        <v>38098.142221000002</v>
+      </c>
+      <c r="H40" s="3">
+        <v>25801.615701999999</v>
+      </c>
+      <c r="I40" s="3">
+        <v>33561.646694000003</v>
+      </c>
+      <c r="J40" s="3">
+        <v>35534.473515999998</v>
+      </c>
+      <c r="K40" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3511155111829742</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4460948975673862</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2740735998368302</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3978840351059469</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3007575603646593</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3772189279311513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A41" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="3">
+        <v>24516.227293</v>
+      </c>
+      <c r="C41" s="3">
+        <v>34549.695421999997</v>
+      </c>
+      <c r="D41" s="3">
+        <v>37520.687051000001</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21770.633707000001</v>
+      </c>
+      <c r="F41" s="3">
+        <v>28628.672966999999</v>
+      </c>
+      <c r="G41" s="3">
+        <v>31788.755637999999</v>
+      </c>
+      <c r="H41" s="3">
+        <v>20694.112786000002</v>
+      </c>
+      <c r="I41" s="3">
+        <v>27782.846797999999</v>
+      </c>
+      <c r="J41" s="3">
+        <v>29686.246329000001</v>
+      </c>
+      <c r="K41" s="25">
+        <f t="shared" si="0"/>
+        <v>1.4092582439005534</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5304429430589062</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3150133042656864</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4601667579285407</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3425483414198687</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4345261686736028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.55111500000000002</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2.3255000000000001E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.0146000000000001E-2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.58098700000000003</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8.0722000000000002E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2.4698999999999999E-2</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.56820199999999998</v>
+      </c>
+      <c r="I42" s="3">
+        <v>6.4179E-2</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2.8018999999999999E-2</v>
+      </c>
+      <c r="K42" s="25">
+        <f t="shared" si="0"/>
+        <v>4.219627482467362E-2</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8409950736234724E-2</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13893942549489058</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2512138825825704E-2</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11295102797948617</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9311688448826295E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A43" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B34/B27</f>
+        <v>0.14767716683007298</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:J43" si="7">C34/C27</f>
+        <v>0.15888840391277564</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="7"/>
+        <v>0.16243191677463359</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="7"/>
+        <v>4.5831542432048678E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="7"/>
+        <v>4.4861476646588162E-2</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="7"/>
+        <v>4.6081581603233959E-2</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="7"/>
+        <v>4.3057738528974043E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="7"/>
+        <v>4.3837760196403293E-2</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="7"/>
+        <v>4.5405150170617282E-2</v>
+      </c>
+      <c r="K43" s="25"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" s="28"/>
+      <c r="M44" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="P44" s="26"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45" t="s">
+        <v>182</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="N45" t="s">
+        <v>182</v>
+      </c>
+      <c r="O45" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="P45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="22">
+        <v>16</v>
+      </c>
+      <c r="C46" s="23">
+        <v>32</v>
+      </c>
+      <c r="D46" s="23">
+        <v>64</v>
+      </c>
+      <c r="E46" s="22">
+        <v>16</v>
+      </c>
+      <c r="F46" s="23">
+        <v>32</v>
+      </c>
+      <c r="G46" s="23">
+        <v>64</v>
+      </c>
+      <c r="H46" s="22">
+        <v>16</v>
+      </c>
+      <c r="I46" s="23">
+        <v>32</v>
+      </c>
+      <c r="J46" s="23">
+        <v>64</v>
+      </c>
+      <c r="K46" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>166230.070764</v>
+      </c>
+      <c r="C47" s="3">
+        <v>182050.86989999999</v>
+      </c>
+      <c r="D47" s="3">
+        <v>185778.67141800001</v>
+      </c>
+      <c r="E47" s="3">
+        <v>152645.463873</v>
+      </c>
+      <c r="F47" s="3">
+        <v>164664.03223700001</v>
+      </c>
+      <c r="G47" s="3">
+        <v>168082.32425599999</v>
+      </c>
+      <c r="H47" s="3">
+        <v>150115.619756</v>
+      </c>
+      <c r="I47" s="3">
+        <v>162145.78018599999</v>
+      </c>
+      <c r="J47" s="3">
+        <v>165210.64389599999</v>
+      </c>
+      <c r="K47" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0951741105763053</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1175996651156668</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0787351818983588</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1011288510731203</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0801392982925693</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1005559858763243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3">
+        <v>245.132124</v>
+      </c>
+      <c r="C48" s="3">
+        <v>271.78368499999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>273.237056</v>
+      </c>
+      <c r="E48" s="3">
+        <v>219.58704299999999</v>
+      </c>
+      <c r="F48" s="3">
+        <v>236.699659</v>
+      </c>
+      <c r="G48" s="3">
+        <v>236.638238</v>
+      </c>
+      <c r="H48" s="3">
+        <v>109.84980299999999</v>
+      </c>
+      <c r="I48" s="3">
+        <v>123.090388</v>
+      </c>
+      <c r="J48" s="3">
+        <v>124.013462</v>
+      </c>
+      <c r="K48" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1087232491813273</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1146521783493377</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0779309005039974</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0776511891004426</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1205335343204941</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1289365898999384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A49" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>10615.481932999999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>13167.278075</v>
+      </c>
+      <c r="D49" s="3">
+        <v>13760.063337</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9646.4715880000003</v>
+      </c>
+      <c r="F49" s="3">
+        <v>11488.783025000001</v>
+      </c>
+      <c r="G49" s="3">
+        <v>12064.962847000001</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5425.3718019999997</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7017.4355249999999</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7337.1900299999998</v>
+      </c>
+      <c r="K49" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2403843893386806</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2962259673039001</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="2"/>
+        <v>1.190982933002342</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="3"/>
+        <v>1.250712526019208</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2934478559447491</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3523847392901682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3">
+        <v>22.678008999999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>25.748252999999998</v>
+      </c>
+      <c r="D50" s="3">
+        <v>25.837783999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>19.548497000000001</v>
+      </c>
+      <c r="F50" s="3">
+        <v>21.537696</v>
+      </c>
+      <c r="G50" s="3">
+        <v>21.797196</v>
+      </c>
+      <c r="H50" s="3">
+        <v>18.097173999999999</v>
+      </c>
+      <c r="I50" s="3">
+        <v>20.032810999999999</v>
+      </c>
+      <c r="J50" s="3">
+        <v>20.276205000000001</v>
+      </c>
+      <c r="K50" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1353841953233195</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1393321168538209</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1017571325304447</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1150318103739636</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1069579703438781</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1204072525356723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A51" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1131.736553</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1451.17056</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1523.0075859999999</v>
+      </c>
+      <c r="E51" s="3">
+        <v>972.63518399999998</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1237.6804139999999</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1289.766171</v>
+      </c>
+      <c r="H51" s="3">
+        <v>893.10950300000002</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1180.6911520000001</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1230.782684</v>
+      </c>
+      <c r="K51" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2822512060366402</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3457262487129369</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="2"/>
+        <v>1.272502202634693</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3260533776865715</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3220004355949622</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3780870989119909</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A52" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3">
+        <v>354.52339499999999</v>
+      </c>
+      <c r="C52" s="3">
+        <v>380.43093800000003</v>
+      </c>
+      <c r="D52" s="3">
+        <v>383.04252600000001</v>
+      </c>
+      <c r="E52" s="3">
+        <v>61.186804000000002</v>
+      </c>
+      <c r="F52" s="3">
+        <v>62.923732000000001</v>
+      </c>
+      <c r="G52" s="3">
+        <v>63.317205999999999</v>
+      </c>
+      <c r="H52" s="3">
+        <v>51.055508000000003</v>
+      </c>
+      <c r="I52" s="3">
+        <v>52.095739000000002</v>
+      </c>
+      <c r="J52" s="3">
+        <v>52.706294</v>
+      </c>
+      <c r="K52" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0730771039806839</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0804435797530372</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0283872973656214</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0348179976845988</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="4"/>
+        <v>1.020374510816737</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0323331617814868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A53" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3">
+        <v>13120.087084999999</v>
+      </c>
+      <c r="C53" s="3">
+        <v>15157.433889</v>
+      </c>
+      <c r="D53" s="3">
+        <v>15628.030982</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3152.1695920000002</v>
+      </c>
+      <c r="F53" s="3">
+        <v>3666.0379170000001</v>
+      </c>
+      <c r="G53" s="3">
+        <v>3826.6820029999999</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2635.782827</v>
+      </c>
+      <c r="I53" s="3">
+        <v>3067.2569199999998</v>
+      </c>
+      <c r="J53" s="3">
+        <v>3205.8833960000002</v>
+      </c>
+      <c r="K53" s="25">
+        <f t="shared" si="0"/>
+        <v>1.155284548860142</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1911529916495216</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1630205196776735</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2139835409591755</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1636986509586966</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="5"/>
+        <v>1.216292694208376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A54" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="3">
+        <v>24662.423494999999</v>
+      </c>
+      <c r="C54" s="3">
+        <v>28991.770848</v>
+      </c>
+      <c r="D54" s="3">
+        <v>30056.708607</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6937.0646969999998</v>
+      </c>
+      <c r="F54" s="3">
+        <v>7310.9329610000004</v>
+      </c>
+      <c r="G54" s="3">
+        <v>7678.7235629999996</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6370.458466</v>
+      </c>
+      <c r="I54" s="3">
+        <v>7138.1414050000003</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7484.3549869999997</v>
+      </c>
+      <c r="K54" s="25">
+        <f t="shared" si="0"/>
+        <v>1.1755442790882948</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2187248594240394</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0538943026092409</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1069124908580912</v>
+      </c>
+      <c r="O54" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1205067018484192</v>
+      </c>
+      <c r="P54" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1748534311847438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A55" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="3">
+        <v>230158.066475</v>
+      </c>
+      <c r="C55" s="3">
+        <v>242663.08424600001</v>
+      </c>
+      <c r="D55" s="3">
+        <v>245619.75779900001</v>
+      </c>
+      <c r="E55" s="3">
+        <v>218053.952762</v>
+      </c>
+      <c r="F55" s="3">
+        <v>224188.60199200001</v>
+      </c>
+      <c r="G55" s="3">
+        <v>224931.59745</v>
+      </c>
+      <c r="H55" s="3">
+        <v>215176.893419</v>
+      </c>
+      <c r="I55" s="3">
+        <v>223933.42377200001</v>
+      </c>
+      <c r="J55" s="3">
+        <v>222061.79259500001</v>
+      </c>
+      <c r="K55" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0543323028496085</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0671785767094957</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0281336300135582</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0315410227647044</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0406945662885325</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0319964614536632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A56" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="3">
+        <v>154635.846598</v>
+      </c>
+      <c r="C56" s="3">
+        <v>150427.09708499999</v>
+      </c>
+      <c r="D56" s="3">
+        <v>151238.399194</v>
+      </c>
+      <c r="E56" s="3">
+        <v>155104.48543199999</v>
+      </c>
+      <c r="F56" s="3">
+        <v>150186.79581800001</v>
+      </c>
+      <c r="G56" s="3">
+        <v>149807.62879799999</v>
+      </c>
+      <c r="H56" s="3">
+        <v>155010.187767</v>
+      </c>
+      <c r="I56" s="3">
+        <v>150381.66804700001</v>
+      </c>
+      <c r="J56" s="3">
+        <v>149933.449934</v>
+      </c>
+      <c r="K56" s="25">
+        <f t="shared" si="0"/>
+        <v>0.97278283395737264</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97802936719561406</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96829434300173123</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96584975206070223</v>
+      </c>
+      <c r="O56" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97014054503980585</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96724900533227554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A57" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="3">
+        <v>118066.889696</v>
+      </c>
+      <c r="C57" s="3">
+        <v>118689.313995</v>
+      </c>
+      <c r="D57" s="3">
+        <v>119925.8533</v>
+      </c>
+      <c r="E57" s="3">
+        <v>118068.357195</v>
+      </c>
+      <c r="F57" s="3">
+        <v>118611.093634</v>
+      </c>
+      <c r="G57" s="3">
+        <v>119562.458614</v>
+      </c>
+      <c r="H57" s="3">
+        <v>118067.265369</v>
+      </c>
+      <c r="I57" s="3">
+        <v>118602.696534</v>
+      </c>
+      <c r="J57" s="3">
+        <v>119509.93677099999</v>
+      </c>
+      <c r="K57" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0052717938162226</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0157450036058924</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="2"/>
+        <v>1.004596798430113</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="3"/>
+        <v>1.012654545675878</v>
+      </c>
+      <c r="O57" s="3">
+        <f t="shared" si="4"/>
+        <v>1.00453496710817</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0122190634083983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A58" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5356.5911859999997</v>
+      </c>
+      <c r="C58" s="3">
+        <v>12771.836154000001</v>
+      </c>
+      <c r="D58" s="3">
+        <v>16133.117817</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5318.2274029999999</v>
+      </c>
+      <c r="F58" s="3">
+        <v>11083.378199000001</v>
+      </c>
+      <c r="G58" s="3">
+        <v>13260.714427000001</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5359.1894599999996</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11807.951161999999</v>
+      </c>
+      <c r="J58" s="3">
+        <v>12591.341990000001</v>
+      </c>
+      <c r="K58" s="25">
+        <f t="shared" si="0"/>
+        <v>2.3843216162137786</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0118254794514763</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0840361569999608</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4934462974485938</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2033091477978837</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3494862579461788</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A59" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="3">
+        <v>50358.390262000001</v>
+      </c>
+      <c r="C59" s="3">
+        <v>62632.341475000001</v>
+      </c>
+      <c r="D59" s="3">
+        <v>64974.112830999999</v>
+      </c>
+      <c r="E59" s="3">
+        <v>48368.171708000002</v>
+      </c>
+      <c r="F59" s="3">
+        <v>57028.487533</v>
+      </c>
+      <c r="G59" s="3">
+        <v>59080.567927999997</v>
+      </c>
+      <c r="H59" s="3">
+        <v>45688.780369</v>
+      </c>
+      <c r="I59" s="3">
+        <v>53969.53097</v>
+      </c>
+      <c r="J59" s="3">
+        <v>56441.268860999997</v>
+      </c>
+      <c r="K59" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2437320007478836</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2902341098068992</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1790498900244268</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2214761451946339</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1812425399435376</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2353419899843858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A60" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="3">
+        <v>30582.529431999999</v>
+      </c>
+      <c r="C60" s="3">
+        <v>43005.831623999999</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45641.450535000004</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27483.558788999999</v>
+      </c>
+      <c r="F60" s="3">
+        <v>35582.379090000002</v>
+      </c>
+      <c r="G60" s="3">
+        <v>37603.945357999997</v>
+      </c>
+      <c r="H60" s="3">
+        <v>25751.252756999998</v>
+      </c>
+      <c r="I60" s="3">
+        <v>33474.882054000002</v>
+      </c>
+      <c r="J60" s="3">
+        <v>35863.032992</v>
+      </c>
+      <c r="K60" s="25">
+        <f t="shared" si="0"/>
+        <v>1.4062221936096917</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4924027339361641</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2946787336813699</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3682342103763714</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2999321768879954</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3926713908025816</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A61" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="3">
+        <v>24039.234034000001</v>
+      </c>
+      <c r="C61" s="3">
+        <v>35476.010442999999</v>
+      </c>
+      <c r="D61" s="3">
+        <v>38085.098259999999</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22041.426626</v>
+      </c>
+      <c r="F61" s="3">
+        <v>29463.346325999999</v>
+      </c>
+      <c r="G61" s="3">
+        <v>31385.413885999998</v>
+      </c>
+      <c r="H61" s="3">
+        <v>20638.833443</v>
+      </c>
+      <c r="I61" s="3">
+        <v>27768.452391999999</v>
+      </c>
+      <c r="J61" s="3">
+        <v>30047.08106</v>
+      </c>
+      <c r="K61" s="25">
+        <f t="shared" si="0"/>
+        <v>1.4757546098525578</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5842891751931099</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3367259218713694</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4239284243506207</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="4"/>
+        <v>1.345446799049494</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4558517148260122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.56340500000000004</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2.4291E-2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1.0288E-2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.56602799999999998</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6.0888999999999999E-2</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2.0545000000000001E-2</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.55880399999999997</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6.8090999999999999E-2</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3.0946999999999999E-2</v>
+      </c>
+      <c r="K62" s="25">
+        <f t="shared" si="0"/>
+        <v>4.3114633345461964E-2</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8260398825001554E-2</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10757241691223755</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="3"/>
+        <v>3.6296790971471378E-2</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12185131101423756</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="5"/>
+        <v>5.5380777517698515E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A63" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B54/B47</f>
+        <v>0.14836318953394245</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" ref="C63:J63" si="8">C54/C47</f>
+        <v>0.15925093279655897</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="8"/>
+        <v>0.16178772502561786</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="8"/>
+        <v>4.544560002629093E-2</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4399088627183718E-2</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5684301409973475E-2</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="8"/>
+        <v>4.2437012726288116E-2</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4022985962457524E-2</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5301893452527171E-2</v>
+      </c>
+      <c r="K63" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0733857454589544</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0904842739890284</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97697221736533812</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0052524641229172</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0373724052255675</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0675090102292797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="K64" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L64" s="28"/>
+      <c r="M64" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="P64" s="26"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L65" t="s">
+        <v>182</v>
+      </c>
+      <c r="M65" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="N65" t="s">
+        <v>182</v>
+      </c>
+      <c r="O65" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="P65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="22">
+        <v>16</v>
+      </c>
+      <c r="C66" s="23">
+        <v>32</v>
+      </c>
+      <c r="D66" s="23">
+        <v>64</v>
+      </c>
+      <c r="E66" s="22">
+        <v>16</v>
+      </c>
+      <c r="F66" s="23">
+        <v>32</v>
+      </c>
+      <c r="G66" s="23">
+        <v>64</v>
+      </c>
+      <c r="H66" s="22">
+        <v>16</v>
+      </c>
+      <c r="I66" s="23">
+        <v>32</v>
+      </c>
+      <c r="J66" s="23">
+        <v>64</v>
+      </c>
+      <c r="K66" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A67" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="3">
+        <v>162222.29595599999</v>
+      </c>
+      <c r="C67" s="3">
+        <v>177490.69324699999</v>
+      </c>
+      <c r="D67" s="3">
+        <v>181340.328584</v>
+      </c>
+      <c r="E67" s="3">
+        <v>148417.34319499999</v>
+      </c>
+      <c r="F67" s="3">
+        <v>161251.71681300001</v>
+      </c>
+      <c r="G67" s="3">
+        <v>163869.998483</v>
+      </c>
+      <c r="H67" s="3">
+        <v>146896.760908</v>
+      </c>
+      <c r="I67" s="3">
+        <v>158590.78330899999</v>
+      </c>
+      <c r="J67" s="3">
+        <v>160876.68782399999</v>
+      </c>
+      <c r="K67" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0941202144934583</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="1"/>
+        <v>1.117850832497066</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0864748912877211</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1041162370606334</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0796070813863885</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0951683810424893</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A68" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3">
+        <v>240.19516200000001</v>
+      </c>
+      <c r="C68" s="3">
+        <v>263.55866400000002</v>
+      </c>
+      <c r="D68" s="3">
+        <v>264.92619400000001</v>
+      </c>
+      <c r="E68" s="3">
+        <v>211.39554000000001</v>
+      </c>
+      <c r="F68" s="3">
+        <v>230.13713100000001</v>
+      </c>
+      <c r="G68" s="3">
+        <v>234.14101400000001</v>
+      </c>
+      <c r="H68" s="3">
+        <v>108.98707</v>
+      </c>
+      <c r="I68" s="3">
+        <v>116.020185</v>
+      </c>
+      <c r="J68" s="3">
+        <v>119.00986</v>
+      </c>
+      <c r="K68" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0972688284204493</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1029622403468726</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0886565109178745</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1075967544064553</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0645316458181691</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0919631108534251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A69" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="3">
+        <v>10258.738471000001</v>
+      </c>
+      <c r="C69" s="3">
+        <v>12578.694372</v>
+      </c>
+      <c r="D69" s="3">
+        <v>13205.301898</v>
+      </c>
+      <c r="E69" s="3">
+        <v>9088.0775140000005</v>
+      </c>
+      <c r="F69" s="3">
+        <v>11124.541288</v>
+      </c>
+      <c r="G69" s="3">
+        <v>11728.512852</v>
+      </c>
+      <c r="H69" s="3">
+        <v>5251.6352029999998</v>
+      </c>
+      <c r="I69" s="3">
+        <v>6541.9866830000001</v>
+      </c>
+      <c r="J69" s="3">
+        <v>6915.756171</v>
+      </c>
+      <c r="K69" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2261443653679431</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2872247338529506</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" si="2"/>
+        <v>1.224080810365324</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2905383821751588</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2457047053197614</v>
+      </c>
+      <c r="P69" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3168767257576022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A70" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="3">
+        <v>22.828032</v>
+      </c>
+      <c r="C70" s="3">
+        <v>25.614277000000001</v>
+      </c>
+      <c r="D70" s="3">
+        <v>25.672699000000001</v>
+      </c>
+      <c r="E70" s="3">
+        <v>19.393236000000002</v>
+      </c>
+      <c r="F70" s="3">
+        <v>21.605985</v>
+      </c>
+      <c r="G70" s="3">
+        <v>21.958580999999999</v>
+      </c>
+      <c r="H70" s="3">
+        <v>18.334579000000002</v>
+      </c>
+      <c r="I70" s="3">
+        <v>19.868236</v>
+      </c>
+      <c r="J70" s="3">
+        <v>20.445967</v>
+      </c>
+      <c r="K70" s="25">
+        <f t="shared" si="0"/>
+        <v>1.122053666299399</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1246128882244426</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1140990085409159</v>
+      </c>
+      <c r="N70" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1322803992072286</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0836483346576977</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1151587936652376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A71" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1129.209924</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1426.3901659999999</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1483.488055</v>
+      </c>
+      <c r="E71" s="3">
+        <v>977.93834400000003</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1210.027767</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1309.824535</v>
+      </c>
+      <c r="H71" s="3">
+        <v>925.46861799999999</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1125.992172</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1199.5159570000001</v>
+      </c>
+      <c r="K71" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2631753721640158</v>
+      </c>
+      <c r="L71" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3137398312485962</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="2"/>
+        <v>1.237325210146377</v>
+      </c>
+      <c r="N71" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3393733286318508</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2166724512316203</v>
+      </c>
+      <c r="P71" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2961173762890359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A72" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="3">
+        <v>355.91119200000003</v>
+      </c>
+      <c r="C72" s="3">
+        <v>378.26068900000001</v>
+      </c>
+      <c r="D72" s="3">
+        <v>381.16568999999998</v>
+      </c>
+      <c r="E72" s="3">
+        <v>63.443288000000003</v>
+      </c>
+      <c r="F72" s="3">
+        <v>63.279693999999999</v>
+      </c>
+      <c r="G72" s="3">
+        <v>64.307641000000004</v>
+      </c>
+      <c r="H72" s="3">
+        <v>53.606918</v>
+      </c>
+      <c r="I72" s="3">
+        <v>52.343665999999999</v>
+      </c>
+      <c r="J72" s="3">
+        <v>53.826636000000001</v>
+      </c>
+      <c r="K72" s="25">
+        <f t="shared" ref="K72:K83" si="9">C72/B72</f>
+        <v>1.0627951508757274</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" ref="L72:L83" si="10">D72/B72</f>
+        <v>1.0709573021800336</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" ref="M72:M83" si="11">F72/E72</f>
+        <v>0.99742141359382253</v>
+      </c>
+      <c r="N72" s="3">
+        <f t="shared" ref="N72:N83" si="12">G72/E72</f>
+        <v>1.0136240259174463</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" ref="O72:O83" si="13">I72/H72</f>
+        <v>0.9764349071513494</v>
+      </c>
+      <c r="P72" s="3">
+        <f t="shared" ref="P72:P83" si="14">J72/H72</f>
+        <v>1.0040986874119493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A73" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3">
+        <v>13053.352822000001</v>
+      </c>
+      <c r="C73" s="3">
+        <v>14858.342439</v>
+      </c>
+      <c r="D73" s="3">
+        <v>15306.684284999999</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3159.896166</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3564.8969120000002</v>
+      </c>
+      <c r="G73" s="3">
+        <v>3796.1929709999999</v>
+      </c>
+      <c r="H73" s="3">
+        <v>2700.4782129999999</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2946.4777389999999</v>
+      </c>
+      <c r="J73" s="3">
+        <v>3111.4880459999999</v>
+      </c>
+      <c r="K73" s="25">
+        <f t="shared" si="9"/>
+        <v>1.138277854097216</v>
+      </c>
+      <c r="L73" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1726247266680982</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1281690045254482</v>
+      </c>
+      <c r="N73" s="3">
+        <f t="shared" si="12"/>
+        <v>1.2013663650870736</v>
+      </c>
+      <c r="O73" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0910948012154913</v>
+      </c>
+      <c r="P73" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1521989072236962</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A74" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="3">
+        <v>24354.146387000001</v>
+      </c>
+      <c r="C74" s="3">
+        <v>28641.148983999999</v>
+      </c>
+      <c r="D74" s="3">
+        <v>29543.154482000002</v>
+      </c>
+      <c r="E74" s="3">
+        <v>6954.1961080000001</v>
+      </c>
+      <c r="F74" s="3">
+        <v>7217.4143180000001</v>
+      </c>
+      <c r="G74" s="3">
+        <v>7652.2558310000004</v>
+      </c>
+      <c r="H74" s="3">
+        <v>6443.0734670000002</v>
+      </c>
+      <c r="I74" s="3">
+        <v>6918.8190450000002</v>
+      </c>
+      <c r="J74" s="3">
+        <v>7302.2988670000004</v>
+      </c>
+      <c r="K74" s="25">
+        <f t="shared" si="9"/>
+        <v>1.1760276270363701</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2130646672046712</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0378502713918576</v>
+      </c>
+      <c r="N74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1003796430470179</v>
+      </c>
+      <c r="O74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0738382978925607</v>
+      </c>
+      <c r="P74" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1333564492785568</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A75" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="3">
+        <v>226688.56323699999</v>
+      </c>
+      <c r="C75" s="3">
+        <v>238509.59162600001</v>
+      </c>
+      <c r="D75" s="3">
+        <v>241251.393021</v>
+      </c>
+      <c r="E75" s="3">
+        <v>213892.91818499999</v>
+      </c>
+      <c r="F75" s="3">
+        <v>220000.66919300001</v>
+      </c>
+      <c r="G75" s="3">
+        <v>220425.929022</v>
+      </c>
+      <c r="H75" s="3">
+        <v>211312.42580500001</v>
+      </c>
+      <c r="I75" s="3">
+        <v>216474.814377</v>
+      </c>
+      <c r="J75" s="3">
+        <v>219629.82978299999</v>
+      </c>
+      <c r="K75" s="25">
+        <f t="shared" si="9"/>
+        <v>1.0521465583450775</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0642415725612711</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0285551810683013</v>
+      </c>
+      <c r="N75" s="3">
+        <f t="shared" si="12"/>
+        <v>1.0305433713861882</v>
+      </c>
+      <c r="O75" s="3">
+        <f t="shared" si="13"/>
+        <v>1.0244301230859176</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0393606951712122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A76" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="3">
+        <v>153249.224919</v>
+      </c>
+      <c r="C76" s="3">
+        <v>148620.46498799999</v>
+      </c>
+      <c r="D76" s="3">
+        <v>149433.80685600001</v>
+      </c>
+      <c r="E76" s="3">
+        <v>153611.248055</v>
+      </c>
+      <c r="F76" s="3">
+        <v>148932.087088</v>
+      </c>
+      <c r="G76" s="3">
+        <v>148071.40213599999</v>
+      </c>
+      <c r="H76" s="3">
+        <v>153392.48567600001</v>
+      </c>
+      <c r="I76" s="3">
+        <v>148587.81061300001</v>
+      </c>
+      <c r="J76" s="3">
+        <v>148237.60644900001</v>
+      </c>
+      <c r="K76" s="25">
+        <f t="shared" si="9"/>
+        <v>0.96979586726493039</v>
+      </c>
+      <c r="L76" s="3">
+        <f t="shared" si="10"/>
+        <v>0.975103181989882</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9695389431031467</v>
+      </c>
+      <c r="N76" s="3">
+        <f t="shared" si="12"/>
+        <v>0.96393593575246206</v>
+      </c>
+      <c r="O76" s="3">
+        <f t="shared" si="13"/>
+        <v>0.96867724620390749</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="14"/>
+        <v>0.96639418675378741</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A77" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="3">
+        <v>116287.241648</v>
+      </c>
+      <c r="C77" s="3">
+        <v>116890.74338099999</v>
+      </c>
+      <c r="D77" s="3">
+        <v>118097.394206</v>
+      </c>
+      <c r="E77" s="3">
+        <v>116282.871751</v>
+      </c>
+      <c r="F77" s="3">
+        <v>116802.80964799999</v>
+      </c>
+      <c r="G77" s="3">
+        <v>117685.527605</v>
+      </c>
+      <c r="H77" s="3">
+        <v>116286.696794</v>
+      </c>
+      <c r="I77" s="3">
+        <v>116801.725985</v>
+      </c>
+      <c r="J77" s="3">
+        <v>117697.50260199999</v>
+      </c>
+      <c r="K77" s="25">
+        <f t="shared" si="9"/>
+        <v>1.0051897501776401</v>
+      </c>
+      <c r="L77" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0155662180334393</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0044713197151973</v>
+      </c>
+      <c r="N77" s="3">
+        <f t="shared" si="12"/>
+        <v>1.0120624459378982</v>
+      </c>
+      <c r="O77" s="3">
+        <f t="shared" si="13"/>
+        <v>1.004428960536323</v>
+      </c>
+      <c r="P77" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0121321341726579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A78" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4027.1693260000002</v>
+      </c>
+      <c r="C78" s="3">
+        <v>10791.81531</v>
+      </c>
+      <c r="D78" s="3">
+        <v>13613.853533</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4198.4898009999997</v>
+      </c>
+      <c r="F78" s="3">
+        <v>9055.9396369999995</v>
+      </c>
+      <c r="G78" s="3">
+        <v>11122.567593</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4111.6903009999996</v>
+      </c>
+      <c r="I78" s="3">
+        <v>8936.4979899999998</v>
+      </c>
+      <c r="J78" s="3">
+        <v>11051.017244000001</v>
+      </c>
+      <c r="K78" s="25">
+        <f t="shared" si="9"/>
+        <v>2.679752063149281</v>
+      </c>
+      <c r="L78" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3805018937512634</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="11"/>
+        <v>2.156951681731619</v>
+      </c>
+      <c r="N78" s="3">
+        <f t="shared" si="12"/>
+        <v>2.6491829491525305</v>
+      </c>
+      <c r="O78" s="3">
+        <f t="shared" si="13"/>
+        <v>2.1734365518304148</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" si="14"/>
+        <v>2.6877066206353857</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A79" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="3">
+        <v>48524.629967000001</v>
+      </c>
+      <c r="C79" s="3">
+        <v>58851.173145000001</v>
+      </c>
+      <c r="D79" s="3">
+        <v>61417.123503000003</v>
+      </c>
+      <c r="E79" s="3">
+        <v>45656.763293000004</v>
+      </c>
+      <c r="F79" s="3">
+        <v>54470.443427999999</v>
+      </c>
+      <c r="G79" s="3">
+        <v>56414.310095000001</v>
+      </c>
+      <c r="H79" s="3">
+        <v>43521.692851</v>
+      </c>
+      <c r="I79" s="3">
+        <v>52466.444471000003</v>
+      </c>
+      <c r="J79" s="3">
+        <v>53736.640883</v>
+      </c>
+      <c r="K79" s="25">
+        <f t="shared" si="9"/>
+        <v>1.2128103436342068</v>
+      </c>
+      <c r="L79" s="3">
+        <f t="shared" si="10"/>
+        <v>1.265689682636792</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1930421584736228</v>
+      </c>
+      <c r="N79" s="3">
+        <f t="shared" si="12"/>
+        <v>1.2356178148889787</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" si="13"/>
+        <v>1.2055239820432324</v>
+      </c>
+      <c r="P79" s="3">
+        <f t="shared" si="14"/>
+        <v>1.2347093452217424</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A80" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="3">
+        <v>29094.754779999999</v>
+      </c>
+      <c r="C80" s="3">
+        <v>39297.656374999999</v>
+      </c>
+      <c r="D80" s="3">
+        <v>42114.870020000002</v>
+      </c>
+      <c r="E80" s="3">
+        <v>25272.172334999999</v>
+      </c>
+      <c r="F80" s="3">
+        <v>33194.038543000002</v>
+      </c>
+      <c r="G80" s="3">
+        <v>35096.333420000003</v>
+      </c>
+      <c r="H80" s="3">
+        <v>23930.421633000002</v>
+      </c>
+      <c r="I80" s="3">
+        <v>32210.808927999999</v>
+      </c>
+      <c r="J80" s="3">
+        <v>33337.491400999999</v>
+      </c>
+      <c r="K80" s="25">
+        <f t="shared" si="9"/>
+        <v>1.3506783842018688</v>
+      </c>
+      <c r="L80" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4475073028953711</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3134620207155216</v>
+      </c>
+      <c r="N80" s="3">
+        <f t="shared" si="12"/>
+        <v>1.3887343341432625</v>
+      </c>
+      <c r="O80" s="3">
+        <f t="shared" si="13"/>
+        <v>1.3460192813143483</v>
+      </c>
+      <c r="P80" s="3">
+        <f t="shared" si="14"/>
+        <v>1.3931008785498233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A81" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="3">
+        <v>22658.070635</v>
+      </c>
+      <c r="C81" s="3">
+        <v>31916.825000000001</v>
+      </c>
+      <c r="D81" s="3">
+        <v>34685.134917000003</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19969.332456</v>
+      </c>
+      <c r="F81" s="3">
+        <v>27190.158828</v>
+      </c>
+      <c r="G81" s="3">
+        <v>29026.002349999999</v>
+      </c>
+      <c r="H81" s="3">
+        <v>18985.264245999999</v>
+      </c>
+      <c r="I81" s="3">
+        <v>26601.120299999999</v>
+      </c>
+      <c r="J81" s="3">
+        <v>27621.146589</v>
+      </c>
+      <c r="K81" s="25">
+        <f t="shared" si="9"/>
+        <v>1.4086294245502955</v>
+      </c>
+      <c r="L81" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5308070786672259</v>
+      </c>
+      <c r="M81" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3615957813267026</v>
+      </c>
+      <c r="N81" s="3">
+        <f t="shared" si="12"/>
+        <v>1.4535289256140771</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="13"/>
+        <v>1.4011456440804917</v>
+      </c>
+      <c r="P81" s="3">
+        <f t="shared" si="14"/>
+        <v>1.4548729072769948</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0.56046700000000005</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3.4639000000000003E-2</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1.1061E-2</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.57306999999999997</v>
+      </c>
+      <c r="F82" s="3">
+        <v>7.8326000000000007E-2</v>
+      </c>
+      <c r="G82" s="3">
+        <v>3.6584999999999999E-2</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.57789699999999999</v>
+      </c>
+      <c r="I82" s="3">
+        <v>7.6352000000000003E-2</v>
+      </c>
+      <c r="J82" s="3">
+        <v>3.9919999999999997E-2</v>
+      </c>
+      <c r="K82" s="25">
+        <f t="shared" si="9"/>
+        <v>6.1803817173892488E-2</v>
+      </c>
+      <c r="L82" s="3">
+        <f t="shared" si="10"/>
+        <v>1.9735327860516318E-2</v>
+      </c>
+      <c r="M82" s="3">
+        <f t="shared" si="11"/>
+        <v>0.13667789275306683</v>
+      </c>
+      <c r="N82" s="3">
+        <f t="shared" si="12"/>
+        <v>6.3840368541364934E-2</v>
+      </c>
+      <c r="O82" s="3">
+        <f t="shared" si="13"/>
+        <v>0.13212042976516578</v>
+      </c>
+      <c r="P82" s="3">
+        <f t="shared" si="14"/>
+        <v>6.9078053701611186E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A83" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B74/B67</f>
+        <v>0.15012823140911311</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" ref="C83:J83" si="15">C74/C67</f>
+        <v>0.16136704668870913</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1629155230537431</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="15"/>
+        <v>4.6855683832469242E-2</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="15"/>
+        <v>4.4758682019924619E-2</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="15"/>
+        <v>4.6697112966616959E-2</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="15"/>
+        <v>4.3861235790183514E-2</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="15"/>
+        <v>4.3626867215349446E-2</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="15"/>
+        <v>4.5390658931198015E-2</v>
+      </c>
+      <c r="K83" s="25">
+        <f t="shared" si="9"/>
+        <v>1.074861437946133</v>
+      </c>
+      <c r="L83" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0851757962150601</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9552455189845831</v>
+      </c>
+      <c r="N83" s="3">
+        <f t="shared" si="12"/>
+        <v>0.99661576029027243</v>
+      </c>
+      <c r="O83" s="3">
+        <f t="shared" si="13"/>
+        <v>0.99465658979707727</v>
+      </c>
+      <c r="P83" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0348695861724169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98BA9-6D5F-43A5-B1C1-4803FF720BC6}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A4" activeCellId="2" sqref="A2 A3 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1034,7 +5848,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1155,7 +5969,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="3">
@@ -1215,7 +6029,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="3">
@@ -1299,7 +6113,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1426,7 +6240,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>145</v>
       </c>
       <c r="B35" s="3">
@@ -1486,7 +6300,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B39" s="3">
@@ -1570,7 +6384,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1697,7 +6511,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="20" t="s">
         <v>145</v>
       </c>
       <c r="B56" s="3">
@@ -1757,7 +6571,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B60" s="3">
@@ -1846,7 +6660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -1874,40 +6688,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="16" t="s">
         <v>131</v>
       </c>
@@ -2588,7 +7402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -2616,40 +7430,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="13" t="s">
         <v>131</v>
       </c>
@@ -3990,11 +8804,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -4018,40 +8832,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="11" t="s">
         <v>131</v>
       </c>
@@ -5550,7 +10364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
@@ -5577,18 +10391,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
@@ -7111,7 +11925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S118"/>
   <sheetViews>
@@ -7142,18 +11956,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
@@ -7558,18 +12372,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
@@ -8079,62 +12893,62 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="3"/>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="21" t="s">
+      <c r="L61" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21" t="s">
+      <c r="C62" s="31"/>
+      <c r="D62" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21" t="s">
+      <c r="E62" s="31"/>
+      <c r="F62" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21" t="s">
+      <c r="G62" s="31"/>
+      <c r="H62" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21" t="s">
+      <c r="I62" s="31"/>
+      <c r="J62" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21" t="s">
+      <c r="K62" s="31"/>
+      <c r="L62" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21" t="s">
+      <c r="M62" s="31"/>
+      <c r="N62" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21" t="s">
+      <c r="O62" s="31"/>
+      <c r="P62" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="21"/>
+      <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B63" s="6" t="s">
@@ -8532,52 +13346,52 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21" t="s">
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="21"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="21"/>
-      <c r="M112" s="21"/>
-      <c r="N112" s="21"/>
-      <c r="O112" s="21"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="31"/>
+      <c r="M112" s="31"/>
+      <c r="N112" s="31"/>
+      <c r="O112" s="31"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21" t="s">
+      <c r="C113" s="31"/>
+      <c r="D113" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21" t="s">
+      <c r="E113" s="31"/>
+      <c r="F113" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21" t="s">
+      <c r="G113" s="31"/>
+      <c r="H113" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="21"/>
+      <c r="I113" s="31"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="21" t="s">
+      <c r="L113" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="M113" s="21"/>
-      <c r="N113" s="21" t="s">
+      <c r="M113" s="31"/>
+      <c r="N113" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="21"/>
+      <c r="O113" s="31"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
@@ -8780,7 +13594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -10664,7 +15478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7B37D607-1B59-43EF-AFA4-10C1672659F4}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{43A53F71-5776-4298-84D7-697A95802F8C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="209">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>scaling factor = 640</t>
+  </si>
+  <si>
+    <t>tps (including connections establishing)</t>
+  </si>
+  <si>
+    <t>Persistent mode</t>
   </si>
 </sst>
 </file>
@@ -833,6 +839,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,12 +863,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1146,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A88D281-643A-4E9B-9F4B-012EEE4003C4}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1160,21 +1166,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1187,7 +1185,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1200,7 +1198,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1212,7 +1210,9 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1222,10 +1222,8 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="34" t="s">
-        <v>191</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1235,9 +1233,9 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>204</v>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1249,7 +1247,9 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1259,507 +1259,524 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C10" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D10" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E10" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H10" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I10" s="27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="35" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>166847.96797200001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>164511.44744399999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>66669.357508999994</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>62834.992463000002</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <f>C10/B10</f>
-        <v>0.98599611037281476</v>
-      </c>
-      <c r="H10" s="3">
-        <f>D10/B10</f>
-        <v>0.39958147719358661</v>
-      </c>
-      <c r="I10" s="3">
-        <f>E10/B10</f>
-        <v>0.37660028603731516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>239.10410999999999</v>
-      </c>
-      <c r="C11" s="3">
-        <v>232.36093199999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>69.577585999999997</v>
-      </c>
-      <c r="E11" s="3">
-        <v>61.810684999999999</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <f t="shared" ref="G11:G24" si="0">C11/B11</f>
-        <v>0.97179815102299993</v>
+        <f>C11/B11</f>
+        <v>0.98599611037281476</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H24" si="1">D11/B11</f>
-        <v>0.29099284826178856</v>
+        <f>D11/B11</f>
+        <v>0.39958147719358661</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" ref="I11:I24" si="2">E11/B11</f>
-        <v>0.25850950449994359</v>
+        <f>E11/B11</f>
+        <v>0.37660028603731516</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="35" t="s">
-        <v>5</v>
+      <c r="A12" s="29" t="s">
+        <v>7</v>
       </c>
       <c r="B12" s="3">
-        <v>11272.769903</v>
+        <v>239.10410999999999</v>
       </c>
       <c r="C12" s="3">
-        <v>10212.536187</v>
+        <v>232.36093199999999</v>
       </c>
       <c r="D12" s="3">
-        <v>3627.9728770000002</v>
+        <v>69.577585999999997</v>
       </c>
       <c r="E12" s="3">
-        <v>2640.7970180000002</v>
+        <v>61.810684999999999</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90594736474503545</v>
+        <f t="shared" ref="G12:G25" si="0">C12/B12</f>
+        <v>0.97179815102299993</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.32183508651538206</v>
+        <f t="shared" ref="H12:H25" si="1">D12/B12</f>
+        <v>0.29099284826178856</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.23426336567884792</v>
+        <f t="shared" ref="I12:I25" si="2">E12/B12</f>
+        <v>0.25850950449994359</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="35" t="s">
-        <v>11</v>
+      <c r="A13" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="B13" s="3">
-        <v>22.076829</v>
+        <v>11272.769903</v>
       </c>
       <c r="C13" s="3">
-        <v>21.648422</v>
+        <v>10212.536187</v>
       </c>
       <c r="D13" s="3">
-        <v>5.7621190000000002</v>
+        <v>3627.9728770000002</v>
       </c>
       <c r="E13" s="3">
-        <v>5.5170260000000004</v>
+        <v>2640.7970180000002</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0.98059472218587185</v>
+        <v>0.90594736474503545</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>0.26100301814178117</v>
+        <v>0.32183508651538206</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>0.24990119731416138</v>
+        <v>0.23426336567884792</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="35" t="s">
-        <v>9</v>
+      <c r="A14" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>1069.1390019999999</v>
+        <v>22.076829</v>
       </c>
       <c r="C14" s="3">
-        <v>1035.319937</v>
+        <v>21.648422</v>
       </c>
       <c r="D14" s="3">
-        <v>310.87149899999997</v>
+        <v>5.7621190000000002</v>
       </c>
       <c r="E14" s="3">
-        <v>286.50260600000001</v>
+        <v>5.5170260000000004</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.96836794379707802</v>
+        <v>0.98059472218587185</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>0.29076808386791975</v>
+        <v>0.26100301814178117</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
-        <v>0.26797507664022163</v>
+        <v>0.24990119731416138</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="35" t="s">
-        <v>2</v>
+      <c r="A15" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="3">
-        <v>336.20340399999998</v>
+        <v>1069.1390019999999</v>
       </c>
       <c r="C15" s="3">
-        <v>342.18383699999998</v>
+        <v>1035.319937</v>
       </c>
       <c r="D15" s="3">
-        <v>23.094424</v>
+        <v>310.87149899999997</v>
       </c>
       <c r="E15" s="3">
-        <v>26.358383</v>
+        <v>286.50260600000001</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>1.0177881393491186</v>
+        <v>0.96836794379707802</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>6.8691820859731689E-2</v>
+        <v>0.29076808386791975</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="2"/>
-        <v>7.8400107453998294E-2</v>
+        <v>0.26797507664022163</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="35" t="s">
-        <v>4</v>
+      <c r="A16" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="3">
-        <v>12329.691015</v>
+        <v>336.20340399999998</v>
       </c>
       <c r="C16" s="3">
-        <v>12520.292835</v>
+        <v>342.18383699999998</v>
       </c>
       <c r="D16" s="3">
-        <v>1196.675712</v>
+        <v>23.094424</v>
       </c>
       <c r="E16" s="3">
-        <v>1247.37156</v>
+        <v>26.358383</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0154587669527255</v>
+        <v>1.0177881393491186</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>9.7056423437063721E-2</v>
+        <v>6.8691820859731689E-2</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="2"/>
-        <v>0.1011681118758352</v>
+        <v>7.8400107453998294E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="35" t="s">
-        <v>145</v>
+      <c r="A17" s="29" t="s">
+        <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>25003.898712999999</v>
+        <v>12329.691015</v>
       </c>
       <c r="C17" s="3">
-        <v>25375.968217000001</v>
+        <v>12520.292835</v>
       </c>
       <c r="D17" s="3">
-        <v>2871.264408</v>
+        <v>1196.675712</v>
       </c>
       <c r="E17" s="3">
-        <v>3188.3636529999999</v>
+        <v>1247.37156</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>1.0148804595743526</v>
+        <v>1.0154587669527255</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>0.11483266833532546</v>
+        <v>9.7056423437063721E-2</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="2"/>
-        <v>0.12751466039743273</v>
+        <v>0.1011681118758352</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A18" s="35" t="s">
-        <v>171</v>
+      <c r="A18" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="B18" s="3">
-        <v>212196.626166</v>
+        <v>25003.898712999999</v>
       </c>
       <c r="C18" s="3">
-        <v>216416.53578000001</v>
+        <v>25375.968217000001</v>
       </c>
       <c r="D18" s="3">
-        <v>107513.023846</v>
+        <v>2871.264408</v>
       </c>
       <c r="E18" s="3">
-        <v>95121.973077000002</v>
+        <v>3188.3636529999999</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>1.0198867893907926</v>
+        <v>1.0148804595743526</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>0.5066669804725985</v>
+        <v>0.11483266833532546</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>0.448272787346707</v>
+        <v>0.12751466039743273</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="35" t="s">
-        <v>166</v>
+      <c r="A19" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="B19" s="3">
-        <v>142868.96269300001</v>
+        <v>212196.626166</v>
       </c>
       <c r="C19" s="3">
-        <v>143961.482376</v>
+        <v>216416.53578000001</v>
       </c>
       <c r="D19" s="3">
-        <v>81154.428289000003</v>
+        <v>107513.023846</v>
       </c>
       <c r="E19" s="3">
-        <v>74662.946911000006</v>
+        <v>95121.973077000002</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>1.0076470050765862</v>
+        <v>1.0198867893907926</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>0.56803399954254885</v>
+        <v>0.5066669804725985</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
-        <v>0.5225973892694763</v>
+        <v>0.448272787346707</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="35" t="s">
-        <v>146</v>
+      <c r="A20" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="B20" s="3">
-        <v>116038.759842</v>
+        <v>142868.96269300001</v>
       </c>
       <c r="C20" s="3">
-        <v>116046.157701</v>
+        <v>143961.482376</v>
       </c>
       <c r="D20" s="3">
-        <v>61902.832993000004</v>
+        <v>81154.428289000003</v>
       </c>
       <c r="E20" s="3">
-        <v>53257.735567999996</v>
+        <v>74662.946911000006</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>1.000063753344228</v>
+        <v>1.0076470050765862</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>0.53346686122195519</v>
+        <v>0.56803399954254885</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="2"/>
-        <v>0.45896505306086066</v>
+        <v>0.5225973892694763</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A21" s="35" t="s">
-        <v>136</v>
+      <c r="A21" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="B21" s="3">
-        <v>4541.433567</v>
+        <v>116038.759842</v>
       </c>
       <c r="C21" s="3">
-        <v>4154.2523419999998</v>
+        <v>116046.157701</v>
       </c>
       <c r="D21" s="3">
-        <v>2387.0926319999999</v>
+        <v>61902.832993000004</v>
       </c>
       <c r="E21" s="3">
-        <v>1531.213669</v>
+        <v>53257.735567999996</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>0.91474471237156818</v>
+        <v>1.000063753344228</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>0.5256253552502973</v>
+        <v>0.53346686122195519</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>0.33716526872185337</v>
+        <v>0.45896505306086066</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A22" s="35" t="s">
-        <v>137</v>
+      <c r="A22" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="B22" s="3">
-        <v>49632.140122999997</v>
+        <v>4541.433567</v>
       </c>
       <c r="C22" s="3">
-        <v>48875.359435999999</v>
+        <v>4154.2523419999998</v>
       </c>
       <c r="D22" s="3">
-        <v>20369.284939000001</v>
+        <v>2387.0926319999999</v>
       </c>
       <c r="E22" s="3">
-        <v>19647.227529</v>
+        <v>1531.213669</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>0.98475220522176721</v>
+        <v>0.91474471237156818</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>0.41040513039575105</v>
+        <v>0.5256253552502973</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="2"/>
-        <v>0.39585694834656726</v>
+        <v>0.33716526872185337</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A23" s="35" t="s">
-        <v>134</v>
+      <c r="A23" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B23" s="3">
-        <v>27971.159758999998</v>
+        <v>49632.140122999997</v>
       </c>
       <c r="C23" s="3">
-        <v>26859.066644999999</v>
+        <v>48875.359435999999</v>
       </c>
       <c r="D23" s="3">
-        <v>10720.004486</v>
+        <v>20369.284939000001</v>
       </c>
       <c r="E23" s="3">
-        <v>10286.63947</v>
+        <v>19647.227529</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>0.9602414371237441</v>
+        <v>0.98475220522176721</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>0.38325205598780121</v>
+        <v>0.41040513039575105</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>0.36775877577583005</v>
+        <v>0.39585694834656726</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="35" t="s">
-        <v>135</v>
+      <c r="A24" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="B24" s="3">
-        <v>21428.264673999998</v>
+        <v>27971.159758999998</v>
       </c>
       <c r="C24" s="3">
-        <v>20367.121781000002</v>
+        <v>26859.066644999999</v>
       </c>
       <c r="D24" s="3">
-        <v>8472.2391420000004</v>
+        <v>10720.004486</v>
       </c>
       <c r="E24" s="3">
-        <v>8056.3318870000003</v>
+        <v>10286.63947</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>0.95047928942713056</v>
+        <v>0.9602414371237441</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>0.39537681986352347</v>
+        <v>0.38325205598780121</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="2"/>
+        <v>0.36775877577583005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="3">
+        <v>21428.264673999998</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20367.121781000002</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8472.2391420000004</v>
+      </c>
+      <c r="E25" s="3">
+        <v>8056.3318870000003</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95047928942713056</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39537681986352347</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
         <v>0.37596753678216216</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="3">
+        <v>56627.978220999998</v>
+      </c>
+      <c r="C26" s="3">
+        <v>56732.869269000003</v>
+      </c>
+      <c r="D26" s="3">
+        <v>60233.552794000003</v>
+      </c>
+      <c r="E26" s="3">
+        <v>61247.294558000001</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="36" t="s">
-        <v>199</v>
-      </c>
+      <c r="G26" s="3">
+        <f>$B26/C26</f>
+        <v>0.99815114149255058</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" ref="H26:I26" si="3">$B26/D26</f>
+        <v>0.94014009790637543</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92457925904587346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1769,9 +1786,9 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A28" s="3" t="s">
-        <v>205</v>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1782,507 +1799,526 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C30" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D30" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E30" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H30" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I30" s="27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A30" s="35" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A31" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>170431.33172700001</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>166132.93391600001</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>74710.447444000005</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>71432.537555000003</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
-        <f>C30/B30</f>
-        <v>0.97477929810531994</v>
-      </c>
-      <c r="H30" s="3">
-        <f>D30/B30</f>
-        <v>0.43836099082809815</v>
-      </c>
-      <c r="I30" s="3">
-        <f>E30/B30</f>
-        <v>0.41912796685425152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A31" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3">
-        <v>246.187513</v>
-      </c>
-      <c r="C31" s="3">
-        <v>238.32734600000001</v>
-      </c>
-      <c r="D31" s="3">
-        <v>76.138177999999996</v>
-      </c>
-      <c r="E31" s="3">
-        <v>68.156795000000002</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3">
-        <f t="shared" ref="G31:G44" si="3">C31/B31</f>
-        <v>0.96807243834499446</v>
+        <f>C31/B31</f>
+        <v>0.97477929810531994</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" ref="H31:H44" si="4">D31/B31</f>
-        <v>0.30926904891394713</v>
+        <f>D31/B31</f>
+        <v>0.43836099082809815</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" ref="I31:I44" si="5">E31/B31</f>
-        <v>0.27684911460151923</v>
+        <f>E31/B31</f>
+        <v>0.41912796685425152</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A32" s="35" t="s">
-        <v>5</v>
+      <c r="A32" s="29" t="s">
+        <v>7</v>
       </c>
       <c r="B32" s="3">
-        <v>12401.962014999999</v>
+        <v>246.187513</v>
       </c>
       <c r="C32" s="3">
-        <v>10541.896863</v>
+        <v>238.32734600000001</v>
       </c>
       <c r="D32" s="3">
-        <v>4379.8930229999996</v>
+        <v>76.138177999999996</v>
       </c>
       <c r="E32" s="3">
-        <v>2969.2832840000001</v>
+        <v>68.156795000000002</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3">
-        <f t="shared" si="3"/>
-        <v>0.85001847693532073</v>
+        <f t="shared" ref="G32:G45" si="4">C32/B32</f>
+        <v>0.96807243834499446</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="4"/>
-        <v>0.3531612996155431</v>
+        <f t="shared" ref="H32:H45" si="5">D32/B32</f>
+        <v>0.30926904891394713</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="5"/>
-        <v>0.23942044657197736</v>
+        <f t="shared" ref="I32:I45" si="6">E32/B32</f>
+        <v>0.27684911460151923</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="35" t="s">
-        <v>11</v>
+      <c r="A33" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="B33" s="3">
-        <v>21.860008000000001</v>
+        <v>12401.962014999999</v>
       </c>
       <c r="C33" s="3">
-        <v>21.531497999999999</v>
+        <v>10541.896863</v>
       </c>
       <c r="D33" s="3">
-        <v>6.1554279999999997</v>
+        <v>4379.8930229999996</v>
       </c>
       <c r="E33" s="3">
-        <v>5.9603429999999999</v>
+        <v>2969.2832840000001</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3">
-        <f t="shared" si="3"/>
-        <v>0.98497210065064933</v>
+        <f t="shared" si="4"/>
+        <v>0.85001847693532073</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="4"/>
-        <v>0.28158397746240532</v>
+        <f t="shared" si="5"/>
+        <v>0.3531612996155431</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="5"/>
-        <v>0.27265968978602384</v>
+        <f t="shared" si="6"/>
+        <v>0.23942044657197736</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="35" t="s">
-        <v>9</v>
+      <c r="A34" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>1106.1619639999999</v>
+        <v>21.860008000000001</v>
       </c>
       <c r="C34" s="3">
-        <v>1043.6002370000001</v>
+        <v>21.531497999999999</v>
       </c>
       <c r="D34" s="3">
-        <v>332.00510400000002</v>
+        <v>6.1554279999999997</v>
       </c>
       <c r="E34" s="3">
-        <v>309.30336199999999</v>
+        <v>5.9603429999999999</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3">
-        <f t="shared" si="3"/>
-        <v>0.94344252556490926</v>
+        <f t="shared" si="4"/>
+        <v>0.98497210065064933</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="4"/>
-        <v>0.30014149356522263</v>
+        <f t="shared" si="5"/>
+        <v>0.28158397746240532</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="5"/>
-        <v>0.27961851163416068</v>
+        <f t="shared" si="6"/>
+        <v>0.27265968978602384</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="35" t="s">
-        <v>2</v>
+      <c r="A35" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>340.41882399999997</v>
+        <v>1106.1619639999999</v>
       </c>
       <c r="C35" s="3">
-        <v>339.47076399999997</v>
+        <v>1043.6002370000001</v>
       </c>
       <c r="D35" s="3">
-        <v>25.294993000000002</v>
+        <v>332.00510400000002</v>
       </c>
       <c r="E35" s="3">
-        <v>26.899283</v>
+        <v>309.30336199999999</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
-        <v>0.99721501887333941</v>
+        <f t="shared" si="4"/>
+        <v>0.94344252556490926</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="4"/>
-        <v>7.4305506090344767E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.30014149356522263</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="5"/>
-        <v>7.9018200826638199E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.27961851163416068</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="35" t="s">
-        <v>4</v>
+      <c r="A36" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B36" s="3">
-        <v>12663.687947</v>
+        <v>340.41882399999997</v>
       </c>
       <c r="C36" s="3">
-        <v>12460.571121000001</v>
+        <v>339.47076399999997</v>
       </c>
       <c r="D36" s="3">
-        <v>1380.1805589999999</v>
+        <v>25.294993000000002</v>
       </c>
       <c r="E36" s="3">
-        <v>1343.892924</v>
+        <v>26.899283</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3">
-        <f t="shared" si="3"/>
-        <v>0.98396068926760649</v>
+        <f t="shared" si="4"/>
+        <v>0.99721501887333941</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="4"/>
-        <v>0.10898725274788232</v>
+        <f t="shared" si="5"/>
+        <v>7.4305506090344767E-2</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="5"/>
-        <v>0.10612176560449479</v>
+        <f t="shared" si="6"/>
+        <v>7.9018200826638199E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="35" t="s">
-        <v>145</v>
+      <c r="A37" s="29" t="s">
+        <v>4</v>
       </c>
       <c r="B37" s="3">
-        <v>25031.481509000001</v>
+        <v>12663.687947</v>
       </c>
       <c r="C37" s="3">
-        <v>25338.524481</v>
+        <v>12460.571121000001</v>
       </c>
       <c r="D37" s="3">
-        <v>3232.1759550000002</v>
+        <v>1380.1805589999999</v>
       </c>
       <c r="E37" s="3">
-        <v>3390.4565520000001</v>
+        <v>1343.892924</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0122662724493396</v>
+        <f t="shared" si="4"/>
+        <v>0.98396068926760649</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="4"/>
-        <v>0.12912443691508552</v>
+        <f t="shared" si="5"/>
+        <v>0.10898725274788232</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="5"/>
-        <v>0.13544769816285027</v>
+        <f t="shared" si="6"/>
+        <v>0.10612176560449479</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="35" t="s">
-        <v>171</v>
+      <c r="A38" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="B38" s="3">
-        <v>216807.99714299999</v>
+        <v>25031.481509000001</v>
       </c>
       <c r="C38" s="3">
-        <v>220725.57765600001</v>
+        <v>25338.524481</v>
       </c>
       <c r="D38" s="3">
-        <v>108503.110224</v>
+        <v>3232.1759550000002</v>
       </c>
       <c r="E38" s="3">
-        <v>106007.170509</v>
+        <v>3390.4565520000001</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0180693542886987</v>
+        <f t="shared" si="4"/>
+        <v>1.0122662724493396</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="4"/>
-        <v>0.50045714020610887</v>
+        <f t="shared" si="5"/>
+        <v>0.12912443691508552</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="5"/>
-        <v>0.48894492779747828</v>
+        <f t="shared" si="6"/>
+        <v>0.13544769816285027</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A39" s="35" t="s">
-        <v>166</v>
+      <c r="A39" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="B39" s="3">
-        <v>143633.93973300001</v>
+        <v>216807.99714299999</v>
       </c>
       <c r="C39" s="3">
-        <v>147039.35814299999</v>
+        <v>220725.57765600001</v>
       </c>
       <c r="D39" s="3">
-        <v>81757.287184999994</v>
+        <v>108503.110224</v>
       </c>
       <c r="E39" s="3">
-        <v>80153.284931000002</v>
+        <v>106007.170509</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0237090092796333</v>
+        <f t="shared" si="4"/>
+        <v>1.0180693542886987</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="4"/>
-        <v>0.56920590869385024</v>
+        <f t="shared" si="5"/>
+        <v>0.50045714020610887</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="5"/>
-        <v>0.55803861594269644</v>
+        <f t="shared" si="6"/>
+        <v>0.48894492779747828</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A40" s="35" t="s">
-        <v>146</v>
+      <c r="A40" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="B40" s="3">
-        <v>117829.182304</v>
+        <v>143633.93973300001</v>
       </c>
       <c r="C40" s="3">
-        <v>117827.281038</v>
+        <v>147039.35814299999</v>
       </c>
       <c r="D40" s="3">
-        <v>61593.971445000003</v>
+        <v>81757.287184999994</v>
       </c>
       <c r="E40" s="3">
-        <v>58813.135839000002</v>
+        <v>80153.284931000002</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3">
-        <f t="shared" si="3"/>
-        <v>0.99998386421799057</v>
+        <f t="shared" si="4"/>
+        <v>1.0237090092796333</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="4"/>
-        <v>0.52273953056966127</v>
+        <f t="shared" si="5"/>
+        <v>0.56920590869385024</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="5"/>
-        <v>0.4991389627678291</v>
+        <f t="shared" si="6"/>
+        <v>0.55803861594269644</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="35" t="s">
-        <v>136</v>
+      <c r="A41" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="B41" s="3">
-        <v>6048.1515259999996</v>
+        <v>117829.182304</v>
       </c>
       <c r="C41" s="3">
-        <v>5073.9570089999997</v>
+        <v>117827.281038</v>
       </c>
       <c r="D41" s="3">
-        <v>3083.2993919999999</v>
+        <v>61593.971445000003</v>
       </c>
       <c r="E41" s="3">
-        <v>2128.1862970000002</v>
+        <v>58813.135839000002</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
-        <f t="shared" si="3"/>
-        <v>0.83892689976233248</v>
+        <f t="shared" si="4"/>
+        <v>0.99998386421799057</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="4"/>
-        <v>0.50979202137139046</v>
+        <f t="shared" si="5"/>
+        <v>0.52273953056966127</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="5"/>
-        <v>0.35187383911452624</v>
+        <f t="shared" si="6"/>
+        <v>0.4991389627678291</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="35" t="s">
-        <v>137</v>
+      <c r="A42" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="B42" s="3">
-        <v>52672.795965999998</v>
+        <v>6048.1515259999996</v>
       </c>
       <c r="C42" s="3">
-        <v>50317.428750999999</v>
+        <v>5073.9570089999997</v>
       </c>
       <c r="D42" s="3">
-        <v>23038.990985</v>
+        <v>3083.2993919999999</v>
       </c>
       <c r="E42" s="3">
-        <v>19770.208779000001</v>
+        <v>2128.1862970000002</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
-        <f t="shared" si="3"/>
-        <v>0.95528304180927903</v>
+        <f t="shared" si="4"/>
+        <v>0.83892689976233248</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="4"/>
-        <v>0.43739829189761531</v>
+        <f t="shared" si="5"/>
+        <v>0.50979202137139046</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="5"/>
-        <v>0.37534002925839671</v>
+        <f t="shared" si="6"/>
+        <v>0.35187383911452624</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="35" t="s">
-        <v>134</v>
+      <c r="A43" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B43" s="3">
-        <v>31077.086698999999</v>
+        <v>52672.795965999998</v>
       </c>
       <c r="C43" s="3">
-        <v>28695.697941999999</v>
+        <v>50317.428750999999</v>
       </c>
       <c r="D43" s="3">
-        <v>12259.094276</v>
+        <v>23038.990985</v>
       </c>
       <c r="E43" s="3">
-        <v>10404.354422</v>
+        <v>19770.208779000001</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92337155731278286</v>
+        <f t="shared" si="4"/>
+        <v>0.95528304180927903</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="4"/>
-        <v>0.39447372898034466</v>
+        <f t="shared" si="5"/>
+        <v>0.43739829189761531</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="5"/>
-        <v>0.33479182018483067</v>
+        <f t="shared" si="6"/>
+        <v>0.37534002925839671</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="35" t="s">
-        <v>135</v>
+      <c r="A44" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="B44" s="3">
-        <v>24257.744535000002</v>
+        <v>31077.086698999999</v>
       </c>
       <c r="C44" s="3">
-        <v>22042.544452999999</v>
+        <v>28695.697941999999</v>
       </c>
       <c r="D44" s="3">
-        <v>9833.2722900000008</v>
+        <v>12259.094276</v>
       </c>
       <c r="E44" s="3">
-        <v>8194.6508620000004</v>
+        <v>10404.354422</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>0.92337155731278286</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="5"/>
+        <v>0.39447372898034466</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="6"/>
+        <v>0.33479182018483067</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A45" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="3">
+        <v>24257.744535000002</v>
+      </c>
+      <c r="C45" s="3">
+        <v>22042.544452999999</v>
+      </c>
+      <c r="D45" s="3">
+        <v>9833.2722900000008</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8194.6508620000004</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <f t="shared" si="4"/>
         <v>0.90868070694685454</v>
       </c>
-      <c r="H44" s="3">
-        <f t="shared" si="4"/>
+      <c r="H45" s="3">
+        <f t="shared" si="5"/>
         <v>0.40536630583326405</v>
       </c>
-      <c r="I44" s="3">
-        <f t="shared" si="5"/>
+      <c r="I45" s="3">
+        <f t="shared" si="6"/>
         <v>0.33781586124696977</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="3">
+        <v>55782.021768999999</v>
+      </c>
+      <c r="C46" s="3">
+        <v>56507.624079000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>60059.940265999998</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60382.506581000001</v>
+      </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="34" t="s">
-        <v>200</v>
-      </c>
+      <c r="G46" s="3">
+        <f>$B46/C46</f>
+        <v>0.9871592139675599</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" ref="H46:I46" si="7">$B46/D46</f>
+        <v>0.92877251495666679</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92381096657806527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2292,9 +2328,9 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A48" s="3" t="s">
-        <v>206</v>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2305,486 +2341,522 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A49" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C50" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D50" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E50" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33" t="s">
+      <c r="F50" s="27"/>
+      <c r="G50" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H50" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I49" s="33" t="s">
+      <c r="I50" s="27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A50" s="35" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A51" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B51" s="3">
         <v>171842.887613</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C51" s="3">
         <v>168949.45337999999</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="3">
         <v>73371.231595999998</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="3">
         <v>72451.297915999996</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3">
-        <f>C50/B50</f>
-        <v>0.98316232767505518</v>
-      </c>
-      <c r="H50" s="3">
-        <f>D50/B50</f>
-        <v>0.42696693831889165</v>
-      </c>
-      <c r="I50" s="3">
-        <f>E50/B50</f>
-        <v>0.42161359671262311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A51" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="3">
-        <v>248.64740900000001</v>
-      </c>
-      <c r="C51" s="3">
-        <v>241.21453700000001</v>
-      </c>
-      <c r="D51" s="3">
-        <v>75.126187999999999</v>
-      </c>
-      <c r="E51" s="3">
-        <v>68.682963000000001</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3">
-        <f t="shared" ref="G51:G64" si="6">C51/B51</f>
-        <v>0.97010677879213292</v>
+        <f>C51/B51</f>
+        <v>0.98316232767505518</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" ref="H51:H64" si="7">D51/B51</f>
-        <v>0.3021394363292963</v>
+        <f>D51/B51</f>
+        <v>0.42696693831889165</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" ref="I51:I64" si="8">E51/B51</f>
-        <v>0.27622633702971744</v>
+        <f>E51/B51</f>
+        <v>0.42161359671262311</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A52" s="35" t="s">
-        <v>5</v>
+      <c r="A52" s="29" t="s">
+        <v>7</v>
       </c>
       <c r="B52" s="3">
-        <v>12945.204102</v>
+        <v>248.64740900000001</v>
       </c>
       <c r="C52" s="3">
-        <v>10909.575369</v>
+        <v>241.21453700000001</v>
       </c>
       <c r="D52" s="3">
-        <v>4492.8067010000004</v>
+        <v>75.126187999999999</v>
       </c>
       <c r="E52" s="3">
-        <v>3084.1786080000002</v>
+        <v>68.682963000000001</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
-        <f t="shared" si="6"/>
-        <v>0.84275035627398875</v>
+        <f t="shared" ref="G52:G65" si="8">C52/B52</f>
+        <v>0.97010677879213292</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="7"/>
-        <v>0.34706341171599403</v>
+        <f t="shared" ref="H52:H65" si="9">D52/B52</f>
+        <v>0.3021394363292963</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="8"/>
-        <v>0.23824874321784564</v>
+        <f t="shared" ref="I52:I65" si="10">E52/B52</f>
+        <v>0.27622633702971744</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A53" s="35" t="s">
-        <v>11</v>
+      <c r="A53" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="B53" s="3">
-        <v>21.788042999999998</v>
+        <v>12945.204102</v>
       </c>
       <c r="C53" s="3">
-        <v>21.452597000000001</v>
+        <v>10909.575369</v>
       </c>
       <c r="D53" s="3">
-        <v>6.0645360000000004</v>
+        <v>4492.8067010000004</v>
       </c>
       <c r="E53" s="3">
-        <v>5.9591409999999998</v>
+        <v>3084.1786080000002</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3">
-        <f t="shared" si="6"/>
-        <v>0.98460412438143263</v>
+        <f t="shared" si="8"/>
+        <v>0.84275035627398875</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="7"/>
-        <v>0.27834239174211289</v>
+        <f t="shared" si="9"/>
+        <v>0.34706341171599403</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="8"/>
-        <v>0.27350510552967056</v>
+        <f t="shared" si="10"/>
+        <v>0.23824874321784564</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A54" s="35" t="s">
-        <v>9</v>
+      <c r="A54" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="B54" s="3">
-        <v>1115.344392</v>
+        <v>21.788042999999998</v>
       </c>
       <c r="C54" s="3">
-        <v>1080.716604</v>
+        <v>21.452597000000001</v>
       </c>
       <c r="D54" s="3">
-        <v>330.53581500000001</v>
+        <v>6.0645360000000004</v>
       </c>
       <c r="E54" s="3">
-        <v>308.48098900000002</v>
+        <v>5.9591409999999998</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3">
-        <f t="shared" si="6"/>
-        <v>0.96895327734789916</v>
+        <f t="shared" si="8"/>
+        <v>0.98460412438143263</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="7"/>
-        <v>0.29635314201678437</v>
+        <f t="shared" si="9"/>
+        <v>0.27834239174211289</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="8"/>
-        <v>0.27657913664392192</v>
+        <f t="shared" si="10"/>
+        <v>0.27350510552967056</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A55" s="35" t="s">
-        <v>2</v>
+      <c r="A55" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="B55" s="3">
-        <v>340.382856</v>
+        <v>1115.344392</v>
       </c>
       <c r="C55" s="3">
-        <v>347.03317199999998</v>
+        <v>1080.716604</v>
       </c>
       <c r="D55" s="3">
-        <v>24.115029</v>
+        <v>330.53581500000001</v>
       </c>
       <c r="E55" s="3">
-        <v>26.613351000000002</v>
+        <v>308.48098900000002</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0195377525124238</v>
+        <f t="shared" si="8"/>
+        <v>0.96895327734789916</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="7"/>
-        <v>7.0846779075148247E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.29635314201678437</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="8"/>
-        <v>7.818652006374846E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.27657913664392192</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A56" s="35" t="s">
-        <v>4</v>
+      <c r="A56" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B56" s="3">
-        <v>12716.988028</v>
+        <v>340.382856</v>
       </c>
       <c r="C56" s="3">
-        <v>12765.182418</v>
+        <v>347.03317199999998</v>
       </c>
       <c r="D56" s="3">
-        <v>1316.009896</v>
+        <v>24.115029</v>
       </c>
       <c r="E56" s="3">
-        <v>1328.922059</v>
+        <v>26.613351000000002</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0037897645176583</v>
+        <f t="shared" si="8"/>
+        <v>1.0195377525124238</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="7"/>
-        <v>0.10348440158176109</v>
+        <f t="shared" si="9"/>
+        <v>7.0846779075148247E-2</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="8"/>
-        <v>0.10449974916025769</v>
+        <f t="shared" si="10"/>
+        <v>7.818652006374846E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A57" s="35" t="s">
-        <v>145</v>
+      <c r="A57" s="29" t="s">
+        <v>4</v>
       </c>
       <c r="B57" s="3">
-        <v>25402.050793999999</v>
+        <v>12716.988028</v>
       </c>
       <c r="C57" s="3">
-        <v>25817.776168</v>
+        <v>12765.182418</v>
       </c>
       <c r="D57" s="3">
-        <v>3050.489861</v>
+        <v>1316.009896</v>
       </c>
       <c r="E57" s="3">
-        <v>3353.9431370000002</v>
+        <v>1328.922059</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0163658193336971</v>
+        <f t="shared" si="8"/>
+        <v>1.0037897645176583</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="7"/>
-        <v>0.12008833010130544</v>
+        <f t="shared" si="9"/>
+        <v>0.10348440158176109</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="8"/>
-        <v>0.13203434495108585</v>
+        <f t="shared" si="10"/>
+        <v>0.10449974916025769</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A58" s="35" t="s">
-        <v>171</v>
+      <c r="A58" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="B58" s="3">
-        <v>224660.61070399999</v>
+        <v>25402.050793999999</v>
       </c>
       <c r="C58" s="3">
-        <v>222551.54583799999</v>
+        <v>25817.776168</v>
       </c>
       <c r="D58" s="3">
-        <v>107646.176278</v>
+        <v>3050.489861</v>
       </c>
       <c r="E58" s="3">
-        <v>101923.10989199999</v>
+        <v>3353.9431370000002</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
-        <f t="shared" si="6"/>
-        <v>0.99061221787214504</v>
+        <f t="shared" si="8"/>
+        <v>1.0163658193336971</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="7"/>
-        <v>0.47915019878508414</v>
+        <f t="shared" si="9"/>
+        <v>0.12008833010130544</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="8"/>
-        <v>0.45367592286254427</v>
+        <f t="shared" si="10"/>
+        <v>0.13203434495108585</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A59" s="35" t="s">
-        <v>166</v>
+      <c r="A59" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="B59" s="3">
-        <v>146681.24289600001</v>
+        <v>224660.61070399999</v>
       </c>
       <c r="C59" s="3">
-        <v>147286.49313399999</v>
+        <v>222551.54583799999</v>
       </c>
       <c r="D59" s="3">
-        <v>80582.591444000005</v>
+        <v>107646.176278</v>
       </c>
       <c r="E59" s="3">
-        <v>77937.782972000001</v>
+        <v>101923.10989199999</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0041262960829225</v>
+        <f t="shared" si="8"/>
+        <v>0.99061221787214504</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="7"/>
-        <v>0.54937216138217959</v>
+        <f t="shared" si="9"/>
+        <v>0.47915019878508414</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="8"/>
-        <v>0.53134116832688327</v>
+        <f t="shared" si="10"/>
+        <v>0.45367592286254427</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A60" s="35" t="s">
-        <v>146</v>
+      <c r="A60" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="B60" s="3">
-        <v>117964.001806</v>
+        <v>146681.24289600001</v>
       </c>
       <c r="C60" s="3">
-        <v>117965.13305600001</v>
+        <v>147286.49313399999</v>
       </c>
       <c r="D60" s="3">
-        <v>58920.673931999998</v>
+        <v>80582.591444000005</v>
       </c>
       <c r="E60" s="3">
-        <v>56027.222098999999</v>
+        <v>77937.782972000001</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0000095897899588</v>
+        <f t="shared" si="8"/>
+        <v>1.0041262960829225</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="7"/>
-        <v>0.49948012130767777</v>
+        <f t="shared" si="9"/>
+        <v>0.54937216138217959</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="8"/>
-        <v>0.47495186023903002</v>
+        <f t="shared" si="10"/>
+        <v>0.53134116832688327</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A61" s="35" t="s">
-        <v>136</v>
+      <c r="A61" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="B61" s="3">
-        <v>6984.6520630000005</v>
+        <v>117964.001806</v>
       </c>
       <c r="C61" s="3">
-        <v>5829.3974870000002</v>
+        <v>117965.13305600001</v>
       </c>
       <c r="D61" s="3">
-        <v>3427.7853829999999</v>
+        <v>58920.673931999998</v>
       </c>
       <c r="E61" s="3">
-        <v>2266.610529</v>
+        <v>56027.222098999999</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3">
-        <f t="shared" si="6"/>
-        <v>0.83460098433252472</v>
+        <f t="shared" si="8"/>
+        <v>1.0000095897899588</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="7"/>
-        <v>0.49075964730700139</v>
+        <f t="shared" si="9"/>
+        <v>0.49948012130767777</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="8"/>
-        <v>0.3245130191963293</v>
+        <f t="shared" si="10"/>
+        <v>0.47495186023903002</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A62" s="35" t="s">
-        <v>137</v>
+      <c r="A62" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="B62" s="3">
-        <v>53772.161462999997</v>
+        <v>6984.6520630000005</v>
       </c>
       <c r="C62" s="3">
-        <v>50837.933317000003</v>
+        <v>5829.3974870000002</v>
       </c>
       <c r="D62" s="3">
-        <v>21024.428797</v>
+        <v>3427.7853829999999</v>
       </c>
       <c r="E62" s="3">
-        <v>22563.327433999999</v>
+        <v>2266.610529</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3">
-        <f t="shared" si="6"/>
-        <v>0.94543220755559543</v>
+        <f t="shared" si="8"/>
+        <v>0.83460098433252472</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="7"/>
-        <v>0.3909909556354112</v>
+        <f t="shared" si="9"/>
+        <v>0.49075964730700139</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="8"/>
-        <v>0.41960982821056142</v>
+        <f t="shared" si="10"/>
+        <v>0.3245130191963293</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A63" s="35" t="s">
-        <v>134</v>
+      <c r="A63" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="B63" s="3">
-        <v>31753.117034999999</v>
+        <v>53772.161462999997</v>
       </c>
       <c r="C63" s="3">
-        <v>29480.163498000002</v>
+        <v>50837.933317000003</v>
       </c>
       <c r="D63" s="3">
-        <v>11732.782598</v>
+        <v>21024.428797</v>
       </c>
       <c r="E63" s="3">
-        <v>11557.585284000001</v>
+        <v>22563.327433999999</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3">
-        <f t="shared" si="6"/>
-        <v>0.92841793974132913</v>
+        <f t="shared" si="8"/>
+        <v>0.94543220755559543</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="7"/>
-        <v>0.36950018434623266</v>
+        <f t="shared" si="9"/>
+        <v>0.3909909556354112</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="8"/>
-        <v>0.36398270038373259</v>
+        <f t="shared" si="10"/>
+        <v>0.41960982821056142</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A64" s="35" t="s">
-        <v>135</v>
+      <c r="A64" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="B64" s="3">
-        <v>24932.306159</v>
+        <v>31753.117034999999</v>
       </c>
       <c r="C64" s="3">
-        <v>22950.687354000002</v>
+        <v>29480.163498000002</v>
       </c>
       <c r="D64" s="3">
-        <v>9540.0631300000005</v>
+        <v>11732.782598</v>
       </c>
       <c r="E64" s="3">
-        <v>9114.1151960000007</v>
+        <v>11557.585284000001</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0.92841793974132913</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="9"/>
+        <v>0.36950018434623266</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="10"/>
+        <v>0.36398270038373259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A65" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="3">
+        <v>24932.306159</v>
+      </c>
+      <c r="C65" s="3">
+        <v>22950.687354000002</v>
+      </c>
+      <c r="D65" s="3">
+        <v>9540.0631300000005</v>
+      </c>
+      <c r="E65" s="3">
+        <v>9114.1151960000007</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
+        <f t="shared" si="8"/>
         <v>0.92052003563718965</v>
       </c>
-      <c r="H64" s="3">
-        <f t="shared" si="7"/>
+      <c r="H65" s="3">
+        <f t="shared" si="9"/>
         <v>0.38263861630610746</v>
       </c>
-      <c r="I64" s="3">
-        <f t="shared" si="8"/>
+      <c r="I65" s="3">
+        <f t="shared" si="10"/>
         <v>0.36555443920337111</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="3">
+        <v>55544.206700000002</v>
+      </c>
+      <c r="C66" s="3">
+        <v>56041.229418000003</v>
+      </c>
+      <c r="D66" s="3">
+        <v>59432.289245</v>
+      </c>
+      <c r="E66" s="3">
+        <v>59903.221423000003</v>
+      </c>
+      <c r="G66" s="3">
+        <f>$B66/C66</f>
+        <v>0.99113112393925529</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" ref="H66:I66" si="11">$B66/D66</f>
+        <v>0.93457962675857886</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9272323821749201</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4732,33 +4804,33 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="27" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27" t="s">
+      <c r="N5" s="31"/>
+      <c r="O5" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="P5" s="27"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
@@ -5813,36 +5885,36 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="27" t="s">
+      <c r="L25" s="33"/>
+      <c r="M25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27" t="s">
+      <c r="N25" s="31"/>
+      <c r="O25" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="27"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" s="2"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27" t="s">
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="24" t="s">
         <v>181</v>
       </c>
@@ -6939,36 +7011,36 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="28" t="s">
+      <c r="K47" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="27" t="s">
+      <c r="L47" s="33"/>
+      <c r="M47" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27" t="s">
+      <c r="N47" s="31"/>
+      <c r="O47" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="P47" s="27"/>
+      <c r="P47" s="31"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48" s="2"/>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27" t="s">
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
       <c r="K48" s="24" t="s">
         <v>181</v>
       </c>
@@ -8058,36 +8130,36 @@
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="K68" s="28" t="s">
+      <c r="K68" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="L68" s="29"/>
-      <c r="M68" s="27" t="s">
+      <c r="L68" s="33"/>
+      <c r="M68" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27" t="s">
+      <c r="N68" s="31"/>
+      <c r="O68" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="P68" s="27"/>
+      <c r="P68" s="31"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A69" s="2"/>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27" t="s">
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
       <c r="K69" s="24" t="s">
         <v>181</v>
       </c>
@@ -10772,40 +10844,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="16" t="s">
         <v>131</v>
       </c>
@@ -11514,40 +11586,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="13" t="s">
         <v>131</v>
       </c>
@@ -12916,40 +12988,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="11" t="s">
         <v>131</v>
       </c>
@@ -14475,18 +14547,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
@@ -16040,18 +16112,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
@@ -16456,18 +16528,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="32"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
@@ -16977,62 +17049,62 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="3"/>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32" t="s">
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="32" t="s">
+      <c r="L61" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32" t="s">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32" t="s">
+      <c r="E62" s="36"/>
+      <c r="F62" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32" t="s">
+      <c r="G62" s="36"/>
+      <c r="H62" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32" t="s">
+      <c r="I62" s="36"/>
+      <c r="J62" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32" t="s">
+      <c r="K62" s="36"/>
+      <c r="L62" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32" t="s">
+      <c r="M62" s="36"/>
+      <c r="N62" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32" t="s">
+      <c r="O62" s="36"/>
+      <c r="P62" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="32"/>
+      <c r="Q62" s="36"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B63" s="6" t="s">
@@ -17430,52 +17502,52 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32" t="s">
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="32"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32" t="s">
+      <c r="C113" s="36"/>
+      <c r="D113" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32" t="s">
+      <c r="E113" s="36"/>
+      <c r="F113" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32" t="s">
+      <c r="G113" s="36"/>
+      <c r="H113" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="32"/>
+      <c r="I113" s="36"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="32" t="s">
+      <c r="L113" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="M113" s="32"/>
-      <c r="N113" s="32" t="s">
+      <c r="M113" s="36"/>
+      <c r="N113" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="32"/>
+      <c r="O113" s="36"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{43A53F71-5776-4298-84D7-697A95802F8C}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9B638BAA-1070-4CCD-8969-C47F3BA0032B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data-superpg" sheetId="15" r:id="rId1"/>
-    <sheet name="parallelism2" sheetId="13" r:id="rId2"/>
-    <sheet name="parallelism" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId4"/>
-    <sheet name="final 1GB various db sizes" sheetId="11" r:id="rId5"/>
-    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId6"/>
-    <sheet name="final 1GB" sheetId="9" r:id="rId7"/>
-    <sheet name="1GB" sheetId="2" r:id="rId8"/>
-    <sheet name="alignment test" sheetId="8" r:id="rId9"/>
-    <sheet name="LR" sheetId="7" r:id="rId10"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId11"/>
+    <sheet name="data-superpg-reconnect" sheetId="16" r:id="rId1"/>
+    <sheet name="data-superpg-persistent" sheetId="15" r:id="rId2"/>
+    <sheet name="parallelism2" sheetId="13" r:id="rId3"/>
+    <sheet name="parallelism" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
+    <sheet name="final 1GB various db sizes" sheetId="11" r:id="rId6"/>
+    <sheet name="final 1GB reconnect" sheetId="10" r:id="rId7"/>
+    <sheet name="final 1GB" sheetId="9" r:id="rId8"/>
+    <sheet name="1GB" sheetId="2" r:id="rId9"/>
+    <sheet name="alignment test" sheetId="8" r:id="rId10"/>
+    <sheet name="LR" sheetId="7" r:id="rId11"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="214">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -671,6 +672,21 @@
   </si>
   <si>
     <t>Persistent mode</t>
+  </si>
+  <si>
+    <t>Reconnect mode</t>
+  </si>
+  <si>
+    <t>ssh -n yz70@virt02-rca.cs.rice.edu pgbench -C -j 2 -c 10 -t 40000 -S 320 -h 10.79.20.116 -U root</t>
+  </si>
+  <si>
+    <t>Results are averages over 10*40000</t>
+  </si>
+  <si>
+    <t>10 threads running on 2 physical cores (4 hyperthreads), 40000 transactions</t>
+  </si>
+  <si>
+    <t>5GB database</t>
   </si>
 </sst>
 </file>
@@ -801,7 +817,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -863,6 +879,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1151,1711 +1168,543 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A88D281-643A-4E9B-9F4B-012EEE4003C4}">
-  <dimension ref="A1:I66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2880A763-3C60-4ECB-92B6-1917CF6D970B}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="38.0625" customWidth="1"/>
-    <col min="2" max="5" width="10.9375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.0625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.125" customWidth="1"/>
+    <col min="2" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+        <v>212</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>211</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>213</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A8" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="B9" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I9" s="27" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4718997.94575</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3920022.6505749999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4322131.6379749998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3594210.6793419998</v>
+      </c>
+      <c r="G10" s="3">
+        <f>C10/B10</f>
+        <v>0.8306896285270543</v>
+      </c>
+      <c r="H10" s="3">
+        <f>D10/B10</f>
+        <v>0.91590030079745555</v>
+      </c>
+      <c r="I10" s="3">
+        <f>E10/B10</f>
+        <v>0.7616470107979173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="29" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>166847.96797200001</v>
+        <v>2475.3143949999999</v>
       </c>
       <c r="C11" s="3">
-        <v>164511.44744399999</v>
+        <v>2149.0404370000001</v>
       </c>
       <c r="D11" s="3">
-        <v>66669.357508999994</v>
+        <v>2385.5746370000002</v>
       </c>
       <c r="E11" s="3">
-        <v>62834.992463000002</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>2073.4485030000001</v>
+      </c>
       <c r="G11" s="3">
-        <f>C11/B11</f>
-        <v>0.98599611037281476</v>
+        <f t="shared" ref="G11:G24" si="0">C11/B11</f>
+        <v>0.86818888192180543</v>
       </c>
       <c r="H11" s="3">
-        <f>D11/B11</f>
-        <v>0.39958147719358661</v>
+        <f t="shared" ref="H11:H24" si="1">D11/B11</f>
+        <v>0.96374611718767156</v>
       </c>
       <c r="I11" s="3">
-        <f>E11/B11</f>
-        <v>0.37660028603731516</v>
+        <f t="shared" ref="I11:I24" si="2">E11/B11</f>
+        <v>0.83765056559613316</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3">
-        <v>239.10410999999999</v>
+        <v>220662.41952699999</v>
       </c>
       <c r="C12" s="3">
-        <v>232.36093199999999</v>
+        <v>148569.93176000001</v>
       </c>
       <c r="D12" s="3">
-        <v>69.577585999999997</v>
+        <v>212778.74656999999</v>
       </c>
       <c r="E12" s="3">
-        <v>61.810684999999999</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>144840.661222</v>
+      </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12:G25" si="0">C12/B12</f>
-        <v>0.97179815102299993</v>
+        <f t="shared" si="0"/>
+        <v>0.67329059510208611</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H25" si="1">D12/B12</f>
-        <v>0.29099284826178856</v>
+        <f t="shared" si="1"/>
+        <v>0.9642726977529793</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ref="I12:I25" si="2">E12/B12</f>
-        <v>0.25850950449994359</v>
+        <f t="shared" si="2"/>
+        <v>0.65639025227980641</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>11272.769903</v>
+        <v>1191.0242149999999</v>
       </c>
       <c r="C13" s="3">
-        <v>10212.536187</v>
+        <v>1111.1960899999999</v>
       </c>
       <c r="D13" s="3">
-        <v>3627.9728770000002</v>
+        <v>1197.7867799999999</v>
       </c>
       <c r="E13" s="3">
-        <v>2640.7970180000002</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>1119.0801899999999</v>
+      </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0.90594736474503545</v>
+        <v>0.9329752292231942</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>0.32183508651538206</v>
+        <v>1.0056779408133192</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>0.23426336567884792</v>
+        <v>0.93959482595406341</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>22.076829</v>
+        <v>57754.198665000004</v>
       </c>
       <c r="C14" s="3">
-        <v>21.648422</v>
+        <v>52553.155832999997</v>
       </c>
       <c r="D14" s="3">
-        <v>5.7621190000000002</v>
+        <v>57984.613772999997</v>
       </c>
       <c r="E14" s="3">
-        <v>5.5170260000000004</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>52986.87586</v>
+      </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.98059472218587185</v>
+        <v>0.90994519961798159</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>0.26100301814178117</v>
+        <v>1.0039895819408127</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
-        <v>0.24990119731416138</v>
+        <v>0.91745495712523706</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="29" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3">
-        <v>1069.1390019999999</v>
+        <v>1966.28207</v>
       </c>
       <c r="C15" s="3">
-        <v>1035.319937</v>
+        <v>2155.791565</v>
       </c>
       <c r="D15" s="3">
-        <v>310.87149899999997</v>
+        <v>883.700965</v>
       </c>
       <c r="E15" s="3">
-        <v>286.50260600000001</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>1036.348035</v>
+      </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>0.96836794379707802</v>
+        <v>1.0963796079369224</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>0.29076808386791975</v>
+        <v>0.44942736267742095</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="2"/>
-        <v>0.26797507664022163</v>
+        <v>0.52705969851009216</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>336.20340399999998</v>
+        <v>150832.12739000001</v>
       </c>
       <c r="C16" s="3">
-        <v>342.18383699999998</v>
+        <v>134314.03226199999</v>
       </c>
       <c r="D16" s="3">
-        <v>23.094424</v>
+        <v>74694.563037</v>
       </c>
       <c r="E16" s="3">
-        <v>26.358383</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>70642.748315000004</v>
+      </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0177881393491186</v>
+        <v>0.89048689152749338</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>6.8691820859731689E-2</v>
+        <v>0.49521653197839971</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="2"/>
-        <v>7.8400107453998294E-2</v>
+        <v>0.46835345716726617</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="29" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3">
-        <v>12329.691015</v>
+        <v>420665.181255</v>
       </c>
       <c r="C17" s="3">
-        <v>12520.292835</v>
+        <v>317396.97671199997</v>
       </c>
       <c r="D17" s="3">
-        <v>1196.675712</v>
+        <v>198326.18532700001</v>
       </c>
       <c r="E17" s="3">
-        <v>1247.37156</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>169316.90014499999</v>
+      </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>1.0154587669527255</v>
+        <v>0.75451211760642334</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>9.7056423437063721E-2</v>
+        <v>0.47145852370124752</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="2"/>
-        <v>0.1011681118758352</v>
+        <v>0.40249801431120347</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="29" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3">
-        <v>25003.898712999999</v>
+        <v>22525024.273832001</v>
       </c>
       <c r="C18" s="3">
-        <v>25375.968217000001</v>
+        <v>12110229.194977</v>
       </c>
       <c r="D18" s="3">
-        <v>2871.264408</v>
+        <v>21947450.591545001</v>
       </c>
       <c r="E18" s="3">
-        <v>3188.3636529999999</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>11546632.393990001</v>
+      </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>1.0148804595743526</v>
+        <v>0.53763445702679302</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>0.11483266833532546</v>
+        <v>0.97435857669827308</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>0.12751466039743273</v>
+        <v>0.51261353833052559</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B19" s="3">
-        <v>212196.626166</v>
+        <v>27509971.748360001</v>
       </c>
       <c r="C19" s="3">
-        <v>216416.53578000001</v>
+        <v>7674816.8858399997</v>
       </c>
       <c r="D19" s="3">
-        <v>107513.023846</v>
+        <v>27263075.178964999</v>
       </c>
       <c r="E19" s="3">
-        <v>95121.973077000002</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>7424770.1600599997</v>
+      </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>1.0198867893907926</v>
+        <v>0.27898308860668064</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>0.5066669804725985</v>
+        <v>0.99102519727561256</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
-        <v>0.448272787346707</v>
+        <v>0.26989377626324262</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="29" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3">
-        <v>142868.96269300001</v>
+        <v>1942008.9419170001</v>
       </c>
       <c r="C20" s="3">
-        <v>143961.482376</v>
+        <v>1941095.907347</v>
       </c>
       <c r="D20" s="3">
-        <v>81154.428289000003</v>
+        <v>1941326.7013900001</v>
       </c>
       <c r="E20" s="3">
-        <v>74662.946911000006</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>1942129.2855450001</v>
+      </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>1.0076470050765862</v>
+        <v>0.99952985048096699</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>0.56803399954254885</v>
+        <v>0.99964869341624829</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="2"/>
-        <v>0.5225973892694763</v>
+        <v>1.0000619686271275</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="29" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3">
-        <v>116038.759842</v>
+        <v>824021.34280300001</v>
       </c>
       <c r="C21" s="3">
-        <v>116046.157701</v>
+        <v>418776.51726699999</v>
       </c>
       <c r="D21" s="3">
-        <v>61902.832993000004</v>
+        <v>779434.86805499997</v>
       </c>
       <c r="E21" s="3">
-        <v>53257.735567999996</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>408001.58095999999</v>
+      </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>1.000063753344228</v>
+        <v>0.50821076532130249</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>0.53346686122195519</v>
+        <v>0.94589160203504652</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>0.45896505306086066</v>
+        <v>0.49513472499648775</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" s="3">
-        <v>4541.433567</v>
+        <v>1634062.59962</v>
       </c>
       <c r="C22" s="3">
-        <v>4154.2523419999998</v>
+        <v>1206407.21138</v>
       </c>
       <c r="D22" s="3">
-        <v>2387.0926319999999</v>
+        <v>1502566.6684350001</v>
       </c>
       <c r="E22" s="3">
-        <v>1531.213669</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>1109219.767278</v>
+      </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>0.91474471237156818</v>
+        <v>0.73828702257829604</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>0.5256253552502973</v>
+        <v>0.9195282168409098</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="2"/>
-        <v>0.33716526872185337</v>
+        <v>0.67881106117718393</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B23" s="3">
-        <v>49632.140122999997</v>
+        <v>1087021.7051669999</v>
       </c>
       <c r="C23" s="3">
-        <v>48875.359435999999</v>
+        <v>679611.03157500003</v>
       </c>
       <c r="D23" s="3">
-        <v>20369.284939000001</v>
+        <v>1021683.57734</v>
       </c>
       <c r="E23" s="3">
-        <v>19647.227529</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>655245.64539199998</v>
+      </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>0.98475220522176721</v>
+        <v>0.62520465630499156</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>0.41040513039575105</v>
+        <v>0.93989252696940206</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>0.39585694834656726</v>
+        <v>0.60278984520491619</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" s="3">
-        <v>27971.159758999998</v>
+        <v>995608.63456499996</v>
       </c>
       <c r="C24" s="3">
-        <v>26859.066644999999</v>
+        <v>599566.45110499999</v>
       </c>
       <c r="D24" s="3">
-        <v>10720.004486</v>
+        <v>937830.74969700002</v>
       </c>
       <c r="E24" s="3">
-        <v>10286.63947</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>579860.809045</v>
+      </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>0.9602414371237441</v>
+        <v>0.60221097958532854</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>0.38325205598780121</v>
+        <v>0.94196727221711551</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="2"/>
-        <v>0.36775877577583005</v>
+        <v>0.58241842116842635</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="29" t="s">
-        <v>135</v>
+      <c r="A25" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B25" s="3">
-        <v>21428.264673999998</v>
+        <v>469.30447700000002</v>
       </c>
       <c r="C25" s="3">
-        <v>20367.121781000002</v>
+        <v>793.92536900000005</v>
       </c>
       <c r="D25" s="3">
-        <v>8472.2391420000004</v>
+        <v>477.063738</v>
       </c>
       <c r="E25" s="3">
-        <v>8056.3318870000003</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>832.47481200000004</v>
+      </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95047928942713056</v>
+        <f>B25/C25</f>
+        <v>0.59111913452409148</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
-        <v>0.39537681986352347</v>
+        <f>B25/D25</f>
+        <v>0.98373537877238537</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.37596753678216216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="3">
-        <v>56627.978220999998</v>
-      </c>
-      <c r="C26" s="3">
-        <v>56732.869269000003</v>
-      </c>
-      <c r="D26" s="3">
-        <v>60233.552794000003</v>
-      </c>
-      <c r="E26" s="3">
-        <v>61247.294558000001</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <f>$B26/C26</f>
-        <v>0.99815114149255058</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" ref="H26:I26" si="3">$B26/D26</f>
-        <v>0.94014009790637543</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92457925904587346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="63" x14ac:dyDescent="0.5">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A31" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="3">
-        <v>170431.33172700001</v>
-      </c>
-      <c r="C31" s="3">
-        <v>166132.93391600001</v>
-      </c>
-      <c r="D31" s="3">
-        <v>74710.447444000005</v>
-      </c>
-      <c r="E31" s="3">
-        <v>71432.537555000003</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3">
-        <f>C31/B31</f>
-        <v>0.97477929810531994</v>
-      </c>
-      <c r="H31" s="3">
-        <f>D31/B31</f>
-        <v>0.43836099082809815</v>
-      </c>
-      <c r="I31" s="3">
-        <f>E31/B31</f>
-        <v>0.41912796685425152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3">
-        <v>246.187513</v>
-      </c>
-      <c r="C32" s="3">
-        <v>238.32734600000001</v>
-      </c>
-      <c r="D32" s="3">
-        <v>76.138177999999996</v>
-      </c>
-      <c r="E32" s="3">
-        <v>68.156795000000002</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <f t="shared" ref="G32:G45" si="4">C32/B32</f>
-        <v>0.96807243834499446</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" ref="H32:H45" si="5">D32/B32</f>
-        <v>0.30926904891394713</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" ref="I32:I45" si="6">E32/B32</f>
-        <v>0.27684911460151923</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="3">
-        <v>12401.962014999999</v>
-      </c>
-      <c r="C33" s="3">
-        <v>10541.896863</v>
-      </c>
-      <c r="D33" s="3">
-        <v>4379.8930229999996</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2969.2832840000001</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3">
-        <f t="shared" si="4"/>
-        <v>0.85001847693532073</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="5"/>
-        <v>0.3531612996155431</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="6"/>
-        <v>0.23942044657197736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="3">
-        <v>21.860008000000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>21.531497999999999</v>
-      </c>
-      <c r="D34" s="3">
-        <v>6.1554279999999997</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5.9603429999999999</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3">
-        <f t="shared" si="4"/>
-        <v>0.98497210065064933</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="5"/>
-        <v>0.28158397746240532</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="6"/>
-        <v>0.27265968978602384</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1106.1619639999999</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1043.6002370000001</v>
-      </c>
-      <c r="D35" s="3">
-        <v>332.00510400000002</v>
-      </c>
-      <c r="E35" s="3">
-        <v>309.30336199999999</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
-        <f t="shared" si="4"/>
-        <v>0.94344252556490926</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="5"/>
-        <v>0.30014149356522263</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="6"/>
-        <v>0.27961851163416068</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3">
-        <v>340.41882399999997</v>
-      </c>
-      <c r="C36" s="3">
-        <v>339.47076399999997</v>
-      </c>
-      <c r="D36" s="3">
-        <v>25.294993000000002</v>
-      </c>
-      <c r="E36" s="3">
-        <v>26.899283</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
-        <f t="shared" si="4"/>
-        <v>0.99721501887333941</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="5"/>
-        <v>7.4305506090344767E-2</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="6"/>
-        <v>7.9018200826638199E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3">
-        <v>12663.687947</v>
-      </c>
-      <c r="C37" s="3">
-        <v>12460.571121000001</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1380.1805589999999</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1343.892924</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3">
-        <f t="shared" si="4"/>
-        <v>0.98396068926760649</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="5"/>
-        <v>0.10898725274788232</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="6"/>
-        <v>0.10612176560449479</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="3">
-        <v>25031.481509000001</v>
-      </c>
-      <c r="C38" s="3">
-        <v>25338.524481</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3232.1759550000002</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3390.4565520000001</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0122662724493396</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="5"/>
-        <v>0.12912443691508552</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="6"/>
-        <v>0.13544769816285027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A39" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="3">
-        <v>216807.99714299999</v>
-      </c>
-      <c r="C39" s="3">
-        <v>220725.57765600001</v>
-      </c>
-      <c r="D39" s="3">
-        <v>108503.110224</v>
-      </c>
-      <c r="E39" s="3">
-        <v>106007.170509</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0180693542886987</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="5"/>
-        <v>0.50045714020610887</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="6"/>
-        <v>0.48894492779747828</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A40" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="3">
-        <v>143633.93973300001</v>
-      </c>
-      <c r="C40" s="3">
-        <v>147039.35814299999</v>
-      </c>
-      <c r="D40" s="3">
-        <v>81757.287184999994</v>
-      </c>
-      <c r="E40" s="3">
-        <v>80153.284931000002</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0237090092796333</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="5"/>
-        <v>0.56920590869385024</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="6"/>
-        <v>0.55803861594269644</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="3">
-        <v>117829.182304</v>
-      </c>
-      <c r="C41" s="3">
-        <v>117827.281038</v>
-      </c>
-      <c r="D41" s="3">
-        <v>61593.971445000003</v>
-      </c>
-      <c r="E41" s="3">
-        <v>58813.135839000002</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3">
-        <f t="shared" si="4"/>
-        <v>0.99998386421799057</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="5"/>
-        <v>0.52273953056966127</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="6"/>
-        <v>0.4991389627678291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="3">
-        <v>6048.1515259999996</v>
-      </c>
-      <c r="C42" s="3">
-        <v>5073.9570089999997</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3083.2993919999999</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2128.1862970000002</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3">
-        <f t="shared" si="4"/>
-        <v>0.83892689976233248</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="5"/>
-        <v>0.50979202137139046</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="6"/>
-        <v>0.35187383911452624</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="3">
-        <v>52672.795965999998</v>
-      </c>
-      <c r="C43" s="3">
-        <v>50317.428750999999</v>
-      </c>
-      <c r="D43" s="3">
-        <v>23038.990985</v>
-      </c>
-      <c r="E43" s="3">
-        <v>19770.208779000001</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3">
-        <f t="shared" si="4"/>
-        <v>0.95528304180927903</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="5"/>
-        <v>0.43739829189761531</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="6"/>
-        <v>0.37534002925839671</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="3">
-        <v>31077.086698999999</v>
-      </c>
-      <c r="C44" s="3">
-        <v>28695.697941999999</v>
-      </c>
-      <c r="D44" s="3">
-        <v>12259.094276</v>
-      </c>
-      <c r="E44" s="3">
-        <v>10404.354422</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3">
-        <f t="shared" si="4"/>
-        <v>0.92337155731278286</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="5"/>
-        <v>0.39447372898034466</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="6"/>
-        <v>0.33479182018483067</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="3">
-        <v>24257.744535000002</v>
-      </c>
-      <c r="C45" s="3">
-        <v>22042.544452999999</v>
-      </c>
-      <c r="D45" s="3">
-        <v>9833.2722900000008</v>
-      </c>
-      <c r="E45" s="3">
-        <v>8194.6508620000004</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
-        <f t="shared" si="4"/>
-        <v>0.90868070694685454</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="5"/>
-        <v>0.40536630583326405</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="6"/>
-        <v>0.33781586124696977</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" s="3">
-        <v>55782.021768999999</v>
-      </c>
-      <c r="C46" s="3">
-        <v>56507.624079000001</v>
-      </c>
-      <c r="D46" s="3">
-        <v>60059.940265999998</v>
-      </c>
-      <c r="E46" s="3">
-        <v>60382.506581000001</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3">
-        <f>$B46/C46</f>
-        <v>0.9871592139675599</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" ref="H46:I46" si="7">$B46/D46</f>
-        <v>0.92877251495666679</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="7"/>
-        <v>0.92381096657806527</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A49" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.5">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A51" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="3">
-        <v>171842.887613</v>
-      </c>
-      <c r="C51" s="3">
-        <v>168949.45337999999</v>
-      </c>
-      <c r="D51" s="3">
-        <v>73371.231595999998</v>
-      </c>
-      <c r="E51" s="3">
-        <v>72451.297915999996</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3">
-        <f>C51/B51</f>
-        <v>0.98316232767505518</v>
-      </c>
-      <c r="H51" s="3">
-        <f>D51/B51</f>
-        <v>0.42696693831889165</v>
-      </c>
-      <c r="I51" s="3">
-        <f>E51/B51</f>
-        <v>0.42161359671262311</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A52" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="3">
-        <v>248.64740900000001</v>
-      </c>
-      <c r="C52" s="3">
-        <v>241.21453700000001</v>
-      </c>
-      <c r="D52" s="3">
-        <v>75.126187999999999</v>
-      </c>
-      <c r="E52" s="3">
-        <v>68.682963000000001</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3">
-        <f t="shared" ref="G52:G65" si="8">C52/B52</f>
-        <v>0.97010677879213292</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" ref="H52:H65" si="9">D52/B52</f>
-        <v>0.3021394363292963</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" ref="I52:I65" si="10">E52/B52</f>
-        <v>0.27622633702971744</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A53" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="3">
-        <v>12945.204102</v>
-      </c>
-      <c r="C53" s="3">
-        <v>10909.575369</v>
-      </c>
-      <c r="D53" s="3">
-        <v>4492.8067010000004</v>
-      </c>
-      <c r="E53" s="3">
-        <v>3084.1786080000002</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3">
-        <f t="shared" si="8"/>
-        <v>0.84275035627398875</v>
-      </c>
-      <c r="H53" s="3">
-        <f t="shared" si="9"/>
-        <v>0.34706341171599403</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="10"/>
-        <v>0.23824874321784564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A54" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="3">
-        <v>21.788042999999998</v>
-      </c>
-      <c r="C54" s="3">
-        <v>21.452597000000001</v>
-      </c>
-      <c r="D54" s="3">
-        <v>6.0645360000000004</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5.9591409999999998</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3">
-        <f t="shared" si="8"/>
-        <v>0.98460412438143263</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="9"/>
-        <v>0.27834239174211289</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="10"/>
-        <v>0.27350510552967056</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A55" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1115.344392</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1080.716604</v>
-      </c>
-      <c r="D55" s="3">
-        <v>330.53581500000001</v>
-      </c>
-      <c r="E55" s="3">
-        <v>308.48098900000002</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3">
-        <f t="shared" si="8"/>
-        <v>0.96895327734789916</v>
-      </c>
-      <c r="H55" s="3">
-        <f t="shared" si="9"/>
-        <v>0.29635314201678437</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" si="10"/>
-        <v>0.27657913664392192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A56" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="3">
-        <v>340.382856</v>
-      </c>
-      <c r="C56" s="3">
-        <v>347.03317199999998</v>
-      </c>
-      <c r="D56" s="3">
-        <v>24.115029</v>
-      </c>
-      <c r="E56" s="3">
-        <v>26.613351000000002</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0195377525124238</v>
-      </c>
-      <c r="H56" s="3">
-        <f t="shared" si="9"/>
-        <v>7.0846779075148247E-2</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" si="10"/>
-        <v>7.818652006374846E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A57" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="3">
-        <v>12716.988028</v>
-      </c>
-      <c r="C57" s="3">
-        <v>12765.182418</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1316.009896</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1328.922059</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0037897645176583</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="9"/>
-        <v>0.10348440158176109</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="10"/>
-        <v>0.10449974916025769</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A58" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="3">
-        <v>25402.050793999999</v>
-      </c>
-      <c r="C58" s="3">
-        <v>25817.776168</v>
-      </c>
-      <c r="D58" s="3">
-        <v>3050.489861</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3353.9431370000002</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0163658193336971</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="9"/>
-        <v>0.12008833010130544</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="10"/>
-        <v>0.13203434495108585</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A59" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="3">
-        <v>224660.61070399999</v>
-      </c>
-      <c r="C59" s="3">
-        <v>222551.54583799999</v>
-      </c>
-      <c r="D59" s="3">
-        <v>107646.176278</v>
-      </c>
-      <c r="E59" s="3">
-        <v>101923.10989199999</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3">
-        <f t="shared" si="8"/>
-        <v>0.99061221787214504</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="9"/>
-        <v>0.47915019878508414</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="10"/>
-        <v>0.45367592286254427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A60" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="3">
-        <v>146681.24289600001</v>
-      </c>
-      <c r="C60" s="3">
-        <v>147286.49313399999</v>
-      </c>
-      <c r="D60" s="3">
-        <v>80582.591444000005</v>
-      </c>
-      <c r="E60" s="3">
-        <v>77937.782972000001</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0041262960829225</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="9"/>
-        <v>0.54937216138217959</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="10"/>
-        <v>0.53134116832688327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A61" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="3">
-        <v>117964.001806</v>
-      </c>
-      <c r="C61" s="3">
-        <v>117965.13305600001</v>
-      </c>
-      <c r="D61" s="3">
-        <v>58920.673931999998</v>
-      </c>
-      <c r="E61" s="3">
-        <v>56027.222098999999</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0000095897899588</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="9"/>
-        <v>0.49948012130767777</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="10"/>
-        <v>0.47495186023903002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A62" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" s="3">
-        <v>6984.6520630000005</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5829.3974870000002</v>
-      </c>
-      <c r="D62" s="3">
-        <v>3427.7853829999999</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2266.610529</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3">
-        <f t="shared" si="8"/>
-        <v>0.83460098433252472</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="9"/>
-        <v>0.49075964730700139</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="10"/>
-        <v>0.3245130191963293</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A63" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="3">
-        <v>53772.161462999997</v>
-      </c>
-      <c r="C63" s="3">
-        <v>50837.933317000003</v>
-      </c>
-      <c r="D63" s="3">
-        <v>21024.428797</v>
-      </c>
-      <c r="E63" s="3">
-        <v>22563.327433999999</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3">
-        <f t="shared" si="8"/>
-        <v>0.94543220755559543</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="9"/>
-        <v>0.3909909556354112</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="10"/>
-        <v>0.41960982821056142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A64" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="3">
-        <v>31753.117034999999</v>
-      </c>
-      <c r="C64" s="3">
-        <v>29480.163498000002</v>
-      </c>
-      <c r="D64" s="3">
-        <v>11732.782598</v>
-      </c>
-      <c r="E64" s="3">
-        <v>11557.585284000001</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3">
-        <f t="shared" si="8"/>
-        <v>0.92841793974132913</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="9"/>
-        <v>0.36950018434623266</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="10"/>
-        <v>0.36398270038373259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A65" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="3">
-        <v>24932.306159</v>
-      </c>
-      <c r="C65" s="3">
-        <v>22950.687354000002</v>
-      </c>
-      <c r="D65" s="3">
-        <v>9540.0631300000005</v>
-      </c>
-      <c r="E65" s="3">
-        <v>9114.1151960000007</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3">
-        <f t="shared" si="8"/>
-        <v>0.92052003563718965</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="9"/>
-        <v>0.38263861630610746</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="10"/>
-        <v>0.36555443920337111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A66" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="3">
-        <v>55544.206700000002</v>
-      </c>
-      <c r="C66" s="3">
-        <v>56041.229418000003</v>
-      </c>
-      <c r="D66" s="3">
-        <v>59432.289245</v>
-      </c>
-      <c r="E66" s="3">
-        <v>59903.221423000003</v>
-      </c>
-      <c r="G66" s="3">
-        <f>$B66/C66</f>
-        <v>0.99113112393925529</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" ref="H66:I66" si="11">$B66/D66</f>
-        <v>0.93457962675857886</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="11"/>
-        <v>0.9272323821749201</v>
+        <f>B25/E25</f>
+        <v>0.56374615812400097</v>
       </c>
     </row>
   </sheetData>
@@ -2864,6 +1713,1675 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:S118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="37.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.3125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.3125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.8125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.8125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>140403.96484500001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1123231718763.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>145435.15202400001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1163481216192.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>140926.72194799999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1127413775585.5</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I12" si="0">E4/C4</f>
+        <v>1.0358336545849225</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L12" si="1">G4/C4</f>
+        <v>1.0037232360448329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>28.554079999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>228432639.5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26.626676</v>
+      </c>
+      <c r="E5" s="1">
+        <v>213013409</v>
+      </c>
+      <c r="F5" s="7">
+        <v>14.53087</v>
+      </c>
+      <c r="G5" s="1">
+        <v>116246957.5</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93249988034218723</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50888943784235352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10.944258</v>
+      </c>
+      <c r="C6" s="1">
+        <v>87554067</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12.925743000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>103405943</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.9714359999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>47771488</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.181052423298623</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54562271790298444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10.943394</v>
+      </c>
+      <c r="C7" s="1">
+        <v>87547152.5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12.925741</v>
+      </c>
+      <c r="E7" s="1">
+        <v>103405928.5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5.9696889999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>47757510</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1811455375433255</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54550614881506287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>773.14375399999994</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6185150034.5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1124.52547</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8996203760</v>
+      </c>
+      <c r="F9" s="7">
+        <v>428.18488100000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3425479049</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4544843229057163</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55382311340761381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6562.5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.4607999999999999E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>116865.5</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333332E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>17.808076190476189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4634146341463414</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3414634146341464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7">
+        <v>50.312914999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>402503318</v>
+      </c>
+      <c r="D12" s="7">
+        <v>625.74868200000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5005989457.5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>53.105401000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>424843206.5</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>12.437138362919036</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0555023710388396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="D14" s="1">
+        <v>140447.25551799999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1123578044142</v>
+      </c>
+      <c r="F14" s="1">
+        <v>139853.61392999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1118828911444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="D15" s="1">
+        <v>10.607939999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>84863516.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15.165372</v>
+      </c>
+      <c r="G15" s="1">
+        <v>121322979.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="D16" s="1">
+        <v>3.6480079999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>29184064</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.9287380000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>47429904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D17" s="1">
+        <v>3.6466409999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>29173127</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.9264429999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>47411542.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D19" s="1">
+        <v>375.49195500000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3003935643.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>415.12147900000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3320971828.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D20" s="1">
+        <v>1.639E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13115.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.1970000000000002E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>17574.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D21" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D22" s="1">
+        <v>50.376511999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>403012099.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>53.54824</v>
+      </c>
+      <c r="G22" s="1">
+        <v>428385921.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B24" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>140257.80593900001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1122062447509</v>
+      </c>
+      <c r="D26" s="1">
+        <v>145324.73734699999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1162597898772</v>
+      </c>
+      <c r="F26" s="1">
+        <v>140276.67872600001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1122213429805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>29.669802000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>237358413</v>
+      </c>
+      <c r="D27" s="1">
+        <v>29.022438999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>232179510.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>14.434578</v>
+      </c>
+      <c r="G27" s="1">
+        <v>115476625.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11.658239</v>
+      </c>
+      <c r="C28" s="1">
+        <v>93265915.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14.327204</v>
+      </c>
+      <c r="E28" s="1">
+        <v>114617629</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5.8368130000000003</v>
+      </c>
+      <c r="G28" s="1">
+        <v>46694506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11.657295</v>
+      </c>
+      <c r="C29" s="1">
+        <v>93258359.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14.327204</v>
+      </c>
+      <c r="E29" s="1">
+        <v>114617632</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5.8348409999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>46678731.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>745.68917099999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5965513365</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1120.1487569999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8961190053.5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>425.86830200000003</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3406946415.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.1130000000000001E-3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8907.5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.6962999999999999E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>135706.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>50.099004000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>400792030.5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>623.11886000000004</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4984950884</v>
+      </c>
+      <c r="F34" s="1">
+        <v>52.988903000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>423911223.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A36" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>877280361133</v>
+      </c>
+      <c r="E38" s="1">
+        <v>878772319920</v>
+      </c>
+      <c r="G38" s="1">
+        <v>877464443912</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>210538810</v>
+      </c>
+      <c r="E39" s="1">
+        <v>356654916</v>
+      </c>
+      <c r="G39" s="1">
+        <v>195628734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>123363462</v>
+      </c>
+      <c r="E40" s="1">
+        <v>228892890</v>
+      </c>
+      <c r="G40" s="1">
+        <v>119632667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1">
+        <v>123361377</v>
+      </c>
+      <c r="E41" s="1">
+        <v>228890858</v>
+      </c>
+      <c r="G41" s="1">
+        <v>119630592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A42" s="3"/>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6461413845</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6913162471</v>
+      </c>
+      <c r="G43" s="1">
+        <v>6144949457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2204</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2035</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1">
+        <v>36</v>
+      </c>
+      <c r="E45" s="1">
+        <v>36</v>
+      </c>
+      <c r="G45" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>389807917</v>
+      </c>
+      <c r="E46" s="1">
+        <v>400868717</v>
+      </c>
+      <c r="G46" s="1">
+        <v>402446396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A48" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>871244430240</v>
+      </c>
+      <c r="E50" s="1">
+        <v>873092484000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>876277641654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="1">
+        <v>267775344</v>
+      </c>
+      <c r="E51" s="1">
+        <v>282166725</v>
+      </c>
+      <c r="G51" s="1">
+        <v>300150254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>234927028</v>
+      </c>
+      <c r="E52" s="1">
+        <v>159258654</v>
+      </c>
+      <c r="G52" s="1">
+        <v>228684685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6771054688</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4906600808</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6541289608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="C54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>875340767324</v>
+      </c>
+      <c r="E55" s="1">
+        <v>872419782151</v>
+      </c>
+      <c r="G55" s="1">
+        <v>874985735564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1">
+        <v>96131410</v>
+      </c>
+      <c r="E56" s="1">
+        <v>156266036</v>
+      </c>
+      <c r="G56" s="1">
+        <v>129438461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1647</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2073</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>409185728</v>
+      </c>
+      <c r="E58" s="1">
+        <v>401573373</v>
+      </c>
+      <c r="G58" s="1">
+        <v>398384398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A60" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B62" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62" s="36"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>195803.602495</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1566428819961.5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>184751.27264400001</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1478010181151.5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>176839.86805200001</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1414718944417</v>
+      </c>
+      <c r="H64" s="1">
+        <v>165473.61220599999</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1323788897647</v>
+      </c>
+      <c r="J64" s="1">
+        <v>164597.635839</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1316781086715.5</v>
+      </c>
+      <c r="L64" s="1">
+        <v>139579.99488799999</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1116639959108</v>
+      </c>
+      <c r="N64" s="1">
+        <v>138231.978798</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1105855830385</v>
+      </c>
+      <c r="P64" s="1">
+        <v>136578.52948699999</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1092628235895</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="1">
+        <v>113.508774</v>
+      </c>
+      <c r="C65" s="1">
+        <v>908070188</v>
+      </c>
+      <c r="D65" s="1">
+        <v>115.561043</v>
+      </c>
+      <c r="E65" s="1">
+        <v>924488348</v>
+      </c>
+      <c r="F65" s="1">
+        <v>135.76726400000001</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1086138112.5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>137.042925</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1096343404</v>
+      </c>
+      <c r="J65" s="1">
+        <v>134.14905899999999</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1073192474</v>
+      </c>
+      <c r="L65" s="1">
+        <v>186.75927200000001</v>
+      </c>
+      <c r="M65" s="1">
+        <v>1494074172.5</v>
+      </c>
+      <c r="N65" s="1">
+        <v>186.79355100000001</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1494348410</v>
+      </c>
+      <c r="P65" s="1">
+        <v>190.30417299999999</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1522433383.5</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1">
+        <v>187.79291799999999</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1502343342</v>
+      </c>
+      <c r="D66" s="1">
+        <v>28.449394999999999</v>
+      </c>
+      <c r="E66" s="1">
+        <v>227595159.5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>208.95451299999999</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1671636107</v>
+      </c>
+      <c r="H66" s="1">
+        <v>17.013721</v>
+      </c>
+      <c r="I66" s="1">
+        <v>136109766.5</v>
+      </c>
+      <c r="J66" s="1">
+        <v>15.803006</v>
+      </c>
+      <c r="K66" s="1">
+        <v>126424051</v>
+      </c>
+      <c r="L66" s="1">
+        <v>67.045439999999999</v>
+      </c>
+      <c r="M66" s="1">
+        <v>536363520.5</v>
+      </c>
+      <c r="N66" s="1">
+        <v>50.960827999999999</v>
+      </c>
+      <c r="O66" s="1">
+        <v>407686620.5</v>
+      </c>
+      <c r="P66" s="1">
+        <v>45.757987999999997</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>366063906.5</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1">
+        <v>151.39014800000001</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1211121183.5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>10.088628</v>
+      </c>
+      <c r="E67" s="1">
+        <v>80709025</v>
+      </c>
+      <c r="F67" s="1">
+        <v>170.51944800000001</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1364155586.5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>4.4505590000000002</v>
+      </c>
+      <c r="I67" s="1">
+        <v>35604475</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3.8737849999999998</v>
+      </c>
+      <c r="K67" s="1">
+        <v>30990281.5</v>
+      </c>
+      <c r="L67" s="1">
+        <v>36.114871999999998</v>
+      </c>
+      <c r="M67" s="1">
+        <v>288918979.5</v>
+      </c>
+      <c r="N67" s="1">
+        <v>21.993981000000002</v>
+      </c>
+      <c r="O67" s="1">
+        <v>175951846</v>
+      </c>
+      <c r="P67" s="1">
+        <v>18.998203</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>151985624.5</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="H69" s="1">
+        <v>165490.956049</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1323927648394</v>
+      </c>
+      <c r="J69" s="1">
+        <v>164402.17560799999</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1315217404866</v>
+      </c>
+      <c r="N69" s="1">
+        <v>138358.071375</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1106864571002</v>
+      </c>
+      <c r="P69" s="1">
+        <v>136311.46108099999</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1090491688645</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="H70" s="1">
+        <v>4.3720699999999999</v>
+      </c>
+      <c r="I70" s="1">
+        <v>34976561</v>
+      </c>
+      <c r="J70" s="1">
+        <v>3.8909829999999999</v>
+      </c>
+      <c r="K70" s="1">
+        <v>31127864</v>
+      </c>
+      <c r="N70" s="1">
+        <v>21.489221000000001</v>
+      </c>
+      <c r="O70" s="1">
+        <v>171913765</v>
+      </c>
+      <c r="P70" s="1">
+        <v>17.734165000000001</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>141873322</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="H71" s="1">
+        <v>107.71528000000001</v>
+      </c>
+      <c r="I71" s="1">
+        <v>861722241.5</v>
+      </c>
+      <c r="J71" s="1">
+        <v>47.307139999999997</v>
+      </c>
+      <c r="K71" s="1">
+        <v>378457120</v>
+      </c>
+      <c r="N71" s="1">
+        <v>260.47150799999997</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2083772060.5</v>
+      </c>
+      <c r="P71" s="1">
+        <v>51.112361999999997</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>408898897.5</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="H72" s="1">
+        <v>2.2816749999999999</v>
+      </c>
+      <c r="I72" s="1">
+        <v>18253401</v>
+      </c>
+      <c r="J72" s="1">
+        <v>3.9177710000000001</v>
+      </c>
+      <c r="K72" s="1">
+        <v>31342166.5</v>
+      </c>
+      <c r="N72" s="1">
+        <v>1.9895620000000001</v>
+      </c>
+      <c r="O72" s="1">
+        <v>15916498</v>
+      </c>
+      <c r="P72" s="1">
+        <v>3.3670550000000001</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>26936437.5</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A111" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B112" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B113" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="36"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="O113" s="36"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>195068.773426</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1560550187406.5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>195197.94776899999</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1561583582150.5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>195434.63178</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1563477054238</v>
+      </c>
+      <c r="H114" s="1">
+        <v>182232.24763100001</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1457857981046</v>
+      </c>
+      <c r="L114" s="1">
+        <v>181947.11027199999</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1455576882174</v>
+      </c>
+      <c r="N114" s="1">
+        <v>181720.94249099999</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1453767539927.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A115" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="1">
+        <v>118.466221</v>
+      </c>
+      <c r="C115" s="1">
+        <v>947729770</v>
+      </c>
+      <c r="D115" s="1">
+        <v>111.177358</v>
+      </c>
+      <c r="E115" s="1">
+        <v>889418862</v>
+      </c>
+      <c r="F115" s="1">
+        <v>112.174053</v>
+      </c>
+      <c r="G115" s="1">
+        <v>897392426.5</v>
+      </c>
+      <c r="H115" s="1">
+        <v>122.027096</v>
+      </c>
+      <c r="I115" s="1">
+        <v>976216772</v>
+      </c>
+      <c r="L115" s="1">
+        <v>113.205917</v>
+      </c>
+      <c r="M115" s="1">
+        <v>905647335.5</v>
+      </c>
+      <c r="N115" s="1">
+        <v>116.306106</v>
+      </c>
+      <c r="O115" s="1">
+        <v>930448849.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>202.46380300000001</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1619710422</v>
+      </c>
+      <c r="D116" s="1">
+        <v>213.030585</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1704244676</v>
+      </c>
+      <c r="F116" s="1">
+        <v>242.602216</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1940817726.5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>36.531300000000002</v>
+      </c>
+      <c r="I116" s="1">
+        <v>292250400.5</v>
+      </c>
+      <c r="L116" s="1">
+        <v>46.082042000000001</v>
+      </c>
+      <c r="M116" s="1">
+        <v>368656335.5</v>
+      </c>
+      <c r="N116" s="1">
+        <v>54.025700999999998</v>
+      </c>
+      <c r="O116" s="1">
+        <v>432205611</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1">
+        <v>167.27607399999999</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1338208588.5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>164.59176600000001</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1316734128</v>
+      </c>
+      <c r="F117" s="1">
+        <v>189.06697199999999</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1512535774.5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>14.793008</v>
+      </c>
+      <c r="I117" s="1">
+        <v>118344060.5</v>
+      </c>
+      <c r="L117" s="1">
+        <v>10.728298000000001</v>
+      </c>
+      <c r="M117" s="1">
+        <v>85826388</v>
+      </c>
+      <c r="N117" s="1">
+        <v>12.151139000000001</v>
+      </c>
+      <c r="O117" s="1">
+        <v>97209115.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="F118" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:O112"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:M113"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -4747,7 +5265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4762,6 +5280,1539 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A88D281-643A-4E9B-9F4B-012EEE4003C4}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="38.0625" customWidth="1"/>
+    <col min="2" max="5" width="10.9375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.0625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>166847.96797200001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>164511.44744399999</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <f>C11/B11</f>
+        <v>0.98599611037281476</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D11/B11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f>E11/B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>239.10410999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>232.36093199999999</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G25" si="0">C12/B12</f>
+        <v>0.97179815102299993</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" ref="H12:H25" si="1">D12/B12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12:I25" si="2">E12/B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11272.769903</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10212.536187</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90594736474503545</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>22.076829</v>
+      </c>
+      <c r="C14" s="3">
+        <v>21.648422</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98059472218587185</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1069.1390019999999</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1035.319937</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96836794379707802</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>336.20340399999998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>342.18383699999998</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0177881393491186</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>12329.691015</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12520.292835</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0154587669527255</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="3">
+        <v>25003.898712999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>25375.968217000001</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0148804595743526</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="3">
+        <v>212196.626166</v>
+      </c>
+      <c r="C19" s="3">
+        <v>216416.53578000001</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0198867893907926</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="3">
+        <v>142868.96269300001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>143961.482376</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0076470050765862</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="3">
+        <v>116038.759842</v>
+      </c>
+      <c r="C21" s="3">
+        <v>116046.157701</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.000063753344228</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4541.433567</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4154.2523419999998</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91474471237156818</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3">
+        <v>49632.140122999997</v>
+      </c>
+      <c r="C23" s="3">
+        <v>48875.359435999999</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98475220522176721</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="3">
+        <v>27971.159758999998</v>
+      </c>
+      <c r="C24" s="3">
+        <v>26859.066644999999</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9602414371237441</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="3">
+        <v>21428.264673999998</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20367.121781000002</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95047928942713056</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="3">
+        <v>56627.978220999998</v>
+      </c>
+      <c r="C26" s="3">
+        <v>56732.869269000003</v>
+      </c>
+      <c r="D26" s="3">
+        <v>60233.552794000003</v>
+      </c>
+      <c r="E26" s="3">
+        <v>61247.294558000001</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <f>$B26/C26</f>
+        <v>0.99815114149255058</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" ref="H26:I26" si="3">$B26/D26</f>
+        <v>0.94014009790637543</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92457925904587346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A31" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>170431.33172700001</v>
+      </c>
+      <c r="C31" s="3">
+        <v>166132.93391600001</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3">
+        <f>C31/B31</f>
+        <v>0.97477929810531994</v>
+      </c>
+      <c r="H31" s="3">
+        <f>D31/B31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <f>E31/B31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3">
+        <v>246.187513</v>
+      </c>
+      <c r="C32" s="3">
+        <v>238.32734600000001</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <f t="shared" ref="G32:G45" si="4">C32/B32</f>
+        <v>0.96807243834499446</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" ref="H32:H45" si="5">D32/B32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" ref="I32:I45" si="6">E32/B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>12401.962014999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10541.896863</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85001847693532073</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>21.860008000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>21.531497999999999</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3">
+        <f t="shared" si="4"/>
+        <v>0.98497210065064933</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1106.1619639999999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1043.6002370000001</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
+        <f t="shared" si="4"/>
+        <v>0.94344252556490926</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A36" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>340.41882399999997</v>
+      </c>
+      <c r="C36" s="3">
+        <v>339.47076399999997</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99721501887333941</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A37" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <v>12663.687947</v>
+      </c>
+      <c r="C37" s="3">
+        <v>12460.571121000001</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <f t="shared" si="4"/>
+        <v>0.98396068926760649</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A38" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="3">
+        <v>25031.481509000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>25338.524481</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0122662724493396</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A39" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="3">
+        <v>216807.99714299999</v>
+      </c>
+      <c r="C39" s="3">
+        <v>220725.57765600001</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0180693542886987</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A40" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="3">
+        <v>143633.93973300001</v>
+      </c>
+      <c r="C40" s="3">
+        <v>147039.35814299999</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0237090092796333</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A41" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="3">
+        <v>117829.182304</v>
+      </c>
+      <c r="C41" s="3">
+        <v>117827.281038</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99998386421799057</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A42" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6048.1515259999996</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5073.9570089999997</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
+        <f t="shared" si="4"/>
+        <v>0.83892689976233248</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A43" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="3">
+        <v>52672.795965999998</v>
+      </c>
+      <c r="C43" s="3">
+        <v>50317.428750999999</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95528304180927903</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A44" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="3">
+        <v>31077.086698999999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>28695.697941999999</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92337155731278286</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A45" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="3">
+        <v>24257.744535000002</v>
+      </c>
+      <c r="C45" s="3">
+        <v>22042.544452999999</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <f t="shared" si="4"/>
+        <v>0.90868070694685454</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="3">
+        <v>55782.021768999999</v>
+      </c>
+      <c r="C46" s="3">
+        <v>56507.624079000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>60059.940265999998</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60382.506581000001</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
+        <f>$B46/C46</f>
+        <v>0.9871592139675599</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" ref="H46:I46" si="7">$B46/D46</f>
+        <v>0.92877251495666679</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92381096657806527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A49" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A51" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>171842.887613</v>
+      </c>
+      <c r="C51" s="3">
+        <v>168949.45337999999</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <f>C51/B51</f>
+        <v>0.98316232767505518</v>
+      </c>
+      <c r="H51" s="3">
+        <f>D51/B51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <f>E51/B51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A52" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3">
+        <v>248.64740900000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>241.21453700000001</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <f t="shared" ref="G52:G65" si="8">C52/B52</f>
+        <v>0.97010677879213292</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" ref="H52:H65" si="9">D52/B52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" ref="I52:I65" si="10">E52/B52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A53" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3">
+        <v>12945.204102</v>
+      </c>
+      <c r="C53" s="3">
+        <v>10909.575369</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <f t="shared" si="8"/>
+        <v>0.84275035627398875</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A54" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="3">
+        <v>21.788042999999998</v>
+      </c>
+      <c r="C54" s="3">
+        <v>21.452597000000001</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98460412438143263</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A55" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1115.344392</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1080.716604</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96895327734789916</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A56" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3">
+        <v>340.382856</v>
+      </c>
+      <c r="C56" s="3">
+        <v>347.03317199999998</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0195377525124238</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A57" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3">
+        <v>12716.988028</v>
+      </c>
+      <c r="C57" s="3">
+        <v>12765.182418</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0037897645176583</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A58" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="3">
+        <v>25402.050793999999</v>
+      </c>
+      <c r="C58" s="3">
+        <v>25817.776168</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0163658193336971</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A59" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="3">
+        <v>224660.61070399999</v>
+      </c>
+      <c r="C59" s="3">
+        <v>222551.54583799999</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99061221787214504</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A60" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="3">
+        <v>146681.24289600001</v>
+      </c>
+      <c r="C60" s="3">
+        <v>147286.49313399999</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0041262960829225</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A61" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="3">
+        <v>117964.001806</v>
+      </c>
+      <c r="C61" s="3">
+        <v>117965.13305600001</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0000095897899588</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A62" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="3">
+        <v>6984.6520630000005</v>
+      </c>
+      <c r="C62" s="3">
+        <v>5829.3974870000002</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
+        <f t="shared" si="8"/>
+        <v>0.83460098433252472</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A63" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="3">
+        <v>53772.161462999997</v>
+      </c>
+      <c r="C63" s="3">
+        <v>50837.933317000003</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94543220755559543</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A64" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="3">
+        <v>31753.117034999999</v>
+      </c>
+      <c r="C64" s="3">
+        <v>29480.163498000002</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92841793974132913</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A65" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="3">
+        <v>24932.306159</v>
+      </c>
+      <c r="C65" s="3">
+        <v>22950.687354000002</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92052003563718965</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="3">
+        <v>55544.206700000002</v>
+      </c>
+      <c r="C66" s="3">
+        <v>56041.229418000003</v>
+      </c>
+      <c r="D66" s="3">
+        <v>59432.289245</v>
+      </c>
+      <c r="E66" s="3">
+        <v>59903.221423000003</v>
+      </c>
+      <c r="G66" s="3">
+        <f>$B66/C66</f>
+        <v>0.99113112393925529</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" ref="H66:I66" si="11">$B66/D66</f>
+        <v>0.93457962675857886</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="11"/>
+        <v>0.9272323821749201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36A5F6E-BDE1-47B9-98DD-5F638B8FC3A2}">
   <dimension ref="A1:P177"/>
   <sheetViews>
@@ -9684,14 +11735,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="O47:P47"/>
@@ -9708,13 +11751,21 @@
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B98BA9-6D5F-43A5-B1C1-4803FF720BC6}">
   <dimension ref="A1:I67"/>
   <sheetViews>
@@ -10602,7 +12653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1443D522-44B0-46C0-9B63-69258F3E2B66}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -10816,7 +12867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -11558,7 +13609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -12960,7 +15011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -14520,7 +16571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
@@ -16079,1673 +18130,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S118"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="37.3125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.3125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.3125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.8125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.8125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B1" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>140403.96484500001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1123231718763.5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>145435.15202400001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1163481216192.5</v>
-      </c>
-      <c r="F4" s="7">
-        <v>140926.72194799999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1127413775585.5</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I12" si="0">E4/C4</f>
-        <v>1.0358336545849225</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L12" si="1">G4/C4</f>
-        <v>1.0037232360448329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>28.554079999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>228432639.5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>26.626676</v>
-      </c>
-      <c r="E5" s="1">
-        <v>213013409</v>
-      </c>
-      <c r="F5" s="7">
-        <v>14.53087</v>
-      </c>
-      <c r="G5" s="1">
-        <v>116246957.5</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.93249988034218723</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.50888943784235352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7">
-        <v>10.944258</v>
-      </c>
-      <c r="C6" s="1">
-        <v>87554067</v>
-      </c>
-      <c r="D6" s="7">
-        <v>12.925743000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>103405943</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5.9714359999999997</v>
-      </c>
-      <c r="G6" s="1">
-        <v>47771488</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.181052423298623</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.54562271790298444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7">
-        <v>10.943394</v>
-      </c>
-      <c r="C7" s="1">
-        <v>87547152.5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>12.925741</v>
-      </c>
-      <c r="E7" s="1">
-        <v>103405928.5</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5.9696889999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>47757510</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1811455375433255</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.54550614881506287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7">
-        <v>773.14375399999994</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6185150034.5</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1124.52547</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8996203760</v>
-      </c>
-      <c r="F9" s="7">
-        <v>428.18488100000002</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3425479049</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4544843229057163</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.55382311340761381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7">
-        <v>8.1999999999999998E-4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6562.5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.4607999999999999E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>116865.5</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3333333333333332E-3</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="1"/>
-        <v>17.808076190476189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G11" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4634146341463414</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3414634146341464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7">
-        <v>50.312914999999997</v>
-      </c>
-      <c r="C12" s="1">
-        <v>402503318</v>
-      </c>
-      <c r="D12" s="7">
-        <v>625.74868200000003</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5005989457.5</v>
-      </c>
-      <c r="F12" s="7">
-        <v>53.105401000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>424843206.5</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>12.437138362919036</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0555023710388396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="D14" s="1">
-        <v>140447.25551799999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1123578044142</v>
-      </c>
-      <c r="F14" s="1">
-        <v>139853.61392999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1118828911444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="D15" s="1">
-        <v>10.607939999999999</v>
-      </c>
-      <c r="E15" s="1">
-        <v>84863516.5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>15.165372</v>
-      </c>
-      <c r="G15" s="1">
-        <v>121322979.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="D16" s="1">
-        <v>3.6480079999999999</v>
-      </c>
-      <c r="E16" s="1">
-        <v>29184064</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5.9287380000000001</v>
-      </c>
-      <c r="G16" s="1">
-        <v>47429904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D17" s="1">
-        <v>3.6466409999999998</v>
-      </c>
-      <c r="E17" s="1">
-        <v>29173127</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5.9264429999999999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>47411542.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D19" s="1">
-        <v>375.49195500000002</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3003935643.5</v>
-      </c>
-      <c r="F19" s="1">
-        <v>415.12147900000002</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3320971828.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D20" s="1">
-        <v>1.639E-3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>13115.5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2.1970000000000002E-3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>17574.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D21" s="1">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>30.5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="G21" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D22" s="1">
-        <v>50.376511999999998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>403012099.5</v>
-      </c>
-      <c r="F22" s="1">
-        <v>53.54824</v>
-      </c>
-      <c r="G22" s="1">
-        <v>428385921.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>140257.80593900001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1122062447509</v>
-      </c>
-      <c r="D26" s="1">
-        <v>145324.73734699999</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1162597898772</v>
-      </c>
-      <c r="F26" s="1">
-        <v>140276.67872600001</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1122213429805</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>29.669802000000001</v>
-      </c>
-      <c r="C27" s="1">
-        <v>237358413</v>
-      </c>
-      <c r="D27" s="1">
-        <v>29.022438999999999</v>
-      </c>
-      <c r="E27" s="1">
-        <v>232179510.5</v>
-      </c>
-      <c r="F27" s="1">
-        <v>14.434578</v>
-      </c>
-      <c r="G27" s="1">
-        <v>115476625.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1">
-        <v>11.658239</v>
-      </c>
-      <c r="C28" s="1">
-        <v>93265915.5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>14.327204</v>
-      </c>
-      <c r="E28" s="1">
-        <v>114617629</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5.8368130000000003</v>
-      </c>
-      <c r="G28" s="1">
-        <v>46694506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="1">
-        <v>11.657295</v>
-      </c>
-      <c r="C29" s="1">
-        <v>93258359.5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>14.327204</v>
-      </c>
-      <c r="E29" s="1">
-        <v>114617632</v>
-      </c>
-      <c r="F29" s="1">
-        <v>5.8348409999999999</v>
-      </c>
-      <c r="G29" s="1">
-        <v>46678731.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1">
-        <v>745.68917099999999</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5965513365</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1120.1487569999999</v>
-      </c>
-      <c r="E31" s="1">
-        <v>8961190053.5</v>
-      </c>
-      <c r="F31" s="1">
-        <v>425.86830200000003</v>
-      </c>
-      <c r="G31" s="1">
-        <v>3406946415.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.1130000000000001E-3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>8907.5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E32" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1.6962999999999999E-2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>135706.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="E33" s="1">
-        <v>27</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G33" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1">
-        <v>50.099004000000001</v>
-      </c>
-      <c r="C34" s="1">
-        <v>400792030.5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>623.11886000000004</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4984950884</v>
-      </c>
-      <c r="F34" s="1">
-        <v>52.988903000000001</v>
-      </c>
-      <c r="G34" s="1">
-        <v>423911223.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A36" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>877280361133</v>
-      </c>
-      <c r="E38" s="1">
-        <v>878772319920</v>
-      </c>
-      <c r="G38" s="1">
-        <v>877464443912</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>210538810</v>
-      </c>
-      <c r="E39" s="1">
-        <v>356654916</v>
-      </c>
-      <c r="G39" s="1">
-        <v>195628734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1">
-        <v>123363462</v>
-      </c>
-      <c r="E40" s="1">
-        <v>228892890</v>
-      </c>
-      <c r="G40" s="1">
-        <v>119632667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1">
-        <v>123361377</v>
-      </c>
-      <c r="E41" s="1">
-        <v>228890858</v>
-      </c>
-      <c r="G41" s="1">
-        <v>119630592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A42" s="3"/>
-      <c r="C42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>6461413845</v>
-      </c>
-      <c r="E43" s="1">
-        <v>6913162471</v>
-      </c>
-      <c r="G43" s="1">
-        <v>6144949457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2204</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2035</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="1">
-        <v>36</v>
-      </c>
-      <c r="E45" s="1">
-        <v>36</v>
-      </c>
-      <c r="G45" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>389807917</v>
-      </c>
-      <c r="E46" s="1">
-        <v>400868717</v>
-      </c>
-      <c r="G46" s="1">
-        <v>402446396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A48" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>871244430240</v>
-      </c>
-      <c r="E50" s="1">
-        <v>873092484000</v>
-      </c>
-      <c r="G50" s="1">
-        <v>876277641654</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="1">
-        <v>267775344</v>
-      </c>
-      <c r="E51" s="1">
-        <v>282166725</v>
-      </c>
-      <c r="G51" s="1">
-        <v>300150254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1">
-        <v>234927028</v>
-      </c>
-      <c r="E52" s="1">
-        <v>159258654</v>
-      </c>
-      <c r="G52" s="1">
-        <v>228684685</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1">
-        <v>6771054688</v>
-      </c>
-      <c r="E53" s="1">
-        <v>4906600808</v>
-      </c>
-      <c r="G53" s="1">
-        <v>6541289608</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="C54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>875340767324</v>
-      </c>
-      <c r="E55" s="1">
-        <v>872419782151</v>
-      </c>
-      <c r="G55" s="1">
-        <v>874985735564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="1">
-        <v>96131410</v>
-      </c>
-      <c r="E56" s="1">
-        <v>156266036</v>
-      </c>
-      <c r="G56" s="1">
-        <v>129438461</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1647</v>
-      </c>
-      <c r="E57" s="1">
-        <v>2073</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1">
-        <v>409185728</v>
-      </c>
-      <c r="E58" s="1">
-        <v>401573373</v>
-      </c>
-      <c r="G58" s="1">
-        <v>398384398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A60" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B62" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q62" s="36"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q63" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>195803.602495</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1566428819961.5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>184751.27264400001</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1478010181151.5</v>
-      </c>
-      <c r="F64" s="1">
-        <v>176839.86805200001</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1414718944417</v>
-      </c>
-      <c r="H64" s="1">
-        <v>165473.61220599999</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1323788897647</v>
-      </c>
-      <c r="J64" s="1">
-        <v>164597.635839</v>
-      </c>
-      <c r="K64" s="1">
-        <v>1316781086715.5</v>
-      </c>
-      <c r="L64" s="1">
-        <v>139579.99488799999</v>
-      </c>
-      <c r="M64" s="1">
-        <v>1116639959108</v>
-      </c>
-      <c r="N64" s="1">
-        <v>138231.978798</v>
-      </c>
-      <c r="O64" s="1">
-        <v>1105855830385</v>
-      </c>
-      <c r="P64" s="1">
-        <v>136578.52948699999</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>1092628235895</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="1">
-        <v>113.508774</v>
-      </c>
-      <c r="C65" s="1">
-        <v>908070188</v>
-      </c>
-      <c r="D65" s="1">
-        <v>115.561043</v>
-      </c>
-      <c r="E65" s="1">
-        <v>924488348</v>
-      </c>
-      <c r="F65" s="1">
-        <v>135.76726400000001</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1086138112.5</v>
-      </c>
-      <c r="H65" s="1">
-        <v>137.042925</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1096343404</v>
-      </c>
-      <c r="J65" s="1">
-        <v>134.14905899999999</v>
-      </c>
-      <c r="K65" s="1">
-        <v>1073192474</v>
-      </c>
-      <c r="L65" s="1">
-        <v>186.75927200000001</v>
-      </c>
-      <c r="M65" s="1">
-        <v>1494074172.5</v>
-      </c>
-      <c r="N65" s="1">
-        <v>186.79355100000001</v>
-      </c>
-      <c r="O65" s="1">
-        <v>1494348410</v>
-      </c>
-      <c r="P65" s="1">
-        <v>190.30417299999999</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>1522433383.5</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="1">
-        <v>187.79291799999999</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1502343342</v>
-      </c>
-      <c r="D66" s="1">
-        <v>28.449394999999999</v>
-      </c>
-      <c r="E66" s="1">
-        <v>227595159.5</v>
-      </c>
-      <c r="F66" s="1">
-        <v>208.95451299999999</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1671636107</v>
-      </c>
-      <c r="H66" s="1">
-        <v>17.013721</v>
-      </c>
-      <c r="I66" s="1">
-        <v>136109766.5</v>
-      </c>
-      <c r="J66" s="1">
-        <v>15.803006</v>
-      </c>
-      <c r="K66" s="1">
-        <v>126424051</v>
-      </c>
-      <c r="L66" s="1">
-        <v>67.045439999999999</v>
-      </c>
-      <c r="M66" s="1">
-        <v>536363520.5</v>
-      </c>
-      <c r="N66" s="1">
-        <v>50.960827999999999</v>
-      </c>
-      <c r="O66" s="1">
-        <v>407686620.5</v>
-      </c>
-      <c r="P66" s="1">
-        <v>45.757987999999997</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>366063906.5</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="1">
-        <v>151.39014800000001</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1211121183.5</v>
-      </c>
-      <c r="D67" s="1">
-        <v>10.088628</v>
-      </c>
-      <c r="E67" s="1">
-        <v>80709025</v>
-      </c>
-      <c r="F67" s="1">
-        <v>170.51944800000001</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1364155586.5</v>
-      </c>
-      <c r="H67" s="1">
-        <v>4.4505590000000002</v>
-      </c>
-      <c r="I67" s="1">
-        <v>35604475</v>
-      </c>
-      <c r="J67" s="1">
-        <v>3.8737849999999998</v>
-      </c>
-      <c r="K67" s="1">
-        <v>30990281.5</v>
-      </c>
-      <c r="L67" s="1">
-        <v>36.114871999999998</v>
-      </c>
-      <c r="M67" s="1">
-        <v>288918979.5</v>
-      </c>
-      <c r="N67" s="1">
-        <v>21.993981000000002</v>
-      </c>
-      <c r="O67" s="1">
-        <v>175951846</v>
-      </c>
-      <c r="P67" s="1">
-        <v>18.998203</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>151985624.5</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="H69" s="1">
-        <v>165490.956049</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1323927648394</v>
-      </c>
-      <c r="J69" s="1">
-        <v>164402.17560799999</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1315217404866</v>
-      </c>
-      <c r="N69" s="1">
-        <v>138358.071375</v>
-      </c>
-      <c r="O69" s="1">
-        <v>1106864571002</v>
-      </c>
-      <c r="P69" s="1">
-        <v>136311.46108099999</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>1090491688645</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="H70" s="1">
-        <v>4.3720699999999999</v>
-      </c>
-      <c r="I70" s="1">
-        <v>34976561</v>
-      </c>
-      <c r="J70" s="1">
-        <v>3.8909829999999999</v>
-      </c>
-      <c r="K70" s="1">
-        <v>31127864</v>
-      </c>
-      <c r="N70" s="1">
-        <v>21.489221000000001</v>
-      </c>
-      <c r="O70" s="1">
-        <v>171913765</v>
-      </c>
-      <c r="P70" s="1">
-        <v>17.734165000000001</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>141873322</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="H71" s="1">
-        <v>107.71528000000001</v>
-      </c>
-      <c r="I71" s="1">
-        <v>861722241.5</v>
-      </c>
-      <c r="J71" s="1">
-        <v>47.307139999999997</v>
-      </c>
-      <c r="K71" s="1">
-        <v>378457120</v>
-      </c>
-      <c r="N71" s="1">
-        <v>260.47150799999997</v>
-      </c>
-      <c r="O71" s="1">
-        <v>2083772060.5</v>
-      </c>
-      <c r="P71" s="1">
-        <v>51.112361999999997</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>408898897.5</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="H72" s="1">
-        <v>2.2816749999999999</v>
-      </c>
-      <c r="I72" s="1">
-        <v>18253401</v>
-      </c>
-      <c r="J72" s="1">
-        <v>3.9177710000000001</v>
-      </c>
-      <c r="K72" s="1">
-        <v>31342166.5</v>
-      </c>
-      <c r="N72" s="1">
-        <v>1.9895620000000001</v>
-      </c>
-      <c r="O72" s="1">
-        <v>15916498</v>
-      </c>
-      <c r="P72" s="1">
-        <v>3.3670550000000001</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>26936437.5</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A111" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B112" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="36"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="36"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B113" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I113" s="36"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="M113" s="36"/>
-      <c r="N113" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="O113" s="36"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>195068.773426</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1560550187406.5</v>
-      </c>
-      <c r="D114" s="1">
-        <v>195197.94776899999</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1561583582150.5</v>
-      </c>
-      <c r="F114" s="1">
-        <v>195434.63178</v>
-      </c>
-      <c r="G114" s="1">
-        <v>1563477054238</v>
-      </c>
-      <c r="H114" s="1">
-        <v>182232.24763100001</v>
-      </c>
-      <c r="I114" s="1">
-        <v>1457857981046</v>
-      </c>
-      <c r="L114" s="1">
-        <v>181947.11027199999</v>
-      </c>
-      <c r="M114" s="1">
-        <v>1455576882174</v>
-      </c>
-      <c r="N114" s="1">
-        <v>181720.94249099999</v>
-      </c>
-      <c r="O114" s="1">
-        <v>1453767539927.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A115" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B115" s="1">
-        <v>118.466221</v>
-      </c>
-      <c r="C115" s="1">
-        <v>947729770</v>
-      </c>
-      <c r="D115" s="1">
-        <v>111.177358</v>
-      </c>
-      <c r="E115" s="1">
-        <v>889418862</v>
-      </c>
-      <c r="F115" s="1">
-        <v>112.174053</v>
-      </c>
-      <c r="G115" s="1">
-        <v>897392426.5</v>
-      </c>
-      <c r="H115" s="1">
-        <v>122.027096</v>
-      </c>
-      <c r="I115" s="1">
-        <v>976216772</v>
-      </c>
-      <c r="L115" s="1">
-        <v>113.205917</v>
-      </c>
-      <c r="M115" s="1">
-        <v>905647335.5</v>
-      </c>
-      <c r="N115" s="1">
-        <v>116.306106</v>
-      </c>
-      <c r="O115" s="1">
-        <v>930448849.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="1">
-        <v>202.46380300000001</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1619710422</v>
-      </c>
-      <c r="D116" s="1">
-        <v>213.030585</v>
-      </c>
-      <c r="E116" s="1">
-        <v>1704244676</v>
-      </c>
-      <c r="F116" s="1">
-        <v>242.602216</v>
-      </c>
-      <c r="G116" s="1">
-        <v>1940817726.5</v>
-      </c>
-      <c r="H116" s="1">
-        <v>36.531300000000002</v>
-      </c>
-      <c r="I116" s="1">
-        <v>292250400.5</v>
-      </c>
-      <c r="L116" s="1">
-        <v>46.082042000000001</v>
-      </c>
-      <c r="M116" s="1">
-        <v>368656335.5</v>
-      </c>
-      <c r="N116" s="1">
-        <v>54.025700999999998</v>
-      </c>
-      <c r="O116" s="1">
-        <v>432205611</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="1">
-        <v>167.27607399999999</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1338208588.5</v>
-      </c>
-      <c r="D117" s="1">
-        <v>164.59176600000001</v>
-      </c>
-      <c r="E117" s="1">
-        <v>1316734128</v>
-      </c>
-      <c r="F117" s="1">
-        <v>189.06697199999999</v>
-      </c>
-      <c r="G117" s="1">
-        <v>1512535774.5</v>
-      </c>
-      <c r="H117" s="1">
-        <v>14.793008</v>
-      </c>
-      <c r="I117" s="1">
-        <v>118344060.5</v>
-      </c>
-      <c r="L117" s="1">
-        <v>10.728298000000001</v>
-      </c>
-      <c r="M117" s="1">
-        <v>85826388</v>
-      </c>
-      <c r="N117" s="1">
-        <v>12.151139000000001</v>
-      </c>
-      <c r="O117" s="1">
-        <v>97209115.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="F118" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="H112:O112"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B61:E61"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9B638BAA-1070-4CCD-8969-C47F3BA0032B}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A99D003D-DD4B-4D69-AA20-A8699621672A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-superpg-reconnect" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="217">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -687,6 +687,15 @@
   </si>
   <si>
     <t>5GB database</t>
+  </si>
+  <si>
+    <t>read-only tests</t>
+  </si>
+  <si>
+    <t>read-write tests</t>
+  </si>
+  <si>
+    <t>ssh -n yz70@virt02-rca.cs.rice.edu pgbench -C -j 2 --builtin=tpcb-like -c $CLIENTS_NUM -t 40000 -S $DATABASE -h 10.79.20.116 -U ro    ot</t>
   </si>
 </sst>
 </file>
@@ -698,7 +707,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -772,6 +781,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -817,7 +834,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -861,6 +878,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,7 +897,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1169,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2880A763-3C60-4ECB-92B6-1917CF6D970B}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1186,526 +1204,987 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.65">
+      <c r="A2" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="28" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="37" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.5">
-      <c r="B9" s="27" t="s">
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="B10" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C10" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E10" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H10" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I10" s="27" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4718997.94575</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3920022.6505749999</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4322131.6379749998</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3594210.6793419998</v>
-      </c>
-      <c r="G10" s="3">
-        <f>C10/B10</f>
-        <v>0.8306896285270543</v>
-      </c>
-      <c r="H10" s="3">
-        <f>D10/B10</f>
-        <v>0.91590030079745555</v>
-      </c>
-      <c r="I10" s="3">
-        <f>E10/B10</f>
-        <v>0.7616470107979173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="29" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>2475.3143949999999</v>
+        <v>4718997.94575</v>
       </c>
       <c r="C11" s="3">
-        <v>2149.0404370000001</v>
+        <v>3920022.6505749999</v>
       </c>
       <c r="D11" s="3">
-        <v>2385.5746370000002</v>
+        <v>4322131.6379749998</v>
       </c>
       <c r="E11" s="3">
-        <v>2073.4485030000001</v>
+        <v>3594210.6793419998</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ref="G11:G24" si="0">C11/B11</f>
-        <v>0.86818888192180543</v>
+        <f>C11/B11</f>
+        <v>0.8306896285270543</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H24" si="1">D11/B11</f>
-        <v>0.96374611718767156</v>
+        <f>D11/B11</f>
+        <v>0.91590030079745555</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" ref="I11:I24" si="2">E11/B11</f>
-        <v>0.83765056559613316</v>
+        <f>E11/B11</f>
+        <v>0.7616470107979173</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2475.3143949999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2149.0404370000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2385.5746370000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2073.4485030000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G25" si="0">C12/B12</f>
+        <v>0.86818888192180543</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" ref="H12:H25" si="1">D12/B12</f>
+        <v>0.96374611718767156</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12:I25" si="2">E12/B12</f>
+        <v>0.83765056559613316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>220662.41952699999</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>148569.93176000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>212778.74656999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>144840.661222</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>0.67329059510208611</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>0.9642726977529793</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="2"/>
         <v>0.65639025227980641</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="29" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>1191.0242149999999</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>1111.1960899999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>1197.7867799999999</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>1119.0801899999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>0.9329752292231942</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>1.0056779408133192</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="2"/>
         <v>0.93959482595406341</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="29" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>57754.198665000004</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>52553.155832999997</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>57984.613772999997</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>52986.87586</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>0.90994519961798159</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>1.0039895819408127</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="2"/>
         <v>0.91745495712523706</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="29" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>1966.28207</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>2155.791565</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>883.700965</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>1036.348035</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>1.0963796079369224</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>0.44942736267742095</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="2"/>
         <v>0.52705969851009216</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="29" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>150832.12739000001</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>134314.03226199999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>74694.563037</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>70642.748315000004</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>0.89048689152749338</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>0.49521653197839971</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="2"/>
         <v>0.46835345716726617</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="29" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>420665.181255</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>317396.97671199997</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>198326.18532700001</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>169316.90014499999</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>0.75451211760642334</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>0.47145852370124752</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="2"/>
         <v>0.40249801431120347</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A18" s="29" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>22525024.273832001</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>12110229.194977</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>21947450.591545001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>11546632.393990001</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
         <v>0.53763445702679302</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>0.97435857669827308</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <f t="shared" si="2"/>
         <v>0.51261353833052559</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="29" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>27509971.748360001</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>7674816.8858399997</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>27263075.178964999</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>7424770.1600599997</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>0.27898308860668064</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>0.99102519727561256</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <f t="shared" si="2"/>
         <v>0.26989377626324262</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="29" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>1942008.9419170001</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>1941095.907347</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>1941326.7013900001</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>1942129.2855450001</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>0.99952985048096699</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
         <v>0.99964869341624829</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <f t="shared" si="2"/>
         <v>1.0000619686271275</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A21" s="29" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>824021.34280300001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>418776.51726699999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>779434.86805499997</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>408001.58095999999</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>0.50821076532130249</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
         <v>0.94589160203504652</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="2"/>
         <v>0.49513472499648775</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A22" s="29" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>1634062.59962</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>1206407.21138</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>1502566.6684350001</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>1109219.767278</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>0.73828702257829604</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
         <v>0.9195282168409098</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="2"/>
         <v>0.67881106117718393</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A23" s="29" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>1087021.7051669999</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>679611.03157500003</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>1021683.57734</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>655245.64539199998</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <f t="shared" si="0"/>
         <v>0.62520465630499156</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
         <v>0.93989252696940206</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="2"/>
         <v>0.60278984520491619</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" s="29" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>995608.63456499996</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>599566.45110499999</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>937830.74969700002</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>579860.809045</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
         <v>0.60221097958532854</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <f t="shared" si="1"/>
         <v>0.94196727221711551</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <f t="shared" si="2"/>
         <v>0.58241842116842635</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>469.30447700000002</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>793.92536900000005</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>477.063738</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>832.47481200000004</v>
       </c>
-      <c r="G25" s="3">
-        <f>B25/C25</f>
+      <c r="G26" s="3">
+        <f>B26/C26</f>
         <v>0.59111913452409148</v>
       </c>
-      <c r="H25" s="3">
-        <f>B25/D25</f>
+      <c r="H26" s="3">
+        <f>B26/D26</f>
         <v>0.98373537877238537</v>
       </c>
-      <c r="I25" s="3">
-        <f>B25/E25</f>
+      <c r="I26" s="3">
+        <f>B26/E26</f>
         <v>0.56374615812400097</v>
       </c>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.65">
+      <c r="A29" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A36" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="63" x14ac:dyDescent="0.5">
+      <c r="B38" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A39" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6111050.2242700001</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5390048.4158469997</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5666120.1549669998</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5003206.323415</v>
+      </c>
+      <c r="G39" s="3">
+        <f>C39/B39</f>
+        <v>0.88201671039135865</v>
+      </c>
+      <c r="H39" s="3">
+        <f>D39/B39</f>
+        <v>0.92719253598408291</v>
+      </c>
+      <c r="I39" s="3">
+        <f>E39/B39</f>
+        <v>0.81871464638676927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A40" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3663.9021950000001</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2993.0849750000002</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3512.9047300000002</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2971.243348</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40:G53" si="3">C40/B40</f>
+        <v>0.81691181033286286</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40:H53" si="4">D40/B40</f>
+        <v>0.95878780137579522</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" ref="I40:I53" si="5">E40/B40</f>
+        <v>0.81095050846465078</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A41" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>341695.74389500002</v>
+      </c>
+      <c r="C41" s="3">
+        <v>218763.71336200001</v>
+      </c>
+      <c r="D41" s="3">
+        <v>333435.33805700002</v>
+      </c>
+      <c r="E41" s="3">
+        <v>219758.525043</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64022955295932538</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="4"/>
+        <v>0.975825259794461</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="5"/>
+        <v>0.64314094913201436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1346.0699500000001</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1226.441018</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1351.0735950000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1237.779393</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="3"/>
+        <v>0.91112725456801102</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0037172250966602</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="5"/>
+        <v>0.91955057239038729</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A43" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3">
+        <v>68877.901010000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>63045.649384999997</v>
+      </c>
+      <c r="D43" s="3">
+        <v>68808.805259999994</v>
+      </c>
+      <c r="E43" s="3">
+        <v>63574.901319999997</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.91532477704055981</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99899683717147569</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="5"/>
+        <v>0.92300869201530844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A44" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3118.3008129999998</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3281.8555249999999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1164.4363530000001</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1366.5624150000001</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0524499468807342</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="4"/>
+        <v>0.37342014860963324</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="5"/>
+        <v>0.4382394441558965</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A45" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3">
+        <v>227009.16888799999</v>
+      </c>
+      <c r="C45" s="3">
+        <v>205887.69843700001</v>
+      </c>
+      <c r="D45" s="3">
+        <v>101529.67494</v>
+      </c>
+      <c r="E45" s="3">
+        <v>98988.183262999999</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.90695763279314623</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44724922538301487</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="5"/>
+        <v>0.43605367901169673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A46" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="3">
+        <v>583678.70928199997</v>
+      </c>
+      <c r="C46" s="3">
+        <v>479092.21377799998</v>
+      </c>
+      <c r="D46" s="3">
+        <v>257640.11345500001</v>
+      </c>
+      <c r="E46" s="3">
+        <v>228864.61869800001</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="3"/>
+        <v>0.82081495548697525</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44140742048297521</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="5"/>
+        <v>0.39210719023747326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A47" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="3">
+        <v>25345511.329992</v>
+      </c>
+      <c r="C47" s="3">
+        <v>14660559.975827999</v>
+      </c>
+      <c r="D47" s="3">
+        <v>24565761.493276998</v>
+      </c>
+      <c r="E47" s="3">
+        <v>13812086.979924999</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="3"/>
+        <v>0.57842825835909573</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="4"/>
+        <v>0.96923519014618165</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="5"/>
+        <v>0.54495199564511443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A48" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="3">
+        <v>28729476.029723</v>
+      </c>
+      <c r="C48" s="3">
+        <v>8906967.1220720001</v>
+      </c>
+      <c r="D48" s="3">
+        <v>28454050.239682999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8613256.2012200002</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="3"/>
+        <v>0.31002887462538514</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99041312867122777</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="5"/>
+        <v>0.29980554439311319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A49" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2775406.9680699999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2775633.5962530002</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2774520.6994019998</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2771758.4381030002</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0000816558384438</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="4"/>
+        <v>0.99968067073470801</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9986854072181216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A50" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1038172.5845530001</v>
+      </c>
+      <c r="C50" s="3">
+        <v>655105.31216700003</v>
+      </c>
+      <c r="D50" s="3">
+        <v>997930.20627199998</v>
+      </c>
+      <c r="E50" s="3">
+        <v>640757.26869699999</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="3"/>
+        <v>0.63101773434815267</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="4"/>
+        <v>0.96123729437690075</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="5"/>
+        <v>0.6171972543205686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A51" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="3">
+        <v>421.35665399999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>709.51681599999995</v>
+      </c>
+      <c r="D51" s="3">
+        <v>431.13994600000001</v>
+      </c>
+      <c r="E51" s="3">
+        <v>753.23663299999998</v>
+      </c>
+      <c r="G51" s="3">
+        <f>B51/C51</f>
+        <v>0.59386422491782076</v>
+      </c>
+      <c r="H51" s="3">
+        <f>B51/D51</f>
+        <v>0.97730831464176127</v>
+      </c>
+      <c r="I51" s="3">
+        <f>B51/E51</f>
+        <v>0.55939479778328838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A52" s="29"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A53" s="29"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1743,18 +2222,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
@@ -2159,18 +2638,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
+      <c r="E24" s="37"/>
+      <c r="F24" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
@@ -2680,62 +3159,62 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="3"/>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36" t="s">
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="36" t="s">
+      <c r="L61" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36" t="s">
+      <c r="C62" s="37"/>
+      <c r="D62" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36" t="s">
+      <c r="E62" s="37"/>
+      <c r="F62" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36" t="s">
+      <c r="G62" s="37"/>
+      <c r="H62" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36" t="s">
+      <c r="I62" s="37"/>
+      <c r="J62" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36" t="s">
+      <c r="K62" s="37"/>
+      <c r="L62" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36" t="s">
+      <c r="M62" s="37"/>
+      <c r="N62" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36" t="s">
+      <c r="O62" s="37"/>
+      <c r="P62" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="36"/>
+      <c r="Q62" s="37"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B63" s="6" t="s">
@@ -3133,52 +3612,52 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36" t="s">
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="36"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="36"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="37"/>
+      <c r="O112" s="37"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36" t="s">
+      <c r="C113" s="37"/>
+      <c r="D113" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36" t="s">
+      <c r="E113" s="37"/>
+      <c r="F113" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36" t="s">
+      <c r="G113" s="37"/>
+      <c r="H113" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="36"/>
+      <c r="I113" s="37"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="36" t="s">
+      <c r="L113" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="M113" s="36"/>
-      <c r="N113" s="36" t="s">
+      <c r="M113" s="37"/>
+      <c r="N113" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="36"/>
+      <c r="O113" s="37"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
@@ -3351,18 +3830,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="N113:O113"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="H112:O112"/>
@@ -3376,6 +3843,18 @@
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="L113:M113"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5283,7 +5762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A88D281-643A-4E9B-9F4B-012EEE4003C4}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -6855,33 +7334,33 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="31" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="P5" s="31"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
@@ -7936,36 +8415,36 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="31" t="s">
+      <c r="L25" s="34"/>
+      <c r="M25" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31" t="s">
+      <c r="N25" s="32"/>
+      <c r="O25" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="31"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" s="2"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="24" t="s">
         <v>181</v>
       </c>
@@ -9062,36 +9541,36 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="32" t="s">
+      <c r="K47" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="L47" s="33"/>
-      <c r="M47" s="31" t="s">
+      <c r="L47" s="34"/>
+      <c r="M47" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31" t="s">
+      <c r="N47" s="32"/>
+      <c r="O47" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="P47" s="31"/>
+      <c r="P47" s="32"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48" s="2"/>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31" t="s">
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="24" t="s">
         <v>181</v>
       </c>
@@ -10181,36 +10660,36 @@
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="K68" s="32" t="s">
+      <c r="K68" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="L68" s="33"/>
-      <c r="M68" s="31" t="s">
+      <c r="L68" s="34"/>
+      <c r="M68" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31" t="s">
+      <c r="N68" s="32"/>
+      <c r="O68" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="P68" s="31"/>
+      <c r="P68" s="32"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A69" s="2"/>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31" t="s">
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
       <c r="K69" s="24" t="s">
         <v>181</v>
       </c>
@@ -11735,6 +12214,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="O47:P47"/>
@@ -11751,14 +12238,6 @@
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12895,40 +13374,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="16" t="s">
         <v>131</v>
       </c>
@@ -13637,40 +14116,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="13" t="s">
         <v>131</v>
       </c>
@@ -15039,40 +15518,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="11" t="s">
         <v>131</v>
       </c>
@@ -16598,18 +17077,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A99D003D-DD4B-4D69-AA20-A8699621672A}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6583AAC5-03F1-4B1F-9FCF-6647AE91086E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,6 +879,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,7 +898,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="B26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.65">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="32" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.65">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1835,15 +1835,15 @@
         <v>2971.243348</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40:G53" si="3">C40/B40</f>
+        <f t="shared" ref="G40:G50" si="3">C40/B40</f>
         <v>0.81691181033286286</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" ref="H40:H53" si="4">D40/B40</f>
+        <f t="shared" ref="H40:H50" si="4">D40/B40</f>
         <v>0.95878780137579522</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" ref="I40:I53" si="5">E40/B40</f>
+        <f t="shared" ref="I40:I50" si="5">E40/B40</f>
         <v>0.81095050846465078</v>
       </c>
     </row>
@@ -2222,18 +2222,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B2" s="6" t="s">
@@ -2638,18 +2638,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
@@ -3159,62 +3159,62 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="3"/>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37" t="s">
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="37" t="s">
+      <c r="L61" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37" t="s">
+      <c r="C62" s="38"/>
+      <c r="D62" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37" t="s">
+      <c r="E62" s="38"/>
+      <c r="F62" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37" t="s">
+      <c r="G62" s="38"/>
+      <c r="H62" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37" t="s">
+      <c r="I62" s="38"/>
+      <c r="J62" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37" t="s">
+      <c r="K62" s="38"/>
+      <c r="L62" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37" t="s">
+      <c r="M62" s="38"/>
+      <c r="N62" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37" t="s">
+      <c r="O62" s="38"/>
+      <c r="P62" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="37"/>
+      <c r="Q62" s="38"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B63" s="6" t="s">
@@ -3612,52 +3612,52 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37" t="s">
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="37"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="37"/>
-      <c r="O112" s="37"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="38"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37" t="s">
+      <c r="C113" s="38"/>
+      <c r="D113" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37" t="s">
+      <c r="E113" s="38"/>
+      <c r="F113" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37" t="s">
+      <c r="G113" s="38"/>
+      <c r="H113" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I113" s="37"/>
+      <c r="I113" s="38"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
-      <c r="L113" s="37" t="s">
+      <c r="L113" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="M113" s="37"/>
-      <c r="N113" s="37" t="s">
+      <c r="M113" s="38"/>
+      <c r="N113" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O113" s="37"/>
+      <c r="O113" s="38"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A114" s="1" t="s">
@@ -3830,6 +3830,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="N113:O113"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="H112:O112"/>
@@ -3843,18 +3855,6 @@
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="L113:M113"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7334,33 +7334,33 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="32" t="s">
+      <c r="L5" s="35"/>
+      <c r="M5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="P5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
@@ -8415,36 +8415,36 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="32" t="s">
+      <c r="L25" s="35"/>
+      <c r="M25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32" t="s">
+      <c r="N25" s="33"/>
+      <c r="O25" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="32"/>
+      <c r="P25" s="33"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" s="2"/>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="24" t="s">
         <v>181</v>
       </c>
@@ -9541,36 +9541,36 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L47" s="34"/>
-      <c r="M47" s="32" t="s">
+      <c r="L47" s="35"/>
+      <c r="M47" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32" t="s">
+      <c r="N47" s="33"/>
+      <c r="O47" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="P47" s="32"/>
+      <c r="P47" s="33"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48" s="2"/>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32" t="s">
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32" t="s">
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
       <c r="K48" s="24" t="s">
         <v>181</v>
       </c>
@@ -10660,36 +10660,36 @@
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="K68" s="33" t="s">
+      <c r="K68" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L68" s="34"/>
-      <c r="M68" s="32" t="s">
+      <c r="L68" s="35"/>
+      <c r="M68" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32" t="s">
+      <c r="N68" s="33"/>
+      <c r="O68" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="P68" s="32"/>
+      <c r="P68" s="33"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A69" s="2"/>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32" t="s">
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32" t="s">
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
       <c r="K69" s="24" t="s">
         <v>181</v>
       </c>
@@ -12214,14 +12214,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="O47:P47"/>
@@ -12238,6 +12230,14 @@
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13374,40 +13374,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="16" t="s">
         <v>131</v>
       </c>
@@ -14116,40 +14116,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="13" t="s">
         <v>131</v>
       </c>
@@ -15518,40 +15518,40 @@
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="11" t="s">
         <v>131</v>
       </c>
@@ -17077,18 +17077,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">

--- a/postgres.xlsx
+++ b/postgres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6583AAC5-03F1-4B1F-9FCF-6647AE91086E}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="11_B1CF9780C377B6EE0174307E9F6E61CCA098CD3F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8A6C1A98-17CA-4CE6-88F0-A57306F2E21A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2880A763-3C60-4ECB-92B6-1917CF6D970B}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1730,6 +1730,36 @@
         <v>0.56374615812400097</v>
       </c>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B27" s="26">
+        <f>B19-B11</f>
+        <v>17806026.328082003</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" ref="C27:E27" si="3">C19-C11</f>
+        <v>8190206.5444020005</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="3"/>
+        <v>17625318.953570001</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="3"/>
+        <v>7952421.7146480009</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27" si="4">C27/B27</f>
+        <v>0.45996823735373071</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" ref="H27" si="5">D27/B27</f>
+        <v>0.98985133621716559</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" ref="I27" si="6">E27/B27</f>
+        <v>0.44661406021320904</v>
+      </c>
+    </row>
     <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="32" t="s">
         <v>215</v>
@@ -1835,15 +1865,15 @@
         <v>2971.243348</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40:G50" si="3">C40/B40</f>
+        <f t="shared" ref="G40:G50" si="7">C40/B40</f>
         <v>0.81691181033286286</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" ref="H40:H50" si="4">D40/B40</f>
+        <f t="shared" ref="H40:H50" si="8">D40/B40</f>
         <v>0.95878780137579522</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" ref="I40:I50" si="5">E40/B40</f>
+        <f t="shared" ref="I40:I50" si="9">E40/B40</f>
         <v>0.81095050846465078</v>
       </c>
     </row>
@@ -1864,15 +1894,15 @@
         <v>219758.525043</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.64022955295932538</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.975825259794461</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.64314094913201436</v>
       </c>
     </row>
@@ -1893,15 +1923,15 @@
         <v>1237.779393</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.91112725456801102</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0037172250966602</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91955057239038729</v>
       </c>
     </row>
@@ -1922,15 +1952,15 @@
         <v>63574.901319999997</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.91532477704055981</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99899683717147569</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.92300869201530844</v>
       </c>
     </row>
@@ -1951,15 +1981,15 @@
         <v>1366.5624150000001</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0524499468807342</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37342014860963324</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.4382394441558965</v>
       </c>
     </row>
@@ -1980,15 +2010,15 @@
         <v>98988.183262999999</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.90695763279314623</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.44724922538301487</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.43605367901169673</v>
       </c>
     </row>
@@ -2009,15 +2039,15 @@
         <v>228864.61869800001</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.82081495548697525</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.44140742048297521</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.39210719023747326</v>
       </c>
     </row>
@@ -2038,15 +2068,15 @@
         <v>13812086.979924999</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.57842825835909573</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.96923519014618165</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.54495199564511443</v>
       </c>
     </row>
@@ -2067,15 +2097,15 @@
         <v>8613256.2012200002</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.31002887462538514</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99041312867122777</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.29980554439311319</v>
       </c>
     </row>
@@ -2096,15 +2126,15 @@
         <v>2771758.4381030002</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0000816558384438</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99968067073470801</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9986854072181216</v>
       </c>
     </row>
@@ -2125,15 +2155,15 @@
         <v>640757.26869699999</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.63101773434815267</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.96123729437690075</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.6171972543205686</v>
       </c>
     </row>
@@ -3830,18 +3860,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="N113:O113"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="H112:O112"/>
@@ -3855,6 +3873,18 @@
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="L113:M113"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12214,6 +12244,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="O47:P47"/>
@@ -12230,14 +12268,6 @@
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
